--- a/only_services.xlsx
+++ b/only_services.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="543">
   <si>
     <t>Folio</t>
   </si>
@@ -49,57 +49,6 @@
     <t>Testimonio</t>
   </si>
   <si>
-    <t>SERV01842</t>
-  </si>
-  <si>
-    <t>SERV01878</t>
-  </si>
-  <si>
-    <t>SERV01888</t>
-  </si>
-  <si>
-    <t>SERV01902</t>
-  </si>
-  <si>
-    <t>SERV01951</t>
-  </si>
-  <si>
-    <t>SERV01978</t>
-  </si>
-  <si>
-    <t>SERV01979</t>
-  </si>
-  <si>
-    <t>SERV01981</t>
-  </si>
-  <si>
-    <t>SERV01988</t>
-  </si>
-  <si>
-    <t>SERV01992</t>
-  </si>
-  <si>
-    <t>SERV01993</t>
-  </si>
-  <si>
-    <t>SERV01994</t>
-  </si>
-  <si>
-    <t>SERV01996</t>
-  </si>
-  <si>
-    <t>SERV01999</t>
-  </si>
-  <si>
-    <t>SERV02011</t>
-  </si>
-  <si>
-    <t>SERV02012</t>
-  </si>
-  <si>
-    <t>SERV02013</t>
-  </si>
-  <si>
     <t>SERV02015</t>
   </si>
   <si>
@@ -193,6 +142,9 @@
     <t>SERV02053</t>
   </si>
   <si>
+    <t>SERV02054</t>
+  </si>
+  <si>
     <t>SERV02055</t>
   </si>
   <si>
@@ -217,6 +169,9 @@
     <t>SERV02064</t>
   </si>
   <si>
+    <t>SERV02067</t>
+  </si>
+  <si>
     <t>SERV02068</t>
   </si>
   <si>
@@ -241,6 +196,9 @@
     <t>SERV02075</t>
   </si>
   <si>
+    <t>SERV02076</t>
+  </si>
+  <si>
     <t>SERV02077</t>
   </si>
   <si>
@@ -274,9 +232,15 @@
     <t>SERV02090</t>
   </si>
   <si>
+    <t>SERV02091</t>
+  </si>
+  <si>
     <t>SERV02092</t>
   </si>
   <si>
+    <t>SERV02093</t>
+  </si>
+  <si>
     <t>SERV02094</t>
   </si>
   <si>
@@ -310,6 +274,12 @@
     <t>SERV02104</t>
   </si>
   <si>
+    <t>SERV02106</t>
+  </si>
+  <si>
+    <t>SERV02107</t>
+  </si>
+  <si>
     <t>SERV02108</t>
   </si>
   <si>
@@ -319,9 +289,6 @@
     <t>SERV02110</t>
   </si>
   <si>
-    <t>SERV02111</t>
-  </si>
-  <si>
     <t>SERV02112</t>
   </si>
   <si>
@@ -334,262 +301,346 @@
     <t>SERV02115</t>
   </si>
   <si>
+    <t>SERV02116</t>
+  </si>
+  <si>
     <t>SERV02118</t>
   </si>
   <si>
     <t>SERV02120</t>
   </si>
   <si>
+    <t>SERV02121</t>
+  </si>
+  <si>
+    <t>SERV02124</t>
+  </si>
+  <si>
+    <t>SERV02125</t>
+  </si>
+  <si>
     <t>SERV02127</t>
   </si>
   <si>
     <t>SERV02129</t>
   </si>
   <si>
+    <t>SERV02130</t>
+  </si>
+  <si>
+    <t>SERV02131</t>
+  </si>
+  <si>
+    <t>SERV02132</t>
+  </si>
+  <si>
     <t>SERV02133</t>
   </si>
   <si>
     <t>SERV02134</t>
   </si>
   <si>
+    <t>SERV02135</t>
+  </si>
+  <si>
     <t>SERV02136</t>
   </si>
   <si>
+    <t>SERV02137</t>
+  </si>
+  <si>
     <t>SERV02138</t>
   </si>
   <si>
+    <t>SERV02139</t>
+  </si>
+  <si>
+    <t>SERV02140</t>
+  </si>
+  <si>
     <t>SERV02141</t>
   </si>
   <si>
+    <t>SERV02143</t>
+  </si>
+  <si>
+    <t>SERV02144</t>
+  </si>
+  <si>
     <t>SERV02146</t>
   </si>
   <si>
+    <t>SERV02147</t>
+  </si>
+  <si>
+    <t>SERV02148</t>
+  </si>
+  <si>
     <t>SERV02150</t>
   </si>
   <si>
-    <t>RAUL OSCAR RAMIREZ ZAMORA</t>
-  </si>
-  <si>
-    <t>GUSTAVO MORALES TAPIA</t>
-  </si>
-  <si>
-    <t>OSVALDO CRUZ NARANJO</t>
-  </si>
-  <si>
-    <t>SISTEMA DESARROLLADOR DE MYPES</t>
-  </si>
-  <si>
-    <t>Arcides Felix</t>
+    <t>SERV02151</t>
+  </si>
+  <si>
+    <t>SERV02152</t>
+  </si>
+  <si>
+    <t>SERV02154</t>
+  </si>
+  <si>
+    <t>SERV02155</t>
+  </si>
+  <si>
+    <t>SERV02156</t>
+  </si>
+  <si>
+    <t>SERV02160</t>
+  </si>
+  <si>
+    <t>SERV02161</t>
+  </si>
+  <si>
+    <t>SERV02162</t>
+  </si>
+  <si>
+    <t>SERV02163</t>
+  </si>
+  <si>
+    <t>SERV02164</t>
+  </si>
+  <si>
+    <t>SERV02165</t>
+  </si>
+  <si>
+    <t>SERV02166</t>
+  </si>
+  <si>
+    <t>SERV02167</t>
+  </si>
+  <si>
+    <t>SERV02168</t>
+  </si>
+  <si>
+    <t>SERV02169</t>
+  </si>
+  <si>
+    <t>SERV02170</t>
+  </si>
+  <si>
+    <t>SERV02171</t>
+  </si>
+  <si>
+    <t>SERV02172</t>
+  </si>
+  <si>
+    <t>SERV02173</t>
+  </si>
+  <si>
+    <t>SERV02174</t>
+  </si>
+  <si>
+    <t>SERV02175</t>
+  </si>
+  <si>
+    <t>SERV02182</t>
+  </si>
+  <si>
+    <t>SERV02185</t>
+  </si>
+  <si>
+    <t>JOSE OSVALDO ORRANTI ORTEGA</t>
+  </si>
+  <si>
+    <t>PAOLA BANDA ARIAS</t>
+  </si>
+  <si>
+    <t>ANGELES AYALA</t>
+  </si>
+  <si>
+    <t>JUAN MANUEL CARRANZA</t>
+  </si>
+  <si>
+    <t>JENARO MELGAREJO BERNAL</t>
+  </si>
+  <si>
+    <t>ESTEFANIA GOMEZ</t>
+  </si>
+  <si>
+    <t>JAZMIN ENRIGUE</t>
+  </si>
+  <si>
+    <t>PERLA NEREIDA GONZALEZ RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>DAVID ARCE</t>
+  </si>
+  <si>
+    <t>KEVIN HERNANDEZ CUESTAS</t>
+  </si>
+  <si>
+    <t>CARMEN MELGAREJO</t>
+  </si>
+  <si>
+    <t>EMILIO PAEZ</t>
+  </si>
+  <si>
+    <t>DISEÑO Y CONSTRUCCION DIZA</t>
+  </si>
+  <si>
+    <t>KAREN RESENDIZ MORALES</t>
+  </si>
+  <si>
+    <t>KEVIN ANTONIO MARTINEZ MARTINEZ</t>
+  </si>
+  <si>
+    <t>natalia escobar</t>
+  </si>
+  <si>
+    <t>Francisco Garcia Vargas</t>
+  </si>
+  <si>
+    <t>JUAN CARLOS AVILES MORALES</t>
+  </si>
+  <si>
+    <t>BRANDON FRANCISCO LOPEZ BASURTO</t>
+  </si>
+  <si>
+    <t>BERTHA ANA GONZALEZ RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>JUAN GARCIA MORENO</t>
+  </si>
+  <si>
+    <t>RAFAEL GUTIERREZ FONSECA</t>
+  </si>
+  <si>
+    <t>ALF MALMSTEN</t>
+  </si>
+  <si>
+    <t>LUIS ZUNIGA</t>
+  </si>
+  <si>
+    <t>LEONARDO VAZQUEZ RANGEL</t>
+  </si>
+  <si>
+    <t>SOLUCIONES INTEGRALES Y TECNOLOGIA EN SISTEMAS</t>
+  </si>
+  <si>
+    <t>MAURICIO SANCHEZ MARTINEZ</t>
+  </si>
+  <si>
+    <t>ISMAEL HERNANDEZ ESTRADA</t>
+  </si>
+  <si>
+    <t>JESUS DANIEL CHINCOYA PATIÑO</t>
+  </si>
+  <si>
+    <t>PATRICIA RAMIREZ JAMILLO</t>
+  </si>
+  <si>
+    <t>PUBLICO EN GENERAL</t>
+  </si>
+  <si>
+    <t>ALFREDO HERNANDEZ GONZALEZ</t>
+  </si>
+  <si>
+    <t>JUAN PABLO ESCOBAR</t>
+  </si>
+  <si>
+    <t>VICTOR GUTIERREZ POSADA</t>
+  </si>
+  <si>
+    <t>JORGE ALBERTO MARQUEZ RAMIREZ</t>
+  </si>
+  <si>
+    <t>JORGE ALBERTO FLORES RAMOS</t>
+  </si>
+  <si>
+    <t>ESTEFANIA RAMOS MARINEZ</t>
+  </si>
+  <si>
+    <t>ALMA DELIA YAÑEZ YAÑEZ</t>
+  </si>
+  <si>
+    <t>RODRIGO GARCIA</t>
+  </si>
+  <si>
+    <t>JAVIER RAMIREZ GARCIA</t>
+  </si>
+  <si>
+    <t>VICTOR HUGO CASTELLANOS NUÑEZ</t>
+  </si>
+  <si>
+    <t>ESPECIALISTAS EN CAD</t>
+  </si>
+  <si>
+    <t>JOSE LUIS  MARTINEZ GONZALEZ</t>
+  </si>
+  <si>
+    <t>FELIPE ARREOLA OLVERA</t>
+  </si>
+  <si>
+    <t>CARLOS ALBERTO MORENO CISNEROS</t>
+  </si>
+  <si>
+    <t>MA DEL CARMEN GONZALEZ DOMINGUEZ</t>
+  </si>
+  <si>
+    <t>GERARDO BARRERA DIAZ</t>
+  </si>
+  <si>
+    <t>EXI BAJIO</t>
+  </si>
+  <si>
+    <t>SISTEMAS ESPECIALIZADOS DE DIAGNOSTICO</t>
+  </si>
+  <si>
+    <t>RAQUEL CONTRERAS</t>
+  </si>
+  <si>
+    <t>Guadalupe Resendiz Pichardo</t>
+  </si>
+  <si>
+    <t>MARCO ANTONIO NUÑEZ SANTAMARIA</t>
+  </si>
+  <si>
+    <t>DARIO HERNADEZ</t>
+  </si>
+  <si>
+    <t>AXON INTERCONEX</t>
+  </si>
+  <si>
+    <t>LUIS ARVIZU</t>
+  </si>
+  <si>
+    <t>manolo Ugalde</t>
+  </si>
+  <si>
+    <t>SOFIA VICTORIA GOMEZ</t>
+  </si>
+  <si>
+    <t>DANIELA PAOLA PALACIOS RITO</t>
+  </si>
+  <si>
+    <t>MARCELINO MARROQUIN HERNANDEZ</t>
   </si>
   <si>
     <t>TDR TRANSPORTES</t>
   </si>
   <si>
-    <t>HECTOR COLMENARES GGC NEVADA</t>
-  </si>
-  <si>
-    <t>CRISTIAN ORBE GALLARDO</t>
-  </si>
-  <si>
-    <t>MARIO RUIZ ANAYA</t>
-  </si>
-  <si>
-    <t>AB RADAR</t>
-  </si>
-  <si>
-    <t>Erick Escobedo</t>
-  </si>
-  <si>
-    <t>JORGE HERNANDEZ TOVAR</t>
-  </si>
-  <si>
-    <t>Maria de los Angeles Ayala Vazquez</t>
-  </si>
-  <si>
-    <t>JULIO JAIRO GOMEZ ALVARADO</t>
-  </si>
-  <si>
-    <t>JOSE OSVALDO ORRANTI ORTEGA</t>
-  </si>
-  <si>
-    <t>PAOLA BANDA ARIAS</t>
-  </si>
-  <si>
-    <t>ANGELES AYALA</t>
-  </si>
-  <si>
-    <t>JUAN MANUEL CARRANZA</t>
-  </si>
-  <si>
-    <t>JENARO MELGAREJO BERNAL</t>
-  </si>
-  <si>
-    <t>ESTEFANIA GOMEZ</t>
-  </si>
-  <si>
-    <t>JAZMIN ENRIGUE</t>
-  </si>
-  <si>
-    <t>PERLA NEREIDA GONZALEZ RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>DAVID ARCE</t>
-  </si>
-  <si>
-    <t>KEVIN HERNANDEZ CUESTAS</t>
-  </si>
-  <si>
-    <t>CARMEN MELGAREJO</t>
-  </si>
-  <si>
-    <t>EMILIO PAEZ</t>
-  </si>
-  <si>
-    <t>DISEÑO Y CONSTRUCCION DIZA</t>
-  </si>
-  <si>
-    <t>KAREN RESENDIZ MORALES</t>
-  </si>
-  <si>
-    <t>KEVIN ANTONIO MARTINEZ MARTINEZ</t>
-  </si>
-  <si>
-    <t>natalia escobar</t>
-  </si>
-  <si>
-    <t>Francisco Garcia Vargas</t>
-  </si>
-  <si>
-    <t>JUAN CARLOS AVILES MORALES</t>
-  </si>
-  <si>
-    <t>BRANDON FRANCISCO LOPEZ BASURTO</t>
-  </si>
-  <si>
-    <t>BERTHA ANA GONZALEZ RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>JUAN GARCIA MORENO</t>
-  </si>
-  <si>
-    <t>RAFAEL GUTIERREZ FONSECA</t>
-  </si>
-  <si>
-    <t>ALF MALMSTEN</t>
-  </si>
-  <si>
-    <t>LUIS ZUNIGA</t>
-  </si>
-  <si>
-    <t>LEONARDO VAZQUEZ RANGEL</t>
-  </si>
-  <si>
-    <t>SOLUCIONES INTEGRALES Y TECNOLOGIA EN SISTEMAS</t>
-  </si>
-  <si>
-    <t>MAURICIO SANCHEZ MARTINEZ</t>
-  </si>
-  <si>
-    <t>ISMAEL HERNANDEZ ESTRADA</t>
-  </si>
-  <si>
-    <t>JESUS DANIEL CHINCOYA PATIÑO</t>
-  </si>
-  <si>
-    <t>PATRICIA RAMIREZ JAMILLO</t>
-  </si>
-  <si>
-    <t>PUBLICO EN GENERAL</t>
-  </si>
-  <si>
-    <t>ALFREDO HERNANDEZ GONZALEZ</t>
-  </si>
-  <si>
-    <t>JUAN PABLO ESCOBAR</t>
-  </si>
-  <si>
-    <t>VICTOR GUTIERREZ POSADA</t>
-  </si>
-  <si>
-    <t>JORGE ALBERTO FLORES RAMOS</t>
-  </si>
-  <si>
-    <t>ESTEFANIA RAMOS MARINEZ</t>
-  </si>
-  <si>
-    <t>ALMA DELIA YAÑEZ YAÑEZ</t>
-  </si>
-  <si>
-    <t>RODRIGO GARCIA</t>
-  </si>
-  <si>
-    <t>JAVIER RAMIREZ GARCIA</t>
-  </si>
-  <si>
-    <t>VICTOR HUGO CASTELLANOS NUÑEZ</t>
-  </si>
-  <si>
-    <t>ESPECIALISTAS EN CAD</t>
-  </si>
-  <si>
-    <t>FELIPE ARREOLA OLVERA</t>
-  </si>
-  <si>
-    <t>CARLOS ALBERTO MORENO CISNEROS</t>
-  </si>
-  <si>
-    <t>MA DEL CARMEN GONZALEZ DOMINGUEZ</t>
-  </si>
-  <si>
-    <t>GERARDO BARRERA DIAZ</t>
-  </si>
-  <si>
-    <t>EXI BAJIO</t>
-  </si>
-  <si>
-    <t>SISTEMAS ESPECIALIZADOS DE DIAGNOSTICO</t>
-  </si>
-  <si>
-    <t>RAQUEL CONTRERAS</t>
-  </si>
-  <si>
-    <t>Guadalupe Resendiz Pichardo</t>
-  </si>
-  <si>
-    <t>MARCO ANTONIO NUÑEZ SANTAMARIA</t>
-  </si>
-  <si>
-    <t>DARIO HERNADEZ</t>
-  </si>
-  <si>
-    <t>LUIS ARVIZU</t>
-  </si>
-  <si>
-    <t>manolo Ugalde</t>
-  </si>
-  <si>
-    <t>SOFIA VICTORIA GOMEZ</t>
-  </si>
-  <si>
-    <t>DANIELA PAOLA PALACIOS RITO</t>
-  </si>
-  <si>
-    <t>MARCELINO MARROQUIN HERNANDEZ</t>
-  </si>
-  <si>
     <t>J.SANTOS HERRERA GARCIA</t>
   </si>
   <si>
+    <t>JESUS NICOLAS ALVAREZ ROSALES</t>
+  </si>
+  <si>
     <t>INGEX</t>
   </si>
   <si>
     <t>Wendy Ramirez</t>
   </si>
   <si>
-    <t>JESUS ALBERTO RESENDIZ GONZALEZ</t>
-  </si>
-  <si>
-    <t>LUIS CARLOS ALONSO</t>
+    <t>LUIS CARLOS ALONSO LOPEZ</t>
   </si>
   <si>
     <t>Baruc Rosas</t>
@@ -601,78 +652,120 @@
     <t>CARLOS ROBERTO NAVARRO GUERRERO</t>
   </si>
   <si>
+    <t>Emma Miranda</t>
+  </si>
+  <si>
     <t>DIEGO GAEL MONDRAGON GARDUÑO</t>
   </si>
   <si>
+    <t>ARTURO LUIS MUÑOZ MENA</t>
+  </si>
+  <si>
+    <t>MIZRAIM VALTIERRA ESPINO</t>
+  </si>
+  <si>
     <t>CONTENEDORES Y QUIMICOS DE MEXICO</t>
   </si>
   <si>
+    <t>ANGELICA IBARRA GAONA</t>
+  </si>
+  <si>
+    <t>RICARDO FRAGOSO</t>
+  </si>
+  <si>
     <t>DANIELA HERNANDEZ FRANCO</t>
   </si>
   <si>
     <t>GERARDO ARANDA FERNANDEZ</t>
   </si>
   <si>
+    <t>KATIA FRANCO ROMAN</t>
+  </si>
+  <si>
+    <t>EMILIO CRUZ PEREZ</t>
+  </si>
+  <si>
     <t>SG RECUBRIMIENTOS INDUSTRIALES</t>
   </si>
   <si>
+    <t>URIEL RIVERA RAMIREZ</t>
+  </si>
+  <si>
     <t>OMAR LLACA GONZALEZ</t>
   </si>
   <si>
+    <t>JUAN CARLOS LOPEZ CRUZ</t>
+  </si>
+  <si>
     <t>MIGUEL ANGEL GONZALEZ RUIZ</t>
   </si>
   <si>
+    <t>MARIO ADRIAN TINAJERO HERNANDEZ</t>
+  </si>
+  <si>
     <t>ALEJANDRO GODINEZ</t>
   </si>
   <si>
-    <t>442 481 0303</t>
-  </si>
-  <si>
-    <t>4442724185</t>
-  </si>
-  <si>
-    <t>4422086784</t>
-  </si>
-  <si>
-    <t>4271067882</t>
-  </si>
-  <si>
-    <t>4422498123</t>
-  </si>
-  <si>
-    <t>442 350 0838</t>
-  </si>
-  <si>
-    <t>4424266609</t>
-  </si>
-  <si>
-    <t>4421130676</t>
-  </si>
-  <si>
-    <t>442 874 9708</t>
-  </si>
-  <si>
-    <t>4421190711</t>
-  </si>
-  <si>
-    <t>442 186 2370</t>
-  </si>
-  <si>
-    <t>4421173643</t>
+    <t>VICTOR MANUEL GONZALEZ TREJO</t>
+  </si>
+  <si>
+    <t>Juan Antonio Medina Everardo</t>
+  </si>
+  <si>
+    <t>Pixel</t>
+  </si>
+  <si>
+    <t>DYA MANUFACTURAS</t>
+  </si>
+  <si>
+    <t>ZR INGENIERIA EN MAQUINADOS Y REFACCIONES INDUSTRIALES DEL BAJIO</t>
+  </si>
+  <si>
+    <t>GERMAN BANDALA ROANO</t>
+  </si>
+  <si>
+    <t>KATYA CHAVEZ RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>JONATHAN ZAMUDIO</t>
+  </si>
+  <si>
+    <t>pixel</t>
+  </si>
+  <si>
+    <t>ALMA KARINA AVILA MACIAS</t>
+  </si>
+  <si>
+    <t>MANTENIMIENTO Y EQUIPO DE BAJA CALIFORNIA</t>
+  </si>
+  <si>
+    <t>ARARAT AlVALADO LLAMAS</t>
+  </si>
+  <si>
+    <t>RICARDO BALDERAS</t>
+  </si>
+  <si>
+    <t>GS TURBOENERGY</t>
+  </si>
+  <si>
+    <t>PURIFIKA</t>
+  </si>
+  <si>
+    <t>ALBERTO OLGUIN JURADO</t>
+  </si>
+  <si>
+    <t>WOLFTEQ S&amp;T</t>
+  </si>
+  <si>
+    <t>473 737 5216</t>
+  </si>
+  <si>
+    <t>4421206232</t>
   </si>
   <si>
     <t>4421766380</t>
   </si>
   <si>
-    <t>4411019934</t>
-  </si>
-  <si>
-    <t>473 737 5216</t>
-  </si>
-  <si>
-    <t>4421206232</t>
-  </si>
-  <si>
     <t>4424053736</t>
   </si>
   <si>
@@ -766,6 +859,9 @@
     <t>5518806638</t>
   </si>
   <si>
+    <t>4423591205</t>
+  </si>
+  <si>
     <t>2464762276</t>
   </si>
   <si>
@@ -787,6 +883,9 @@
     <t>Sin numero</t>
   </si>
   <si>
+    <t>4424753889</t>
+  </si>
+  <si>
     <t>4421437018</t>
   </si>
   <si>
@@ -838,6 +937,9 @@
     <t>4425543667</t>
   </si>
   <si>
+    <t>7731708189</t>
+  </si>
+  <si>
     <t>4423458758</t>
   </si>
   <si>
@@ -847,9 +949,6 @@
     <t>4423792842</t>
   </si>
   <si>
-    <t>4131437034</t>
-  </si>
-  <si>
     <t>4423456583</t>
   </si>
   <si>
@@ -862,65 +961,97 @@
     <t>4427953245</t>
   </si>
   <si>
+    <t>4424099648</t>
+  </si>
+  <si>
     <t>4481050593</t>
   </si>
   <si>
+    <t>4427215694</t>
+  </si>
+  <si>
+    <t>4191204474</t>
+  </si>
+  <si>
+    <t>4424573400</t>
+  </si>
+  <si>
+    <t>4613246694</t>
+  </si>
+  <si>
     <t>4428241971</t>
   </si>
   <si>
     <t>4423821834</t>
   </si>
   <si>
+    <t>4423598644</t>
+  </si>
+  <si>
+    <t>4423527369</t>
+  </si>
+  <si>
     <t>442 219 3574</t>
   </si>
   <si>
+    <t>4425780560</t>
+  </si>
+  <si>
     <t>4422197332</t>
   </si>
   <si>
+    <t>7122251638</t>
+  </si>
+  <si>
     <t>4423832337</t>
   </si>
   <si>
+    <t>4422367562</t>
+  </si>
+  <si>
     <t>5540032465</t>
   </si>
   <si>
-    <t>Diagnostico - 0.0</t>
-  </si>
-  <si>
-    <t>Garantía - 0.0</t>
-  </si>
-  <si>
-    <t>SSD SATA 2.5  120GB - 181.9</t>
-  </si>
-  <si>
-    <t>Ventilador izquierdo para DELL G15 5515 Nuevo - 918.1
-Envío - 62.0</t>
-  </si>
-  <si>
-    <t>Bateria OEM para Lenovo X270 48 Wh 10.8v - 197.413793</t>
+    <t>4426686592</t>
+  </si>
+  <si>
+    <t>4423227417</t>
+  </si>
+  <si>
+    <t>4423354501</t>
+  </si>
+  <si>
+    <t>4274274445</t>
+  </si>
+  <si>
+    <t>4421428283</t>
+  </si>
+  <si>
+    <t>4461208348</t>
+  </si>
+  <si>
+    <t>4272909007</t>
+  </si>
+  <si>
+    <t>4425599460</t>
+  </si>
+  <si>
+    <t>4422303189</t>
+  </si>
+  <si>
+    <t>4423869632</t>
+  </si>
+  <si>
+    <t>9511646522</t>
+  </si>
+  <si>
+    <t>4141079025</t>
+  </si>
+  <si>
+    <t>4423324841</t>
   </si>
   <si>
     <t>Mantenimiento general - 250.0</t>
-  </si>
-  <si>
-    <t>Mantenimiento general - 250.0
-Teclado para HP Elitebook 840 G3 sin trackpoint - 918.1</t>
-  </si>
-  <si>
-    <t>SSD M.2  NVME 1TB - 1412.93</t>
-  </si>
-  <si>
-    <t>SSD SATA 2.5  120GB - 181.9
-Memoria RAM DDR4 4GB laptop - 500.0
-Caddy para disco externo - 60.344</t>
-  </si>
-  <si>
-    <t>Bateria OEM para HP 15-ab 14.4v 32Wh - 197.413793</t>
-  </si>
-  <si>
-    <t>SSD SATA 2.5  256GB - 650.86</t>
-  </si>
-  <si>
-    <t>Memoria RAM DDR3 4GB laptop - 284.48</t>
   </si>
   <si>
     <t>SSD SATA 2.5  1TB - 850.0</t>
@@ -952,11 +1083,20 @@
 Mantenimiento general - 250.0</t>
   </si>
   <si>
-    <t>FUENTE DE PODER 750 PYLON - 918.1
+    <t>SSD SATA 2.5  120GB - 181.9</t>
+  </si>
+  <si>
+    <t>Garantía - 0.0</t>
+  </si>
+  <si>
+    <t>FUENTE DE PODER 750 PYLON - 1270.2
 Mantenimiento general - 250.0</t>
   </si>
   <si>
     <t>Reinstalación Sistema Operativo - 250.0</t>
+  </si>
+  <si>
+    <t>Diagnostico - 0.0</t>
   </si>
   <si>
     <t>Instalación AUTCAD INGLES, SOLID Y ACTIVAR WINDOWS - 300.0</t>
@@ -969,7 +1109,10 @@
     <t>Bateria OEM para HP Pavilion 15-cw1xx 41Wh - 197.413793</t>
   </si>
   <si>
-    <t>Bateria OEM para Toshiba S55t-B 32Wh - 918.1</t>
+    <t>Bateria OEM para Toshiba S55t-B 32Wh - 1270.2</t>
+  </si>
+  <si>
+    <t>Refacción diversa (especificar) - 1270.2</t>
   </si>
   <si>
     <t>SSD M.2  NVME 256GB - 400.0</t>
@@ -978,7 +1121,10 @@
     <t>Instalación Office pro plus - 150.0</t>
   </si>
   <si>
-    <t>Teclado en Español para T430 Sin Retroiluminación - 918.1</t>
+    <t>SSD M.2  NVME 1TB - 1412.93</t>
+  </si>
+  <si>
+    <t>Teclado en Español para T430 Sin Retroiluminación - 1270.2</t>
   </si>
   <si>
     <t>BATERIA OEM para Hp 15cw1012la41Wh - 197.413793
@@ -988,25 +1134,28 @@
     <t>Instalación Software - 300.0</t>
   </si>
   <si>
+    <t>SSD SATA 2.5  256GB - 650.86</t>
+  </si>
+  <si>
     <t>Cargador - 314.65517</t>
   </si>
   <si>
     <t>Diagnostico e instalación de impresora - 0.0</t>
   </si>
   <si>
-    <t>Refacción diversa (especificar) - 918.1</t>
-  </si>
-  <si>
     <t>Caddy para disco externo - 60.344</t>
   </si>
   <si>
-    <t>Cargador Asus 65W - 918.1</t>
+    <t>Cargador Asus 65W - 1270.2</t>
   </si>
   <si>
     <t>Drenado de energía - 250.0</t>
   </si>
   <si>
-    <t>cable de corriente trifasico - 918.1</t>
+    <t>Bateria OEM para DELL Inspiron E5570 62wh 7.6v 1 - 1270.2</t>
+  </si>
+  <si>
+    <t>cable de corriente trifasico - 1270.2</t>
   </si>
   <si>
     <t>Memoria DDR4 RAM 8GB laptop - 400.0</t>
@@ -1026,10 +1175,7 @@
 Mantenimiento general - 250.0</t>
   </si>
   <si>
-    <t>SSD M.2  NVME 500GB - 470.0</t>
-  </si>
-  <si>
-    <t>Bateria OEM para DELL Inspiron 15  7000 11.1v 43Wh - 918.1</t>
+    <t>Bateria OEM para DELL Inspiron 15  7000 11.1v 43Wh - 1270.2</t>
   </si>
   <si>
     <t>SSD SATA 2.5  500GB - 438.79
@@ -1037,61 +1183,79 @@
   </si>
   <si>
     <t>Instalación Software - 300.0
-Reparacion de tecla y trackpoint - 918.1</t>
+Reparacion de tecla y trackpoint - 1270.2</t>
   </si>
   <si>
     <t>Garantia Centro de Servicio - 0.0</t>
   </si>
   <si>
     <t>Teclado par Lenovo T570 en Español No
-retroiluminado - 918.1
+retroiluminado - 1270.2
 Teclado para Lenovo T460 en Español No
-retroiluminado - 918.1
-Display 14" LED 1366x768 Bisel Delgado - 918.1</t>
+retroiluminado - 1270.2
+Display 14" LED 1366x768 Bisel Delgado - 1270.2</t>
+  </si>
+  <si>
+    <t>Envío FEDEX - 191.0</t>
+  </si>
+  <si>
+    <t>SSD SATA 2.5  256GB - 650.86
+Bateria OEM para Acer Aspire A523 14.6v 32Wh - 1270.2</t>
+  </si>
+  <si>
+    <t>Drenado de energía y relocalización de memoria RAM - 250.0</t>
   </si>
   <si>
     <t>Instalacion de Autocad 2022 ingles y español - 300.0</t>
   </si>
   <si>
-    <t>Bateria OEM para HP 360 14-cd 11.4v 39 wh - 918.1</t>
+    <t>Bateria OEM para HP 360 14-cd 11.4v 39 wh - 1270.2</t>
+  </si>
+  <si>
+    <t>Ventilador de refrigeración para HP 15-cw y mano de obra de reemplazo - 1270.2
+Mantenimiento general - 250.0</t>
   </si>
   <si>
     <t>Bateria Lenovo YOGA E11 - 197.413793</t>
   </si>
   <si>
+    <t>BATERIA ORIGINAL DELL WDX0R 11.4v
+42 Wh - 1270.2</t>
+  </si>
+  <si>
+    <t>SSD M.2  NVME 256GB - 400.0
+Memoria DDR4 RAM 8GB laptop - 400.0</t>
+  </si>
+  <si>
+    <t>SSD SATA 2.5  1TB - 850.0
+Memoria DDR4 RAM 8GB laptop - 400.0</t>
+  </si>
+  <si>
+    <t>SSD SATA 2.5  500GB - 438.79
+Cargador Lenovo punta Caudrada 65W - 314.65517</t>
+  </si>
+  <si>
+    <t>MEMORIA RAM 32GB DDR4 LAPTOP - 1200.0</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
     <t>NO</t>
   </si>
   <si>
-    <t>SI</t>
-  </si>
-  <si>
     <t>Desconocido</t>
   </si>
   <si>
+    <t>SÍ</t>
+  </si>
+  <si>
+    <t>Facturada</t>
+  </si>
+  <si>
     <t>Cerrada</t>
   </si>
   <si>
-    <t>Facturada</t>
-  </si>
-  <si>
-    <t>OSVALDO CRUZ</t>
-  </si>
-  <si>
-    <t>PO00836</t>
-  </si>
-  <si>
-    <t>PO00935</t>
-  </si>
-  <si>
-    <t>PO00987</t>
-  </si>
-  <si>
-    <t>PO00934</t>
-  </si>
-  <si>
-    <t>ESMERALDA GOMEZ Y JAIRO GOMEZ</t>
-  </si>
-  <si>
     <t>PO00971</t>
   </si>
   <si>
@@ -1113,61 +1277,16 @@
     <t>PO00996</t>
   </si>
   <si>
+    <t>PO01034</t>
+  </si>
+  <si>
     <t>PO01035</t>
   </si>
   <si>
     <t>PO01030</t>
   </si>
   <si>
-    <t>LEVO T402S El equipo no enciende que se dejo de usar cierto tiempo</t>
-  </si>
-  <si>
-    <t>7 LEVO T440 falla en tocuhpad</t>
-  </si>
-  <si>
-    <t>HP PAVILION El equipo tarda en entrar a sistema y no deja entrar SO. Respaldo de escritorio, imágenes y documentos. Recomendar un cambio de estado solido de 128 de windows 10</t>
-  </si>
-  <si>
-    <t>VIN SI CARGADOR DELL G15 SE LE REALIZO UN PREDIAGSTICO DE CAMBIO DE ENTILADO</t>
-  </si>
-  <si>
-    <t>thinkpad x270 No enciende, parpadea el led de encendido y luego se apagar, le entró virus, se trato de limpiar pero luego fallo</t>
-  </si>
-  <si>
-    <t>Lenovo T480 cambio de bateria</t>
-  </si>
-  <si>
-    <t>HP ELITEBOOK 840 G3 No enciende la computadora</t>
-  </si>
-  <si>
-    <t>HP ELITEBOOK 840 G3 El teclado no le funciona</t>
-  </si>
-  <si>
-    <t>NA HP 24" AIO TOUCH REVISAR RUIDO EN VENTILADOR Y REALIZAR MANTENEMIENTO  EQUIPO  SE HA ABIERTO DESDE QUE SE COMPRÓ  1TB</t>
-  </si>
-  <si>
-    <t>VIN  DEJA CARGADOR LEVO T470S REALIZAR MANTENIMIENTO SIN FORMATEO</t>
-  </si>
-  <si>
-    <t>VIN  DEJA CARGADOR DELL INSPIRON 15 CHECAR EQUIPO Y DAR OPCIONES DE UPGRADE</t>
-  </si>
-  <si>
-    <t>VIN No hay problema, si el equipo se entrega en Enero HP PAVILION EL EQUIPO SE PONE EN MODO SUSPESION, TAMBIEN PRESENTA DAÑO DE VISAGRAS</t>
-  </si>
-  <si>
-    <t>VIN dejo cargador DELL G15 RYZEN EDITION No reacciona al brillo y diagnostico general</t>
-  </si>
-  <si>
-    <t>HP PAVILION 360 DIAGSTICO GENERAL PORQUE EL EQUIPO VA FUERA DEL PAIS</t>
-  </si>
-  <si>
-    <t>NA HP OMEN EQUIPO FLASHEA PANTALLA, HACER MANTENIMIENTO</t>
-  </si>
-  <si>
-    <t>NA YOGA E 11 SUBIR RAMY ACTUALIZAR</t>
-  </si>
-  <si>
-    <t>VIN SE RECIBIO EL DIA 27 DE DICIEMBRE LENOVO THINKPAD E490 USB DERECHO NO FUNCIONA, BATERIA DURA MENOS DE 1 HORA, LECTOR DE HUELLA NO FUNCIONA</t>
+    <t>PO01048</t>
   </si>
   <si>
     <t>T480 MANTENIMIENTO GENERAL y falla en el teclado con las teclas "T, Y y F3"Verificar el estado del ssistema operativo</t>
@@ -1260,6 +1379,9 @@
     <t>lenovo t450 formateo, verificar su velocidad del equipo y el estado del equipo en general</t>
   </si>
   <si>
+    <t>VIN DEJO CARGADOR lenovo twist s230 DIAGSTICO GENERAL ( FORMATEO). PRESENTA PANTALLA AZUL CUANDO SE USA</t>
+  </si>
+  <si>
     <t>Levo L570 cambio de estado solido 256 gb, revit, autocad, solidwork.</t>
   </si>
   <si>
@@ -1284,6 +1406,9 @@
     <t>VIN DEJO CARGADOR T 430 CAMBIO SSD A 1TB, VERIFICAR TECLADO  Y BOCINA</t>
   </si>
   <si>
+    <t>VIN NINGUNO 1NJQVA LENOVO THINKPAD X1 CARBON EQUIPO PRESENTA SALTOS EN BATERIA</t>
+  </si>
+  <si>
     <t>VIN AVISAR AL CLIENTE CAUNDO EL EQUIPO ESTE LISTO HP PAVILION 15CW1004LA CAMBIO DE BATERIA, EL EQUIPO SE LO LLEVARON PARA SOLICITAR LA BATERIA DEL EQUIPO JUNTO CON SU CARGADOR</t>
   </si>
   <si>
@@ -1308,6 +1433,9 @@
     <t>NUMERO CON VICTOR MERIDA LEVO X1 CARBON  SE ESCUCHA</t>
   </si>
   <si>
+    <t>dell latitude 5591 TECLADO ESTA PRESENTANDO FALLAS :</t>
+  </si>
+  <si>
     <t>HP ELITEBOOK 840 G3 Posible daño en el SO y respaldar archivos.</t>
   </si>
   <si>
@@ -1341,6 +1469,9 @@
     <t>ASUS FX505D Equipo tarda en encender después de varios intentos, no tiene el disco</t>
   </si>
   <si>
+    <t>00000 VIN Deja cargador DELL E5570 Checar con Daniel</t>
+  </si>
+  <si>
     <t>VIN CARGADOR LEVO IDEAPAD 520S  RECUERDAN LA CONTRASEÑA, FORMATEAR EL EQUIPO</t>
   </si>
   <si>
@@ -1371,6 +1502,12 @@
     <t>DELL  QR0053 CAMBIO A SSD 128GB</t>
   </si>
   <si>
+    <t>DELL PRECISION 5510 Visagras y el equipo no carga cuando la mantienes abierta y cuando la tienes cerrada si carga</t>
+  </si>
+  <si>
+    <t>OMEN HP Verificar la salud de la bateria, ya que el equipo  se apaga repentinamente y realizarle mantenimiento general</t>
+  </si>
+  <si>
     <t>MSI LAPTOP Daño de visagras, verificar salud de bateria si es recomendable realizar el cambio de esa misma</t>
   </si>
   <si>
@@ -1380,9 +1517,6 @@
     <t>VIN Dejo cargador,. HP OMEN El equipo se formateo por parte del cliente y le presenta pantallas azules y problemas al arranque</t>
   </si>
   <si>
-    <t>LEVO IDEPAD S340 El equipo tarda encender, presenta problemas de lentitud. Si el equipo puede tener espacio para dos disco instalar un ssd de 128GB. Pero solo tienen un espacio para un disco preguntar al cliente cual almacenamiento instalar</t>
-  </si>
-  <si>
     <t>DELL INPIRON 15 7000 SERIES cotizar bateria</t>
   </si>
   <si>
@@ -1395,34 +1529,142 @@
     <t>LEVO T460 AUTOCAD FALLANDO, TECLA 7 DAÑADA Y TRACKPOINT</t>
   </si>
   <si>
+    <t>Sony Vaio No entra a sistema</t>
+  </si>
+  <si>
     <t>YOGA E 11 instalacion de software que son: paqueteria adobe y office</t>
   </si>
   <si>
     <t>VIN DEJO CARGADOR acer falla en el usb y solidwork esta en ingles moverlo a español</t>
   </si>
   <si>
+    <t>VIN Cuidar la información del equipo M73 Al usar el equipo en un tiempo indeterminado muestra parpadeo de colores en la pantalla, se cambió la pantalla y los cables pero siguió haciendo lo mismo</t>
+  </si>
+  <si>
+    <t>VIN Puerto de red lo tiene salido yoga e11 El equipo se apaga repentinamente y cierra todas las aplicaciones.</t>
+  </si>
+  <si>
+    <t>E480 Se comenta que el equipo enciende el foco del encendido, pero no esta dando video y nos puede apagar</t>
+  </si>
+  <si>
     <t>000000 Dell Latitude E5470 Compra de</t>
   </si>
   <si>
     <t>Sra. police LEVO CAMBIO DE SSD 128GB</t>
   </si>
   <si>
+    <t>Lenovo thinkpad T480 Falla en bateria</t>
+  </si>
+  <si>
+    <t>ACER  ASPIRE A523 lENTITUD Y CAMBIAR A UN DISCO DE ESTADO SOLIO PARA VERIFICAR SU FUNCIONAMIENTO</t>
+  </si>
+  <si>
+    <t>VIN DEJO CARGADOR lenovo t520 El equipo solo enciende los leds, no da video</t>
+  </si>
+  <si>
     <t>VIN NINGUNO DELL INSPION 15 Presenta varios bugs en el sistema operativo y barra de tareas</t>
   </si>
   <si>
     <t>VIN CONSERVAR INTERFAZ DEL 2007 NA Elitebook x360 1030 G2 REACTIVACION DE AUTOCAD 2019  CONSERVANDO LA INTERFAZ ANTIGUA</t>
   </si>
   <si>
+    <t>L390 El cliente menciona que se calienta demasiado el equipo y suena el ventilador</t>
+  </si>
+  <si>
+    <t>VIN CARGADOR Asus s530f El equipo se dejo de usar un año y medio donde el equipo presenta problemas de lentitud , se apaga repetinamente y problemas en generales con SO</t>
+  </si>
+  <si>
     <t>HP 14-cd0009la Reemplazo de bateria, El equipo  esta en PIXEL</t>
   </si>
   <si>
+    <t>DELL 5520 Mantenimiento general y formateo. Respaldar los archivos escritorio y documentos</t>
+  </si>
+  <si>
+    <t>VIN  Dell 7550 Enciende el equipo pero presenta un mensaje de la bios, Mantenimiento general y formateo.  Respaldar escritorio y documentos</t>
+  </si>
+  <si>
     <t>YOGA E 11 problemas en la rotacion y en el touch de la pantalla</t>
   </si>
   <si>
+    <t>VIN instalar autocad, revit y skechup hp 15-cw0009la Suena bastante ruido cuando enciendes el equipo. Mantenimiento general con formatep</t>
+  </si>
+  <si>
+    <t>VIN dejo cargardor lenovo s 230u Formateo de equipo y tiempo de vida de la bateria NO</t>
+  </si>
+  <si>
     <t>T470 instalar office</t>
   </si>
   <si>
+    <t>HP OMEN El equipo no detecta el sistema operativo</t>
+  </si>
+  <si>
     <t>yoga E11 No enciende y suena dos pitidos al encender</t>
+  </si>
+  <si>
+    <t>ASUS VIVOBOOK FLIP 14 El equipo no enciende. anteriormente habia ingresado al centro de servicio por problemas de cargador</t>
+  </si>
+  <si>
+    <t>DELL LATITUDE 7470 Presenta pantallas azules y se calienta mucho del ventilador</t>
+  </si>
+  <si>
+    <t>VIN Respaldar escritorio y documento CPU ACTECK Manteniendo general, formateo</t>
+  </si>
+  <si>
+    <t>VIN Respaldar escritorio y documento HP CPU Mantenimiento general y formateo. verificar la salud de disco</t>
+  </si>
+  <si>
+    <t>HP ZBOOK 17 Presenta pantalla negra y ya no volvio encender</t>
+  </si>
+  <si>
+    <t>| DELL COMPRA DE BATERIA</t>
+  </si>
+  <si>
+    <t>VIN Encendio mostrando alerta de bateria baja DELL Latitud 3450 Falló el ventilador(Aparentemente), mostraba alertas de firefox y luego no encendió, se puso la pantalla en negro</t>
+  </si>
+  <si>
+    <t>DELL 3380 Mantenimiento y activación de office</t>
+  </si>
+  <si>
+    <t>dell inspiron 3501 ACTUALIZACION SSD 240 GB Y 8 GB</t>
+  </si>
+  <si>
+    <t>Thinkapd L460 Instalar paquetería office</t>
+  </si>
+  <si>
+    <t>LEVO T470S Instalacion de solidworks y autocad en español</t>
+  </si>
+  <si>
+    <t>SAMSUNG TAB iNSTALACION DE SOLIDWORK Y AUTOCAD EN ESPAÑOL</t>
+  </si>
+  <si>
+    <t>VIN NINGU CPU Instalacion de solidworks y autocad en español</t>
+  </si>
+  <si>
+    <t>VIN CARGADOR LENOVO T470 CUANDO ESTA EN 30% DE CARGA SE DESCARGA Y NO ESTA RETENIENDO LA CARGA CUANDO ESTA ENTRE ESOS VALORES . Falla en el puerto usb derecho superior</t>
+  </si>
+  <si>
+    <t>VIN NINGU HP ELITEBOOK 840 G2 No da video el equipo, pero enciende los ventiladores y los leds del equipo</t>
+  </si>
+  <si>
+    <t>VIN CONTACTAR A MEBEC PARA QUE NOS PASEN LA CONTRASEÑA PF14RWFF LENOVO THINKPAD T480 EQUIPO PRESENTÓ PROBLEMAS EN TECLADO SI</t>
+  </si>
+  <si>
+    <t>00000 SURFACE FORMATEO</t>
+  </si>
+  <si>
+    <t>VIN CARGADOR ASUS GAMER Cambio de disco 1tb y 8 ram adicionales</t>
+  </si>
+  <si>
+    <t>caddy</t>
+  </si>
+  <si>
+    <t>PENDIENTE VIN DEJA CARGADOR HP 840 G1 NO RETIENE LA CARGA</t>
+  </si>
+  <si>
+    <t>Thinkpad T470 Actualización a 500gb ssd</t>
+  </si>
+  <si>
+    <t>ELL G7 DIAGNOSTICO</t>
   </si>
 </sst>
 </file>
@@ -1787,7 +2029,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K107"/>
+  <dimension ref="A1:K134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1836,31 +2078,31 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="C2" t="s">
-        <v>203</v>
+        <v>247</v>
       </c>
       <c r="D2" s="3">
-        <v>45239.4503125</v>
+        <v>45293.40916666666</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>289</v>
+        <v>345</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G2" t="s">
-        <v>341</v>
+        <v>400</v>
       </c>
       <c r="H2">
-        <v>232</v>
+        <v>700.0020000000001</v>
       </c>
       <c r="I2" t="s">
-        <v>344</v>
+        <v>404</v>
       </c>
       <c r="K2" t="s">
-        <v>361</v>
+        <v>417</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1868,31 +2110,31 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="C3" t="s">
-        <v>204</v>
+        <v>248</v>
       </c>
       <c r="D3" s="3">
-        <v>45246.51675925926</v>
+        <v>45293.42548611111</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>290</v>
+        <v>346</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="G3" t="s">
-        <v>341</v>
+        <v>401</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1799.9999908</v>
       </c>
       <c r="I3" t="s">
-        <v>344</v>
+        <v>404</v>
       </c>
       <c r="K3" t="s">
-        <v>362</v>
+        <v>418</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1900,34 +2142,34 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="C4" t="s">
-        <v>205</v>
+        <v>249</v>
       </c>
       <c r="D4" s="3">
-        <v>45248.44914351852</v>
+        <v>45293.43032407408</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>291</v>
+        <v>347</v>
       </c>
       <c r="F4">
-        <v>181.9</v>
+        <v>1047.413793</v>
       </c>
       <c r="G4" t="s">
-        <v>341</v>
+        <v>401</v>
       </c>
       <c r="H4">
-        <v>1599.9999944</v>
+        <v>3423.9952</v>
       </c>
       <c r="I4" t="s">
-        <v>345</v>
+        <v>404</v>
       </c>
       <c r="J4" t="s">
-        <v>346</v>
+        <v>406</v>
       </c>
       <c r="K4" t="s">
-        <v>363</v>
+        <v>419</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1935,34 +2177,34 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="C5" t="s">
-        <v>206</v>
+        <v>250</v>
       </c>
       <c r="D5" s="3">
-        <v>45253.45152777778</v>
+        <v>45293.43159722222</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>292</v>
+        <v>348</v>
       </c>
       <c r="F5">
-        <v>980.1</v>
+        <v>197.413793</v>
       </c>
       <c r="G5" t="s">
-        <v>341</v>
+        <v>401</v>
       </c>
       <c r="H5">
-        <v>2475.00152</v>
+        <v>1972</v>
       </c>
       <c r="I5" t="s">
-        <v>345</v>
+        <v>404</v>
       </c>
       <c r="J5" t="s">
-        <v>347</v>
+        <v>407</v>
       </c>
       <c r="K5" t="s">
-        <v>364</v>
+        <v>420</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1970,34 +2212,31 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="C6" t="s">
-        <v>207</v>
+        <v>251</v>
       </c>
       <c r="D6" s="3">
-        <v>45264.66517361111</v>
+        <v>45293.49710648148</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>293</v>
+        <v>349</v>
       </c>
       <c r="F6">
-        <v>197.413793</v>
+        <v>711.2040000000001</v>
       </c>
       <c r="G6" t="s">
-        <v>341</v>
+        <v>401</v>
       </c>
       <c r="H6">
-        <v>1624</v>
+        <v>2547.998</v>
       </c>
       <c r="I6" t="s">
-        <v>345</v>
-      </c>
-      <c r="J6" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="K6" t="s">
-        <v>365</v>
+        <v>421</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2005,31 +2244,31 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="C7" t="s">
-        <v>208</v>
+        <v>252</v>
       </c>
       <c r="D7" s="3">
-        <v>45273.7280787037</v>
+        <v>45293.520625</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>290</v>
+        <v>350</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>714.65517</v>
       </c>
       <c r="G7" t="s">
-        <v>342</v>
+        <v>401</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1711.99992</v>
       </c>
       <c r="I7" t="s">
-        <v>344</v>
+        <v>404</v>
       </c>
       <c r="K7" t="s">
-        <v>366</v>
+        <v>422</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2037,31 +2276,31 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="C8" t="s">
-        <v>208</v>
+        <v>253</v>
       </c>
       <c r="D8" s="3">
-        <v>45273.72891203704</v>
+        <v>45293.5405787037</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>294</v>
+        <v>351</v>
       </c>
       <c r="F8">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G8" t="s">
-        <v>341</v>
+        <v>401</v>
       </c>
       <c r="H8">
-        <v>580</v>
+        <v>599.9984000000001</v>
       </c>
       <c r="I8" t="s">
-        <v>345</v>
+        <v>404</v>
       </c>
       <c r="K8" t="s">
-        <v>367</v>
+        <v>423</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2069,34 +2308,31 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="C9" t="s">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="D9" s="3">
-        <v>45273.73046296297</v>
+        <v>45293.63739583334</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>295</v>
+        <v>352</v>
       </c>
       <c r="F9">
-        <v>1168.1</v>
+        <v>564.65517</v>
       </c>
       <c r="G9" t="s">
-        <v>341</v>
+        <v>402</v>
       </c>
       <c r="H9">
-        <v>1624</v>
+        <v>1508</v>
       </c>
       <c r="I9" t="s">
-        <v>345</v>
-      </c>
-      <c r="J9" t="s">
-        <v>349</v>
+        <v>404</v>
       </c>
       <c r="K9" t="s">
-        <v>368</v>
+        <v>424</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2104,31 +2340,34 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="C10" t="s">
-        <v>209</v>
+        <v>254</v>
       </c>
       <c r="D10" s="3">
-        <v>45274.56268518518</v>
+        <v>45293.64356481482</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>296</v>
+        <v>353</v>
       </c>
       <c r="F10">
-        <v>1412.93</v>
+        <v>447.413793</v>
       </c>
       <c r="G10" t="s">
-        <v>341</v>
+        <v>401</v>
       </c>
       <c r="H10">
-        <v>3800.0000012</v>
+        <v>2436</v>
       </c>
       <c r="I10" t="s">
-        <v>345</v>
+        <v>404</v>
+      </c>
+      <c r="J10" t="s">
+        <v>408</v>
       </c>
       <c r="K10" t="s">
-        <v>369</v>
+        <v>425</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2136,31 +2375,31 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="C11" t="s">
-        <v>210</v>
+        <v>255</v>
       </c>
       <c r="D11" s="3">
-        <v>45276.5759375</v>
+        <v>45293.64849537037</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>294</v>
+        <v>354</v>
       </c>
       <c r="F11">
-        <v>250</v>
+        <v>181.9</v>
       </c>
       <c r="G11" t="s">
-        <v>341</v>
+        <v>401</v>
       </c>
       <c r="H11">
-        <v>812</v>
+        <v>1500.7996248</v>
       </c>
       <c r="I11" t="s">
-        <v>345</v>
+        <v>404</v>
       </c>
       <c r="K11" t="s">
-        <v>370</v>
+        <v>426</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2168,31 +2407,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="C12" t="s">
-        <v>210</v>
+        <v>256</v>
       </c>
       <c r="D12" s="3">
-        <v>45276.57796296296</v>
+        <v>45293.69689814815</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>297</v>
+        <v>355</v>
       </c>
       <c r="F12">
-        <v>742.244</v>
+        <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>341</v>
+        <v>402</v>
       </c>
       <c r="H12">
-        <v>2897.99999412</v>
+        <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>345</v>
+        <v>405</v>
       </c>
       <c r="K12" t="s">
-        <v>371</v>
+        <v>427</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2200,34 +2439,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="C13" t="s">
-        <v>211</v>
+        <v>257</v>
       </c>
       <c r="D13" s="3">
-        <v>45278.43453703704</v>
+        <v>45293.72875</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>298</v>
+        <v>356</v>
       </c>
       <c r="F13">
-        <v>197.413793</v>
+        <v>1520.2</v>
       </c>
       <c r="G13" t="s">
-        <v>341</v>
+        <v>401</v>
       </c>
       <c r="H13">
-        <v>1499.999944</v>
+        <v>3248</v>
       </c>
       <c r="I13" t="s">
-        <v>345</v>
-      </c>
-      <c r="J13" t="s">
-        <v>350</v>
+        <v>404</v>
       </c>
       <c r="K13" t="s">
-        <v>372</v>
+        <v>428</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2235,31 +2471,31 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="C14" t="s">
-        <v>212</v>
+        <v>258</v>
       </c>
       <c r="D14" s="3">
-        <v>45279.42981481482</v>
+        <v>45293.73319444444</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>289</v>
+        <v>357</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G14" t="s">
-        <v>341</v>
+        <v>402</v>
       </c>
       <c r="H14">
-        <v>249.99999956</v>
+        <v>580</v>
       </c>
       <c r="I14" t="s">
-        <v>345</v>
+        <v>404</v>
       </c>
       <c r="K14" t="s">
-        <v>373</v>
+        <v>429</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2267,31 +2503,31 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>127</v>
+        <v>156</v>
       </c>
       <c r="C15" t="s">
-        <v>213</v>
+        <v>259</v>
       </c>
       <c r="D15" s="3">
-        <v>45280.47616898148</v>
+        <v>45293.73402777778</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>294</v>
+        <v>357</v>
       </c>
       <c r="F15">
         <v>250</v>
       </c>
       <c r="G15" t="s">
-        <v>341</v>
+        <v>400</v>
       </c>
       <c r="H15">
-        <v>812</v>
+        <v>580</v>
       </c>
       <c r="I15" t="s">
-        <v>345</v>
+        <v>404</v>
       </c>
       <c r="K15" t="s">
-        <v>374</v>
+        <v>430</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2299,31 +2535,31 @@
         <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="C16" t="s">
-        <v>214</v>
+        <v>260</v>
       </c>
       <c r="D16" s="3">
-        <v>45282.49278935185</v>
+        <v>45294.45621527778</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>299</v>
+        <v>355</v>
       </c>
       <c r="F16">
-        <v>650.86</v>
+        <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>341</v>
+        <v>400</v>
       </c>
       <c r="H16">
-        <v>2199.998</v>
+        <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>345</v>
+        <v>405</v>
       </c>
       <c r="K16" t="s">
-        <v>375</v>
+        <v>431</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -2331,31 +2567,31 @@
         <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="C17" t="s">
-        <v>215</v>
+        <v>261</v>
       </c>
       <c r="D17" s="3">
-        <v>45282.53417824074</v>
+        <v>45294.52268518518</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>300</v>
+        <v>345</v>
       </c>
       <c r="F17">
-        <v>284.48</v>
+        <v>250</v>
       </c>
       <c r="G17" t="s">
-        <v>341</v>
+        <v>401</v>
       </c>
       <c r="H17">
-        <v>849.9999760000001</v>
+        <v>700.0020000000001</v>
       </c>
       <c r="I17" t="s">
-        <v>345</v>
+        <v>404</v>
       </c>
       <c r="K17" t="s">
-        <v>376</v>
+        <v>432</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -2363,34 +2599,31 @@
         <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="C18" t="s">
-        <v>216</v>
+        <v>262</v>
       </c>
       <c r="D18" s="3">
-        <v>45287.76408564814</v>
+        <v>45294.69050925926</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>290</v>
+        <v>358</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>342</v>
+        <v>401</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>249.99999956</v>
       </c>
       <c r="I18" t="s">
-        <v>344</v>
-      </c>
-      <c r="J18" t="s">
-        <v>351</v>
+        <v>404</v>
       </c>
       <c r="K18" t="s">
-        <v>377</v>
+        <v>433</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2398,31 +2631,31 @@
         <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="C19" t="s">
-        <v>217</v>
+        <v>263</v>
       </c>
       <c r="D19" s="3">
-        <v>45293.40916666666</v>
+        <v>45295.41672453703</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>294</v>
+        <v>359</v>
       </c>
       <c r="F19">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G19" t="s">
-        <v>342</v>
+        <v>401</v>
       </c>
       <c r="H19">
-        <v>700.0020000000001</v>
+        <v>580</v>
       </c>
       <c r="I19" t="s">
-        <v>345</v>
+        <v>404</v>
       </c>
       <c r="K19" t="s">
-        <v>378</v>
+        <v>434</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2430,31 +2663,31 @@
         <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C20" t="s">
-        <v>218</v>
+        <v>264</v>
       </c>
       <c r="D20" s="3">
-        <v>45293.42548611111</v>
+        <v>45295.50078703704</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>301</v>
+        <v>358</v>
       </c>
       <c r="F20">
-        <v>850</v>
+        <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>341</v>
+        <v>401</v>
       </c>
       <c r="H20">
-        <v>1799.9999908</v>
+        <v>250.0032</v>
       </c>
       <c r="I20" t="s">
-        <v>345</v>
+        <v>404</v>
       </c>
       <c r="K20" t="s">
-        <v>379</v>
+        <v>435</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2462,34 +2695,31 @@
         <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="C21" t="s">
-        <v>215</v>
+        <v>265</v>
       </c>
       <c r="D21" s="3">
-        <v>45293.43032407408</v>
+        <v>45295.5046412037</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>302</v>
+        <v>360</v>
       </c>
       <c r="F21">
-        <v>1047.413793</v>
+        <v>499.134</v>
       </c>
       <c r="G21" t="s">
-        <v>341</v>
+        <v>401</v>
       </c>
       <c r="H21">
-        <v>3423.9952</v>
+        <v>2949.996</v>
       </c>
       <c r="I21" t="s">
-        <v>345</v>
-      </c>
-      <c r="J21" t="s">
-        <v>352</v>
+        <v>404</v>
       </c>
       <c r="K21" t="s">
-        <v>380</v>
+        <v>436</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2497,34 +2727,31 @@
         <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="C22" t="s">
-        <v>219</v>
+        <v>266</v>
       </c>
       <c r="D22" s="3">
-        <v>45293.43159722222</v>
+        <v>45295.56520833333</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>303</v>
+        <v>345</v>
       </c>
       <c r="F22">
-        <v>197.413793</v>
+        <v>250</v>
       </c>
       <c r="G22" t="s">
-        <v>341</v>
+        <v>401</v>
       </c>
       <c r="H22">
-        <v>1972</v>
+        <v>812</v>
       </c>
       <c r="I22" t="s">
-        <v>345</v>
-      </c>
-      <c r="J22" t="s">
-        <v>353</v>
+        <v>404</v>
       </c>
       <c r="K22" t="s">
-        <v>381</v>
+        <v>437</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2532,31 +2759,31 @@
         <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="C23" t="s">
-        <v>220</v>
+        <v>267</v>
       </c>
       <c r="D23" s="3">
-        <v>45293.49710648148</v>
+        <v>45295.59929398148</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>304</v>
+        <v>361</v>
       </c>
       <c r="F23">
-        <v>711.2040000000001</v>
+        <v>197.413793</v>
       </c>
       <c r="G23" t="s">
-        <v>341</v>
+        <v>402</v>
       </c>
       <c r="H23">
-        <v>2547.998</v>
+        <v>1450</v>
       </c>
       <c r="I23" t="s">
-        <v>345</v>
+        <v>404</v>
       </c>
       <c r="K23" t="s">
-        <v>382</v>
+        <v>438</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -2564,31 +2791,31 @@
         <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="C24" t="s">
-        <v>221</v>
+        <v>268</v>
       </c>
       <c r="D24" s="3">
-        <v>45293.520625</v>
+        <v>45295.60870370371</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>305</v>
+        <v>355</v>
       </c>
       <c r="F24">
-        <v>714.65517</v>
+        <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>341</v>
+        <v>401</v>
       </c>
       <c r="H24">
-        <v>1711.99992</v>
+        <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>345</v>
+        <v>405</v>
       </c>
       <c r="K24" t="s">
-        <v>383</v>
+        <v>439</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -2596,31 +2823,31 @@
         <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="C25" t="s">
-        <v>222</v>
+        <v>269</v>
       </c>
       <c r="D25" s="3">
-        <v>45293.5405787037</v>
+        <v>45295.71038194445</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>306</v>
+        <v>345</v>
       </c>
       <c r="F25">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G25" t="s">
-        <v>341</v>
+        <v>401</v>
       </c>
       <c r="H25">
-        <v>599.9984000000001</v>
+        <v>812</v>
       </c>
       <c r="I25" t="s">
-        <v>345</v>
+        <v>404</v>
       </c>
       <c r="K25" t="s">
-        <v>384</v>
+        <v>440</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -2628,31 +2855,31 @@
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="C26" t="s">
-        <v>223</v>
+        <v>269</v>
       </c>
       <c r="D26" s="3">
-        <v>45293.63739583334</v>
+        <v>45295.71620370371</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>307</v>
+        <v>345</v>
       </c>
       <c r="F26">
-        <v>564.65517</v>
+        <v>250</v>
       </c>
       <c r="G26" t="s">
-        <v>343</v>
+        <v>401</v>
       </c>
       <c r="H26">
-        <v>1508</v>
+        <v>812</v>
       </c>
       <c r="I26" t="s">
-        <v>345</v>
+        <v>404</v>
       </c>
       <c r="K26" t="s">
-        <v>385</v>
+        <v>441</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2660,34 +2887,31 @@
         <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="C27" t="s">
-        <v>223</v>
+        <v>270</v>
       </c>
       <c r="D27" s="3">
-        <v>45293.64356481482</v>
+        <v>45295.75900462963</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="F27">
-        <v>447.413793</v>
+        <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>341</v>
+        <v>400</v>
       </c>
       <c r="H27">
-        <v>2436</v>
+        <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>345</v>
-      </c>
-      <c r="J27" t="s">
-        <v>354</v>
+        <v>405</v>
       </c>
       <c r="K27" t="s">
-        <v>386</v>
+        <v>442</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2695,31 +2919,34 @@
         <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="C28" t="s">
-        <v>224</v>
+        <v>271</v>
       </c>
       <c r="D28" s="3">
-        <v>45293.64849537037</v>
+        <v>45296.48380787037</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>291</v>
+        <v>362</v>
       </c>
       <c r="F28">
-        <v>181.9</v>
+        <v>1270.2</v>
       </c>
       <c r="G28" t="s">
-        <v>341</v>
+        <v>401</v>
       </c>
       <c r="H28">
-        <v>1500.7996248</v>
+        <v>1624</v>
       </c>
       <c r="I28" t="s">
-        <v>345</v>
+        <v>404</v>
+      </c>
+      <c r="J28" t="s">
+        <v>409</v>
       </c>
       <c r="K28" t="s">
-        <v>387</v>
+        <v>443</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2727,31 +2954,31 @@
         <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="C29" t="s">
-        <v>225</v>
+        <v>272</v>
       </c>
       <c r="D29" s="3">
-        <v>45293.69689814815</v>
+        <v>45296.70635416666</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>290</v>
+        <v>357</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G29" t="s">
-        <v>343</v>
+        <v>401</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>580</v>
       </c>
       <c r="I29" t="s">
-        <v>344</v>
+        <v>404</v>
       </c>
       <c r="K29" t="s">
-        <v>388</v>
+        <v>444</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2759,31 +2986,31 @@
         <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="C30" t="s">
-        <v>226</v>
+        <v>272</v>
       </c>
       <c r="D30" s="3">
-        <v>45293.72875</v>
+        <v>45296.70888888889</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>309</v>
+        <v>357</v>
       </c>
       <c r="F30">
-        <v>1168.1</v>
+        <v>250</v>
       </c>
       <c r="G30" t="s">
-        <v>341</v>
+        <v>401</v>
       </c>
       <c r="H30">
-        <v>3248</v>
+        <v>580</v>
       </c>
       <c r="I30" t="s">
-        <v>345</v>
+        <v>404</v>
       </c>
       <c r="K30" t="s">
-        <v>389</v>
+        <v>445</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2791,31 +3018,31 @@
         <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="C31" t="s">
-        <v>227</v>
+        <v>272</v>
       </c>
       <c r="D31" s="3">
-        <v>45293.73319444444</v>
+        <v>45296.71063657408</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>310</v>
+        <v>357</v>
       </c>
       <c r="F31">
         <v>250</v>
       </c>
       <c r="G31" t="s">
-        <v>343</v>
+        <v>401</v>
       </c>
       <c r="H31">
         <v>580</v>
       </c>
       <c r="I31" t="s">
-        <v>345</v>
+        <v>404</v>
       </c>
       <c r="K31" t="s">
-        <v>390</v>
+        <v>445</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2823,31 +3050,31 @@
         <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="C32" t="s">
-        <v>228</v>
+        <v>272</v>
       </c>
       <c r="D32" s="3">
-        <v>45293.73402777778</v>
+        <v>45296.71376157407</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>310</v>
+        <v>357</v>
       </c>
       <c r="F32">
         <v>250</v>
       </c>
       <c r="G32" t="s">
-        <v>342</v>
+        <v>401</v>
       </c>
       <c r="H32">
         <v>580</v>
       </c>
       <c r="I32" t="s">
-        <v>345</v>
+        <v>404</v>
       </c>
       <c r="K32" t="s">
-        <v>391</v>
+        <v>446</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2855,31 +3082,31 @@
         <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="C33" t="s">
-        <v>229</v>
+        <v>272</v>
       </c>
       <c r="D33" s="3">
-        <v>45294.45621527778</v>
+        <v>45296.71980324074</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>290</v>
+        <v>363</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>1270.2</v>
       </c>
       <c r="G33" t="s">
-        <v>342</v>
+        <v>401</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>344</v>
+        <v>405</v>
       </c>
       <c r="K33" t="s">
-        <v>392</v>
+        <v>447</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2887,31 +3114,31 @@
         <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="C34" t="s">
-        <v>230</v>
+        <v>273</v>
       </c>
       <c r="D34" s="3">
-        <v>45294.52268518518</v>
+        <v>45296.7368287037</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>294</v>
+        <v>349</v>
       </c>
       <c r="F34">
-        <v>250</v>
+        <v>711.2040000000001</v>
       </c>
       <c r="G34" t="s">
-        <v>341</v>
+        <v>401</v>
       </c>
       <c r="H34">
-        <v>700.0020000000001</v>
+        <v>2499.9972</v>
       </c>
       <c r="I34" t="s">
-        <v>345</v>
+        <v>404</v>
       </c>
       <c r="K34" t="s">
-        <v>393</v>
+        <v>448</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2919,31 +3146,31 @@
         <v>44</v>
       </c>
       <c r="B35" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="C35" t="s">
-        <v>231</v>
+        <v>274</v>
       </c>
       <c r="D35" s="3">
-        <v>45294.69050925926</v>
+        <v>45296.7422337963</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>289</v>
+        <v>358</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>341</v>
+        <v>401</v>
       </c>
       <c r="H35">
-        <v>249.99999956</v>
+        <v>250.0032</v>
       </c>
       <c r="I35" t="s">
-        <v>345</v>
+        <v>404</v>
       </c>
       <c r="K35" t="s">
-        <v>394</v>
+        <v>449</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2951,31 +3178,31 @@
         <v>45</v>
       </c>
       <c r="B36" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="C36" t="s">
-        <v>232</v>
+        <v>275</v>
       </c>
       <c r="D36" s="3">
-        <v>45295.41672453703</v>
+        <v>45297.44438657408</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>311</v>
+        <v>364</v>
       </c>
       <c r="F36">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G36" t="s">
-        <v>341</v>
+        <v>401</v>
       </c>
       <c r="H36">
-        <v>580</v>
+        <v>2199.998</v>
       </c>
       <c r="I36" t="s">
-        <v>345</v>
+        <v>404</v>
       </c>
       <c r="K36" t="s">
-        <v>395</v>
+        <v>450</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2983,31 +3210,31 @@
         <v>46</v>
       </c>
       <c r="B37" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="C37" t="s">
-        <v>233</v>
+        <v>276</v>
       </c>
       <c r="D37" s="3">
-        <v>45295.50078703704</v>
+        <v>45299.65844907407</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>289</v>
+        <v>354</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>181.9</v>
       </c>
       <c r="G37" t="s">
-        <v>341</v>
+        <v>401</v>
       </c>
       <c r="H37">
-        <v>250.0032</v>
+        <v>1599.9999944</v>
       </c>
       <c r="I37" t="s">
-        <v>345</v>
+        <v>404</v>
       </c>
       <c r="K37" t="s">
-        <v>396</v>
+        <v>451</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -3015,31 +3242,31 @@
         <v>47</v>
       </c>
       <c r="B38" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="C38" t="s">
-        <v>234</v>
+        <v>277</v>
       </c>
       <c r="D38" s="3">
-        <v>45295.5046412037</v>
+        <v>45299.70826388889</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>312</v>
+        <v>365</v>
       </c>
       <c r="F38">
-        <v>499.134</v>
+        <v>150</v>
       </c>
       <c r="G38" t="s">
-        <v>341</v>
+        <v>401</v>
       </c>
       <c r="H38">
-        <v>2949.996</v>
+        <v>299.9992</v>
       </c>
       <c r="I38" t="s">
-        <v>345</v>
+        <v>404</v>
       </c>
       <c r="K38" t="s">
-        <v>397</v>
+        <v>452</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -3047,31 +3274,31 @@
         <v>48</v>
       </c>
       <c r="B39" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="C39" t="s">
-        <v>235</v>
+        <v>278</v>
       </c>
       <c r="D39" s="3">
-        <v>45295.56520833333</v>
+        <v>45299.7290162037</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>294</v>
+        <v>346</v>
       </c>
       <c r="F39">
-        <v>250</v>
+        <v>850</v>
       </c>
       <c r="G39" t="s">
-        <v>341</v>
+        <v>401</v>
       </c>
       <c r="H39">
-        <v>812</v>
+        <v>1300.0004</v>
       </c>
       <c r="I39" t="s">
-        <v>345</v>
+        <v>404</v>
       </c>
       <c r="K39" t="s">
-        <v>398</v>
+        <v>453</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -3079,31 +3306,31 @@
         <v>49</v>
       </c>
       <c r="B40" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="C40" t="s">
-        <v>236</v>
+        <v>279</v>
       </c>
       <c r="D40" s="3">
-        <v>45295.59929398148</v>
+        <v>45299.76886574074</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>313</v>
+        <v>366</v>
       </c>
       <c r="F40">
-        <v>197.413793</v>
+        <v>1412.93</v>
       </c>
       <c r="G40" t="s">
-        <v>343</v>
+        <v>401</v>
       </c>
       <c r="H40">
-        <v>1450</v>
+        <v>1499.9999147</v>
       </c>
       <c r="I40" t="s">
-        <v>345</v>
+        <v>404</v>
       </c>
       <c r="K40" t="s">
-        <v>399</v>
+        <v>454</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -3111,31 +3338,34 @@
         <v>50</v>
       </c>
       <c r="B41" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="C41" t="s">
-        <v>237</v>
+        <v>280</v>
       </c>
       <c r="D41" s="3">
-        <v>45295.60870370371</v>
+        <v>45300.53837962963</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>290</v>
+        <v>367</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>1270.2</v>
       </c>
       <c r="G41" t="s">
-        <v>341</v>
+        <v>401</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1400.004</v>
       </c>
       <c r="I41" t="s">
-        <v>344</v>
+        <v>404</v>
+      </c>
+      <c r="J41" t="s">
+        <v>410</v>
       </c>
       <c r="K41" t="s">
-        <v>400</v>
+        <v>455</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -3143,31 +3373,31 @@
         <v>51</v>
       </c>
       <c r="B42" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="C42" t="s">
-        <v>238</v>
+        <v>281</v>
       </c>
       <c r="D42" s="3">
-        <v>45295.71038194445</v>
+        <v>45300.6213425926</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>294</v>
+        <v>355</v>
       </c>
       <c r="F42">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>341</v>
+        <v>400</v>
       </c>
       <c r="H42">
-        <v>812</v>
+        <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>345</v>
+        <v>405</v>
       </c>
       <c r="K42" t="s">
-        <v>401</v>
+        <v>456</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -3175,31 +3405,31 @@
         <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="C43" t="s">
-        <v>238</v>
+        <v>282</v>
       </c>
       <c r="D43" s="3">
-        <v>45295.71620370371</v>
+        <v>45300.63311342592</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>294</v>
+        <v>368</v>
       </c>
       <c r="F43">
-        <v>250</v>
+        <v>512.0689629999999</v>
       </c>
       <c r="G43" t="s">
-        <v>341</v>
+        <v>401</v>
       </c>
       <c r="H43">
-        <v>812</v>
+        <v>2900</v>
       </c>
       <c r="I43" t="s">
-        <v>345</v>
+        <v>404</v>
       </c>
       <c r="K43" t="s">
-        <v>402</v>
+        <v>457</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -3207,31 +3437,31 @@
         <v>53</v>
       </c>
       <c r="B44" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="C44" t="s">
-        <v>239</v>
+        <v>283</v>
       </c>
       <c r="D44" s="3">
-        <v>45295.75900462963</v>
+        <v>45300.675</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>290</v>
+        <v>369</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G44" t="s">
-        <v>342</v>
+        <v>401</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>349.9952</v>
       </c>
       <c r="I44" t="s">
-        <v>344</v>
+        <v>404</v>
       </c>
       <c r="K44" t="s">
-        <v>403</v>
+        <v>458</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -3239,34 +3469,31 @@
         <v>54</v>
       </c>
       <c r="B45" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="C45" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="D45" s="3">
-        <v>45296.48380787037</v>
+        <v>45300.69486111111</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>314</v>
+        <v>358</v>
       </c>
       <c r="F45">
-        <v>918.1</v>
+        <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>341</v>
+        <v>401</v>
       </c>
       <c r="H45">
-        <v>1624</v>
+        <v>250.0032</v>
       </c>
       <c r="I45" t="s">
-        <v>345</v>
-      </c>
-      <c r="J45" t="s">
-        <v>355</v>
+        <v>404</v>
       </c>
       <c r="K45" t="s">
-        <v>404</v>
+        <v>459</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -3274,31 +3501,31 @@
         <v>55</v>
       </c>
       <c r="B46" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="C46" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="D46" s="3">
-        <v>45296.70635416666</v>
+        <v>45300.73149305556</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
       <c r="F46">
-        <v>250</v>
+        <v>181.9</v>
       </c>
       <c r="G46" t="s">
-        <v>341</v>
+        <v>401</v>
       </c>
       <c r="H46">
-        <v>580</v>
+        <v>1599.9996</v>
       </c>
       <c r="I46" t="s">
-        <v>345</v>
+        <v>404</v>
       </c>
       <c r="K46" t="s">
-        <v>405</v>
+        <v>460</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -3306,31 +3533,34 @@
         <v>56</v>
       </c>
       <c r="B47" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="C47" t="s">
-        <v>241</v>
+        <v>285</v>
       </c>
       <c r="D47" s="3">
-        <v>45296.70888888889</v>
+        <v>45301.38350694445</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>310</v>
+        <v>369</v>
       </c>
       <c r="F47">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G47" t="s">
-        <v>341</v>
+        <v>401</v>
       </c>
       <c r="H47">
-        <v>580</v>
+        <v>349.999956</v>
       </c>
       <c r="I47" t="s">
-        <v>345</v>
+        <v>404</v>
+      </c>
+      <c r="J47" t="s">
+        <v>411</v>
       </c>
       <c r="K47" t="s">
-        <v>406</v>
+        <v>461</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -3338,31 +3568,31 @@
         <v>57</v>
       </c>
       <c r="B48" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="C48" t="s">
-        <v>241</v>
+        <v>286</v>
       </c>
       <c r="D48" s="3">
-        <v>45296.71063657408</v>
+        <v>45301.45447916666</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>310</v>
+        <v>370</v>
       </c>
       <c r="F48">
-        <v>250</v>
+        <v>650.86</v>
       </c>
       <c r="G48" t="s">
-        <v>341</v>
+        <v>401</v>
       </c>
       <c r="H48">
-        <v>580</v>
+        <v>2000.0024</v>
       </c>
       <c r="I48" t="s">
-        <v>345</v>
+        <v>404</v>
       </c>
       <c r="K48" t="s">
-        <v>406</v>
+        <v>462</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -3370,31 +3600,31 @@
         <v>58</v>
       </c>
       <c r="B49" t="s">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="C49" t="s">
-        <v>241</v>
+        <v>287</v>
       </c>
       <c r="D49" s="3">
-        <v>45296.71376157407</v>
+        <v>45301.56194444445</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>310</v>
+        <v>358</v>
       </c>
       <c r="F49">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>341</v>
+        <v>400</v>
       </c>
       <c r="H49">
-        <v>580</v>
+        <v>249.99999956</v>
       </c>
       <c r="I49" t="s">
-        <v>345</v>
+        <v>404</v>
       </c>
       <c r="K49" t="s">
-        <v>407</v>
+        <v>463</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -3402,31 +3632,31 @@
         <v>59</v>
       </c>
       <c r="B50" t="s">
-        <v>157</v>
+        <v>185</v>
       </c>
       <c r="C50" t="s">
-        <v>242</v>
+        <v>288</v>
       </c>
       <c r="D50" s="3">
-        <v>45296.7368287037</v>
+        <v>45301.5903125</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>304</v>
+        <v>357</v>
       </c>
       <c r="F50">
-        <v>711.2040000000001</v>
+        <v>250</v>
       </c>
       <c r="G50" t="s">
-        <v>341</v>
+        <v>401</v>
       </c>
       <c r="H50">
-        <v>2499.9972</v>
+        <v>580</v>
       </c>
       <c r="I50" t="s">
-        <v>345</v>
+        <v>404</v>
       </c>
       <c r="K50" t="s">
-        <v>408</v>
+        <v>464</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -3434,31 +3664,31 @@
         <v>60</v>
       </c>
       <c r="B51" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="C51" t="s">
-        <v>243</v>
+        <v>289</v>
       </c>
       <c r="D51" s="3">
-        <v>45296.7422337963</v>
+        <v>45301.64981481482</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>289</v>
+        <v>355</v>
       </c>
       <c r="F51">
         <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>341</v>
+        <v>400</v>
       </c>
       <c r="H51">
-        <v>250.0032</v>
+        <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>345</v>
+        <v>405</v>
       </c>
       <c r="K51" t="s">
-        <v>409</v>
+        <v>465</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -3466,31 +3696,31 @@
         <v>61</v>
       </c>
       <c r="B52" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="C52" t="s">
-        <v>244</v>
+        <v>290</v>
       </c>
       <c r="D52" s="3">
-        <v>45297.44438657408</v>
+        <v>45301.70329861111</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>315</v>
+        <v>355</v>
       </c>
       <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52" t="s">
         <v>400</v>
       </c>
-      <c r="G52" t="s">
-        <v>341</v>
-      </c>
       <c r="H52">
-        <v>2199.998</v>
+        <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>345</v>
+        <v>405</v>
       </c>
       <c r="K52" t="s">
-        <v>410</v>
+        <v>466</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -3498,31 +3728,31 @@
         <v>62</v>
       </c>
       <c r="B53" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="C53" t="s">
-        <v>245</v>
+        <v>291</v>
       </c>
       <c r="D53" s="3">
-        <v>45299.65844907407</v>
+        <v>45301.72096064815</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>291</v>
+        <v>354</v>
       </c>
       <c r="F53">
         <v>181.9</v>
       </c>
       <c r="G53" t="s">
-        <v>341</v>
+        <v>401</v>
       </c>
       <c r="H53">
-        <v>1599.9999944</v>
+        <v>1599.9996</v>
       </c>
       <c r="I53" t="s">
-        <v>345</v>
+        <v>404</v>
       </c>
       <c r="K53" t="s">
-        <v>411</v>
+        <v>467</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -3530,31 +3760,31 @@
         <v>63</v>
       </c>
       <c r="B54" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="C54" t="s">
-        <v>246</v>
+        <v>292</v>
       </c>
       <c r="D54" s="3">
-        <v>45299.70826388889</v>
+        <v>45301.76365740741</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>316</v>
+        <v>371</v>
       </c>
       <c r="F54">
-        <v>150</v>
+        <v>314.65517</v>
       </c>
       <c r="G54" t="s">
-        <v>341</v>
+        <v>402</v>
       </c>
       <c r="H54">
-        <v>299.9992</v>
+        <v>1150.0008</v>
       </c>
       <c r="I54" t="s">
-        <v>345</v>
+        <v>404</v>
       </c>
       <c r="K54" t="s">
-        <v>412</v>
+        <v>468</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -3562,31 +3792,31 @@
         <v>64</v>
       </c>
       <c r="B55" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="C55" t="s">
-        <v>247</v>
+        <v>293</v>
       </c>
       <c r="D55" s="3">
-        <v>45299.7290162037</v>
+        <v>45302.43177083333</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>301</v>
+        <v>372</v>
       </c>
       <c r="F55">
-        <v>850</v>
+        <v>0</v>
       </c>
       <c r="G55" t="s">
-        <v>341</v>
+        <v>402</v>
       </c>
       <c r="H55">
-        <v>1300.0004</v>
+        <v>249.999999999988</v>
       </c>
       <c r="I55" t="s">
-        <v>345</v>
+        <v>404</v>
       </c>
       <c r="K55" t="s">
-        <v>413</v>
+        <v>469</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3594,31 +3824,31 @@
         <v>65</v>
       </c>
       <c r="B56" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="C56" t="s">
-        <v>248</v>
+        <v>294</v>
       </c>
       <c r="D56" s="3">
-        <v>45299.76886574074</v>
+        <v>45302.57895833333</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>296</v>
+        <v>363</v>
       </c>
       <c r="F56">
-        <v>1412.93</v>
+        <v>1270.2</v>
       </c>
       <c r="G56" t="s">
-        <v>341</v>
+        <v>401</v>
       </c>
       <c r="H56">
-        <v>1499.9999147</v>
+        <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>345</v>
+        <v>405</v>
       </c>
       <c r="K56" t="s">
-        <v>414</v>
+        <v>470</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -3626,34 +3856,31 @@
         <v>66</v>
       </c>
       <c r="B57" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="C57" t="s">
-        <v>249</v>
+        <v>295</v>
       </c>
       <c r="D57" s="3">
-        <v>45300.53837962963</v>
+        <v>45302.66740740741</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>317</v>
+        <v>355</v>
       </c>
       <c r="F57">
-        <v>918.1</v>
+        <v>0</v>
       </c>
       <c r="G57" t="s">
-        <v>341</v>
+        <v>402</v>
       </c>
       <c r="H57">
-        <v>1400.004</v>
+        <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>345</v>
-      </c>
-      <c r="J57" t="s">
-        <v>356</v>
+        <v>405</v>
       </c>
       <c r="K57" t="s">
-        <v>415</v>
+        <v>471</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -3661,31 +3888,31 @@
         <v>67</v>
       </c>
       <c r="B58" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="C58" t="s">
-        <v>250</v>
+        <v>296</v>
       </c>
       <c r="D58" s="3">
-        <v>45300.63311342592</v>
+        <v>45303.54585648148</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>318</v>
+        <v>373</v>
       </c>
       <c r="F58">
-        <v>512.0689629999999</v>
+        <v>60.344</v>
       </c>
       <c r="G58" t="s">
-        <v>341</v>
+        <v>401</v>
       </c>
       <c r="H58">
-        <v>2900</v>
+        <v>349.9952</v>
       </c>
       <c r="I58" t="s">
-        <v>345</v>
+        <v>404</v>
       </c>
       <c r="K58" t="s">
-        <v>416</v>
+        <v>472</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -3693,31 +3920,31 @@
         <v>68</v>
       </c>
       <c r="B59" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="C59" t="s">
-        <v>251</v>
+        <v>297</v>
       </c>
       <c r="D59" s="3">
-        <v>45300.675</v>
+        <v>45303.74936342592</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>319</v>
+        <v>357</v>
       </c>
       <c r="F59">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G59" t="s">
-        <v>341</v>
+        <v>401</v>
       </c>
       <c r="H59">
-        <v>349.9952</v>
+        <v>580</v>
       </c>
       <c r="I59" t="s">
-        <v>345</v>
+        <v>404</v>
       </c>
       <c r="K59" t="s">
-        <v>417</v>
+        <v>473</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -3725,31 +3952,34 @@
         <v>69</v>
       </c>
       <c r="B60" t="s">
-        <v>151</v>
+        <v>194</v>
       </c>
       <c r="C60" t="s">
-        <v>236</v>
+        <v>298</v>
       </c>
       <c r="D60" s="3">
-        <v>45300.69486111111</v>
+        <v>45304.43210648148</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>289</v>
+        <v>374</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>1270.2</v>
       </c>
       <c r="G60" t="s">
-        <v>341</v>
+        <v>402</v>
       </c>
       <c r="H60">
-        <v>250.0032</v>
+        <v>649.9999999928</v>
       </c>
       <c r="I60" t="s">
-        <v>345</v>
+        <v>404</v>
+      </c>
+      <c r="J60" t="s">
+        <v>412</v>
       </c>
       <c r="K60" t="s">
-        <v>418</v>
+        <v>474</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -3757,31 +3987,31 @@
         <v>70</v>
       </c>
       <c r="B61" t="s">
-        <v>167</v>
+        <v>195</v>
       </c>
       <c r="C61" t="s">
-        <v>252</v>
+        <v>299</v>
       </c>
       <c r="D61" s="3">
-        <v>45300.73149305556</v>
+        <v>45304.52567129629</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>291</v>
+        <v>363</v>
       </c>
       <c r="F61">
-        <v>181.9</v>
+        <v>1270.2</v>
       </c>
       <c r="G61" t="s">
-        <v>341</v>
+        <v>401</v>
       </c>
       <c r="H61">
-        <v>1599.9996</v>
+        <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>345</v>
+        <v>405</v>
       </c>
       <c r="K61" t="s">
-        <v>419</v>
+        <v>475</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -3789,34 +4019,31 @@
         <v>71</v>
       </c>
       <c r="B62" t="s">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="C62" t="s">
-        <v>253</v>
+        <v>300</v>
       </c>
       <c r="D62" s="3">
-        <v>45301.38350694445</v>
+        <v>45306.48765046296</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>319</v>
+        <v>375</v>
       </c>
       <c r="F62">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G62" t="s">
-        <v>341</v>
+        <v>401</v>
       </c>
       <c r="H62">
-        <v>349.999956</v>
+        <v>299.9999999998</v>
       </c>
       <c r="I62" t="s">
-        <v>345</v>
-      </c>
-      <c r="J62" t="s">
-        <v>357</v>
+        <v>404</v>
       </c>
       <c r="K62" t="s">
-        <v>420</v>
+        <v>476</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -3824,31 +4051,34 @@
         <v>72</v>
       </c>
       <c r="B63" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="C63" t="s">
-        <v>254</v>
+        <v>288</v>
       </c>
       <c r="D63" s="3">
-        <v>45301.45447916666</v>
+        <v>45306.49606481481</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>299</v>
+        <v>376</v>
       </c>
       <c r="F63">
-        <v>650.86</v>
+        <v>1270.2</v>
       </c>
       <c r="G63" t="s">
-        <v>341</v>
+        <v>401</v>
       </c>
       <c r="H63">
-        <v>2000.0024</v>
+        <v>1599.9996</v>
       </c>
       <c r="I63" t="s">
-        <v>345</v>
+        <v>404</v>
+      </c>
+      <c r="J63" t="s">
+        <v>413</v>
       </c>
       <c r="K63" t="s">
-        <v>421</v>
+        <v>477</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -3856,31 +4086,31 @@
         <v>73</v>
       </c>
       <c r="B64" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="C64" t="s">
-        <v>255</v>
+        <v>301</v>
       </c>
       <c r="D64" s="3">
-        <v>45301.56194444445</v>
+        <v>45306.51649305555</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>289</v>
+        <v>357</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G64" t="s">
-        <v>342</v>
+        <v>401</v>
       </c>
       <c r="H64">
-        <v>249.99999956</v>
+        <v>580</v>
       </c>
       <c r="I64" t="s">
-        <v>345</v>
+        <v>404</v>
       </c>
       <c r="K64" t="s">
-        <v>422</v>
+        <v>478</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -3888,31 +4118,31 @@
         <v>74</v>
       </c>
       <c r="B65" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="C65" t="s">
-        <v>256</v>
+        <v>301</v>
       </c>
       <c r="D65" s="3">
-        <v>45301.5903125</v>
+        <v>45306.52288194445</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>310</v>
+        <v>363</v>
       </c>
       <c r="F65">
-        <v>250</v>
+        <v>1270.2</v>
       </c>
       <c r="G65" t="s">
-        <v>341</v>
+        <v>401</v>
       </c>
       <c r="H65">
-        <v>580</v>
+        <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>345</v>
+        <v>405</v>
       </c>
       <c r="K65" t="s">
-        <v>423</v>
+        <v>479</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -3920,31 +4150,31 @@
         <v>75</v>
       </c>
       <c r="B66" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="C66" t="s">
-        <v>257</v>
+        <v>301</v>
       </c>
       <c r="D66" s="3">
-        <v>45301.70329861111</v>
+        <v>45306.5281712963</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>290</v>
+        <v>377</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>1270.2</v>
       </c>
       <c r="G66" t="s">
-        <v>342</v>
+        <v>401</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>79.99708</v>
       </c>
       <c r="I66" t="s">
-        <v>344</v>
+        <v>404</v>
       </c>
       <c r="K66" t="s">
-        <v>424</v>
+        <v>479</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -3952,31 +4182,31 @@
         <v>76</v>
       </c>
       <c r="B67" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="C67" t="s">
-        <v>258</v>
+        <v>302</v>
       </c>
       <c r="D67" s="3">
-        <v>45301.72096064815</v>
+        <v>45306.5890625</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>291</v>
+        <v>369</v>
       </c>
       <c r="F67">
-        <v>181.9</v>
+        <v>300</v>
       </c>
       <c r="G67" t="s">
-        <v>341</v>
+        <v>401</v>
       </c>
       <c r="H67">
-        <v>1599.9996</v>
+        <v>580</v>
       </c>
       <c r="I67" t="s">
-        <v>345</v>
+        <v>404</v>
       </c>
       <c r="K67" t="s">
-        <v>425</v>
+        <v>480</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -3984,31 +4214,31 @@
         <v>77</v>
       </c>
       <c r="B68" t="s">
-        <v>161</v>
+        <v>200</v>
       </c>
       <c r="C68" t="s">
-        <v>259</v>
+        <v>303</v>
       </c>
       <c r="D68" s="3">
-        <v>45301.76365740741</v>
+        <v>45306.69413194444</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="F68">
-        <v>314.65517</v>
+        <v>250</v>
       </c>
       <c r="G68" t="s">
-        <v>343</v>
+        <v>401</v>
       </c>
       <c r="H68">
-        <v>1150.0008</v>
+        <v>580</v>
       </c>
       <c r="I68" t="s">
-        <v>345</v>
+        <v>404</v>
       </c>
       <c r="K68" t="s">
-        <v>426</v>
+        <v>481</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -4016,31 +4246,31 @@
         <v>78</v>
       </c>
       <c r="B69" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C69" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="D69" s="3">
-        <v>45302.43177083333</v>
+        <v>45307.50402777778</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>321</v>
+        <v>378</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G69" t="s">
-        <v>343</v>
+        <v>401</v>
       </c>
       <c r="H69">
-        <v>249.999999999988</v>
+        <v>1199.9968</v>
       </c>
       <c r="I69" t="s">
-        <v>345</v>
+        <v>404</v>
       </c>
       <c r="K69" t="s">
-        <v>427</v>
+        <v>450</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -4048,31 +4278,31 @@
         <v>79</v>
       </c>
       <c r="B70" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="C70" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
       <c r="D70" s="3">
-        <v>45302.57895833333</v>
+        <v>45307.50483796297</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>322</v>
+        <v>358</v>
       </c>
       <c r="F70">
-        <v>918.1</v>
+        <v>0</v>
       </c>
       <c r="G70" t="s">
-        <v>341</v>
+        <v>401</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>250.0032</v>
       </c>
       <c r="I70" t="s">
-        <v>344</v>
+        <v>404</v>
       </c>
       <c r="K70" t="s">
-        <v>428</v>
+        <v>482</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -4080,31 +4310,31 @@
         <v>80</v>
       </c>
       <c r="B71" t="s">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="C71" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
       <c r="D71" s="3">
-        <v>45302.66740740741</v>
+        <v>45307.5415162037</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>290</v>
+        <v>379</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>242.244</v>
       </c>
       <c r="G71" t="s">
-        <v>343</v>
+        <v>401</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1899.9988</v>
       </c>
       <c r="I71" t="s">
-        <v>344</v>
+        <v>404</v>
       </c>
       <c r="K71" t="s">
-        <v>429</v>
+        <v>483</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -4112,31 +4342,31 @@
         <v>81</v>
       </c>
       <c r="B72" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="C72" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="D72" s="3">
-        <v>45303.54585648148</v>
+        <v>45307.54159722223</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>323</v>
+        <v>380</v>
       </c>
       <c r="F72">
-        <v>60.344</v>
+        <v>600</v>
       </c>
       <c r="G72" t="s">
-        <v>341</v>
+        <v>402</v>
       </c>
       <c r="H72">
-        <v>349.9952</v>
+        <v>3199.9999888</v>
       </c>
       <c r="I72" t="s">
-        <v>345</v>
+        <v>404</v>
       </c>
       <c r="K72" t="s">
-        <v>430</v>
+        <v>484</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -4144,31 +4374,31 @@
         <v>82</v>
       </c>
       <c r="B73" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C73" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="D73" s="3">
-        <v>45303.74936342592</v>
+        <v>45307.69207175926</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>310</v>
+        <v>357</v>
       </c>
       <c r="F73">
         <v>250</v>
       </c>
       <c r="G73" t="s">
-        <v>341</v>
+        <v>401</v>
       </c>
       <c r="H73">
         <v>580</v>
       </c>
       <c r="I73" t="s">
-        <v>345</v>
+        <v>404</v>
       </c>
       <c r="K73" t="s">
-        <v>431</v>
+        <v>485</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -4176,34 +4406,31 @@
         <v>83</v>
       </c>
       <c r="B74" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C74" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="D74" s="3">
-        <v>45304.43210648148</v>
+        <v>45307.69337962963</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>324</v>
+        <v>354</v>
       </c>
       <c r="F74">
-        <v>918.1</v>
+        <v>181.9</v>
       </c>
       <c r="G74" t="s">
-        <v>343</v>
+        <v>401</v>
       </c>
       <c r="H74">
-        <v>649.9999999928</v>
+        <v>1599.9996</v>
       </c>
       <c r="I74" t="s">
-        <v>345</v>
-      </c>
-      <c r="J74" t="s">
-        <v>358</v>
+        <v>404</v>
       </c>
       <c r="K74" t="s">
-        <v>432</v>
+        <v>486</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -4211,31 +4438,31 @@
         <v>84</v>
       </c>
       <c r="B75" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="C75" t="s">
-        <v>266</v>
+        <v>306</v>
       </c>
       <c r="D75" s="3">
-        <v>45304.52567129629</v>
+        <v>45307.72324074074</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>322</v>
+        <v>354</v>
       </c>
       <c r="F75">
-        <v>918.1</v>
+        <v>181.9</v>
       </c>
       <c r="G75" t="s">
-        <v>341</v>
+        <v>401</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1599.9996</v>
       </c>
       <c r="I75" t="s">
-        <v>344</v>
+        <v>404</v>
       </c>
       <c r="K75" t="s">
-        <v>433</v>
+        <v>487</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -4243,31 +4470,31 @@
         <v>85</v>
       </c>
       <c r="B76" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C76" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="D76" s="3">
-        <v>45306.48765046296</v>
+        <v>45307.74225694445</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>325</v>
+        <v>381</v>
       </c>
       <c r="F76">
-        <v>250</v>
+        <v>95</v>
       </c>
       <c r="G76" t="s">
-        <v>341</v>
+        <v>401</v>
       </c>
       <c r="H76">
-        <v>299.9999999998</v>
+        <v>700.0020000000001</v>
       </c>
       <c r="I76" t="s">
-        <v>345</v>
+        <v>404</v>
       </c>
       <c r="K76" t="s">
-        <v>434</v>
+        <v>462</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -4275,31 +4502,31 @@
         <v>86</v>
       </c>
       <c r="B77" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="C77" t="s">
-        <v>268</v>
+        <v>307</v>
       </c>
       <c r="D77" s="3">
-        <v>45306.51649305555</v>
+        <v>45308.72087962963</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>310</v>
+        <v>355</v>
       </c>
       <c r="F77">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G77" t="s">
-        <v>341</v>
+        <v>402</v>
       </c>
       <c r="H77">
-        <v>580</v>
+        <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>345</v>
+        <v>405</v>
       </c>
       <c r="K77" t="s">
-        <v>435</v>
+        <v>488</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -4307,31 +4534,31 @@
         <v>87</v>
       </c>
       <c r="B78" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="C78" t="s">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="D78" s="3">
-        <v>45306.5281712963</v>
+        <v>45308.72868055556</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>326</v>
+        <v>358</v>
       </c>
       <c r="F78">
-        <v>918.1</v>
+        <v>0</v>
       </c>
       <c r="G78" t="s">
-        <v>341</v>
+        <v>401</v>
       </c>
       <c r="H78">
-        <v>79.99708</v>
+        <v>250.0032</v>
       </c>
       <c r="I78" t="s">
-        <v>345</v>
+        <v>404</v>
       </c>
       <c r="K78" t="s">
-        <v>436</v>
+        <v>489</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -4339,31 +4566,31 @@
         <v>88</v>
       </c>
       <c r="B79" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="C79" t="s">
-        <v>269</v>
+        <v>308</v>
       </c>
       <c r="D79" s="3">
-        <v>45306.5890625</v>
+        <v>45308.73480324074</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>319</v>
+        <v>382</v>
       </c>
       <c r="F79">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="G79" t="s">
-        <v>341</v>
+        <v>401</v>
       </c>
       <c r="H79">
-        <v>580</v>
+        <v>1624</v>
       </c>
       <c r="I79" t="s">
-        <v>345</v>
+        <v>404</v>
       </c>
       <c r="K79" t="s">
-        <v>437</v>
+        <v>490</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -4371,31 +4598,31 @@
         <v>89</v>
       </c>
       <c r="B80" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="C80" t="s">
-        <v>270</v>
+        <v>309</v>
       </c>
       <c r="D80" s="3">
-        <v>45306.69413194444</v>
+        <v>45308.74643518519</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>310</v>
+        <v>358</v>
       </c>
       <c r="F80">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G80" t="s">
-        <v>341</v>
+        <v>401</v>
       </c>
       <c r="H80">
-        <v>580</v>
+        <v>232</v>
       </c>
       <c r="I80" t="s">
-        <v>345</v>
+        <v>404</v>
       </c>
       <c r="K80" t="s">
-        <v>438</v>
+        <v>491</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -4403,31 +4630,31 @@
         <v>90</v>
       </c>
       <c r="B81" t="s">
-        <v>159</v>
+        <v>207</v>
       </c>
       <c r="C81" t="s">
-        <v>244</v>
+        <v>310</v>
       </c>
       <c r="D81" s="3">
-        <v>45307.50402777778</v>
+        <v>45309.39240740741</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>327</v>
+        <v>357</v>
       </c>
       <c r="F81">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="G81" t="s">
-        <v>341</v>
+        <v>401</v>
       </c>
       <c r="H81">
-        <v>1199.9968</v>
+        <v>599.9984000000001</v>
       </c>
       <c r="I81" t="s">
-        <v>345</v>
+        <v>404</v>
       </c>
       <c r="K81" t="s">
-        <v>410</v>
+        <v>492</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -4435,31 +4662,34 @@
         <v>91</v>
       </c>
       <c r="B82" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="C82" t="s">
-        <v>271</v>
+        <v>311</v>
       </c>
       <c r="D82" s="3">
-        <v>45307.50483796297</v>
+        <v>45309.53040509259</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>289</v>
+        <v>383</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>1270.2</v>
       </c>
       <c r="G82" t="s">
-        <v>341</v>
+        <v>401</v>
       </c>
       <c r="H82">
-        <v>250.0032</v>
+        <v>1600</v>
       </c>
       <c r="I82" t="s">
-        <v>345</v>
+        <v>404</v>
+      </c>
+      <c r="J82" t="s">
+        <v>414</v>
       </c>
       <c r="K82" t="s">
-        <v>439</v>
+        <v>493</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -4467,31 +4697,31 @@
         <v>92</v>
       </c>
       <c r="B83" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="C83" t="s">
-        <v>272</v>
+        <v>312</v>
       </c>
       <c r="D83" s="3">
-        <v>45307.5415162037</v>
+        <v>45309.71297453704</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>328</v>
+        <v>384</v>
       </c>
       <c r="F83">
-        <v>242.244</v>
+        <v>499.134</v>
       </c>
       <c r="G83" t="s">
-        <v>341</v>
+        <v>401</v>
       </c>
       <c r="H83">
-        <v>1899.9988</v>
+        <v>3000.0036</v>
       </c>
       <c r="I83" t="s">
-        <v>345</v>
+        <v>404</v>
       </c>
       <c r="K83" t="s">
-        <v>440</v>
+        <v>494</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -4499,31 +4729,31 @@
         <v>93</v>
       </c>
       <c r="B84" t="s">
-        <v>122</v>
+        <v>210</v>
       </c>
       <c r="C84" t="s">
-        <v>256</v>
+        <v>313</v>
       </c>
       <c r="D84" s="3">
-        <v>45307.54159722223</v>
+        <v>45309.72028935186</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>329</v>
+        <v>363</v>
       </c>
       <c r="F84">
-        <v>600</v>
+        <v>1270.2</v>
       </c>
       <c r="G84" t="s">
-        <v>343</v>
+        <v>401</v>
       </c>
       <c r="H84">
-        <v>3199.9999888</v>
+        <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>345</v>
+        <v>405</v>
       </c>
       <c r="K84" t="s">
-        <v>441</v>
+        <v>495</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -4531,31 +4761,31 @@
         <v>94</v>
       </c>
       <c r="B85" t="s">
-        <v>156</v>
+        <v>211</v>
       </c>
       <c r="C85" t="s">
-        <v>241</v>
+        <v>314</v>
       </c>
       <c r="D85" s="3">
-        <v>45307.69207175926</v>
+        <v>45310.48010416667</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>310</v>
+        <v>385</v>
       </c>
       <c r="F85">
-        <v>250</v>
+        <v>1570.2</v>
       </c>
       <c r="G85" t="s">
-        <v>341</v>
+        <v>401</v>
       </c>
       <c r="H85">
-        <v>580</v>
+        <v>349.9999999996401</v>
       </c>
       <c r="I85" t="s">
-        <v>345</v>
+        <v>404</v>
       </c>
       <c r="K85" t="s">
-        <v>442</v>
+        <v>496</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -4563,31 +4793,31 @@
         <v>95</v>
       </c>
       <c r="B86" t="s">
-        <v>156</v>
+        <v>212</v>
       </c>
       <c r="C86" t="s">
-        <v>241</v>
+        <v>315</v>
       </c>
       <c r="D86" s="3">
-        <v>45307.69337962963</v>
+        <v>45310.60517361111</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>291</v>
+        <v>386</v>
       </c>
       <c r="F86">
-        <v>181.9</v>
+        <v>0</v>
       </c>
       <c r="G86" t="s">
-        <v>341</v>
+        <v>400</v>
       </c>
       <c r="H86">
-        <v>1599.9996</v>
+        <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>345</v>
+        <v>405</v>
       </c>
       <c r="K86" t="s">
-        <v>443</v>
+        <v>497</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -4595,31 +4825,31 @@
         <v>96</v>
       </c>
       <c r="B87" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="C87" t="s">
-        <v>273</v>
+        <v>316</v>
       </c>
       <c r="D87" s="3">
-        <v>45307.72324074074</v>
+        <v>45310.74252314815</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>291</v>
+        <v>369</v>
       </c>
       <c r="F87">
-        <v>181.9</v>
+        <v>300</v>
       </c>
       <c r="G87" t="s">
-        <v>341</v>
+        <v>401</v>
       </c>
       <c r="H87">
-        <v>1599.9996</v>
+        <v>580.00464</v>
       </c>
       <c r="I87" t="s">
-        <v>345</v>
+        <v>404</v>
       </c>
       <c r="K87" t="s">
-        <v>444</v>
+        <v>498</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -4627,31 +4857,31 @@
         <v>97</v>
       </c>
       <c r="B88" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C88" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="D88" s="3">
-        <v>45307.74225694445</v>
+        <v>45311.50221064815</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>330</v>
+        <v>386</v>
       </c>
       <c r="F88">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="G88" t="s">
-        <v>341</v>
+        <v>400</v>
       </c>
       <c r="H88">
-        <v>700.0020000000001</v>
+        <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>345</v>
+        <v>405</v>
       </c>
       <c r="K88" t="s">
-        <v>421</v>
+        <v>499</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -4659,31 +4889,31 @@
         <v>98</v>
       </c>
       <c r="B89" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="C89" t="s">
-        <v>274</v>
+        <v>317</v>
       </c>
       <c r="D89" s="3">
-        <v>45308.73480324074</v>
+        <v>45313.39831018518</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>331</v>
+        <v>355</v>
       </c>
       <c r="F89">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="G89" t="s">
-        <v>341</v>
+        <v>403</v>
       </c>
       <c r="H89">
-        <v>1624</v>
+        <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>345</v>
+        <v>405</v>
       </c>
       <c r="K89" t="s">
-        <v>445</v>
+        <v>500</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -4691,31 +4921,31 @@
         <v>99</v>
       </c>
       <c r="B90" t="s">
-        <v>161</v>
+        <v>215</v>
       </c>
       <c r="C90" t="s">
-        <v>275</v>
+        <v>318</v>
       </c>
       <c r="D90" s="3">
-        <v>45308.74643518519</v>
+        <v>45313.46736111111</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>289</v>
+        <v>355</v>
       </c>
       <c r="F90">
         <v>0</v>
       </c>
       <c r="G90" t="s">
-        <v>341</v>
+        <v>400</v>
       </c>
       <c r="H90">
-        <v>232</v>
+        <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>345</v>
+        <v>405</v>
       </c>
       <c r="K90" t="s">
-        <v>446</v>
+        <v>501</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -4723,31 +4953,31 @@
         <v>100</v>
       </c>
       <c r="B91" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="C91" t="s">
-        <v>276</v>
+        <v>318</v>
       </c>
       <c r="D91" s="3">
-        <v>45309.39240740741</v>
+        <v>45313.47009259259</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>310</v>
+        <v>355</v>
       </c>
       <c r="F91">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G91" t="s">
-        <v>341</v>
+        <v>400</v>
       </c>
       <c r="H91">
-        <v>599.9984000000001</v>
+        <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>345</v>
+        <v>405</v>
       </c>
       <c r="K91" t="s">
-        <v>447</v>
+        <v>502</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -4755,31 +4985,34 @@
         <v>101</v>
       </c>
       <c r="B92" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="C92" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="D92" s="3">
-        <v>45309.48195601852</v>
+        <v>45313.50326388889</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>332</v>
+        <v>387</v>
       </c>
       <c r="F92">
-        <v>470</v>
+        <v>3810.6</v>
       </c>
       <c r="G92" t="s">
-        <v>341</v>
+        <v>402</v>
       </c>
       <c r="H92">
-        <v>2649.9968</v>
+        <v>4200.0004</v>
       </c>
       <c r="I92" t="s">
-        <v>345</v>
+        <v>404</v>
+      </c>
+      <c r="J92" t="s">
+        <v>415</v>
       </c>
       <c r="K92" t="s">
-        <v>448</v>
+        <v>503</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -4787,34 +5020,31 @@
         <v>102</v>
       </c>
       <c r="B93" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="C93" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="D93" s="3">
-        <v>45309.53040509259</v>
+        <v>45313.54563657408</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>333</v>
+        <v>369</v>
       </c>
       <c r="F93">
-        <v>918.1</v>
+        <v>300</v>
       </c>
       <c r="G93" t="s">
-        <v>341</v>
+        <v>401</v>
       </c>
       <c r="H93">
-        <v>1600</v>
+        <v>349.9952</v>
       </c>
       <c r="I93" t="s">
-        <v>345</v>
-      </c>
-      <c r="J93" t="s">
-        <v>359</v>
+        <v>404</v>
       </c>
       <c r="K93" t="s">
-        <v>449</v>
+        <v>504</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -4822,31 +5052,31 @@
         <v>103</v>
       </c>
       <c r="B94" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C94" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="D94" s="3">
-        <v>45309.71297453704</v>
+        <v>45313.69777777778</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>334</v>
+        <v>388</v>
       </c>
       <c r="F94">
-        <v>499.134</v>
+        <v>191</v>
       </c>
       <c r="G94" t="s">
-        <v>341</v>
+        <v>401</v>
       </c>
       <c r="H94">
-        <v>3000.0036</v>
+        <v>169.998</v>
       </c>
       <c r="I94" t="s">
-        <v>345</v>
+        <v>404</v>
       </c>
       <c r="K94" t="s">
-        <v>450</v>
+        <v>505</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -4854,31 +5084,34 @@
         <v>104</v>
       </c>
       <c r="B95" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="C95" t="s">
-        <v>280</v>
+        <v>319</v>
       </c>
       <c r="D95" s="3">
-        <v>45309.72028935186</v>
+        <v>45314.38986111111</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>322</v>
+        <v>389</v>
       </c>
       <c r="F95">
-        <v>918.1</v>
+        <v>1921.06</v>
       </c>
       <c r="G95" t="s">
-        <v>341</v>
+        <v>401</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>3499.9979999972</v>
       </c>
       <c r="I95" t="s">
-        <v>344</v>
+        <v>404</v>
+      </c>
+      <c r="J95" t="s">
+        <v>416</v>
       </c>
       <c r="K95" t="s">
-        <v>451</v>
+        <v>506</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -4886,31 +5119,31 @@
         <v>105</v>
       </c>
       <c r="B96" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="C96" t="s">
-        <v>281</v>
+        <v>320</v>
       </c>
       <c r="D96" s="3">
-        <v>45310.48010416667</v>
+        <v>45314.4425462963</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>335</v>
+        <v>390</v>
       </c>
       <c r="F96">
-        <v>1218.1</v>
+        <v>250</v>
       </c>
       <c r="G96" t="s">
-        <v>341</v>
+        <v>401</v>
       </c>
       <c r="H96">
-        <v>349.9999999996401</v>
+        <v>599.9984000000001</v>
       </c>
       <c r="I96" t="s">
-        <v>345</v>
+        <v>404</v>
       </c>
       <c r="K96" t="s">
-        <v>452</v>
+        <v>507</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -4918,31 +5151,31 @@
         <v>106</v>
       </c>
       <c r="B97" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="C97" t="s">
-        <v>282</v>
+        <v>321</v>
       </c>
       <c r="D97" s="3">
-        <v>45310.74252314815</v>
+        <v>45314.49410879629</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>319</v>
+        <v>355</v>
       </c>
       <c r="F97">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G97" t="s">
-        <v>341</v>
+        <v>400</v>
       </c>
       <c r="H97">
-        <v>580.00464</v>
+        <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>345</v>
+        <v>405</v>
       </c>
       <c r="K97" t="s">
-        <v>453</v>
+        <v>508</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -4950,31 +5183,31 @@
         <v>107</v>
       </c>
       <c r="B98" t="s">
-        <v>149</v>
+        <v>220</v>
       </c>
       <c r="C98" t="s">
-        <v>234</v>
+        <v>322</v>
       </c>
       <c r="D98" s="3">
-        <v>45311.50221064815</v>
+        <v>45314.51045138889</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>336</v>
+        <v>391</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G98" t="s">
-        <v>342</v>
+        <v>401</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>349.9999999999948</v>
       </c>
       <c r="I98" t="s">
-        <v>344</v>
+        <v>404</v>
       </c>
       <c r="K98" t="s">
-        <v>454</v>
+        <v>509</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -4982,34 +5215,31 @@
         <v>108</v>
       </c>
       <c r="B99" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="C99" t="s">
-        <v>256</v>
+        <v>323</v>
       </c>
       <c r="D99" s="3">
-        <v>45313.50326388889</v>
+        <v>45314.52447916667</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="F99">
-        <v>2754.3</v>
+        <v>0</v>
       </c>
       <c r="G99" t="s">
-        <v>343</v>
+        <v>400</v>
       </c>
       <c r="H99">
-        <v>4200.0004</v>
+        <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>345</v>
-      </c>
-      <c r="J99" t="s">
-        <v>360</v>
+        <v>405</v>
       </c>
       <c r="K99" t="s">
-        <v>455</v>
+        <v>510</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -5017,31 +5247,31 @@
         <v>109</v>
       </c>
       <c r="B100" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="C100" t="s">
-        <v>256</v>
+        <v>292</v>
       </c>
       <c r="D100" s="3">
-        <v>45313.54563657408</v>
+        <v>45314.5341550926</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>319</v>
+        <v>373</v>
       </c>
       <c r="F100">
-        <v>300</v>
+        <v>60.344</v>
       </c>
       <c r="G100" t="s">
-        <v>341</v>
+        <v>402</v>
       </c>
       <c r="H100">
-        <v>349.9952</v>
+        <v>349.99999999996</v>
       </c>
       <c r="I100" t="s">
-        <v>345</v>
+        <v>404</v>
       </c>
       <c r="K100" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -5049,31 +5279,31 @@
         <v>110</v>
       </c>
       <c r="B101" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="C101" t="s">
-        <v>283</v>
+        <v>324</v>
       </c>
       <c r="D101" s="3">
-        <v>45314.49410879629</v>
+        <v>45314.54357638889</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>290</v>
+        <v>354</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>181.9</v>
       </c>
       <c r="G101" t="s">
-        <v>342</v>
+        <v>401</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1599.9996</v>
       </c>
       <c r="I101" t="s">
-        <v>344</v>
+        <v>404</v>
       </c>
       <c r="K101" t="s">
-        <v>457</v>
+        <v>511</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -5081,31 +5311,31 @@
         <v>111</v>
       </c>
       <c r="B102" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="C102" t="s">
-        <v>284</v>
+        <v>325</v>
       </c>
       <c r="D102" s="3">
-        <v>45314.51045138889</v>
+        <v>45314.54976851852</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>338</v>
+        <v>392</v>
       </c>
       <c r="F102">
-        <v>300</v>
+        <v>1270.2</v>
       </c>
       <c r="G102" t="s">
-        <v>341</v>
+        <v>401</v>
       </c>
       <c r="H102">
-        <v>349.9999999999948</v>
+        <v>1508</v>
       </c>
       <c r="I102" t="s">
-        <v>345</v>
+        <v>404</v>
       </c>
       <c r="K102" t="s">
-        <v>458</v>
+        <v>512</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -5113,31 +5343,31 @@
         <v>112</v>
       </c>
       <c r="B103" t="s">
-        <v>161</v>
+        <v>224</v>
       </c>
       <c r="C103" t="s">
-        <v>259</v>
+        <v>326</v>
       </c>
       <c r="D103" s="3">
-        <v>45314.5341550926</v>
+        <v>45314.55601851852</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>323</v>
+        <v>345</v>
       </c>
       <c r="F103">
-        <v>60.344</v>
+        <v>250</v>
       </c>
       <c r="G103" t="s">
-        <v>343</v>
+        <v>401</v>
       </c>
       <c r="H103">
-        <v>349.99999999996</v>
+        <v>800.0044399999999</v>
       </c>
       <c r="I103" t="s">
-        <v>345</v>
+        <v>404</v>
       </c>
       <c r="K103" t="s">
-        <v>426</v>
+        <v>513</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -5145,31 +5375,31 @@
         <v>113</v>
       </c>
       <c r="B104" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="C104" t="s">
-        <v>285</v>
+        <v>326</v>
       </c>
       <c r="D104" s="3">
-        <v>45314.54976851852</v>
+        <v>45314.56140046296</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="F104">
-        <v>918.1</v>
+        <v>250</v>
       </c>
       <c r="G104" t="s">
-        <v>341</v>
+        <v>401</v>
       </c>
       <c r="H104">
-        <v>1508</v>
+        <v>800.0044399999999</v>
       </c>
       <c r="I104" t="s">
-        <v>345</v>
+        <v>404</v>
       </c>
       <c r="K104" t="s">
-        <v>459</v>
+        <v>514</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -5177,31 +5407,31 @@
         <v>114</v>
       </c>
       <c r="B105" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="C105" t="s">
-        <v>286</v>
+        <v>327</v>
       </c>
       <c r="D105" s="3">
         <v>45314.58067129629</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>290</v>
+        <v>355</v>
       </c>
       <c r="F105">
         <v>0</v>
       </c>
       <c r="G105" t="s">
-        <v>342</v>
+        <v>400</v>
       </c>
       <c r="H105">
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>344</v>
+        <v>405</v>
       </c>
       <c r="K105" t="s">
-        <v>460</v>
+        <v>515</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -5209,31 +5439,31 @@
         <v>115</v>
       </c>
       <c r="B106" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="C106" t="s">
-        <v>287</v>
+        <v>328</v>
       </c>
       <c r="D106" s="3">
-        <v>45315.49449074074</v>
+        <v>45314.67109953704</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>290</v>
+        <v>393</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>1520.2</v>
       </c>
       <c r="G106" t="s">
-        <v>342</v>
+        <v>401</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1649.9997992</v>
       </c>
       <c r="I106" t="s">
-        <v>344</v>
+        <v>404</v>
       </c>
       <c r="K106" t="s">
-        <v>461</v>
+        <v>516</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -5241,31 +5471,895 @@
         <v>116</v>
       </c>
       <c r="B107" t="s">
-        <v>202</v>
+        <v>169</v>
       </c>
       <c r="C107" t="s">
+        <v>272</v>
+      </c>
+      <c r="D107" s="3">
+        <v>45314.69586805555</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F107">
+        <v>250</v>
+      </c>
+      <c r="G107" t="s">
+        <v>402</v>
+      </c>
+      <c r="H107">
+        <v>500</v>
+      </c>
+      <c r="I107" t="s">
+        <v>404</v>
+      </c>
+      <c r="K107" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108" t="s">
+        <v>117</v>
+      </c>
+      <c r="B108" t="s">
+        <v>227</v>
+      </c>
+      <c r="C108" t="s">
+        <v>329</v>
+      </c>
+      <c r="D108" s="3">
+        <v>45315.49449074074</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108" t="s">
+        <v>400</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108" t="s">
+        <v>405</v>
+      </c>
+      <c r="K108" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109" t="s">
+        <v>118</v>
+      </c>
+      <c r="B109" t="s">
+        <v>228</v>
+      </c>
+      <c r="C109" t="s">
+        <v>330</v>
+      </c>
+      <c r="D109" s="3">
+        <v>45315.54480324074</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F109">
+        <v>250</v>
+      </c>
+      <c r="G109" t="s">
+        <v>401</v>
+      </c>
+      <c r="H109">
+        <v>599.9984000000001</v>
+      </c>
+      <c r="I109" t="s">
+        <v>404</v>
+      </c>
+      <c r="K109" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110" t="s">
+        <v>119</v>
+      </c>
+      <c r="B110" t="s">
+        <v>191</v>
+      </c>
+      <c r="C110" t="s">
+        <v>295</v>
+      </c>
+      <c r="D110" s="3">
+        <v>45315.62829861111</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110" t="s">
+        <v>402</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110" t="s">
+        <v>405</v>
+      </c>
+      <c r="K110" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111" t="s">
+        <v>120</v>
+      </c>
+      <c r="B111" t="s">
+        <v>229</v>
+      </c>
+      <c r="C111" t="s">
+        <v>331</v>
+      </c>
+      <c r="D111" s="3">
+        <v>45315.7253125</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="F111">
+        <v>197.413793</v>
+      </c>
+      <c r="G111" t="s">
+        <v>400</v>
+      </c>
+      <c r="H111">
+        <v>1300.0004</v>
+      </c>
+      <c r="I111" t="s">
+        <v>404</v>
+      </c>
+      <c r="K111" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112" t="s">
+        <v>121</v>
+      </c>
+      <c r="B112" t="s">
+        <v>194</v>
+      </c>
+      <c r="C112" t="s">
+        <v>298</v>
+      </c>
+      <c r="D112" s="3">
+        <v>45316.40819444445</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F112">
+        <v>250</v>
+      </c>
+      <c r="G112" t="s">
+        <v>401</v>
+      </c>
+      <c r="H112">
+        <v>799.9997999999999</v>
+      </c>
+      <c r="I112" t="s">
+        <v>404</v>
+      </c>
+      <c r="K112" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113" t="s">
+        <v>122</v>
+      </c>
+      <c r="B113" t="s">
+        <v>230</v>
+      </c>
+      <c r="C113" t="s">
+        <v>332</v>
+      </c>
+      <c r="D113" s="3">
+        <v>45316.55929398148</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F113">
+        <v>250</v>
+      </c>
+      <c r="G113" t="s">
+        <v>401</v>
+      </c>
+      <c r="H113">
+        <v>799.9997999999999</v>
+      </c>
+      <c r="I113" t="s">
+        <v>404</v>
+      </c>
+      <c r="K113" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114" t="s">
+        <v>123</v>
+      </c>
+      <c r="B114" t="s">
+        <v>231</v>
+      </c>
+      <c r="C114" t="s">
+        <v>333</v>
+      </c>
+      <c r="D114" s="3">
+        <v>45317.42777777778</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F114">
+        <v>250</v>
+      </c>
+      <c r="G114" t="s">
+        <v>401</v>
+      </c>
+      <c r="H114">
+        <v>812</v>
+      </c>
+      <c r="I114" t="s">
+        <v>404</v>
+      </c>
+      <c r="K114" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115" t="s">
+        <v>124</v>
+      </c>
+      <c r="B115" t="s">
+        <v>231</v>
+      </c>
+      <c r="C115" t="s">
+        <v>333</v>
+      </c>
+      <c r="D115" s="3">
+        <v>45317.43003472222</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F115">
+        <v>250</v>
+      </c>
+      <c r="G115" t="s">
+        <v>401</v>
+      </c>
+      <c r="H115">
+        <v>812</v>
+      </c>
+      <c r="I115" t="s">
+        <v>404</v>
+      </c>
+      <c r="K115" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116" t="s">
+        <v>125</v>
+      </c>
+      <c r="B116" t="s">
+        <v>232</v>
+      </c>
+      <c r="C116" t="s">
+        <v>334</v>
+      </c>
+      <c r="D116" s="3">
+        <v>45317.59055555556</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116" t="s">
+        <v>400</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116" t="s">
+        <v>405</v>
+      </c>
+      <c r="K116" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117" t="s">
+        <v>126</v>
+      </c>
+      <c r="B117" t="s">
+        <v>233</v>
+      </c>
+      <c r="C117" t="s">
+        <v>335</v>
+      </c>
+      <c r="D117" s="3">
+        <v>45317.75788194445</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F117">
+        <v>1270.2</v>
+      </c>
+      <c r="G117" t="s">
+        <v>401</v>
+      </c>
+      <c r="H117">
+        <v>2784</v>
+      </c>
+      <c r="I117" t="s">
+        <v>404</v>
+      </c>
+      <c r="K117" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118" t="s">
+        <v>127</v>
+      </c>
+      <c r="B118" t="s">
+        <v>234</v>
+      </c>
+      <c r="C118" t="s">
+        <v>336</v>
+      </c>
+      <c r="D118" s="3">
+        <v>45318.4338425926</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118" t="s">
+        <v>401</v>
+      </c>
+      <c r="H118">
+        <v>249.99999956</v>
+      </c>
+      <c r="I118" t="s">
+        <v>404</v>
+      </c>
+      <c r="K118" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119" t="s">
+        <v>128</v>
+      </c>
+      <c r="B119" t="s">
+        <v>234</v>
+      </c>
+      <c r="C119" t="s">
+        <v>336</v>
+      </c>
+      <c r="D119" s="3">
+        <v>45318.43528935185</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F119">
+        <v>250</v>
+      </c>
+      <c r="G119" t="s">
+        <v>401</v>
+      </c>
+      <c r="H119">
+        <v>800.00096</v>
+      </c>
+      <c r="I119" t="s">
+        <v>404</v>
+      </c>
+      <c r="K119" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120" t="s">
+        <v>129</v>
+      </c>
+      <c r="B120" t="s">
+        <v>235</v>
+      </c>
+      <c r="C120" t="s">
+        <v>337</v>
+      </c>
+      <c r="D120" s="3">
+        <v>45318.52028935185</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="F120">
+        <v>800</v>
+      </c>
+      <c r="G120" t="s">
+        <v>402</v>
+      </c>
+      <c r="H120">
+        <v>3849.9994</v>
+      </c>
+      <c r="I120" t="s">
+        <v>404</v>
+      </c>
+      <c r="K120" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121" t="s">
+        <v>130</v>
+      </c>
+      <c r="B121" t="s">
+        <v>236</v>
+      </c>
+      <c r="C121" t="s">
+        <v>338</v>
+      </c>
+      <c r="D121" s="3">
+        <v>45318.53774305555</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="F121">
+        <v>1270.2</v>
+      </c>
+      <c r="G121" t="s">
+        <v>401</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121" t="s">
+        <v>405</v>
+      </c>
+      <c r="K121" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122" t="s">
+        <v>131</v>
+      </c>
+      <c r="B122" t="s">
+        <v>231</v>
+      </c>
+      <c r="C122" t="s">
+        <v>333</v>
+      </c>
+      <c r="D122" s="3">
+        <v>45320.44130787037</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="F122">
+        <v>181.9</v>
+      </c>
+      <c r="G122" t="s">
+        <v>401</v>
+      </c>
+      <c r="H122">
+        <v>800.00096</v>
+      </c>
+      <c r="I122" t="s">
+        <v>404</v>
+      </c>
+      <c r="K122" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123" t="s">
+        <v>132</v>
+      </c>
+      <c r="B123" t="s">
+        <v>237</v>
+      </c>
+      <c r="C123" t="s">
+        <v>339</v>
+      </c>
+      <c r="D123" s="3">
+        <v>45320.48193287037</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F123">
+        <v>300</v>
+      </c>
+      <c r="G123" t="s">
+        <v>401</v>
+      </c>
+      <c r="H123">
+        <v>499.99944</v>
+      </c>
+      <c r="I123" t="s">
+        <v>404</v>
+      </c>
+      <c r="K123" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124" t="s">
+        <v>133</v>
+      </c>
+      <c r="B124" t="s">
+        <v>237</v>
+      </c>
+      <c r="C124" t="s">
+        <v>339</v>
+      </c>
+      <c r="D124" s="3">
+        <v>45320.48549768519</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F124">
+        <v>300</v>
+      </c>
+      <c r="G124" t="s">
+        <v>401</v>
+      </c>
+      <c r="H124">
+        <v>499.99828</v>
+      </c>
+      <c r="I124" t="s">
+        <v>404</v>
+      </c>
+      <c r="K124" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125" t="s">
+        <v>134</v>
+      </c>
+      <c r="B125" t="s">
+        <v>237</v>
+      </c>
+      <c r="C125" t="s">
+        <v>339</v>
+      </c>
+      <c r="D125" s="3">
+        <v>45320.4875</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F125">
+        <v>300</v>
+      </c>
+      <c r="G125" t="s">
+        <v>401</v>
+      </c>
+      <c r="H125">
+        <v>499.99828</v>
+      </c>
+      <c r="I125" t="s">
+        <v>404</v>
+      </c>
+      <c r="K125" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126" t="s">
+        <v>135</v>
+      </c>
+      <c r="B126" t="s">
+        <v>238</v>
+      </c>
+      <c r="C126" t="s">
+        <v>340</v>
+      </c>
+      <c r="D126" s="3">
+        <v>45320.51798611111</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126" t="s">
+        <v>400</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126" t="s">
+        <v>405</v>
+      </c>
+      <c r="K126" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127" t="s">
+        <v>136</v>
+      </c>
+      <c r="B127" t="s">
+        <v>239</v>
+      </c>
+      <c r="C127" t="s">
+        <v>341</v>
+      </c>
+      <c r="D127" s="3">
+        <v>45320.52901620371</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127" t="s">
+        <v>401</v>
+      </c>
+      <c r="H127">
+        <v>250.0032</v>
+      </c>
+      <c r="I127" t="s">
+        <v>404</v>
+      </c>
+      <c r="K127" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128" t="s">
+        <v>137</v>
+      </c>
+      <c r="B128" t="s">
+        <v>240</v>
+      </c>
+      <c r="C128" t="s">
+        <v>342</v>
+      </c>
+      <c r="D128" s="3">
+        <v>45320.57282407407</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128" t="s">
+        <v>402</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128" t="s">
+        <v>405</v>
+      </c>
+      <c r="K128" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129" t="s">
+        <v>138</v>
+      </c>
+      <c r="B129" t="s">
+        <v>241</v>
+      </c>
+      <c r="C129" t="s">
         <v>288</v>
       </c>
-      <c r="D107" s="3">
-        <v>45315.7253125</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="F107">
-        <v>197.413793</v>
-      </c>
-      <c r="G107" t="s">
-        <v>342</v>
-      </c>
-      <c r="H107">
-        <v>1300.0004</v>
-      </c>
-      <c r="I107" t="s">
-        <v>345</v>
-      </c>
-      <c r="K107" t="s">
-        <v>462</v>
+      <c r="D129" s="3">
+        <v>45320.61900462963</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F129">
+        <v>250</v>
+      </c>
+      <c r="G129" t="s">
+        <v>401</v>
+      </c>
+      <c r="H129">
+        <v>599.9984000000001</v>
+      </c>
+      <c r="I129" t="s">
+        <v>404</v>
+      </c>
+      <c r="K129" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130" t="s">
+        <v>139</v>
+      </c>
+      <c r="B130" t="s">
+        <v>242</v>
+      </c>
+      <c r="C130" t="s">
+        <v>343</v>
+      </c>
+      <c r="D130" s="3">
+        <v>45321.38232638889</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F130">
+        <v>1250</v>
+      </c>
+      <c r="G130" t="s">
+        <v>401</v>
+      </c>
+      <c r="H130">
+        <v>2500</v>
+      </c>
+      <c r="I130" t="s">
+        <v>404</v>
+      </c>
+      <c r="K130" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131" t="s">
+        <v>140</v>
+      </c>
+      <c r="B131" t="s">
+        <v>243</v>
+      </c>
+      <c r="C131" t="s">
+        <v>288</v>
+      </c>
+      <c r="D131" s="3">
+        <v>45321.4528587963</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="F131">
+        <v>60.344</v>
+      </c>
+      <c r="G131" t="s">
+        <v>402</v>
+      </c>
+      <c r="H131">
+        <v>500.00292</v>
+      </c>
+      <c r="I131" t="s">
+        <v>404</v>
+      </c>
+      <c r="K131" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132" t="s">
+        <v>141</v>
+      </c>
+      <c r="B132" t="s">
+        <v>244</v>
+      </c>
+      <c r="C132" t="s">
+        <v>288</v>
+      </c>
+      <c r="D132" s="3">
+        <v>45321.49140046296</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132" t="s">
+        <v>400</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132" t="s">
+        <v>405</v>
+      </c>
+      <c r="K132" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133" t="s">
+        <v>142</v>
+      </c>
+      <c r="B133" t="s">
+        <v>245</v>
+      </c>
+      <c r="C133" t="s">
+        <v>344</v>
+      </c>
+      <c r="D133" s="3">
+        <v>45322.39694444444</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="F133">
+        <v>753.44517</v>
+      </c>
+      <c r="G133" t="s">
+        <v>401</v>
+      </c>
+      <c r="H133">
+        <v>3299.9967999</v>
+      </c>
+      <c r="I133" t="s">
+        <v>404</v>
+      </c>
+      <c r="K133" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134" t="s">
+        <v>143</v>
+      </c>
+      <c r="B134" t="s">
+        <v>246</v>
+      </c>
+      <c r="C134" t="s">
+        <v>288</v>
+      </c>
+      <c r="D134" s="3">
+        <v>45322.71115740741</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F134">
+        <v>1200</v>
+      </c>
+      <c r="G134" t="s">
+        <v>402</v>
+      </c>
+      <c r="H134">
+        <v>3199.9992</v>
+      </c>
+      <c r="I134" t="s">
+        <v>404</v>
+      </c>
+      <c r="K134" t="s">
+        <v>542</v>
       </c>
     </row>
   </sheetData>

--- a/only_services.xlsx
+++ b/only_services.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="484">
   <si>
     <t>Folio</t>
   </si>
@@ -1049,205 +1049,6 @@
   </si>
   <si>
     <t>4423324841</t>
-  </si>
-  <si>
-    <t>Mantenimiento general - 250.0</t>
-  </si>
-  <si>
-    <t>SSD SATA 2.5  1TB - 850.0</t>
-  </si>
-  <si>
-    <t>SSD SATA 2.5  1TB - 850.0
-Bateria OEM para Zbook - 197.413793</t>
-  </si>
-  <si>
-    <t>Bateria OEM para DELL Precision 4500 49Wh - 197.413793</t>
-  </si>
-  <si>
-    <t>SSD SATA 2.5  256GB - 650.86
-Caddy para disco externo - 60.344</t>
-  </si>
-  <si>
-    <t>Reparacion de Bisagras - 400.0
-Cargador HP 65W - 314.65517</t>
-  </si>
-  <si>
-    <t>Instalación autocad, revit y sketchup - 300.0</t>
-  </si>
-  <si>
-    <t>Mantenimiento general - 250.0
-Cargador Lenovo punta cuadrada 65w - 314.65517</t>
-  </si>
-  <si>
-    <t>Bateria OEM para HP Pavilion 15-cw 11.4v 41Wh - 197.413793
-Mantenimiento general - 250.0</t>
-  </si>
-  <si>
-    <t>SSD SATA 2.5  120GB - 181.9</t>
-  </si>
-  <si>
-    <t>Garantía - 0.0</t>
-  </si>
-  <si>
-    <t>FUENTE DE PODER 750 PYLON - 1270.2
-Mantenimiento general - 250.0</t>
-  </si>
-  <si>
-    <t>Reinstalación Sistema Operativo - 250.0</t>
-  </si>
-  <si>
-    <t>Diagnostico - 0.0</t>
-  </si>
-  <si>
-    <t>Instalación AUTCAD INGLES, SOLID Y ACTIVAR WINDOWS - 300.0</t>
-  </si>
-  <si>
-    <t>Caddy para disco externo - 60.344
-SSD SATA 2.5  500GB - 438.79</t>
-  </si>
-  <si>
-    <t>Bateria OEM para HP Pavilion 15-cw1xx 41Wh - 197.413793</t>
-  </si>
-  <si>
-    <t>Bateria OEM para Toshiba S55t-B 32Wh - 1270.2</t>
-  </si>
-  <si>
-    <t>Refacción diversa (especificar) - 1270.2</t>
-  </si>
-  <si>
-    <t>SSD M.2  NVME 256GB - 400.0</t>
-  </si>
-  <si>
-    <t>Instalación Office pro plus - 150.0</t>
-  </si>
-  <si>
-    <t>SSD M.2  NVME 1TB - 1412.93</t>
-  </si>
-  <si>
-    <t>Teclado en Español para T430 Sin Retroiluminación - 1270.2</t>
-  </si>
-  <si>
-    <t>BATERIA OEM para Hp 15cw1012la41Wh - 197.413793
-Cargador original HP 65Wh Minicentrino - 314.65517</t>
-  </si>
-  <si>
-    <t>Instalación Software - 300.0</t>
-  </si>
-  <si>
-    <t>SSD SATA 2.5  256GB - 650.86</t>
-  </si>
-  <si>
-    <t>Cargador - 314.65517</t>
-  </si>
-  <si>
-    <t>Diagnostico e instalación de impresora - 0.0</t>
-  </si>
-  <si>
-    <t>Caddy para disco externo - 60.344</t>
-  </si>
-  <si>
-    <t>Cargador Asus 65W - 1270.2</t>
-  </si>
-  <si>
-    <t>Drenado de energía - 250.0</t>
-  </si>
-  <si>
-    <t>Bateria OEM para DELL Inspiron E5570 62wh 7.6v 1 - 1270.2</t>
-  </si>
-  <si>
-    <t>cable de corriente trifasico - 1270.2</t>
-  </si>
-  <si>
-    <t>Memoria DDR4 RAM 8GB laptop - 400.0</t>
-  </si>
-  <si>
-    <t>SSD SATA 2.5  120GB - 181.9
-Caddy para disco externo - 60.344</t>
-  </si>
-  <si>
-    <t>Memporia RAM DDR4 16GB laptop - 600.0</t>
-  </si>
-  <si>
-    <t>Kit teclado mouse inalambrico - 95.0</t>
-  </si>
-  <si>
-    <t>Reparacion de Bisagras - 400.0
-Mantenimiento general - 250.0</t>
-  </si>
-  <si>
-    <t>Bateria OEM para DELL Inspiron 15  7000 11.1v 43Wh - 1270.2</t>
-  </si>
-  <si>
-    <t>SSD SATA 2.5  500GB - 438.79
-Caddy para disco externo - 60.344</t>
-  </si>
-  <si>
-    <t>Instalación Software - 300.0
-Reparacion de tecla y trackpoint - 1270.2</t>
-  </si>
-  <si>
-    <t>Garantia Centro de Servicio - 0.0</t>
-  </si>
-  <si>
-    <t>Teclado par Lenovo T570 en Español No
-retroiluminado - 1270.2
-Teclado para Lenovo T460 en Español No
-retroiluminado - 1270.2
-Display 14" LED 1366x768 Bisel Delgado - 1270.2</t>
-  </si>
-  <si>
-    <t>Envío FEDEX - 191.0</t>
-  </si>
-  <si>
-    <t>SSD SATA 2.5  256GB - 650.86
-Bateria OEM para Acer Aspire A523 14.6v 32Wh - 1270.2</t>
-  </si>
-  <si>
-    <t>Drenado de energía y relocalización de memoria RAM - 250.0</t>
-  </si>
-  <si>
-    <t>Instalacion de Autocad 2022 ingles y español - 300.0</t>
-  </si>
-  <si>
-    <t>Bateria OEM para HP 360 14-cd 11.4v 39 wh - 1270.2</t>
-  </si>
-  <si>
-    <t>Ventilador de refrigeración para HP 15-cw y mano de obra de reemplazo - 1270.2
-Mantenimiento general - 250.0</t>
-  </si>
-  <si>
-    <t>Bateria Lenovo YOGA E11 - 197.413793</t>
-  </si>
-  <si>
-    <t>BATERIA ORIGINAL DELL WDX0R 11.4v
-42 Wh - 1270.2</t>
-  </si>
-  <si>
-    <t>SSD M.2  NVME 256GB - 400.0
-Memoria DDR4 RAM 8GB laptop - 400.0</t>
-  </si>
-  <si>
-    <t>SSD SATA 2.5  1TB - 850.0
-Memoria DDR4 RAM 8GB laptop - 400.0</t>
-  </si>
-  <si>
-    <t>SSD SATA 2.5  500GB - 438.79
-Cargador Lenovo punta Caudrada 65W - 314.65517</t>
-  </si>
-  <si>
-    <t>MEMORIA RAM 32GB DDR4 LAPTOP - 1200.0</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>Desconocido</t>
-  </si>
-  <si>
-    <t>SÍ</t>
   </si>
   <si>
     <t>Facturada</t>
@@ -2086,23 +1887,20 @@
       <c r="D2" s="3">
         <v>45293.40916666666</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>345</v>
-      </c>
       <c r="F2">
-        <v>250</v>
-      </c>
-      <c r="G2" t="s">
-        <v>400</v>
+        <v>0</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
       </c>
       <c r="H2">
         <v>700.0020000000001</v>
       </c>
       <c r="I2" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K2" t="s">
-        <v>417</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2118,23 +1916,17 @@
       <c r="D3" s="3">
         <v>45293.42548611111</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>346</v>
-      </c>
       <c r="F3">
-        <v>850</v>
-      </c>
-      <c r="G3" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>1799.9999908</v>
       </c>
       <c r="I3" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K3" t="s">
-        <v>418</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2150,26 +1942,20 @@
       <c r="D4" s="3">
         <v>45293.43032407408</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>347</v>
-      </c>
       <c r="F4">
-        <v>1047.413793</v>
-      </c>
-      <c r="G4" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>3423.9952</v>
       </c>
       <c r="I4" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="J4" t="s">
-        <v>406</v>
+        <v>347</v>
       </c>
       <c r="K4" t="s">
-        <v>419</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2185,26 +1971,20 @@
       <c r="D5" s="3">
         <v>45293.43159722222</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>348</v>
-      </c>
       <c r="F5">
-        <v>197.413793</v>
-      </c>
-      <c r="G5" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>1972</v>
       </c>
       <c r="I5" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="J5" t="s">
-        <v>407</v>
+        <v>348</v>
       </c>
       <c r="K5" t="s">
-        <v>420</v>
+        <v>361</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2220,23 +2000,17 @@
       <c r="D6" s="3">
         <v>45293.49710648148</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>349</v>
-      </c>
       <c r="F6">
-        <v>711.2040000000001</v>
-      </c>
-      <c r="G6" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>2547.998</v>
       </c>
       <c r="I6" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K6" t="s">
-        <v>421</v>
+        <v>362</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2252,23 +2026,17 @@
       <c r="D7" s="3">
         <v>45293.520625</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>350</v>
-      </c>
       <c r="F7">
-        <v>714.65517</v>
-      </c>
-      <c r="G7" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>1711.99992</v>
       </c>
       <c r="I7" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K7" t="s">
-        <v>422</v>
+        <v>363</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2284,23 +2052,17 @@
       <c r="D8" s="3">
         <v>45293.5405787037</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>351</v>
-      </c>
       <c r="F8">
-        <v>300</v>
-      </c>
-      <c r="G8" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>599.9984000000001</v>
       </c>
       <c r="I8" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K8" t="s">
-        <v>423</v>
+        <v>364</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2316,23 +2078,17 @@
       <c r="D9" s="3">
         <v>45293.63739583334</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>352</v>
-      </c>
       <c r="F9">
-        <v>564.65517</v>
-      </c>
-      <c r="G9" t="s">
-        <v>402</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>1508</v>
       </c>
       <c r="I9" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K9" t="s">
-        <v>424</v>
+        <v>365</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2348,26 +2104,20 @@
       <c r="D10" s="3">
         <v>45293.64356481482</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>353</v>
-      </c>
       <c r="F10">
-        <v>447.413793</v>
-      </c>
-      <c r="G10" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>2436</v>
       </c>
       <c r="I10" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="J10" t="s">
-        <v>408</v>
+        <v>349</v>
       </c>
       <c r="K10" t="s">
-        <v>425</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2383,23 +2133,17 @@
       <c r="D11" s="3">
         <v>45293.64849537037</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>354</v>
-      </c>
       <c r="F11">
-        <v>181.9</v>
-      </c>
-      <c r="G11" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>1500.7996248</v>
       </c>
       <c r="I11" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K11" t="s">
-        <v>426</v>
+        <v>367</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2415,23 +2159,17 @@
       <c r="D12" s="3">
         <v>45293.69689814815</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>355</v>
-      </c>
       <c r="F12">
         <v>0</v>
       </c>
-      <c r="G12" t="s">
-        <v>402</v>
-      </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>405</v>
+        <v>346</v>
       </c>
       <c r="K12" t="s">
-        <v>427</v>
+        <v>368</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2447,23 +2185,17 @@
       <c r="D13" s="3">
         <v>45293.72875</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>356</v>
-      </c>
       <c r="F13">
-        <v>1520.2</v>
-      </c>
-      <c r="G13" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>3248</v>
       </c>
       <c r="I13" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K13" t="s">
-        <v>428</v>
+        <v>369</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2479,23 +2211,17 @@
       <c r="D14" s="3">
         <v>45293.73319444444</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>357</v>
-      </c>
       <c r="F14">
-        <v>250</v>
-      </c>
-      <c r="G14" t="s">
-        <v>402</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>580</v>
       </c>
       <c r="I14" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K14" t="s">
-        <v>429</v>
+        <v>370</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2511,23 +2237,20 @@
       <c r="D15" s="3">
         <v>45293.73402777778</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>357</v>
-      </c>
       <c r="F15">
-        <v>250</v>
-      </c>
-      <c r="G15" t="s">
-        <v>400</v>
+        <v>0</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
       </c>
       <c r="H15">
         <v>580</v>
       </c>
       <c r="I15" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K15" t="s">
-        <v>430</v>
+        <v>371</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2543,23 +2266,20 @@
       <c r="D16" s="3">
         <v>45294.45621527778</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>355</v>
-      </c>
       <c r="F16">
         <v>0</v>
       </c>
-      <c r="G16" t="s">
-        <v>400</v>
+      <c r="G16" t="b">
+        <v>1</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>405</v>
+        <v>346</v>
       </c>
       <c r="K16" t="s">
-        <v>431</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -2575,23 +2295,17 @@
       <c r="D17" s="3">
         <v>45294.52268518518</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>345</v>
-      </c>
       <c r="F17">
-        <v>250</v>
-      </c>
-      <c r="G17" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H17">
         <v>700.0020000000001</v>
       </c>
       <c r="I17" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K17" t="s">
-        <v>432</v>
+        <v>373</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -2607,23 +2321,17 @@
       <c r="D18" s="3">
         <v>45294.69050925926</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>358</v>
-      </c>
       <c r="F18">
         <v>0</v>
-      </c>
-      <c r="G18" t="s">
-        <v>401</v>
       </c>
       <c r="H18">
         <v>249.99999956</v>
       </c>
       <c r="I18" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K18" t="s">
-        <v>433</v>
+        <v>374</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2639,23 +2347,17 @@
       <c r="D19" s="3">
         <v>45295.41672453703</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>359</v>
-      </c>
       <c r="F19">
-        <v>300</v>
-      </c>
-      <c r="G19" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <v>580</v>
       </c>
       <c r="I19" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K19" t="s">
-        <v>434</v>
+        <v>375</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2671,23 +2373,17 @@
       <c r="D20" s="3">
         <v>45295.50078703704</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>358</v>
-      </c>
       <c r="F20">
         <v>0</v>
-      </c>
-      <c r="G20" t="s">
-        <v>401</v>
       </c>
       <c r="H20">
         <v>250.0032</v>
       </c>
       <c r="I20" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K20" t="s">
-        <v>435</v>
+        <v>376</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2703,23 +2399,17 @@
       <c r="D21" s="3">
         <v>45295.5046412037</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>360</v>
-      </c>
       <c r="F21">
-        <v>499.134</v>
-      </c>
-      <c r="G21" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <v>2949.996</v>
       </c>
       <c r="I21" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K21" t="s">
-        <v>436</v>
+        <v>377</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2735,23 +2425,17 @@
       <c r="D22" s="3">
         <v>45295.56520833333</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>345</v>
-      </c>
       <c r="F22">
-        <v>250</v>
-      </c>
-      <c r="G22" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>812</v>
       </c>
       <c r="I22" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K22" t="s">
-        <v>437</v>
+        <v>378</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2767,23 +2451,17 @@
       <c r="D23" s="3">
         <v>45295.59929398148</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>361</v>
-      </c>
       <c r="F23">
-        <v>197.413793</v>
-      </c>
-      <c r="G23" t="s">
-        <v>402</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <v>1450</v>
       </c>
       <c r="I23" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K23" t="s">
-        <v>438</v>
+        <v>379</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -2799,23 +2477,17 @@
       <c r="D24" s="3">
         <v>45295.60870370371</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>355</v>
-      </c>
       <c r="F24">
         <v>0</v>
       </c>
-      <c r="G24" t="s">
-        <v>401</v>
-      </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>405</v>
+        <v>346</v>
       </c>
       <c r="K24" t="s">
-        <v>439</v>
+        <v>380</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -2831,23 +2503,17 @@
       <c r="D25" s="3">
         <v>45295.71038194445</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>345</v>
-      </c>
       <c r="F25">
-        <v>250</v>
-      </c>
-      <c r="G25" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H25">
         <v>812</v>
       </c>
       <c r="I25" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K25" t="s">
-        <v>440</v>
+        <v>381</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -2863,23 +2529,17 @@
       <c r="D26" s="3">
         <v>45295.71620370371</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>345</v>
-      </c>
       <c r="F26">
-        <v>250</v>
-      </c>
-      <c r="G26" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H26">
         <v>812</v>
       </c>
       <c r="I26" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K26" t="s">
-        <v>441</v>
+        <v>382</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2895,23 +2555,20 @@
       <c r="D27" s="3">
         <v>45295.75900462963</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>355</v>
-      </c>
       <c r="F27">
         <v>0</v>
       </c>
-      <c r="G27" t="s">
-        <v>400</v>
+      <c r="G27" t="b">
+        <v>1</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>405</v>
+        <v>346</v>
       </c>
       <c r="K27" t="s">
-        <v>442</v>
+        <v>383</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2927,26 +2584,20 @@
       <c r="D28" s="3">
         <v>45296.48380787037</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>362</v>
-      </c>
       <c r="F28">
-        <v>1270.2</v>
-      </c>
-      <c r="G28" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H28">
         <v>1624</v>
       </c>
       <c r="I28" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="J28" t="s">
-        <v>409</v>
+        <v>350</v>
       </c>
       <c r="K28" t="s">
-        <v>443</v>
+        <v>384</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2962,23 +2613,17 @@
       <c r="D29" s="3">
         <v>45296.70635416666</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>357</v>
-      </c>
       <c r="F29">
-        <v>250</v>
-      </c>
-      <c r="G29" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H29">
         <v>580</v>
       </c>
       <c r="I29" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K29" t="s">
-        <v>444</v>
+        <v>385</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2994,23 +2639,17 @@
       <c r="D30" s="3">
         <v>45296.70888888889</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>357</v>
-      </c>
       <c r="F30">
-        <v>250</v>
-      </c>
-      <c r="G30" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H30">
         <v>580</v>
       </c>
       <c r="I30" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K30" t="s">
-        <v>445</v>
+        <v>386</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -3026,23 +2665,17 @@
       <c r="D31" s="3">
         <v>45296.71063657408</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>357</v>
-      </c>
       <c r="F31">
-        <v>250</v>
-      </c>
-      <c r="G31" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H31">
         <v>580</v>
       </c>
       <c r="I31" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K31" t="s">
-        <v>445</v>
+        <v>386</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -3058,23 +2691,17 @@
       <c r="D32" s="3">
         <v>45296.71376157407</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>357</v>
-      </c>
       <c r="F32">
-        <v>250</v>
-      </c>
-      <c r="G32" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H32">
         <v>580</v>
       </c>
       <c r="I32" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K32" t="s">
-        <v>446</v>
+        <v>387</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -3090,23 +2717,17 @@
       <c r="D33" s="3">
         <v>45296.71980324074</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>363</v>
-      </c>
       <c r="F33">
-        <v>1270.2</v>
-      </c>
-      <c r="G33" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>405</v>
+        <v>346</v>
       </c>
       <c r="K33" t="s">
-        <v>447</v>
+        <v>388</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -3122,23 +2743,17 @@
       <c r="D34" s="3">
         <v>45296.7368287037</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>349</v>
-      </c>
       <c r="F34">
-        <v>711.2040000000001</v>
-      </c>
-      <c r="G34" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H34">
         <v>2499.9972</v>
       </c>
       <c r="I34" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K34" t="s">
-        <v>448</v>
+        <v>389</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -3154,23 +2769,17 @@
       <c r="D35" s="3">
         <v>45296.7422337963</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>358</v>
-      </c>
       <c r="F35">
         <v>0</v>
-      </c>
-      <c r="G35" t="s">
-        <v>401</v>
       </c>
       <c r="H35">
         <v>250.0032</v>
       </c>
       <c r="I35" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K35" t="s">
-        <v>449</v>
+        <v>390</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -3186,23 +2795,17 @@
       <c r="D36" s="3">
         <v>45297.44438657408</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>364</v>
-      </c>
       <c r="F36">
-        <v>400</v>
-      </c>
-      <c r="G36" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H36">
         <v>2199.998</v>
       </c>
       <c r="I36" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K36" t="s">
-        <v>450</v>
+        <v>391</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -3218,23 +2821,17 @@
       <c r="D37" s="3">
         <v>45299.65844907407</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>354</v>
-      </c>
       <c r="F37">
-        <v>181.9</v>
-      </c>
-      <c r="G37" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H37">
         <v>1599.9999944</v>
       </c>
       <c r="I37" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K37" t="s">
-        <v>451</v>
+        <v>392</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -3250,23 +2847,17 @@
       <c r="D38" s="3">
         <v>45299.70826388889</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>365</v>
-      </c>
       <c r="F38">
-        <v>150</v>
-      </c>
-      <c r="G38" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H38">
         <v>299.9992</v>
       </c>
       <c r="I38" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K38" t="s">
-        <v>452</v>
+        <v>393</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -3282,23 +2873,17 @@
       <c r="D39" s="3">
         <v>45299.7290162037</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>346</v>
-      </c>
       <c r="F39">
-        <v>850</v>
-      </c>
-      <c r="G39" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H39">
         <v>1300.0004</v>
       </c>
       <c r="I39" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K39" t="s">
-        <v>453</v>
+        <v>394</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -3314,23 +2899,17 @@
       <c r="D40" s="3">
         <v>45299.76886574074</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>366</v>
-      </c>
       <c r="F40">
-        <v>1412.93</v>
-      </c>
-      <c r="G40" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H40">
         <v>1499.9999147</v>
       </c>
       <c r="I40" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K40" t="s">
-        <v>454</v>
+        <v>395</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -3346,26 +2925,20 @@
       <c r="D41" s="3">
         <v>45300.53837962963</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>367</v>
-      </c>
       <c r="F41">
-        <v>1270.2</v>
-      </c>
-      <c r="G41" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H41">
         <v>1400.004</v>
       </c>
       <c r="I41" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="J41" t="s">
-        <v>410</v>
+        <v>351</v>
       </c>
       <c r="K41" t="s">
-        <v>455</v>
+        <v>396</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -3381,23 +2954,20 @@
       <c r="D42" s="3">
         <v>45300.6213425926</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>355</v>
-      </c>
       <c r="F42">
         <v>0</v>
       </c>
-      <c r="G42" t="s">
-        <v>400</v>
+      <c r="G42" t="b">
+        <v>1</v>
       </c>
       <c r="H42">
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>405</v>
+        <v>346</v>
       </c>
       <c r="K42" t="s">
-        <v>456</v>
+        <v>397</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -3413,23 +2983,17 @@
       <c r="D43" s="3">
         <v>45300.63311342592</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>368</v>
-      </c>
       <c r="F43">
-        <v>512.0689629999999</v>
-      </c>
-      <c r="G43" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H43">
         <v>2900</v>
       </c>
       <c r="I43" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K43" t="s">
-        <v>457</v>
+        <v>398</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -3445,23 +3009,17 @@
       <c r="D44" s="3">
         <v>45300.675</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>369</v>
-      </c>
       <c r="F44">
-        <v>300</v>
-      </c>
-      <c r="G44" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H44">
         <v>349.9952</v>
       </c>
       <c r="I44" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K44" t="s">
-        <v>458</v>
+        <v>399</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -3477,23 +3035,17 @@
       <c r="D45" s="3">
         <v>45300.69486111111</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>358</v>
-      </c>
       <c r="F45">
         <v>0</v>
-      </c>
-      <c r="G45" t="s">
-        <v>401</v>
       </c>
       <c r="H45">
         <v>250.0032</v>
       </c>
       <c r="I45" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K45" t="s">
-        <v>459</v>
+        <v>400</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -3509,23 +3061,17 @@
       <c r="D46" s="3">
         <v>45300.73149305556</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>354</v>
-      </c>
       <c r="F46">
-        <v>181.9</v>
-      </c>
-      <c r="G46" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H46">
         <v>1599.9996</v>
       </c>
       <c r="I46" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K46" t="s">
-        <v>460</v>
+        <v>401</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -3541,26 +3087,20 @@
       <c r="D47" s="3">
         <v>45301.38350694445</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>369</v>
-      </c>
       <c r="F47">
-        <v>300</v>
-      </c>
-      <c r="G47" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H47">
         <v>349.999956</v>
       </c>
       <c r="I47" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="J47" t="s">
-        <v>411</v>
+        <v>352</v>
       </c>
       <c r="K47" t="s">
-        <v>461</v>
+        <v>402</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -3576,23 +3116,17 @@
       <c r="D48" s="3">
         <v>45301.45447916666</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>370</v>
-      </c>
       <c r="F48">
-        <v>650.86</v>
-      </c>
-      <c r="G48" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H48">
         <v>2000.0024</v>
       </c>
       <c r="I48" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K48" t="s">
-        <v>462</v>
+        <v>403</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -3608,23 +3142,20 @@
       <c r="D49" s="3">
         <v>45301.56194444445</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>358</v>
-      </c>
       <c r="F49">
         <v>0</v>
       </c>
-      <c r="G49" t="s">
-        <v>400</v>
+      <c r="G49" t="b">
+        <v>1</v>
       </c>
       <c r="H49">
         <v>249.99999956</v>
       </c>
       <c r="I49" t="s">
+        <v>345</v>
+      </c>
+      <c r="K49" t="s">
         <v>404</v>
-      </c>
-      <c r="K49" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -3640,23 +3171,17 @@
       <c r="D50" s="3">
         <v>45301.5903125</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>357</v>
-      </c>
       <c r="F50">
-        <v>250</v>
-      </c>
-      <c r="G50" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H50">
         <v>580</v>
       </c>
       <c r="I50" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K50" t="s">
-        <v>464</v>
+        <v>405</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -3672,23 +3197,20 @@
       <c r="D51" s="3">
         <v>45301.64981481482</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>355</v>
-      </c>
       <c r="F51">
         <v>0</v>
       </c>
-      <c r="G51" t="s">
-        <v>400</v>
+      <c r="G51" t="b">
+        <v>1</v>
       </c>
       <c r="H51">
         <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>405</v>
+        <v>346</v>
       </c>
       <c r="K51" t="s">
-        <v>465</v>
+        <v>406</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -3704,23 +3226,20 @@
       <c r="D52" s="3">
         <v>45301.70329861111</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>355</v>
-      </c>
       <c r="F52">
         <v>0</v>
       </c>
-      <c r="G52" t="s">
-        <v>400</v>
+      <c r="G52" t="b">
+        <v>1</v>
       </c>
       <c r="H52">
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>405</v>
+        <v>346</v>
       </c>
       <c r="K52" t="s">
-        <v>466</v>
+        <v>407</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -3736,23 +3255,17 @@
       <c r="D53" s="3">
         <v>45301.72096064815</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>354</v>
-      </c>
       <c r="F53">
-        <v>181.9</v>
-      </c>
-      <c r="G53" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H53">
         <v>1599.9996</v>
       </c>
       <c r="I53" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K53" t="s">
-        <v>467</v>
+        <v>408</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -3768,23 +3281,17 @@
       <c r="D54" s="3">
         <v>45301.76365740741</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>371</v>
-      </c>
       <c r="F54">
-        <v>314.65517</v>
-      </c>
-      <c r="G54" t="s">
-        <v>402</v>
+        <v>0</v>
       </c>
       <c r="H54">
         <v>1150.0008</v>
       </c>
       <c r="I54" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K54" t="s">
-        <v>468</v>
+        <v>409</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -3800,23 +3307,17 @@
       <c r="D55" s="3">
         <v>45302.43177083333</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>372</v>
-      </c>
       <c r="F55">
         <v>0</v>
-      </c>
-      <c r="G55" t="s">
-        <v>402</v>
       </c>
       <c r="H55">
         <v>249.999999999988</v>
       </c>
       <c r="I55" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K55" t="s">
-        <v>469</v>
+        <v>410</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3832,23 +3333,17 @@
       <c r="D56" s="3">
         <v>45302.57895833333</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>363</v>
-      </c>
       <c r="F56">
-        <v>1270.2</v>
-      </c>
-      <c r="G56" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H56">
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>405</v>
+        <v>346</v>
       </c>
       <c r="K56" t="s">
-        <v>470</v>
+        <v>411</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -3864,23 +3359,17 @@
       <c r="D57" s="3">
         <v>45302.66740740741</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>355</v>
-      </c>
       <c r="F57">
         <v>0</v>
       </c>
-      <c r="G57" t="s">
-        <v>402</v>
-      </c>
       <c r="H57">
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>405</v>
+        <v>346</v>
       </c>
       <c r="K57" t="s">
-        <v>471</v>
+        <v>412</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -3896,23 +3385,17 @@
       <c r="D58" s="3">
         <v>45303.54585648148</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>373</v>
-      </c>
       <c r="F58">
-        <v>60.344</v>
-      </c>
-      <c r="G58" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H58">
         <v>349.9952</v>
       </c>
       <c r="I58" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K58" t="s">
-        <v>472</v>
+        <v>413</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -3928,23 +3411,17 @@
       <c r="D59" s="3">
         <v>45303.74936342592</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>357</v>
-      </c>
       <c r="F59">
-        <v>250</v>
-      </c>
-      <c r="G59" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H59">
         <v>580</v>
       </c>
       <c r="I59" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K59" t="s">
-        <v>473</v>
+        <v>414</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -3960,26 +3437,20 @@
       <c r="D60" s="3">
         <v>45304.43210648148</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>374</v>
-      </c>
       <c r="F60">
-        <v>1270.2</v>
-      </c>
-      <c r="G60" t="s">
-        <v>402</v>
+        <v>0</v>
       </c>
       <c r="H60">
         <v>649.9999999928</v>
       </c>
       <c r="I60" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="J60" t="s">
-        <v>412</v>
+        <v>353</v>
       </c>
       <c r="K60" t="s">
-        <v>474</v>
+        <v>415</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -3995,23 +3466,17 @@
       <c r="D61" s="3">
         <v>45304.52567129629</v>
       </c>
-      <c r="E61" s="1" t="s">
-        <v>363</v>
-      </c>
       <c r="F61">
-        <v>1270.2</v>
-      </c>
-      <c r="G61" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H61">
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>405</v>
+        <v>346</v>
       </c>
       <c r="K61" t="s">
-        <v>475</v>
+        <v>416</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -4027,23 +3492,17 @@
       <c r="D62" s="3">
         <v>45306.48765046296</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>375</v>
-      </c>
       <c r="F62">
-        <v>250</v>
-      </c>
-      <c r="G62" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H62">
         <v>299.9999999998</v>
       </c>
       <c r="I62" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K62" t="s">
-        <v>476</v>
+        <v>417</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -4059,26 +3518,20 @@
       <c r="D63" s="3">
         <v>45306.49606481481</v>
       </c>
-      <c r="E63" s="1" t="s">
-        <v>376</v>
-      </c>
       <c r="F63">
-        <v>1270.2</v>
-      </c>
-      <c r="G63" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H63">
         <v>1599.9996</v>
       </c>
       <c r="I63" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="J63" t="s">
-        <v>413</v>
+        <v>354</v>
       </c>
       <c r="K63" t="s">
-        <v>477</v>
+        <v>418</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -4094,23 +3547,17 @@
       <c r="D64" s="3">
         <v>45306.51649305555</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>357</v>
-      </c>
       <c r="F64">
-        <v>250</v>
-      </c>
-      <c r="G64" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H64">
         <v>580</v>
       </c>
       <c r="I64" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K64" t="s">
-        <v>478</v>
+        <v>419</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -4126,23 +3573,17 @@
       <c r="D65" s="3">
         <v>45306.52288194445</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>363</v>
-      </c>
       <c r="F65">
-        <v>1270.2</v>
-      </c>
-      <c r="G65" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H65">
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>405</v>
+        <v>346</v>
       </c>
       <c r="K65" t="s">
-        <v>479</v>
+        <v>420</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -4158,23 +3599,17 @@
       <c r="D66" s="3">
         <v>45306.5281712963</v>
       </c>
-      <c r="E66" s="1" t="s">
-        <v>377</v>
-      </c>
       <c r="F66">
-        <v>1270.2</v>
-      </c>
-      <c r="G66" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H66">
         <v>79.99708</v>
       </c>
       <c r="I66" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K66" t="s">
-        <v>479</v>
+        <v>420</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -4190,23 +3625,17 @@
       <c r="D67" s="3">
         <v>45306.5890625</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>369</v>
-      </c>
       <c r="F67">
-        <v>300</v>
-      </c>
-      <c r="G67" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H67">
         <v>580</v>
       </c>
       <c r="I67" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K67" t="s">
-        <v>480</v>
+        <v>421</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -4222,23 +3651,17 @@
       <c r="D68" s="3">
         <v>45306.69413194444</v>
       </c>
-      <c r="E68" s="1" t="s">
-        <v>357</v>
-      </c>
       <c r="F68">
-        <v>250</v>
-      </c>
-      <c r="G68" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H68">
         <v>580</v>
       </c>
       <c r="I68" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K68" t="s">
-        <v>481</v>
+        <v>422</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -4254,23 +3677,17 @@
       <c r="D69" s="3">
         <v>45307.50402777778</v>
       </c>
-      <c r="E69" s="1" t="s">
-        <v>378</v>
-      </c>
       <c r="F69">
-        <v>400</v>
-      </c>
-      <c r="G69" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H69">
         <v>1199.9968</v>
       </c>
       <c r="I69" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K69" t="s">
-        <v>450</v>
+        <v>391</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -4286,23 +3703,17 @@
       <c r="D70" s="3">
         <v>45307.50483796297</v>
       </c>
-      <c r="E70" s="1" t="s">
-        <v>358</v>
-      </c>
       <c r="F70">
         <v>0</v>
-      </c>
-      <c r="G70" t="s">
-        <v>401</v>
       </c>
       <c r="H70">
         <v>250.0032</v>
       </c>
       <c r="I70" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K70" t="s">
-        <v>482</v>
+        <v>423</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -4318,23 +3729,17 @@
       <c r="D71" s="3">
         <v>45307.5415162037</v>
       </c>
-      <c r="E71" s="1" t="s">
-        <v>379</v>
-      </c>
       <c r="F71">
-        <v>242.244</v>
-      </c>
-      <c r="G71" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H71">
         <v>1899.9988</v>
       </c>
       <c r="I71" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K71" t="s">
-        <v>483</v>
+        <v>424</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -4350,23 +3755,17 @@
       <c r="D72" s="3">
         <v>45307.54159722223</v>
       </c>
-      <c r="E72" s="1" t="s">
-        <v>380</v>
-      </c>
       <c r="F72">
-        <v>600</v>
-      </c>
-      <c r="G72" t="s">
-        <v>402</v>
+        <v>0</v>
       </c>
       <c r="H72">
         <v>3199.9999888</v>
       </c>
       <c r="I72" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K72" t="s">
-        <v>484</v>
+        <v>425</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -4382,23 +3781,17 @@
       <c r="D73" s="3">
         <v>45307.69207175926</v>
       </c>
-      <c r="E73" s="1" t="s">
-        <v>357</v>
-      </c>
       <c r="F73">
-        <v>250</v>
-      </c>
-      <c r="G73" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H73">
         <v>580</v>
       </c>
       <c r="I73" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K73" t="s">
-        <v>485</v>
+        <v>426</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -4414,23 +3807,17 @@
       <c r="D74" s="3">
         <v>45307.69337962963</v>
       </c>
-      <c r="E74" s="1" t="s">
-        <v>354</v>
-      </c>
       <c r="F74">
-        <v>181.9</v>
-      </c>
-      <c r="G74" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H74">
         <v>1599.9996</v>
       </c>
       <c r="I74" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K74" t="s">
-        <v>486</v>
+        <v>427</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -4446,23 +3833,17 @@
       <c r="D75" s="3">
         <v>45307.72324074074</v>
       </c>
-      <c r="E75" s="1" t="s">
-        <v>354</v>
-      </c>
       <c r="F75">
-        <v>181.9</v>
-      </c>
-      <c r="G75" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H75">
         <v>1599.9996</v>
       </c>
       <c r="I75" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K75" t="s">
-        <v>487</v>
+        <v>428</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -4478,23 +3859,17 @@
       <c r="D76" s="3">
         <v>45307.74225694445</v>
       </c>
-      <c r="E76" s="1" t="s">
-        <v>381</v>
-      </c>
       <c r="F76">
-        <v>95</v>
-      </c>
-      <c r="G76" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H76">
         <v>700.0020000000001</v>
       </c>
       <c r="I76" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K76" t="s">
-        <v>462</v>
+        <v>403</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -4510,23 +3885,17 @@
       <c r="D77" s="3">
         <v>45308.72087962963</v>
       </c>
-      <c r="E77" s="1" t="s">
-        <v>355</v>
-      </c>
       <c r="F77">
         <v>0</v>
       </c>
-      <c r="G77" t="s">
-        <v>402</v>
-      </c>
       <c r="H77">
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>405</v>
+        <v>346</v>
       </c>
       <c r="K77" t="s">
-        <v>488</v>
+        <v>429</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -4542,23 +3911,17 @@
       <c r="D78" s="3">
         <v>45308.72868055556</v>
       </c>
-      <c r="E78" s="1" t="s">
-        <v>358</v>
-      </c>
       <c r="F78">
         <v>0</v>
-      </c>
-      <c r="G78" t="s">
-        <v>401</v>
       </c>
       <c r="H78">
         <v>250.0032</v>
       </c>
       <c r="I78" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K78" t="s">
-        <v>489</v>
+        <v>430</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -4574,23 +3937,17 @@
       <c r="D79" s="3">
         <v>45308.73480324074</v>
       </c>
-      <c r="E79" s="1" t="s">
-        <v>382</v>
-      </c>
       <c r="F79">
-        <v>650</v>
-      </c>
-      <c r="G79" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H79">
         <v>1624</v>
       </c>
       <c r="I79" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K79" t="s">
-        <v>490</v>
+        <v>431</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -4606,23 +3963,17 @@
       <c r="D80" s="3">
         <v>45308.74643518519</v>
       </c>
-      <c r="E80" s="1" t="s">
-        <v>358</v>
-      </c>
       <c r="F80">
         <v>0</v>
-      </c>
-      <c r="G80" t="s">
-        <v>401</v>
       </c>
       <c r="H80">
         <v>232</v>
       </c>
       <c r="I80" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K80" t="s">
-        <v>491</v>
+        <v>432</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -4638,23 +3989,17 @@
       <c r="D81" s="3">
         <v>45309.39240740741</v>
       </c>
-      <c r="E81" s="1" t="s">
-        <v>357</v>
-      </c>
       <c r="F81">
-        <v>250</v>
-      </c>
-      <c r="G81" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H81">
         <v>599.9984000000001</v>
       </c>
       <c r="I81" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K81" t="s">
-        <v>492</v>
+        <v>433</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -4670,26 +4015,20 @@
       <c r="D82" s="3">
         <v>45309.53040509259</v>
       </c>
-      <c r="E82" s="1" t="s">
-        <v>383</v>
-      </c>
       <c r="F82">
-        <v>1270.2</v>
-      </c>
-      <c r="G82" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H82">
         <v>1600</v>
       </c>
       <c r="I82" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="J82" t="s">
-        <v>414</v>
+        <v>355</v>
       </c>
       <c r="K82" t="s">
-        <v>493</v>
+        <v>434</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -4705,23 +4044,17 @@
       <c r="D83" s="3">
         <v>45309.71297453704</v>
       </c>
-      <c r="E83" s="1" t="s">
-        <v>384</v>
-      </c>
       <c r="F83">
-        <v>499.134</v>
-      </c>
-      <c r="G83" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H83">
         <v>3000.0036</v>
       </c>
       <c r="I83" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K83" t="s">
-        <v>494</v>
+        <v>435</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -4737,23 +4070,17 @@
       <c r="D84" s="3">
         <v>45309.72028935186</v>
       </c>
-      <c r="E84" s="1" t="s">
-        <v>363</v>
-      </c>
       <c r="F84">
-        <v>1270.2</v>
-      </c>
-      <c r="G84" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H84">
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>405</v>
+        <v>346</v>
       </c>
       <c r="K84" t="s">
-        <v>495</v>
+        <v>436</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -4769,23 +4096,17 @@
       <c r="D85" s="3">
         <v>45310.48010416667</v>
       </c>
-      <c r="E85" s="1" t="s">
-        <v>385</v>
-      </c>
       <c r="F85">
-        <v>1570.2</v>
-      </c>
-      <c r="G85" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H85">
         <v>349.9999999996401</v>
       </c>
       <c r="I85" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K85" t="s">
-        <v>496</v>
+        <v>437</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -4801,23 +4122,20 @@
       <c r="D86" s="3">
         <v>45310.60517361111</v>
       </c>
-      <c r="E86" s="1" t="s">
-        <v>386</v>
-      </c>
       <c r="F86">
         <v>0</v>
       </c>
-      <c r="G86" t="s">
-        <v>400</v>
+      <c r="G86" t="b">
+        <v>1</v>
       </c>
       <c r="H86">
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>405</v>
+        <v>346</v>
       </c>
       <c r="K86" t="s">
-        <v>497</v>
+        <v>438</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -4833,23 +4151,17 @@
       <c r="D87" s="3">
         <v>45310.74252314815</v>
       </c>
-      <c r="E87" s="1" t="s">
-        <v>369</v>
-      </c>
       <c r="F87">
-        <v>300</v>
-      </c>
-      <c r="G87" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H87">
         <v>580.00464</v>
       </c>
       <c r="I87" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K87" t="s">
-        <v>498</v>
+        <v>439</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -4865,23 +4177,20 @@
       <c r="D88" s="3">
         <v>45311.50221064815</v>
       </c>
-      <c r="E88" s="1" t="s">
-        <v>386</v>
-      </c>
       <c r="F88">
         <v>0</v>
       </c>
-      <c r="G88" t="s">
-        <v>400</v>
+      <c r="G88" t="b">
+        <v>1</v>
       </c>
       <c r="H88">
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>405</v>
+        <v>346</v>
       </c>
       <c r="K88" t="s">
-        <v>499</v>
+        <v>440</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -4897,23 +4206,20 @@
       <c r="D89" s="3">
         <v>45313.39831018518</v>
       </c>
-      <c r="E89" s="1" t="s">
-        <v>355</v>
-      </c>
       <c r="F89">
         <v>0</v>
       </c>
-      <c r="G89" t="s">
-        <v>403</v>
+      <c r="G89" t="b">
+        <v>1</v>
       </c>
       <c r="H89">
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>405</v>
+        <v>346</v>
       </c>
       <c r="K89" t="s">
-        <v>500</v>
+        <v>441</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -4929,23 +4235,20 @@
       <c r="D90" s="3">
         <v>45313.46736111111</v>
       </c>
-      <c r="E90" s="1" t="s">
-        <v>355</v>
-      </c>
       <c r="F90">
         <v>0</v>
       </c>
-      <c r="G90" t="s">
-        <v>400</v>
+      <c r="G90" t="b">
+        <v>1</v>
       </c>
       <c r="H90">
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>405</v>
+        <v>346</v>
       </c>
       <c r="K90" t="s">
-        <v>501</v>
+        <v>442</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -4961,23 +4264,20 @@
       <c r="D91" s="3">
         <v>45313.47009259259</v>
       </c>
-      <c r="E91" s="1" t="s">
-        <v>355</v>
-      </c>
       <c r="F91">
         <v>0</v>
       </c>
-      <c r="G91" t="s">
-        <v>400</v>
+      <c r="G91" t="b">
+        <v>1</v>
       </c>
       <c r="H91">
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>405</v>
+        <v>346</v>
       </c>
       <c r="K91" t="s">
-        <v>502</v>
+        <v>443</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -4993,26 +4293,20 @@
       <c r="D92" s="3">
         <v>45313.50326388889</v>
       </c>
-      <c r="E92" s="1" t="s">
-        <v>387</v>
-      </c>
       <c r="F92">
-        <v>3810.6</v>
-      </c>
-      <c r="G92" t="s">
-        <v>402</v>
+        <v>0</v>
       </c>
       <c r="H92">
         <v>4200.0004</v>
       </c>
       <c r="I92" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="J92" t="s">
-        <v>415</v>
+        <v>356</v>
       </c>
       <c r="K92" t="s">
-        <v>503</v>
+        <v>444</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -5028,23 +4322,17 @@
       <c r="D93" s="3">
         <v>45313.54563657408</v>
       </c>
-      <c r="E93" s="1" t="s">
-        <v>369</v>
-      </c>
       <c r="F93">
-        <v>300</v>
-      </c>
-      <c r="G93" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H93">
         <v>349.9952</v>
       </c>
       <c r="I93" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K93" t="s">
-        <v>504</v>
+        <v>445</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -5060,23 +4348,17 @@
       <c r="D94" s="3">
         <v>45313.69777777778</v>
       </c>
-      <c r="E94" s="1" t="s">
-        <v>388</v>
-      </c>
       <c r="F94">
-        <v>191</v>
-      </c>
-      <c r="G94" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H94">
         <v>169.998</v>
       </c>
       <c r="I94" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K94" t="s">
-        <v>505</v>
+        <v>446</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -5092,26 +4374,20 @@
       <c r="D95" s="3">
         <v>45314.38986111111</v>
       </c>
-      <c r="E95" s="1" t="s">
-        <v>389</v>
-      </c>
       <c r="F95">
-        <v>1921.06</v>
-      </c>
-      <c r="G95" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H95">
         <v>3499.9979999972</v>
       </c>
       <c r="I95" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="J95" t="s">
-        <v>416</v>
+        <v>357</v>
       </c>
       <c r="K95" t="s">
-        <v>506</v>
+        <v>447</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -5127,23 +4403,17 @@
       <c r="D96" s="3">
         <v>45314.4425462963</v>
       </c>
-      <c r="E96" s="1" t="s">
-        <v>390</v>
-      </c>
       <c r="F96">
-        <v>250</v>
-      </c>
-      <c r="G96" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H96">
         <v>599.9984000000001</v>
       </c>
       <c r="I96" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K96" t="s">
-        <v>507</v>
+        <v>448</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -5159,23 +4429,20 @@
       <c r="D97" s="3">
         <v>45314.49410879629</v>
       </c>
-      <c r="E97" s="1" t="s">
-        <v>355</v>
-      </c>
       <c r="F97">
         <v>0</v>
       </c>
-      <c r="G97" t="s">
-        <v>400</v>
+      <c r="G97" t="b">
+        <v>1</v>
       </c>
       <c r="H97">
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>405</v>
+        <v>346</v>
       </c>
       <c r="K97" t="s">
-        <v>508</v>
+        <v>449</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -5191,23 +4458,17 @@
       <c r="D98" s="3">
         <v>45314.51045138889</v>
       </c>
-      <c r="E98" s="1" t="s">
-        <v>391</v>
-      </c>
       <c r="F98">
-        <v>300</v>
-      </c>
-      <c r="G98" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H98">
         <v>349.9999999999948</v>
       </c>
       <c r="I98" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K98" t="s">
-        <v>509</v>
+        <v>450</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -5223,23 +4484,20 @@
       <c r="D99" s="3">
         <v>45314.52447916667</v>
       </c>
-      <c r="E99" s="1" t="s">
-        <v>355</v>
-      </c>
       <c r="F99">
         <v>0</v>
       </c>
-      <c r="G99" t="s">
-        <v>400</v>
+      <c r="G99" t="b">
+        <v>1</v>
       </c>
       <c r="H99">
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>405</v>
+        <v>346</v>
       </c>
       <c r="K99" t="s">
-        <v>510</v>
+        <v>451</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -5255,23 +4513,17 @@
       <c r="D100" s="3">
         <v>45314.5341550926</v>
       </c>
-      <c r="E100" s="1" t="s">
-        <v>373</v>
-      </c>
       <c r="F100">
-        <v>60.344</v>
-      </c>
-      <c r="G100" t="s">
-        <v>402</v>
+        <v>0</v>
       </c>
       <c r="H100">
         <v>349.99999999996</v>
       </c>
       <c r="I100" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K100" t="s">
-        <v>468</v>
+        <v>409</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -5287,23 +4539,17 @@
       <c r="D101" s="3">
         <v>45314.54357638889</v>
       </c>
-      <c r="E101" s="1" t="s">
-        <v>354</v>
-      </c>
       <c r="F101">
-        <v>181.9</v>
-      </c>
-      <c r="G101" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H101">
         <v>1599.9996</v>
       </c>
       <c r="I101" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K101" t="s">
-        <v>511</v>
+        <v>452</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -5319,23 +4565,17 @@
       <c r="D102" s="3">
         <v>45314.54976851852</v>
       </c>
-      <c r="E102" s="1" t="s">
-        <v>392</v>
-      </c>
       <c r="F102">
-        <v>1270.2</v>
-      </c>
-      <c r="G102" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H102">
         <v>1508</v>
       </c>
       <c r="I102" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K102" t="s">
-        <v>512</v>
+        <v>453</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -5351,23 +4591,17 @@
       <c r="D103" s="3">
         <v>45314.55601851852</v>
       </c>
-      <c r="E103" s="1" t="s">
-        <v>345</v>
-      </c>
       <c r="F103">
-        <v>250</v>
-      </c>
-      <c r="G103" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H103">
         <v>800.0044399999999</v>
       </c>
       <c r="I103" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K103" t="s">
-        <v>513</v>
+        <v>454</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -5383,23 +4617,17 @@
       <c r="D104" s="3">
         <v>45314.56140046296</v>
       </c>
-      <c r="E104" s="1" t="s">
-        <v>345</v>
-      </c>
       <c r="F104">
-        <v>250</v>
-      </c>
-      <c r="G104" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H104">
         <v>800.0044399999999</v>
       </c>
       <c r="I104" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K104" t="s">
-        <v>514</v>
+        <v>455</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -5415,23 +4643,20 @@
       <c r="D105" s="3">
         <v>45314.58067129629</v>
       </c>
-      <c r="E105" s="1" t="s">
-        <v>355</v>
-      </c>
       <c r="F105">
         <v>0</v>
       </c>
-      <c r="G105" t="s">
-        <v>400</v>
+      <c r="G105" t="b">
+        <v>1</v>
       </c>
       <c r="H105">
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>405</v>
+        <v>346</v>
       </c>
       <c r="K105" t="s">
-        <v>515</v>
+        <v>456</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -5447,23 +4672,17 @@
       <c r="D106" s="3">
         <v>45314.67109953704</v>
       </c>
-      <c r="E106" s="1" t="s">
-        <v>393</v>
-      </c>
       <c r="F106">
-        <v>1520.2</v>
-      </c>
-      <c r="G106" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H106">
         <v>1649.9997992</v>
       </c>
       <c r="I106" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K106" t="s">
-        <v>516</v>
+        <v>457</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -5479,23 +4698,17 @@
       <c r="D107" s="3">
         <v>45314.69586805555</v>
       </c>
-      <c r="E107" s="1" t="s">
-        <v>357</v>
-      </c>
       <c r="F107">
-        <v>250</v>
-      </c>
-      <c r="G107" t="s">
-        <v>402</v>
+        <v>0</v>
       </c>
       <c r="H107">
         <v>500</v>
       </c>
       <c r="I107" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K107" t="s">
-        <v>517</v>
+        <v>458</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -5511,23 +4724,20 @@
       <c r="D108" s="3">
         <v>45315.49449074074</v>
       </c>
-      <c r="E108" s="1" t="s">
-        <v>355</v>
-      </c>
       <c r="F108">
         <v>0</v>
       </c>
-      <c r="G108" t="s">
-        <v>400</v>
+      <c r="G108" t="b">
+        <v>1</v>
       </c>
       <c r="H108">
         <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>405</v>
+        <v>346</v>
       </c>
       <c r="K108" t="s">
-        <v>518</v>
+        <v>459</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -5543,23 +4753,17 @@
       <c r="D109" s="3">
         <v>45315.54480324074</v>
       </c>
-      <c r="E109" s="1" t="s">
-        <v>357</v>
-      </c>
       <c r="F109">
-        <v>250</v>
-      </c>
-      <c r="G109" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H109">
         <v>599.9984000000001</v>
       </c>
       <c r="I109" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K109" t="s">
-        <v>519</v>
+        <v>460</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -5575,23 +4779,17 @@
       <c r="D110" s="3">
         <v>45315.62829861111</v>
       </c>
-      <c r="E110" s="1" t="s">
-        <v>355</v>
-      </c>
       <c r="F110">
         <v>0</v>
       </c>
-      <c r="G110" t="s">
-        <v>402</v>
-      </c>
       <c r="H110">
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>405</v>
+        <v>346</v>
       </c>
       <c r="K110" t="s">
-        <v>471</v>
+        <v>412</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -5607,23 +4805,20 @@
       <c r="D111" s="3">
         <v>45315.7253125</v>
       </c>
-      <c r="E111" s="1" t="s">
-        <v>394</v>
-      </c>
       <c r="F111">
-        <v>197.413793</v>
-      </c>
-      <c r="G111" t="s">
-        <v>400</v>
+        <v>0</v>
+      </c>
+      <c r="G111" t="b">
+        <v>1</v>
       </c>
       <c r="H111">
         <v>1300.0004</v>
       </c>
       <c r="I111" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K111" t="s">
-        <v>520</v>
+        <v>461</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -5639,23 +4834,17 @@
       <c r="D112" s="3">
         <v>45316.40819444445</v>
       </c>
-      <c r="E112" s="1" t="s">
-        <v>345</v>
-      </c>
       <c r="F112">
-        <v>250</v>
-      </c>
-      <c r="G112" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H112">
         <v>799.9997999999999</v>
       </c>
       <c r="I112" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K112" t="s">
-        <v>521</v>
+        <v>462</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -5671,23 +4860,17 @@
       <c r="D113" s="3">
         <v>45316.55929398148</v>
       </c>
-      <c r="E113" s="1" t="s">
-        <v>345</v>
-      </c>
       <c r="F113">
-        <v>250</v>
-      </c>
-      <c r="G113" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H113">
         <v>799.9997999999999</v>
       </c>
       <c r="I113" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K113" t="s">
-        <v>522</v>
+        <v>463</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -5703,23 +4886,17 @@
       <c r="D114" s="3">
         <v>45317.42777777778</v>
       </c>
-      <c r="E114" s="1" t="s">
-        <v>345</v>
-      </c>
       <c r="F114">
-        <v>250</v>
-      </c>
-      <c r="G114" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H114">
         <v>812</v>
       </c>
       <c r="I114" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K114" t="s">
-        <v>523</v>
+        <v>464</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -5735,23 +4912,17 @@
       <c r="D115" s="3">
         <v>45317.43003472222</v>
       </c>
-      <c r="E115" s="1" t="s">
-        <v>345</v>
-      </c>
       <c r="F115">
-        <v>250</v>
-      </c>
-      <c r="G115" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H115">
         <v>812</v>
       </c>
       <c r="I115" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K115" t="s">
-        <v>524</v>
+        <v>465</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -5767,23 +4938,20 @@
       <c r="D116" s="3">
         <v>45317.59055555556</v>
       </c>
-      <c r="E116" s="1" t="s">
-        <v>355</v>
-      </c>
       <c r="F116">
         <v>0</v>
       </c>
-      <c r="G116" t="s">
-        <v>400</v>
+      <c r="G116" t="b">
+        <v>1</v>
       </c>
       <c r="H116">
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>405</v>
+        <v>346</v>
       </c>
       <c r="K116" t="s">
-        <v>525</v>
+        <v>466</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -5799,23 +4967,17 @@
       <c r="D117" s="3">
         <v>45317.75788194445</v>
       </c>
-      <c r="E117" s="1" t="s">
-        <v>395</v>
-      </c>
       <c r="F117">
-        <v>1270.2</v>
-      </c>
-      <c r="G117" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H117">
         <v>2784</v>
       </c>
       <c r="I117" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K117" t="s">
-        <v>526</v>
+        <v>467</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -5831,23 +4993,17 @@
       <c r="D118" s="3">
         <v>45318.4338425926</v>
       </c>
-      <c r="E118" s="1" t="s">
-        <v>358</v>
-      </c>
       <c r="F118">
         <v>0</v>
-      </c>
-      <c r="G118" t="s">
-        <v>401</v>
       </c>
       <c r="H118">
         <v>249.99999956</v>
       </c>
       <c r="I118" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K118" t="s">
-        <v>527</v>
+        <v>468</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -5863,23 +5019,17 @@
       <c r="D119" s="3">
         <v>45318.43528935185</v>
       </c>
-      <c r="E119" s="1" t="s">
-        <v>345</v>
-      </c>
       <c r="F119">
-        <v>250</v>
-      </c>
-      <c r="G119" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H119">
         <v>800.00096</v>
       </c>
       <c r="I119" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K119" t="s">
-        <v>528</v>
+        <v>469</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -5895,23 +5045,17 @@
       <c r="D120" s="3">
         <v>45318.52028935185</v>
       </c>
-      <c r="E120" s="1" t="s">
-        <v>396</v>
-      </c>
       <c r="F120">
-        <v>800</v>
-      </c>
-      <c r="G120" t="s">
-        <v>402</v>
+        <v>0</v>
       </c>
       <c r="H120">
         <v>3849.9994</v>
       </c>
       <c r="I120" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K120" t="s">
-        <v>529</v>
+        <v>470</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -5927,23 +5071,17 @@
       <c r="D121" s="3">
         <v>45318.53774305555</v>
       </c>
-      <c r="E121" s="1" t="s">
-        <v>363</v>
-      </c>
       <c r="F121">
-        <v>1270.2</v>
-      </c>
-      <c r="G121" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H121">
         <v>0</v>
       </c>
       <c r="I121" t="s">
-        <v>405</v>
+        <v>346</v>
       </c>
       <c r="K121" t="s">
-        <v>530</v>
+        <v>471</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -5959,23 +5097,17 @@
       <c r="D122" s="3">
         <v>45320.44130787037</v>
       </c>
-      <c r="E122" s="1" t="s">
-        <v>354</v>
-      </c>
       <c r="F122">
-        <v>181.9</v>
-      </c>
-      <c r="G122" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H122">
         <v>800.00096</v>
       </c>
       <c r="I122" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K122" t="s">
-        <v>524</v>
+        <v>465</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -5991,23 +5123,17 @@
       <c r="D123" s="3">
         <v>45320.48193287037</v>
       </c>
-      <c r="E123" s="1" t="s">
-        <v>369</v>
-      </c>
       <c r="F123">
-        <v>300</v>
-      </c>
-      <c r="G123" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H123">
         <v>499.99944</v>
       </c>
       <c r="I123" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K123" t="s">
-        <v>531</v>
+        <v>472</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -6023,23 +5149,17 @@
       <c r="D124" s="3">
         <v>45320.48549768519</v>
       </c>
-      <c r="E124" s="1" t="s">
-        <v>369</v>
-      </c>
       <c r="F124">
-        <v>300</v>
-      </c>
-      <c r="G124" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H124">
         <v>499.99828</v>
       </c>
       <c r="I124" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K124" t="s">
-        <v>532</v>
+        <v>473</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -6055,23 +5175,17 @@
       <c r="D125" s="3">
         <v>45320.4875</v>
       </c>
-      <c r="E125" s="1" t="s">
-        <v>369</v>
-      </c>
       <c r="F125">
-        <v>300</v>
-      </c>
-      <c r="G125" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H125">
         <v>499.99828</v>
       </c>
       <c r="I125" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K125" t="s">
-        <v>533</v>
+        <v>474</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -6087,23 +5201,20 @@
       <c r="D126" s="3">
         <v>45320.51798611111</v>
       </c>
-      <c r="E126" s="1" t="s">
-        <v>355</v>
-      </c>
       <c r="F126">
         <v>0</v>
       </c>
-      <c r="G126" t="s">
-        <v>400</v>
+      <c r="G126" t="b">
+        <v>1</v>
       </c>
       <c r="H126">
         <v>0</v>
       </c>
       <c r="I126" t="s">
-        <v>405</v>
+        <v>346</v>
       </c>
       <c r="K126" t="s">
-        <v>534</v>
+        <v>475</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -6119,23 +5230,17 @@
       <c r="D127" s="3">
         <v>45320.52901620371</v>
       </c>
-      <c r="E127" s="1" t="s">
-        <v>358</v>
-      </c>
       <c r="F127">
         <v>0</v>
-      </c>
-      <c r="G127" t="s">
-        <v>401</v>
       </c>
       <c r="H127">
         <v>250.0032</v>
       </c>
       <c r="I127" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K127" t="s">
-        <v>535</v>
+        <v>476</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -6151,23 +5256,17 @@
       <c r="D128" s="3">
         <v>45320.57282407407</v>
       </c>
-      <c r="E128" s="1" t="s">
-        <v>355</v>
-      </c>
       <c r="F128">
         <v>0</v>
       </c>
-      <c r="G128" t="s">
-        <v>402</v>
-      </c>
       <c r="H128">
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>405</v>
+        <v>346</v>
       </c>
       <c r="K128" t="s">
-        <v>536</v>
+        <v>477</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -6183,23 +5282,17 @@
       <c r="D129" s="3">
         <v>45320.61900462963</v>
       </c>
-      <c r="E129" s="1" t="s">
-        <v>357</v>
-      </c>
       <c r="F129">
-        <v>250</v>
-      </c>
-      <c r="G129" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H129">
         <v>599.9984000000001</v>
       </c>
       <c r="I129" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K129" t="s">
-        <v>537</v>
+        <v>478</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -6215,23 +5308,17 @@
       <c r="D130" s="3">
         <v>45321.38232638889</v>
       </c>
-      <c r="E130" s="1" t="s">
-        <v>397</v>
-      </c>
       <c r="F130">
-        <v>1250</v>
-      </c>
-      <c r="G130" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H130">
         <v>2500</v>
       </c>
       <c r="I130" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K130" t="s">
-        <v>538</v>
+        <v>479</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -6247,23 +5334,17 @@
       <c r="D131" s="3">
         <v>45321.4528587963</v>
       </c>
-      <c r="E131" s="1" t="s">
-        <v>373</v>
-      </c>
       <c r="F131">
-        <v>60.344</v>
-      </c>
-      <c r="G131" t="s">
-        <v>402</v>
+        <v>0</v>
       </c>
       <c r="H131">
         <v>500.00292</v>
       </c>
       <c r="I131" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K131" t="s">
-        <v>539</v>
+        <v>480</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -6279,23 +5360,20 @@
       <c r="D132" s="3">
         <v>45321.49140046296</v>
       </c>
-      <c r="E132" s="1" t="s">
-        <v>386</v>
-      </c>
       <c r="F132">
         <v>0</v>
       </c>
-      <c r="G132" t="s">
-        <v>400</v>
+      <c r="G132" t="b">
+        <v>1</v>
       </c>
       <c r="H132">
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>405</v>
+        <v>346</v>
       </c>
       <c r="K132" t="s">
-        <v>540</v>
+        <v>481</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -6311,23 +5389,17 @@
       <c r="D133" s="3">
         <v>45322.39694444444</v>
       </c>
-      <c r="E133" s="1" t="s">
-        <v>398</v>
-      </c>
       <c r="F133">
-        <v>753.44517</v>
-      </c>
-      <c r="G133" t="s">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H133">
         <v>3299.9967999</v>
       </c>
       <c r="I133" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K133" t="s">
-        <v>541</v>
+        <v>482</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -6343,23 +5415,17 @@
       <c r="D134" s="3">
         <v>45322.71115740741</v>
       </c>
-      <c r="E134" s="1" t="s">
-        <v>399</v>
-      </c>
       <c r="F134">
-        <v>1200</v>
-      </c>
-      <c r="G134" t="s">
-        <v>402</v>
+        <v>0</v>
       </c>
       <c r="H134">
         <v>3199.9992</v>
       </c>
       <c r="I134" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K134" t="s">
-        <v>542</v>
+        <v>483</v>
       </c>
     </row>
   </sheetData>

--- a/only_services.xlsx
+++ b/only_services.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="486">
   <si>
     <t>Folio</t>
   </si>
@@ -22,33 +22,33 @@
     <t>Cliente - Nombre del cliente</t>
   </si>
   <si>
+    <t>Fecha registro</t>
+  </si>
+  <si>
+    <t>Importe total</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Entrego</t>
+  </si>
+  <si>
+    <t>Testimonio</t>
+  </si>
+  <si>
+    <t>Insumos</t>
+  </si>
+  <si>
+    <t>Costo total</t>
+  </si>
+  <si>
     <t>Contacto</t>
   </si>
   <si>
-    <t>Fecha registro</t>
-  </si>
-  <si>
-    <t>Insumos</t>
-  </si>
-  <si>
-    <t>Costo total</t>
-  </si>
-  <si>
     <t>Garantía?</t>
   </si>
   <si>
-    <t>Importe total</t>
-  </si>
-  <si>
-    <t>Estado</t>
-  </si>
-  <si>
-    <t>Entrego</t>
-  </si>
-  <si>
-    <t>Testimonio</t>
-  </si>
-  <si>
     <t>SERV02015</t>
   </si>
   <si>
@@ -757,6 +757,423 @@
     <t>WOLFTEQ S&amp;T</t>
   </si>
   <si>
+    <t>Facturada</t>
+  </si>
+  <si>
+    <t>Cerrada</t>
+  </si>
+  <si>
+    <t>PO00971</t>
+  </si>
+  <si>
+    <t>PO00946</t>
+  </si>
+  <si>
+    <t>PO00947</t>
+  </si>
+  <si>
+    <t>PO00970</t>
+  </si>
+  <si>
+    <t>PO00986</t>
+  </si>
+  <si>
+    <t>PO00898</t>
+  </si>
+  <si>
+    <t>PO00996</t>
+  </si>
+  <si>
+    <t>PO01034</t>
+  </si>
+  <si>
+    <t>PO01035</t>
+  </si>
+  <si>
+    <t>PO01030</t>
+  </si>
+  <si>
+    <t>PO01048</t>
+  </si>
+  <si>
+    <t>T480 MANTENIMIENTO GENERAL y falla en el teclado con las teclas "T, Y y F3"Verificar el estado del ssistema operativo</t>
+  </si>
+  <si>
+    <t>VIN DEJO CARGADOR, INSTALAR ADOBE HP ZBOOK  17 CAMBIO DE DISCO DURO A 1TB, VERIFICAR BATERIA, PUERTO VGA, PROCURAR PEGAR LA TECLA FALTANTE</t>
+  </si>
+  <si>
+    <t>VIN DEJO CARGADOR DELL ZBOOK 17 MANTENIMIENTO GENERAL y AUMENTO A 1 TB, verificar  bateria e instalacion de ADOBE</t>
+  </si>
+  <si>
+    <t>VIN ESTO SUCEDIO A PARTIR DE UN APAGON YA SE LE HABIA HECHO UN SERVICIO ANTERIORMENTE AQUI A ESTE EQUIPO DELL PRECISION EL EQUIPO ENCIENDE PERO  ENTRA A SISTEMA SE APAGA</t>
+  </si>
+  <si>
+    <t>VIN DEJO CARGADOR, METERLO EL DISCO EXTER A CADDY HP 15-DA0009LA CAMBIO SSD 256 GB</t>
+  </si>
+  <si>
+    <t>HP 15-DA0002LA PROBLEMA CON LAS VISAGRAS, POSIBILIDAD DE INSTALAR SOLID</t>
+  </si>
+  <si>
+    <t>VIN DEJO CARGADOR ASUS G513 instalacion de revit, autocad y sketchup</t>
+  </si>
+  <si>
+    <t>VIN COTIZAR CARGADOR THINKPAD E550 REVISAR ESTADO DEL EQUIPO, DAR MANTENIMIENTO NO</t>
+  </si>
+  <si>
+    <t>HP 15CW1012LA COTIZAR BATERÍA Y DAR MANTENIMIENTO</t>
+  </si>
+  <si>
+    <t>VIN NINGU NA THINKCENTRE M73 CAMBIO SSD 120GB Y REVISAR SI LAS BOCINAS DEL EQUIPO VIA LINE IN  CABLE VERDE DE ATRAS</t>
+  </si>
+  <si>
+    <t>DELL INSPIRON 15 3511 REPARACION DE BISAGRA LADO DISPLAY IZQUIERDA</t>
+  </si>
+  <si>
+    <t>GANDIAS CPU EL PRESENTA PANTALLAS AZULES, POSIBLE FORMATEO Y VERIFICAR EL ESTADO DEL EQUIPO</t>
+  </si>
+  <si>
+    <t>VIN es cliente que compro el equipo en pandemia pero ah venido 2 veces a mantenimientoy a aumento de memoria DELL Dell Latitude Despues de unaactualización , se uso con normalidad,Se apagó con normalidad pero al volver a encender manda diretamente a la reparaión automática REVISAR</t>
+  </si>
+  <si>
+    <t>VIN DEJO CARGADOR ACER ASPIRE REINSTALACION DE STEMA OPERATIVO, OFFICE Y AUTOCAD</t>
+  </si>
+  <si>
+    <t>VIN NOT02008 DELL LATITUDE 7490 SE APAGO Y NO VOLVIO ENCENDER</t>
+  </si>
+  <si>
+    <t>VIN DEJO CARGADOR LEVO LEGION 5 MANTENIMIENTO GENERAL</t>
+  </si>
+  <si>
+    <t>ASUS TP412F DIAGSTICO GENERAL</t>
+  </si>
+  <si>
+    <t>DELL INSPIRON 15 3525 Instalacion de solidworks, AUTOCAD INGLES , ACTIVAR WINDOWS</t>
+  </si>
+  <si>
+    <t>LEVO YOGA E 11 No funcionan correctamente los botones de subir volumen</t>
+  </si>
+  <si>
+    <t>VIN DEJO CARGADOR, no formatear el disco mecanico ACER ASPIRE A515-51 cambio de estado solido 500GB, mantenimiento</t>
+  </si>
+  <si>
+    <t>NA LEVO THINKPAD YOGA E11 CLIENTE MOJO EL EQUIPÓ Y LO APAGO INMEDIATAMENTE   SE HA ENCENDIO, REALIZAR DESENSAMBLE DEL EQUIPO PARA ASEGURAR UQE  TENGA HUMEDAD, ACTIVACIOND E PAQUETERIA DE OFFICE Y REVISAR LO DEL PUERTO USB</t>
+  </si>
+  <si>
+    <t>5CD944B76X HP PAVILION 15-CW1XXX COTIZAR BATERIA Y ENVIAR COTIZACION  CON MANTENIMIENTO INCLUIDO NO</t>
+  </si>
+  <si>
+    <t>ACER  ASPIRE A515 FORMATEAR, COMPRO EQUIPO Y SE COBRA EL EQUIPO</t>
+  </si>
+  <si>
+    <t>VIN NINGU DELL PRECISION 5530 REALIZAR CAMBIO DE PASTA TERMICA Y MANTENIMIENTO</t>
+  </si>
+  <si>
+    <t>BTH27S2 DELL PRECISION 5530 REINSTALAR WINDOWS10 PRO CUIDAR LICENCIA  Y REALIZAR MANTENIMIENTO  Y CAMBIO DE PASTA TERMICA</t>
+  </si>
+  <si>
+    <t>CPU AURORA El equipo no detecta el disco</t>
+  </si>
+  <si>
+    <t>VIN dejo cargador toshiba  s55t se suspende repetinemente, posible formateo del equipo</t>
+  </si>
+  <si>
+    <t>DELL LATITUDE 7490 LA BATERIA DEL EQUIPO ESTA DURANDO MUY POCO</t>
+  </si>
+  <si>
+    <t>LEVO L470 formateo del equipo</t>
+  </si>
+  <si>
+    <t>lenovo t450 formateo, verificar su velocidad del equipo y el estado del equipo en general</t>
+  </si>
+  <si>
+    <t>VIN DEJO CARGADOR lenovo twist s230 DIAGSTICO GENERAL ( FORMATEO). PRESENTA PANTALLA AZUL CUANDO SE USA</t>
+  </si>
+  <si>
+    <t>Levo L570 cambio de estado solido 256 gb, revit, autocad, solidwork.</t>
+  </si>
+  <si>
+    <t>VIN SALVAR LA INFO HP PAVILION 15 LA COMPUTADORA YA  ENCIENDE , SE LLEVO A OTRO LADO PERO  LA HICERON FUNCIONAR, LE DIJERON QUE ES POSIBLE MUERTE DE MOTHER BOARD, HAY QUE SALVAR LA INFO</t>
+  </si>
+  <si>
+    <t>DEL INSPAIRON 15300 No deja bootear</t>
+  </si>
+  <si>
+    <t>VIN NINGU HP PAVILION CAMBIO DE ESTADO SOLIDO 128GB, OFFICE 2016</t>
+  </si>
+  <si>
+    <t>m73 Muy lenta para los programas</t>
+  </si>
+  <si>
+    <t>yoga E11 aumento a 1tb, costo 1300</t>
+  </si>
+  <si>
+    <t>cpu alienware aurora cambio a 1tb, mas contexto en el celular de servicio</t>
+  </si>
+  <si>
+    <t>VIN DEJO CARGADOR T 430 CAMBIO SSD A 1TB, VERIFICAR TECLADO  Y BOCINA</t>
+  </si>
+  <si>
+    <t>VIN NINGUNO 1NJQVA LENOVO THINKPAD X1 CARBON EQUIPO PRESENTA SALTOS EN BATERIA</t>
+  </si>
+  <si>
+    <t>VIN AVISAR AL CLIENTE CAUNDO EL EQUIPO ESTE LISTO HP PAVILION 15CW1004LA CAMBIO DE BATERIA, EL EQUIPO SE LO LLEVARON PARA SOLICITAR LA BATERIA DEL EQUIPO JUNTO CON SU CARGADOR</t>
+  </si>
+  <si>
+    <t>DELL G15 INSTALACION DE SKETCHUP, OFFICE, ILUSTRATOR Y PHOTOSHOP</t>
+  </si>
+  <si>
+    <t>HP PAVILION 14 TEBOOK LENTITUD Y COTIZAR BATERIA. CAMBIO DE SSD 128GB</t>
+  </si>
+  <si>
+    <t>YOGA E 11 EL EQUIPO SE QUEDA EN REPARACION DEL EQUIPO</t>
+  </si>
+  <si>
+    <t>VIN NINGU NA DELL INSPIRON P65F INSTALACION DE SOLIDWORKS,  Y CAMBIO DE BATERIA QUE YA SE HABIA COTIZADO ANTERIORMENTE  MANDO MENSAJE</t>
+  </si>
+  <si>
+    <t>HP ALL IN ONE CAMBIO DE SSD A 128GB. SI SE PUEDE ANCLAR EL OTRO DISCO, SI MOSTAR U DE 256GB</t>
+  </si>
+  <si>
+    <t>VIN MANDAR MENSAJE AL NUMERO AGREGADO pro desk tarjeta grafica caida, FALTA DE DRIVERS DE LA TARJETA GRAFICA</t>
+  </si>
+  <si>
+    <t>NUMERO CON VICTOR MERIDA LEVO X1 CARBON  SE ESCUCHA</t>
+  </si>
+  <si>
+    <t>dell latitude 5591 TECLADO ESTA PRESENTANDO FALLAS :</t>
+  </si>
+  <si>
+    <t>HP ELITEBOOK 840 G3 Posible daño en el SO y respaldar archivos.</t>
+  </si>
+  <si>
+    <t>VIN NINGU 2e043202p TOSHIBA SATELITE U40T-A4168SM ISNSALAR SSD 120GB Y REVISAR SI EL DISCO AUN ES FUNCIONAL, EN CASO DE QUE SI CONTACTAR AL CLIENTE PARA REVISAR TEMAS DE ARCHIVOS, HACER MANTENIMIENTO Y REVISAR ESTATUS DE BATERIA</t>
+  </si>
+  <si>
+    <t>5CG6295JJO HP NOTEBOOK CAMBIO DE BATERIA</t>
+  </si>
+  <si>
+    <t>VIN REVISAR TEMA DE BATERIA NA HP PAVILION 15-CD005LA EQUIPO DA PANTALLA AZUL Y SE REINICIA, Y REVISAR TEMA DE BATERIA  EQUIPO SE REINCIA POR DEFINIR</t>
+  </si>
+  <si>
+    <t>levo ideapd 3 posible cambio de display.</t>
+  </si>
+  <si>
+    <t>LEVO T480  LE FUNCIONA EL TECLADO</t>
+  </si>
+  <si>
+    <t>DELL VOSTRO 14 3000 SERIES Enciende el equipo, pero no da sistema ni muestra ningun  mensaje</t>
+  </si>
+  <si>
+    <t>HP ZBOOK 15U RESINTALAR SISTEMA OPERATIVO Y VERIFICAR LA SALUD DEL DISCO SSD</t>
+  </si>
+  <si>
+    <t>VIN ANTICIPO DE $300 ASUS VIVOBOOK FLIP 14 PROBLEMAS CON CARGADOR,  SE DEJA EL EQUIPO EN PIXEL</t>
+  </si>
+  <si>
+    <t>DELL INSPIRON 15 45173   RETIIENNE  CARGA  EQUIPO MUY LENTO  ENTRA A SISTEMA</t>
+  </si>
+  <si>
+    <t>ASUS FX505D Equipo tarda en encender después de varios intentos, no tiene el disco</t>
+  </si>
+  <si>
+    <t>00000 VIN Deja cargador DELL E5570 Checar con Daniel</t>
+  </si>
+  <si>
+    <t>VIN CARGADOR LEVO IDEAPAD 520S  RECUERDAN LA CONTRASEÑA, FORMATEAR EL EQUIPO</t>
+  </si>
+  <si>
+    <t>LEVO L13 FALLA USB DEL LADO DERECHO</t>
+  </si>
+  <si>
+    <t>LENOVO LOQ15IRH8 instalacion de prorgamas - brian tiene la foto</t>
+  </si>
+  <si>
+    <t>HP REVOLVE 810 TIENE PROBLEMAS EN DETECTAR LOS CARGADORES, DEBE SER CON CIERTOS MOVIMIENTOS DEL CARGADOR PARA QUE LO RECOZCA</t>
+  </si>
+  <si>
+    <t>VIN EQUIPO SE PERCIBE ALGO LENTO, REVISAR SI ES CONVENIENTO ELEGIR NA HP 240G3 EQUIPO DESPLIEGA EL PANEL DE TIFICACIONES CUANDO SE ESTA TRABAJANDO EFFICE PORPORNER PROPUESTAS PARA EL EQUIPO EN DADO CASO QUE SE RECOMIENDE INVERTIR</t>
+  </si>
+  <si>
+    <t>DELL LATITUDE 3410 CAMBIO DE DISCO DURO SSD A 128GB Y EL MECANICO A UN CADDY</t>
+  </si>
+  <si>
+    <t>000000 HP 840 G3 Cargador</t>
+  </si>
+  <si>
+    <t>LEVO X13 FORMATEO</t>
+  </si>
+  <si>
+    <t>LEVO L470 FORMATEO</t>
+  </si>
+  <si>
+    <t>DELL  QR0053 CAMBIO A SSD 128GB</t>
+  </si>
+  <si>
+    <t>DELL PRECISION 5510 Visagras y el equipo no carga cuando la mantienes abierta y cuando la tienes cerrada si carga pendiente</t>
+  </si>
+  <si>
+    <t>OMEN HP Verificar la salud de la bateria, ya que el equipo  se apaga repentinamente y realizarle mantenimiento general</t>
+  </si>
+  <si>
+    <t>MSI LAPTOP Daño de visagras, verificar salud de bateria si es recomendable realizar el cambio de esa misma</t>
+  </si>
+  <si>
+    <t>VIN EQUIPO TRAI BATERIA INFLADA NA HP ELITEBOOK  745 G2 COTIZAR BATERIA, CARGADOR Y CAMBIO A SSD 120GB</t>
+  </si>
+  <si>
+    <t>VIN Dejo cargador,. HP OMEN El equipo se formateo por parte del cliente y le presenta pantallas azules y problemas al arranque</t>
+  </si>
+  <si>
+    <t>DELL INPIRON 15 7000 SERIES cotizar bateria</t>
+  </si>
+  <si>
+    <t>LEVO L570 Presenta pantallas azules " video tdr failures". Verificar salud del disco o ploblemas con el sistema operativo</t>
+  </si>
+  <si>
+    <t>hp 14cf2074la Teclado tiene teclas rotas</t>
+  </si>
+  <si>
+    <t>LEVO T460 AUTOCAD FALLANDO, TECLA 7 DAÑADA Y TRACKPOINT</t>
+  </si>
+  <si>
+    <t>Sony Vaio No entra a sistema</t>
+  </si>
+  <si>
+    <t>YOGA E 11 instalacion de software que son: paqueteria adobe y office</t>
+  </si>
+  <si>
+    <t>VIN DEJO CARGADOR acer falla en el usb y solidwork esta en ingles moverlo a español</t>
+  </si>
+  <si>
+    <t>VIN Cuidar la información del equipo M73 Al usar el equipo en un tiempo indeterminado muestra parpadeo de colores en la pantalla, se cambió la pantalla y los cables pero siguió haciendo lo mismo</t>
+  </si>
+  <si>
+    <t>VIN Puerto de red lo tiene salido yoga e11 El equipo se apaga repentinamente y cierra todas las aplicaciones.</t>
+  </si>
+  <si>
+    <t>E480 Se comenta que el equipo enciende el foco del encendido, pero no esta dando video y nos puede apagar</t>
+  </si>
+  <si>
+    <t>000000 Dell Latitude E5470 Compra de equipos</t>
+  </si>
+  <si>
+    <t>Sra. police LEVO CAMBIO DE SSD 128GB</t>
+  </si>
+  <si>
+    <t>Lenovo thinkpad T480 Falla en bateria</t>
+  </si>
+  <si>
+    <t>ACER  ASPIRE A523 lENTITUD Y CAMBIAR A UN DISCO DE ESTADO SOLIO PARA VERIFICAR SU FUNCIONAMIENTO</t>
+  </si>
+  <si>
+    <t>VIN DEJO CARGADOR lenovo t520 El equipo solo enciende los leds, no da video</t>
+  </si>
+  <si>
+    <t>VIN NINGUNO DELL INSPION 15 Presenta varios bugs en el sistema operativo y barra de tareas</t>
+  </si>
+  <si>
+    <t>VIN CONSERVAR INTERFAZ DEL 2007 NA Elitebook x360 1030 G2 REACTIVACION DE AUTOCAD 2019  CONSERVANDO LA INTERFAZ ANTIGUA</t>
+  </si>
+  <si>
+    <t>L390 El cliente menciona que se calienta demasiado el equipo y suena el ventilador</t>
+  </si>
+  <si>
+    <t>VIN CARGADOR Asus s530f El equipo se dejo de usar un año y medio donde el equipo presenta problemas de lentitud , se apaga repetinamente y problemas en generales con SO</t>
+  </si>
+  <si>
+    <t>HP 14-cd0009la Reemplazo de bateria, El equipo  esta en PIXEL</t>
+  </si>
+  <si>
+    <t>DELL 5520 Mantenimiento general y formateo. Respaldar los archivos escritorio y documentos</t>
+  </si>
+  <si>
+    <t>VIN  Dell 7550 Enciende el equipo pero presenta un mensaje de la bios, Mantenimiento general y formateo.  Respaldar escritorio y documentos</t>
+  </si>
+  <si>
+    <t>YOGA E 11 problemas en la rotacion y en el touch de la pantalla</t>
+  </si>
+  <si>
+    <t>VIN instalar autocad, revit y skechup hp 15-cw0009la Suena bastante ruido cuando enciendes el equipo. Mantenimiento general con formatep</t>
+  </si>
+  <si>
+    <t>VIN dejo cargardor lenovo s 230u Formateo de equipo y tiempo de vida de la bateria NO</t>
+  </si>
+  <si>
+    <t>T470 instalar office</t>
+  </si>
+  <si>
+    <t>HP OMEN El equipo no detecta el sistema operativo</t>
+  </si>
+  <si>
+    <t>yoga E11 No enciende y suena dos pitidos al encender</t>
+  </si>
+  <si>
+    <t>ASUS VIVOBOOK FLIP 14 El equipo no enciende. anteriormente habia ingresado al centro de servicio por problemas de cargador</t>
+  </si>
+  <si>
+    <t>DELL LATITUDE 7470 Presenta pantallas azules y se calienta mucho del ventilador</t>
+  </si>
+  <si>
+    <t>VIN Respaldar escritorio y documento CPU ACTECK Manteniendo general, formateo</t>
+  </si>
+  <si>
+    <t>VIN Respaldar escritorio y documento HP CPU Mantenimiento general y formateo. verificar la salud de disco</t>
+  </si>
+  <si>
+    <t>HP ZBOOK 17 Presenta pantalla negra y ya no volvio encender</t>
+  </si>
+  <si>
+    <t>| DELL COMPRA DE BATERIA</t>
+  </si>
+  <si>
+    <t>VIN Encendio mostrando alerta de bateria baja DELL Latitud 3450 Falló el ventilador(Aparentemente), mostraba alertas de firefox y luego no encendió, se puso la pantalla en negro</t>
+  </si>
+  <si>
+    <t>DELL 3380 Mantenimiento y activación de office</t>
+  </si>
+  <si>
+    <t>dell inspiron 3501 ACTUALIZACION SSD 240 GB Y 8 GB RAM</t>
+  </si>
+  <si>
+    <t>Thinkapd L460 Instalar paquetería office</t>
+  </si>
+  <si>
+    <t>LEVO T470S Instalacion de solidworks y autocad en español</t>
+  </si>
+  <si>
+    <t>SAMSUNG TAB iNSTALACION DE SOLIDWORK Y AUTOCAD EN ESPAÑOL</t>
+  </si>
+  <si>
+    <t>VIN NINGU CPU Instalacion de solidworks y autocad en español</t>
+  </si>
+  <si>
+    <t>VIN CARGADOR LENOVO T470 CUANDO ESTA EN 30% DE CARGA SE DESCARGA Y NO ESTA RETENIENDO LA CARGA CUANDO ESTA ENTRE ESOS VALORES . Falla en el puerto usb derecho superior</t>
+  </si>
+  <si>
+    <t>VIN NINGU HP ELITEBOOK 840 G2 No da video el equipo, pero enciende los ventiladores y los leds del equipo</t>
+  </si>
+  <si>
+    <t>VIN CONTACTAR A MEBEC PARA QUE NOS PASEN LA CONTRASEÑA PF14RWFF LENOVO THINKPAD T480 EQUIPO PRESENTÓ PROBLEMAS EN TECLADO SI</t>
+  </si>
+  <si>
+    <t>00000 SURFACE FORMATEO</t>
+  </si>
+  <si>
+    <t>VIN CARGADOR ASUS GAMER Cambio de disco 1tb y 8 ram adicionales</t>
+  </si>
+  <si>
+    <t>. caddy .</t>
+  </si>
+  <si>
+    <t>PENDIENTE VIN DEJA CARGADOR HP 840 G1 NO RETIENE LA CARGA</t>
+  </si>
+  <si>
+    <t>Thinkpad T470 Actualización a 500gb ssd</t>
+  </si>
+  <si>
+    <t>DELL G7 DIAGNOSTICO NEGRO</t>
+  </si>
+  <si>
     <t>473 737 5216</t>
   </si>
   <si>
@@ -880,7 +1297,7 @@
     <t>4426257848</t>
   </si>
   <si>
-    <t>Sin numero</t>
+    <t>Sin celular</t>
   </si>
   <si>
     <t>4424753889</t>
@@ -1051,421 +1468,10 @@
     <t>4423324841</t>
   </si>
   <si>
-    <t>Facturada</t>
-  </si>
-  <si>
-    <t>Cerrada</t>
-  </si>
-  <si>
-    <t>PO00971</t>
-  </si>
-  <si>
-    <t>PO00946</t>
-  </si>
-  <si>
-    <t>PO00947</t>
-  </si>
-  <si>
-    <t>PO00970</t>
-  </si>
-  <si>
-    <t>PO00986</t>
-  </si>
-  <si>
-    <t>PO00898</t>
-  </si>
-  <si>
-    <t>PO00996</t>
-  </si>
-  <si>
-    <t>PO01034</t>
-  </si>
-  <si>
-    <t>PO01035</t>
-  </si>
-  <si>
-    <t>PO01030</t>
-  </si>
-  <si>
-    <t>PO01048</t>
-  </si>
-  <si>
-    <t>T480 MANTENIMIENTO GENERAL y falla en el teclado con las teclas "T, Y y F3"Verificar el estado del ssistema operativo</t>
-  </si>
-  <si>
-    <t>VIN DEJO CARGADOR, INSTALAR ADOBE HP ZBOOK  17 CAMBIO DE DISCO DURO A 1TB, VERIFICAR BATERIA, PUERTO VGA, PROCURAR PEGAR LA TECLA FALTANTE</t>
-  </si>
-  <si>
-    <t>VIN DEJO CARGADOR DELL ZBOOK 17 MANTENIMIENTO GENERAL y AUMENTO A 1 TB, verificar  bateria e instalacion de ADOBE</t>
-  </si>
-  <si>
-    <t>VIN ESTO SUCEDIO A PARTIR DE UN APAGON YA SE LE HABIA HECHO UN SERVICIO ANTERIORMENTE AQUI A ESTE EQUIPO DELL PRECISION EL EQUIPO ENCIENDE PERO  ENTRA A SISTEMA SE APAGA</t>
-  </si>
-  <si>
-    <t>VIN DEJO CARGADOR, METERLO EL DISCO EXTER A CADDY HP 15-DA0009LA CAMBIO SSD 256 GB</t>
-  </si>
-  <si>
-    <t>HP 15-DA0002LA PROBLEMA CON LAS VISAGRAS, POSIBILIDAD DE INSTALAR SOLID</t>
-  </si>
-  <si>
-    <t>VIN DEJO CARGADOR ASUS G513 instalacion de revit, autocad y sketchup</t>
-  </si>
-  <si>
-    <t>VIN COTIZAR CARGADOR THINKPAD E550 REVISAR ESTADO DEL EQUIPO, DAR MANTENIMIENTO NO</t>
-  </si>
-  <si>
-    <t>HP 15CW1012LA COTIZAR BATERÍA Y DAR MANTENIMIENTO</t>
-  </si>
-  <si>
-    <t>VIN NINGU NA THINKCENTRE M73 CAMBIO SSD 120GB Y REVISAR SI LAS BOCINAS DEL EQUIPO VIA LINE IN  CABLE VERDE DE ATRAS</t>
-  </si>
-  <si>
-    <t>DELL INSPIRON 15 3511 REPARACION DE BISAGRA LADO DISPLAY</t>
-  </si>
-  <si>
-    <t>GANDIAS CPU EL PRESENTA PANTALLAS AZULES, POSIBLE FORMATEO Y VERIFICAR EL ESTADO DEL EQUIPO</t>
-  </si>
-  <si>
-    <t>VIN es cliente que compro el equipo en pandemia pero ah venido 2 veces a mantenimientoy a aumento de memoria DELL Dell Latitude Despues de unaactualización , se uso con normalidad,Se apagó con normalidad pero al volver a encender manda diretamente a la reparaión automática</t>
-  </si>
-  <si>
-    <t>VIN DEJO CARGADOR ACER ASPIRE REINSTALACION DE STEMA OPERATIVO, OFFICE Y AUTOCAD</t>
-  </si>
-  <si>
-    <t>VIN NOT02008 DELL LATITUDE 7490 SE APAGO Y NO VOLVIO ENCENDER</t>
-  </si>
-  <si>
-    <t>VIN DEJO CARGADOR LEVO LEGION 5 MANTENIMIENTO GENERAL</t>
-  </si>
-  <si>
-    <t>ASUS TP412F DIAGSTICO GENERAL</t>
-  </si>
-  <si>
-    <t>DELL INSPIRON 15 3525 Instalacion de solidworks, AUTOCAD INGLES , ACTIVAR WINDOWS</t>
-  </si>
-  <si>
-    <t>LEVO YOGA E 11 No funcionan correctamente los botones de subir volumen</t>
-  </si>
-  <si>
-    <t>VIN DEJO CARGADOR, no formatear el disco mecanico ACER ASPIRE A515-51 cambio de estado solido 500GB, mantenimiento</t>
-  </si>
-  <si>
-    <t>NA LEVO THINKPAD YOGA E11 CLIENTE MOJO EL EQUIPÓ Y LO APAGO INMEDIATAMENTE   SE HA ENCENDIO, REALIZAR DESENSAMBLE DEL EQUIPO PARA ASEGURAR UQE  TENGA HUMEDAD, ACTIVACIOND E PAQUETERIA DE OFFICE Y REVISAR LO DEL PUERTO USB</t>
-  </si>
-  <si>
-    <t>5CD944B76X HP PAVILION 15-CW1XXX COTIZAR BATERIA Y ENVIAR COTIZACION  CON MANTENIMIENTO INCLUIDO NO</t>
-  </si>
-  <si>
-    <t>ACER  ASPIRE A515 FORMATEAR, COMPRO EQUIPO Y SE COBRA EL EQUIPO</t>
-  </si>
-  <si>
-    <t>VIN NINGU DELL PRECISION 5530 REALIZAR CAMBIO DE PASTA TERMICA Y MANTENIMIENTO</t>
-  </si>
-  <si>
-    <t>BTH27S2 DELL PRECISION 5530 REINSTALAR WINDOWS10 PRO CUIDAR LICENCIA  Y REALIZAR MANTENIMIENTO  Y CAMBIO DE PASTA TERMICA</t>
-  </si>
-  <si>
-    <t>CPU AURORA El equipo no detecta el disco</t>
-  </si>
-  <si>
-    <t>VIN dejo cargador toshiba  s55t se suspende repetinemente, posible formateo del equipo</t>
-  </si>
-  <si>
-    <t>DELL LATITUDE 7490 LA BATERIA DEL EQUIPO ESTA DURANDO MUY POCO</t>
-  </si>
-  <si>
-    <t>LEVO L470 formateo del equipo</t>
-  </si>
-  <si>
-    <t>lenovo t450 formateo, verificar su velocidad del equipo y el estado del equipo en general</t>
-  </si>
-  <si>
-    <t>VIN DEJO CARGADOR lenovo twist s230 DIAGSTICO GENERAL ( FORMATEO). PRESENTA PANTALLA AZUL CUANDO SE USA</t>
-  </si>
-  <si>
-    <t>Levo L570 cambio de estado solido 256 gb, revit, autocad, solidwork.</t>
-  </si>
-  <si>
-    <t>VIN SALVAR LA INFO HP PAVILION 15 LA COMPUTADORA YA  ENCIENDE , SE LLEVO A OTRO LADO PERO  LA HICERON FUNCIONAR, LE DIJERON QUE ES POSIBLE MUERTE DE MOTHER BOARD, HAY QUE SALVAR LA INFO</t>
-  </si>
-  <si>
-    <t>DEL INSPAIRON 15300 No deja bootear</t>
-  </si>
-  <si>
-    <t>VIN NINGU HP PAVILION CAMBIO DE ESTADO SOLIDO 128GB, OFFICE 2016</t>
-  </si>
-  <si>
-    <t>m73 Muy lenta para los programas</t>
-  </si>
-  <si>
-    <t>yoga E11 aumento a 1tb, costo 1300</t>
-  </si>
-  <si>
-    <t>cpu alienware aurora cambio a 1tb, mas contexto en el celular de servicio</t>
-  </si>
-  <si>
-    <t>VIN DEJO CARGADOR T 430 CAMBIO SSD A 1TB, VERIFICAR TECLADO  Y BOCINA</t>
-  </si>
-  <si>
-    <t>VIN NINGUNO 1NJQVA LENOVO THINKPAD X1 CARBON EQUIPO PRESENTA SALTOS EN BATERIA</t>
-  </si>
-  <si>
-    <t>VIN AVISAR AL CLIENTE CAUNDO EL EQUIPO ESTE LISTO HP PAVILION 15CW1004LA CAMBIO DE BATERIA, EL EQUIPO SE LO LLEVARON PARA SOLICITAR LA BATERIA DEL EQUIPO JUNTO CON SU CARGADOR</t>
-  </si>
-  <si>
-    <t>DELL G15 INSTALACION DE SKETCHUP, OFFICE, ILUSTRATOR Y PHOTOSHOP</t>
-  </si>
-  <si>
-    <t>HP PAVILION 14 TEBOOK LENTITUD Y COTIZAR BATERIA. CAMBIO DE SSD 128GB</t>
-  </si>
-  <si>
-    <t>YOGA E 11 EL EQUIPO SE QUEDA EN REPARACION DEL EQUIPO</t>
-  </si>
-  <si>
-    <t>VIN NINGU NA DELL INSPIRON P65F INSTALACION DE SOLIDWORKS,  Y CAMBIO DE BATERIA QUE YA SE HABIA COTIZADO ANTERIORMENTE  MANDO MENSAJE</t>
-  </si>
-  <si>
-    <t>HP ALL IN ONE CAMBIO DE SSD A 128GB. SI SE PUEDE ANCLAR EL OTRO DISCO, SI MOSTAR U DE 256GB</t>
-  </si>
-  <si>
-    <t>VIN MANDAR MENSAJE AL NUMERO AGREGADO pro desk tarjeta grafica caida, FALTA DE DRIVERS DE LA TARJETA GRAFICA</t>
-  </si>
-  <si>
-    <t>NUMERO CON VICTOR MERIDA LEVO X1 CARBON  SE ESCUCHA</t>
-  </si>
-  <si>
-    <t>dell latitude 5591 TECLADO ESTA PRESENTANDO FALLAS :</t>
-  </si>
-  <si>
-    <t>HP ELITEBOOK 840 G3 Posible daño en el SO y respaldar archivos.</t>
-  </si>
-  <si>
-    <t>VIN NINGU 2e043202p TOSHIBA SATELITE U40T-A4168SM ISNSALAR SSD 120GB Y REVISAR SI EL DISCO AUN ES FUNCIONAL, EN CASO DE QUE SI CONTACTAR AL CLIENTE PARA REVISAR TEMAS DE ARCHIVOS, HACER MANTENIMIENTO Y REVISAR ESTATUS DE BATERIA</t>
-  </si>
-  <si>
-    <t>5CG6295JJO HP NOTEBOOK CAMBIO DE</t>
-  </si>
-  <si>
-    <t>VIN REVISAR TEMA DE BATERIA NA HP PAVILION 15-CD005LA EQUIPO DA PANTALLA AZUL Y SE REINICIA, Y REVISAR TEMA DE BATERIA  EQUIPO SE REINCIA POR</t>
-  </si>
-  <si>
-    <t>levo ideapd 3 posible cambio de display.</t>
-  </si>
-  <si>
-    <t>LEVO T480  LE FUNCIONA EL</t>
-  </si>
-  <si>
-    <t>DELL VOSTRO 14 3000 SERIES Enciende el equipo, pero no da sistema ni muestra ningun  mensaje</t>
-  </si>
-  <si>
-    <t>HP ZBOOK 15U RESINTALAR SISTEMA OPERATIVO Y VERIFICAR LA SALUD DEL DISCO SSD</t>
-  </si>
-  <si>
-    <t>VIN ANTICIPO DE $300 ASUS VIVOBOOK FLIP 14 PROBLEMAS CON CARGADOR,  SE DEJA EL EQUIPO EN</t>
-  </si>
-  <si>
-    <t>DELL INSPIRON 15 45173   RETIIENNE  CARGA  EQUIPO MUY LENTO  ENTRA A SISTEMA</t>
-  </si>
-  <si>
-    <t>ASUS FX505D Equipo tarda en encender después de varios intentos, no tiene el disco</t>
-  </si>
-  <si>
-    <t>00000 VIN Deja cargador DELL E5570 Checar con Daniel</t>
-  </si>
-  <si>
-    <t>VIN CARGADOR LEVO IDEAPAD 520S  RECUERDAN LA CONTRASEÑA, FORMATEAR EL EQUIPO</t>
-  </si>
-  <si>
-    <t>LEVO L13 FALLA USB DEL LADO DERECHO</t>
-  </si>
-  <si>
-    <t>LENOVO LOQ15IRH8 instalacion de prorgamas - brian tiene la foto</t>
-  </si>
-  <si>
-    <t>HP REVOLVE 810 TIENE PROBLEMAS EN DETECTAR LOS CARGADORES, DEBE SER CON CIERTOS MOVIMIENTOS DEL CARGADOR PARA QUE LO RECOZCA</t>
-  </si>
-  <si>
-    <t>VIN EQUIPO SE PERCIBE ALGO LENTO, REVISAR SI ES CONVENIENTO ELEGIR NA HP 240G3 EQUIPO DESPLIEGA EL PANEL DE TIFICACIONES CUANDO SE ESTA TRABAJANDO EFFICE PORPORNER PROPUESTAS PARA EL EQUIPO EN DADO CASO QUE SE RECOMIENDE INVERTIR</t>
-  </si>
-  <si>
-    <t>DELL LATITUDE 3410 CAMBIO DE DISCO DURO SSD A 128GB Y EL MECANICO A UN CADDY</t>
-  </si>
-  <si>
-    <t>000000 HP 840 G3</t>
-  </si>
-  <si>
-    <t>LEVO X13 FORMATEO</t>
-  </si>
-  <si>
-    <t>LEVO L470 FORMATEO</t>
-  </si>
-  <si>
-    <t>DELL  QR0053 CAMBIO A SSD 128GB</t>
-  </si>
-  <si>
-    <t>DELL PRECISION 5510 Visagras y el equipo no carga cuando la mantienes abierta y cuando la tienes cerrada si carga</t>
-  </si>
-  <si>
-    <t>OMEN HP Verificar la salud de la bateria, ya que el equipo  se apaga repentinamente y realizarle mantenimiento general</t>
-  </si>
-  <si>
-    <t>MSI LAPTOP Daño de visagras, verificar salud de bateria si es recomendable realizar el cambio de esa misma</t>
-  </si>
-  <si>
-    <t>VIN EQUIPO TRAI BATERIA INFLADA NA HP ELITEBOOK  745 G2 COTIZAR BATERIA, CARGADOR Y CAMBIO A SSD 120GB</t>
-  </si>
-  <si>
-    <t>VIN Dejo cargador,. HP OMEN El equipo se formateo por parte del cliente y le presenta pantallas azules y problemas al arranque</t>
-  </si>
-  <si>
-    <t>DELL INPIRON 15 7000 SERIES cotizar bateria</t>
-  </si>
-  <si>
-    <t>LEVO L570 Presenta pantallas azules " video tdr failures". Verificar salud del disco o ploblemas con el sistema operativo</t>
-  </si>
-  <si>
-    <t>hp 14cf2074la Teclado tiene teclas rotas</t>
-  </si>
-  <si>
-    <t>LEVO T460 AUTOCAD FALLANDO, TECLA 7 DAÑADA Y TRACKPOINT</t>
-  </si>
-  <si>
-    <t>Sony Vaio No entra a sistema</t>
-  </si>
-  <si>
-    <t>YOGA E 11 instalacion de software que son: paqueteria adobe y office</t>
-  </si>
-  <si>
-    <t>VIN DEJO CARGADOR acer falla en el usb y solidwork esta en ingles moverlo a español</t>
-  </si>
-  <si>
-    <t>VIN Cuidar la información del equipo M73 Al usar el equipo en un tiempo indeterminado muestra parpadeo de colores en la pantalla, se cambió la pantalla y los cables pero siguió haciendo lo mismo</t>
-  </si>
-  <si>
-    <t>VIN Puerto de red lo tiene salido yoga e11 El equipo se apaga repentinamente y cierra todas las aplicaciones.</t>
-  </si>
-  <si>
-    <t>E480 Se comenta que el equipo enciende el foco del encendido, pero no esta dando video y nos puede apagar</t>
-  </si>
-  <si>
-    <t>000000 Dell Latitude E5470 Compra de</t>
-  </si>
-  <si>
-    <t>Sra. police LEVO CAMBIO DE SSD 128GB</t>
-  </si>
-  <si>
-    <t>Lenovo thinkpad T480 Falla en bateria</t>
-  </si>
-  <si>
-    <t>ACER  ASPIRE A523 lENTITUD Y CAMBIAR A UN DISCO DE ESTADO SOLIO PARA VERIFICAR SU FUNCIONAMIENTO</t>
-  </si>
-  <si>
-    <t>VIN DEJO CARGADOR lenovo t520 El equipo solo enciende los leds, no da video</t>
-  </si>
-  <si>
-    <t>VIN NINGUNO DELL INSPION 15 Presenta varios bugs en el sistema operativo y barra de tareas</t>
-  </si>
-  <si>
-    <t>VIN CONSERVAR INTERFAZ DEL 2007 NA Elitebook x360 1030 G2 REACTIVACION DE AUTOCAD 2019  CONSERVANDO LA INTERFAZ ANTIGUA</t>
-  </si>
-  <si>
-    <t>L390 El cliente menciona que se calienta demasiado el equipo y suena el ventilador</t>
-  </si>
-  <si>
-    <t>VIN CARGADOR Asus s530f El equipo se dejo de usar un año y medio donde el equipo presenta problemas de lentitud , se apaga repetinamente y problemas en generales con SO</t>
-  </si>
-  <si>
-    <t>HP 14-cd0009la Reemplazo de bateria, El equipo  esta en PIXEL</t>
-  </si>
-  <si>
-    <t>DELL 5520 Mantenimiento general y formateo. Respaldar los archivos escritorio y documentos</t>
-  </si>
-  <si>
-    <t>VIN  Dell 7550 Enciende el equipo pero presenta un mensaje de la bios, Mantenimiento general y formateo.  Respaldar escritorio y documentos</t>
-  </si>
-  <si>
-    <t>YOGA E 11 problemas en la rotacion y en el touch de la pantalla</t>
-  </si>
-  <si>
-    <t>VIN instalar autocad, revit y skechup hp 15-cw0009la Suena bastante ruido cuando enciendes el equipo. Mantenimiento general con formatep</t>
-  </si>
-  <si>
-    <t>VIN dejo cargardor lenovo s 230u Formateo de equipo y tiempo de vida de la bateria NO</t>
-  </si>
-  <si>
-    <t>T470 instalar office</t>
-  </si>
-  <si>
-    <t>HP OMEN El equipo no detecta el sistema operativo</t>
-  </si>
-  <si>
-    <t>yoga E11 No enciende y suena dos pitidos al encender</t>
-  </si>
-  <si>
-    <t>ASUS VIVOBOOK FLIP 14 El equipo no enciende. anteriormente habia ingresado al centro de servicio por problemas de cargador</t>
-  </si>
-  <si>
-    <t>DELL LATITUDE 7470 Presenta pantallas azules y se calienta mucho del ventilador</t>
-  </si>
-  <si>
-    <t>VIN Respaldar escritorio y documento CPU ACTECK Manteniendo general, formateo</t>
-  </si>
-  <si>
-    <t>VIN Respaldar escritorio y documento HP CPU Mantenimiento general y formateo. verificar la salud de disco</t>
-  </si>
-  <si>
-    <t>HP ZBOOK 17 Presenta pantalla negra y ya no volvio encender</t>
-  </si>
-  <si>
-    <t>| DELL COMPRA DE BATERIA</t>
-  </si>
-  <si>
-    <t>VIN Encendio mostrando alerta de bateria baja DELL Latitud 3450 Falló el ventilador(Aparentemente), mostraba alertas de firefox y luego no encendió, se puso la pantalla en negro</t>
-  </si>
-  <si>
-    <t>DELL 3380 Mantenimiento y activación de office</t>
-  </si>
-  <si>
-    <t>dell inspiron 3501 ACTUALIZACION SSD 240 GB Y 8 GB</t>
-  </si>
-  <si>
-    <t>Thinkapd L460 Instalar paquetería office</t>
-  </si>
-  <si>
-    <t>LEVO T470S Instalacion de solidworks y autocad en español</t>
-  </si>
-  <si>
-    <t>SAMSUNG TAB iNSTALACION DE SOLIDWORK Y AUTOCAD EN ESPAÑOL</t>
-  </si>
-  <si>
-    <t>VIN NINGU CPU Instalacion de solidworks y autocad en español</t>
-  </si>
-  <si>
-    <t>VIN CARGADOR LENOVO T470 CUANDO ESTA EN 30% DE CARGA SE DESCARGA Y NO ESTA RETENIENDO LA CARGA CUANDO ESTA ENTRE ESOS VALORES . Falla en el puerto usb derecho superior</t>
-  </si>
-  <si>
-    <t>VIN NINGU HP ELITEBOOK 840 G2 No da video el equipo, pero enciende los ventiladores y los leds del equipo</t>
-  </si>
-  <si>
-    <t>VIN CONTACTAR A MEBEC PARA QUE NOS PASEN LA CONTRASEÑA PF14RWFF LENOVO THINKPAD T480 EQUIPO PRESENTÓ PROBLEMAS EN TECLADO SI</t>
-  </si>
-  <si>
-    <t>00000 SURFACE FORMATEO</t>
-  </si>
-  <si>
-    <t>VIN CARGADOR ASUS GAMER Cambio de disco 1tb y 8 ram adicionales</t>
-  </si>
-  <si>
-    <t>caddy</t>
-  </si>
-  <si>
-    <t>PENDIENTE VIN DEJA CARGADOR HP 840 G1 NO RETIENE LA CARGA</t>
-  </si>
-  <si>
-    <t>Thinkpad T470 Actualización a 500gb ssd</t>
-  </si>
-  <si>
-    <t>ELL G7 DIAGNOSTICO</t>
+    <t>Es garantía</t>
+  </si>
+  <si>
+    <t>No es garantía</t>
   </si>
 </sst>
 </file>
@@ -1881,26 +1887,23 @@
       <c r="B2" t="s">
         <v>144</v>
       </c>
-      <c r="C2" t="s">
-        <v>247</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="C2" s="3">
         <v>45293.40916666666</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2">
+      <c r="D2">
         <v>700.0020000000001</v>
       </c>
-      <c r="I2" t="s">
-        <v>345</v>
+      <c r="E2" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G2" t="s">
+        <v>260</v>
+      </c>
+      <c r="J2" t="s">
+        <v>386</v>
       </c>
       <c r="K2" t="s">
-        <v>358</v>
+        <v>484</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1910,23 +1913,23 @@
       <c r="B3" t="s">
         <v>145</v>
       </c>
-      <c r="C3" t="s">
-        <v>248</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="C3" s="3">
         <v>45293.42548611111</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="H3">
+      <c r="D3">
         <v>1799.9999908</v>
       </c>
-      <c r="I3" t="s">
-        <v>345</v>
+      <c r="E3" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G3" t="s">
+        <v>261</v>
+      </c>
+      <c r="J3" t="s">
+        <v>387</v>
       </c>
       <c r="K3" t="s">
-        <v>359</v>
+        <v>485</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1936,26 +1939,26 @@
       <c r="B4" t="s">
         <v>146</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3">
+        <v>45293.43032407408</v>
+      </c>
+      <c r="D4">
+        <v>3423.9952</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F4" t="s">
         <v>249</v>
       </c>
-      <c r="D4" s="3">
-        <v>45293.43032407408</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>3423.9952</v>
-      </c>
-      <c r="I4" t="s">
-        <v>345</v>
+      <c r="G4" t="s">
+        <v>262</v>
       </c>
       <c r="J4" t="s">
-        <v>347</v>
+        <v>388</v>
       </c>
       <c r="K4" t="s">
-        <v>360</v>
+        <v>485</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1965,26 +1968,26 @@
       <c r="B5" t="s">
         <v>147</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3">
+        <v>45293.43159722222</v>
+      </c>
+      <c r="D5">
+        <v>1972</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F5" t="s">
         <v>250</v>
       </c>
-      <c r="D5" s="3">
-        <v>45293.43159722222</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>1972</v>
-      </c>
-      <c r="I5" t="s">
-        <v>345</v>
+      <c r="G5" t="s">
+        <v>263</v>
       </c>
       <c r="J5" t="s">
-        <v>348</v>
+        <v>389</v>
       </c>
       <c r="K5" t="s">
-        <v>361</v>
+        <v>485</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1994,23 +1997,23 @@
       <c r="B6" t="s">
         <v>148</v>
       </c>
-      <c r="C6" t="s">
-        <v>251</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="C6" s="3">
         <v>45293.49710648148</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="H6">
+      <c r="D6">
         <v>2547.998</v>
       </c>
-      <c r="I6" t="s">
-        <v>345</v>
+      <c r="E6" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G6" t="s">
+        <v>264</v>
+      </c>
+      <c r="J6" t="s">
+        <v>390</v>
       </c>
       <c r="K6" t="s">
-        <v>362</v>
+        <v>485</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2020,23 +2023,23 @@
       <c r="B7" t="s">
         <v>149</v>
       </c>
-      <c r="C7" t="s">
-        <v>252</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="C7" s="3">
         <v>45293.520625</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="H7">
+      <c r="D7">
         <v>1711.99992</v>
       </c>
-      <c r="I7" t="s">
-        <v>345</v>
+      <c r="E7" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G7" t="s">
+        <v>265</v>
+      </c>
+      <c r="J7" t="s">
+        <v>391</v>
       </c>
       <c r="K7" t="s">
-        <v>363</v>
+        <v>485</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2046,23 +2049,23 @@
       <c r="B8" t="s">
         <v>150</v>
       </c>
-      <c r="C8" t="s">
-        <v>253</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="C8" s="3">
         <v>45293.5405787037</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="H8">
+      <c r="D8">
         <v>599.9984000000001</v>
       </c>
-      <c r="I8" t="s">
-        <v>345</v>
+      <c r="E8" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G8" t="s">
+        <v>266</v>
+      </c>
+      <c r="J8" t="s">
+        <v>392</v>
       </c>
       <c r="K8" t="s">
-        <v>364</v>
+        <v>485</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2072,23 +2075,20 @@
       <c r="B9" t="s">
         <v>151</v>
       </c>
-      <c r="C9" t="s">
-        <v>254</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="C9" s="3">
         <v>45293.63739583334</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="H9">
+      <c r="D9">
         <v>1508</v>
       </c>
-      <c r="I9" t="s">
-        <v>345</v>
-      </c>
-      <c r="K9" t="s">
-        <v>365</v>
+      <c r="E9" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G9" t="s">
+        <v>267</v>
+      </c>
+      <c r="J9" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2098,26 +2098,26 @@
       <c r="B10" t="s">
         <v>151</v>
       </c>
-      <c r="C10" t="s">
-        <v>254</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="C10" s="3">
         <v>45293.64356481482</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="H10">
+      <c r="D10">
         <v>2436</v>
       </c>
-      <c r="I10" t="s">
-        <v>345</v>
+      <c r="E10" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F10" t="s">
+        <v>251</v>
+      </c>
+      <c r="G10" t="s">
+        <v>268</v>
       </c>
       <c r="J10" t="s">
-        <v>349</v>
+        <v>393</v>
       </c>
       <c r="K10" t="s">
-        <v>366</v>
+        <v>485</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2127,23 +2127,23 @@
       <c r="B11" t="s">
         <v>152</v>
       </c>
-      <c r="C11" t="s">
-        <v>255</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="C11" s="3">
         <v>45293.64849537037</v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="H11">
+      <c r="D11">
         <v>1500.7996248</v>
       </c>
-      <c r="I11" t="s">
-        <v>345</v>
+      <c r="E11" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G11" t="s">
+        <v>269</v>
+      </c>
+      <c r="J11" t="s">
+        <v>394</v>
       </c>
       <c r="K11" t="s">
-        <v>367</v>
+        <v>485</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2153,23 +2153,20 @@
       <c r="B12" t="s">
         <v>153</v>
       </c>
-      <c r="C12" t="s">
-        <v>256</v>
-      </c>
-      <c r="D12" s="3">
+      <c r="C12" s="3">
         <v>45293.69689814815</v>
       </c>
-      <c r="F12">
+      <c r="D12">
         <v>0</v>
       </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12" t="s">
-        <v>346</v>
-      </c>
-      <c r="K12" t="s">
-        <v>368</v>
+      <c r="E12" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G12" t="s">
+        <v>270</v>
+      </c>
+      <c r="J12" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2179,23 +2176,23 @@
       <c r="B13" t="s">
         <v>154</v>
       </c>
-      <c r="C13" t="s">
-        <v>257</v>
-      </c>
-      <c r="D13" s="3">
+      <c r="C13" s="3">
         <v>45293.72875</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="H13">
+      <c r="D13">
         <v>3248</v>
       </c>
-      <c r="I13" t="s">
-        <v>345</v>
+      <c r="E13" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G13" t="s">
+        <v>271</v>
+      </c>
+      <c r="J13" t="s">
+        <v>396</v>
       </c>
       <c r="K13" t="s">
-        <v>369</v>
+        <v>485</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2205,23 +2202,20 @@
       <c r="B14" t="s">
         <v>155</v>
       </c>
-      <c r="C14" t="s">
-        <v>258</v>
-      </c>
-      <c r="D14" s="3">
+      <c r="C14" s="3">
         <v>45293.73319444444</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="H14">
+      <c r="D14">
         <v>580</v>
       </c>
-      <c r="I14" t="s">
-        <v>345</v>
-      </c>
-      <c r="K14" t="s">
-        <v>370</v>
+      <c r="E14" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G14" t="s">
+        <v>272</v>
+      </c>
+      <c r="J14" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2231,26 +2225,23 @@
       <c r="B15" t="s">
         <v>156</v>
       </c>
-      <c r="C15" t="s">
-        <v>259</v>
-      </c>
-      <c r="D15" s="3">
+      <c r="C15" s="3">
         <v>45293.73402777778</v>
       </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15">
+      <c r="D15">
         <v>580</v>
       </c>
-      <c r="I15" t="s">
-        <v>345</v>
+      <c r="E15" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G15" t="s">
+        <v>273</v>
+      </c>
+      <c r="J15" t="s">
+        <v>398</v>
       </c>
       <c r="K15" t="s">
-        <v>371</v>
+        <v>484</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2260,26 +2251,23 @@
       <c r="B16" t="s">
         <v>157</v>
       </c>
-      <c r="C16" t="s">
-        <v>260</v>
-      </c>
-      <c r="D16" s="3">
+      <c r="C16" s="3">
         <v>45294.45621527778</v>
       </c>
-      <c r="F16">
+      <c r="D16">
         <v>0</v>
       </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16" t="s">
-        <v>346</v>
+      <c r="E16" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G16" t="s">
+        <v>274</v>
+      </c>
+      <c r="J16" t="s">
+        <v>399</v>
       </c>
       <c r="K16" t="s">
-        <v>372</v>
+        <v>484</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -2289,23 +2277,23 @@
       <c r="B17" t="s">
         <v>158</v>
       </c>
-      <c r="C17" t="s">
-        <v>261</v>
-      </c>
-      <c r="D17" s="3">
+      <c r="C17" s="3">
         <v>45294.52268518518</v>
       </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="H17">
+      <c r="D17">
         <v>700.0020000000001</v>
       </c>
-      <c r="I17" t="s">
-        <v>345</v>
+      <c r="E17" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G17" t="s">
+        <v>275</v>
+      </c>
+      <c r="J17" t="s">
+        <v>400</v>
       </c>
       <c r="K17" t="s">
-        <v>373</v>
+        <v>485</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -2315,23 +2303,23 @@
       <c r="B18" t="s">
         <v>159</v>
       </c>
-      <c r="C18" t="s">
-        <v>262</v>
-      </c>
-      <c r="D18" s="3">
+      <c r="C18" s="3">
         <v>45294.69050925926</v>
       </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="H18">
+      <c r="D18">
         <v>249.99999956</v>
       </c>
-      <c r="I18" t="s">
-        <v>345</v>
+      <c r="E18" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G18" t="s">
+        <v>276</v>
+      </c>
+      <c r="J18" t="s">
+        <v>401</v>
       </c>
       <c r="K18" t="s">
-        <v>374</v>
+        <v>485</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2341,23 +2329,23 @@
       <c r="B19" t="s">
         <v>160</v>
       </c>
-      <c r="C19" t="s">
-        <v>263</v>
-      </c>
-      <c r="D19" s="3">
+      <c r="C19" s="3">
         <v>45295.41672453703</v>
       </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="H19">
+      <c r="D19">
         <v>580</v>
       </c>
-      <c r="I19" t="s">
-        <v>345</v>
+      <c r="E19" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G19" t="s">
+        <v>277</v>
+      </c>
+      <c r="J19" t="s">
+        <v>402</v>
       </c>
       <c r="K19" t="s">
-        <v>375</v>
+        <v>485</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2367,23 +2355,23 @@
       <c r="B20" t="s">
         <v>161</v>
       </c>
-      <c r="C20" t="s">
-        <v>264</v>
-      </c>
-      <c r="D20" s="3">
+      <c r="C20" s="3">
         <v>45295.50078703704</v>
       </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="H20">
+      <c r="D20">
         <v>250.0032</v>
       </c>
-      <c r="I20" t="s">
-        <v>345</v>
+      <c r="E20" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G20" t="s">
+        <v>278</v>
+      </c>
+      <c r="J20" t="s">
+        <v>403</v>
       </c>
       <c r="K20" t="s">
-        <v>376</v>
+        <v>485</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2393,23 +2381,23 @@
       <c r="B21" t="s">
         <v>162</v>
       </c>
-      <c r="C21" t="s">
-        <v>265</v>
-      </c>
-      <c r="D21" s="3">
+      <c r="C21" s="3">
         <v>45295.5046412037</v>
       </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="H21">
+      <c r="D21">
         <v>2949.996</v>
       </c>
-      <c r="I21" t="s">
-        <v>345</v>
+      <c r="E21" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G21" t="s">
+        <v>279</v>
+      </c>
+      <c r="J21" t="s">
+        <v>404</v>
       </c>
       <c r="K21" t="s">
-        <v>377</v>
+        <v>485</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2419,23 +2407,23 @@
       <c r="B22" t="s">
         <v>163</v>
       </c>
-      <c r="C22" t="s">
-        <v>266</v>
-      </c>
-      <c r="D22" s="3">
+      <c r="C22" s="3">
         <v>45295.56520833333</v>
       </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="H22">
+      <c r="D22">
         <v>812</v>
       </c>
-      <c r="I22" t="s">
-        <v>345</v>
+      <c r="E22" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G22" t="s">
+        <v>280</v>
+      </c>
+      <c r="J22" t="s">
+        <v>405</v>
       </c>
       <c r="K22" t="s">
-        <v>378</v>
+        <v>485</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2445,23 +2433,20 @@
       <c r="B23" t="s">
         <v>164</v>
       </c>
-      <c r="C23" t="s">
-        <v>267</v>
-      </c>
-      <c r="D23" s="3">
+      <c r="C23" s="3">
         <v>45295.59929398148</v>
       </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="H23">
+      <c r="D23">
         <v>1450</v>
       </c>
-      <c r="I23" t="s">
-        <v>345</v>
-      </c>
-      <c r="K23" t="s">
-        <v>379</v>
+      <c r="E23" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G23" t="s">
+        <v>281</v>
+      </c>
+      <c r="J23" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -2471,23 +2456,23 @@
       <c r="B24" t="s">
         <v>165</v>
       </c>
-      <c r="C24" t="s">
-        <v>268</v>
-      </c>
-      <c r="D24" s="3">
+      <c r="C24" s="3">
         <v>45295.60870370371</v>
       </c>
-      <c r="F24">
+      <c r="D24">
         <v>0</v>
       </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24" t="s">
-        <v>346</v>
+      <c r="E24" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G24" t="s">
+        <v>282</v>
+      </c>
+      <c r="J24" t="s">
+        <v>407</v>
       </c>
       <c r="K24" t="s">
-        <v>380</v>
+        <v>485</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -2497,23 +2482,23 @@
       <c r="B25" t="s">
         <v>166</v>
       </c>
-      <c r="C25" t="s">
-        <v>269</v>
-      </c>
-      <c r="D25" s="3">
+      <c r="C25" s="3">
         <v>45295.71038194445</v>
       </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="H25">
+      <c r="D25">
         <v>812</v>
       </c>
-      <c r="I25" t="s">
-        <v>345</v>
+      <c r="E25" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G25" t="s">
+        <v>283</v>
+      </c>
+      <c r="J25" t="s">
+        <v>408</v>
       </c>
       <c r="K25" t="s">
-        <v>381</v>
+        <v>485</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -2523,23 +2508,23 @@
       <c r="B26" t="s">
         <v>166</v>
       </c>
-      <c r="C26" t="s">
-        <v>269</v>
-      </c>
-      <c r="D26" s="3">
+      <c r="C26" s="3">
         <v>45295.71620370371</v>
       </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="H26">
+      <c r="D26">
         <v>812</v>
       </c>
-      <c r="I26" t="s">
-        <v>345</v>
+      <c r="E26" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G26" t="s">
+        <v>284</v>
+      </c>
+      <c r="J26" t="s">
+        <v>408</v>
       </c>
       <c r="K26" t="s">
-        <v>382</v>
+        <v>485</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2549,26 +2534,23 @@
       <c r="B27" t="s">
         <v>167</v>
       </c>
-      <c r="C27" t="s">
-        <v>270</v>
-      </c>
-      <c r="D27" s="3">
+      <c r="C27" s="3">
         <v>45295.75900462963</v>
       </c>
-      <c r="F27">
+      <c r="D27">
         <v>0</v>
       </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27" t="s">
-        <v>346</v>
+      <c r="E27" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G27" t="s">
+        <v>285</v>
+      </c>
+      <c r="J27" t="s">
+        <v>409</v>
       </c>
       <c r="K27" t="s">
-        <v>383</v>
+        <v>484</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2578,26 +2560,26 @@
       <c r="B28" t="s">
         <v>168</v>
       </c>
-      <c r="C28" t="s">
-        <v>271</v>
-      </c>
-      <c r="D28" s="3">
+      <c r="C28" s="3">
         <v>45296.48380787037</v>
       </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="H28">
+      <c r="D28">
         <v>1624</v>
       </c>
-      <c r="I28" t="s">
-        <v>345</v>
+      <c r="E28" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F28" t="s">
+        <v>252</v>
+      </c>
+      <c r="G28" t="s">
+        <v>286</v>
       </c>
       <c r="J28" t="s">
-        <v>350</v>
+        <v>410</v>
       </c>
       <c r="K28" t="s">
-        <v>384</v>
+        <v>485</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2607,23 +2589,23 @@
       <c r="B29" t="s">
         <v>169</v>
       </c>
-      <c r="C29" t="s">
-        <v>272</v>
-      </c>
-      <c r="D29" s="3">
+      <c r="C29" s="3">
         <v>45296.70635416666</v>
       </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="H29">
+      <c r="D29">
         <v>580</v>
       </c>
-      <c r="I29" t="s">
-        <v>345</v>
+      <c r="E29" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G29" t="s">
+        <v>287</v>
+      </c>
+      <c r="J29" t="s">
+        <v>411</v>
       </c>
       <c r="K29" t="s">
-        <v>385</v>
+        <v>485</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2633,23 +2615,23 @@
       <c r="B30" t="s">
         <v>169</v>
       </c>
-      <c r="C30" t="s">
-        <v>272</v>
-      </c>
-      <c r="D30" s="3">
+      <c r="C30" s="3">
         <v>45296.70888888889</v>
       </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="H30">
+      <c r="D30">
         <v>580</v>
       </c>
-      <c r="I30" t="s">
-        <v>345</v>
+      <c r="E30" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G30" t="s">
+        <v>288</v>
+      </c>
+      <c r="J30" t="s">
+        <v>411</v>
       </c>
       <c r="K30" t="s">
-        <v>386</v>
+        <v>485</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2659,23 +2641,23 @@
       <c r="B31" t="s">
         <v>169</v>
       </c>
-      <c r="C31" t="s">
-        <v>272</v>
-      </c>
-      <c r="D31" s="3">
+      <c r="C31" s="3">
         <v>45296.71063657408</v>
       </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="H31">
+      <c r="D31">
         <v>580</v>
       </c>
-      <c r="I31" t="s">
-        <v>345</v>
+      <c r="E31" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G31" t="s">
+        <v>288</v>
+      </c>
+      <c r="J31" t="s">
+        <v>411</v>
       </c>
       <c r="K31" t="s">
-        <v>386</v>
+        <v>485</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2685,23 +2667,23 @@
       <c r="B32" t="s">
         <v>169</v>
       </c>
-      <c r="C32" t="s">
-        <v>272</v>
-      </c>
-      <c r="D32" s="3">
+      <c r="C32" s="3">
         <v>45296.71376157407</v>
       </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="H32">
+      <c r="D32">
         <v>580</v>
       </c>
-      <c r="I32" t="s">
-        <v>345</v>
+      <c r="E32" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G32" t="s">
+        <v>289</v>
+      </c>
+      <c r="J32" t="s">
+        <v>411</v>
       </c>
       <c r="K32" t="s">
-        <v>387</v>
+        <v>485</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2711,23 +2693,23 @@
       <c r="B33" t="s">
         <v>169</v>
       </c>
-      <c r="C33" t="s">
-        <v>272</v>
-      </c>
-      <c r="D33" s="3">
+      <c r="C33" s="3">
         <v>45296.71980324074</v>
       </c>
-      <c r="F33">
+      <c r="D33">
         <v>0</v>
       </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33" t="s">
-        <v>346</v>
+      <c r="E33" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G33" t="s">
+        <v>290</v>
+      </c>
+      <c r="J33" t="s">
+        <v>411</v>
       </c>
       <c r="K33" t="s">
-        <v>388</v>
+        <v>485</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2737,23 +2719,23 @@
       <c r="B34" t="s">
         <v>170</v>
       </c>
-      <c r="C34" t="s">
-        <v>273</v>
-      </c>
-      <c r="D34" s="3">
+      <c r="C34" s="3">
         <v>45296.7368287037</v>
       </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="H34">
+      <c r="D34">
         <v>2499.9972</v>
       </c>
-      <c r="I34" t="s">
-        <v>345</v>
+      <c r="E34" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G34" t="s">
+        <v>291</v>
+      </c>
+      <c r="J34" t="s">
+        <v>412</v>
       </c>
       <c r="K34" t="s">
-        <v>389</v>
+        <v>485</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2763,23 +2745,23 @@
       <c r="B35" t="s">
         <v>171</v>
       </c>
-      <c r="C35" t="s">
-        <v>274</v>
-      </c>
-      <c r="D35" s="3">
+      <c r="C35" s="3">
         <v>45296.7422337963</v>
       </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="H35">
+      <c r="D35">
         <v>250.0032</v>
       </c>
-      <c r="I35" t="s">
-        <v>345</v>
+      <c r="E35" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G35" t="s">
+        <v>292</v>
+      </c>
+      <c r="J35" t="s">
+        <v>413</v>
       </c>
       <c r="K35" t="s">
-        <v>390</v>
+        <v>485</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2789,23 +2771,23 @@
       <c r="B36" t="s">
         <v>172</v>
       </c>
-      <c r="C36" t="s">
-        <v>275</v>
-      </c>
-      <c r="D36" s="3">
+      <c r="C36" s="3">
         <v>45297.44438657408</v>
       </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="H36">
+      <c r="D36">
         <v>2199.998</v>
       </c>
-      <c r="I36" t="s">
-        <v>345</v>
+      <c r="E36" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G36" t="s">
+        <v>293</v>
+      </c>
+      <c r="J36" t="s">
+        <v>414</v>
       </c>
       <c r="K36" t="s">
-        <v>391</v>
+        <v>485</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2815,23 +2797,23 @@
       <c r="B37" t="s">
         <v>173</v>
       </c>
-      <c r="C37" t="s">
-        <v>276</v>
-      </c>
-      <c r="D37" s="3">
+      <c r="C37" s="3">
         <v>45299.65844907407</v>
       </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="H37">
+      <c r="D37">
         <v>1599.9999944</v>
       </c>
-      <c r="I37" t="s">
-        <v>345</v>
+      <c r="E37" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G37" t="s">
+        <v>294</v>
+      </c>
+      <c r="J37" t="s">
+        <v>415</v>
       </c>
       <c r="K37" t="s">
-        <v>392</v>
+        <v>485</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2841,23 +2823,23 @@
       <c r="B38" t="s">
         <v>174</v>
       </c>
-      <c r="C38" t="s">
-        <v>277</v>
-      </c>
-      <c r="D38" s="3">
+      <c r="C38" s="3">
         <v>45299.70826388889</v>
       </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="H38">
+      <c r="D38">
         <v>299.9992</v>
       </c>
-      <c r="I38" t="s">
-        <v>345</v>
+      <c r="E38" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G38" t="s">
+        <v>295</v>
+      </c>
+      <c r="J38" t="s">
+        <v>416</v>
       </c>
       <c r="K38" t="s">
-        <v>393</v>
+        <v>485</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2867,23 +2849,23 @@
       <c r="B39" t="s">
         <v>175</v>
       </c>
-      <c r="C39" t="s">
-        <v>278</v>
-      </c>
-      <c r="D39" s="3">
+      <c r="C39" s="3">
         <v>45299.7290162037</v>
       </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="H39">
+      <c r="D39">
         <v>1300.0004</v>
       </c>
-      <c r="I39" t="s">
-        <v>345</v>
+      <c r="E39" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G39" t="s">
+        <v>296</v>
+      </c>
+      <c r="J39" t="s">
+        <v>417</v>
       </c>
       <c r="K39" t="s">
-        <v>394</v>
+        <v>485</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2893,23 +2875,23 @@
       <c r="B40" t="s">
         <v>176</v>
       </c>
-      <c r="C40" t="s">
-        <v>279</v>
-      </c>
-      <c r="D40" s="3">
+      <c r="C40" s="3">
         <v>45299.76886574074</v>
       </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="H40">
+      <c r="D40">
         <v>1499.9999147</v>
       </c>
-      <c r="I40" t="s">
-        <v>345</v>
+      <c r="E40" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G40" t="s">
+        <v>297</v>
+      </c>
+      <c r="J40" t="s">
+        <v>418</v>
       </c>
       <c r="K40" t="s">
-        <v>395</v>
+        <v>485</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2919,26 +2901,26 @@
       <c r="B41" t="s">
         <v>177</v>
       </c>
-      <c r="C41" t="s">
-        <v>280</v>
-      </c>
-      <c r="D41" s="3">
+      <c r="C41" s="3">
         <v>45300.53837962963</v>
       </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="H41">
+      <c r="D41">
         <v>1400.004</v>
       </c>
-      <c r="I41" t="s">
-        <v>345</v>
+      <c r="E41" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F41" t="s">
+        <v>253</v>
+      </c>
+      <c r="G41" t="s">
+        <v>298</v>
       </c>
       <c r="J41" t="s">
-        <v>351</v>
+        <v>419</v>
       </c>
       <c r="K41" t="s">
-        <v>396</v>
+        <v>485</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2948,26 +2930,23 @@
       <c r="B42" t="s">
         <v>178</v>
       </c>
-      <c r="C42" t="s">
-        <v>281</v>
-      </c>
-      <c r="D42" s="3">
+      <c r="C42" s="3">
         <v>45300.6213425926</v>
       </c>
-      <c r="F42">
+      <c r="D42">
         <v>0</v>
       </c>
-      <c r="G42" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42" t="s">
-        <v>346</v>
+      <c r="E42" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G42" t="s">
+        <v>299</v>
+      </c>
+      <c r="J42" t="s">
+        <v>420</v>
       </c>
       <c r="K42" t="s">
-        <v>397</v>
+        <v>484</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2977,23 +2956,23 @@
       <c r="B43" t="s">
         <v>179</v>
       </c>
-      <c r="C43" t="s">
-        <v>282</v>
-      </c>
-      <c r="D43" s="3">
+      <c r="C43" s="3">
         <v>45300.63311342592</v>
       </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="H43">
+      <c r="D43">
         <v>2900</v>
       </c>
-      <c r="I43" t="s">
-        <v>345</v>
+      <c r="E43" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G43" t="s">
+        <v>300</v>
+      </c>
+      <c r="J43" t="s">
+        <v>421</v>
       </c>
       <c r="K43" t="s">
-        <v>398</v>
+        <v>485</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -3003,23 +2982,23 @@
       <c r="B44" t="s">
         <v>180</v>
       </c>
-      <c r="C44" t="s">
-        <v>283</v>
-      </c>
-      <c r="D44" s="3">
+      <c r="C44" s="3">
         <v>45300.675</v>
       </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="H44">
+      <c r="D44">
         <v>349.9952</v>
       </c>
-      <c r="I44" t="s">
-        <v>345</v>
+      <c r="E44" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G44" t="s">
+        <v>301</v>
+      </c>
+      <c r="J44" t="s">
+        <v>422</v>
       </c>
       <c r="K44" t="s">
-        <v>399</v>
+        <v>485</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -3029,23 +3008,23 @@
       <c r="B45" t="s">
         <v>164</v>
       </c>
-      <c r="C45" t="s">
-        <v>267</v>
-      </c>
-      <c r="D45" s="3">
+      <c r="C45" s="3">
         <v>45300.69486111111</v>
       </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="H45">
+      <c r="D45">
         <v>250.0032</v>
       </c>
-      <c r="I45" t="s">
-        <v>345</v>
+      <c r="E45" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G45" t="s">
+        <v>302</v>
+      </c>
+      <c r="J45" t="s">
+        <v>406</v>
       </c>
       <c r="K45" t="s">
-        <v>400</v>
+        <v>485</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -3055,23 +3034,23 @@
       <c r="B46" t="s">
         <v>181</v>
       </c>
-      <c r="C46" t="s">
-        <v>284</v>
-      </c>
-      <c r="D46" s="3">
+      <c r="C46" s="3">
         <v>45300.73149305556</v>
       </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="H46">
+      <c r="D46">
         <v>1599.9996</v>
       </c>
-      <c r="I46" t="s">
-        <v>345</v>
+      <c r="E46" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G46" t="s">
+        <v>303</v>
+      </c>
+      <c r="J46" t="s">
+        <v>423</v>
       </c>
       <c r="K46" t="s">
-        <v>401</v>
+        <v>485</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -3081,26 +3060,26 @@
       <c r="B47" t="s">
         <v>182</v>
       </c>
-      <c r="C47" t="s">
-        <v>285</v>
-      </c>
-      <c r="D47" s="3">
+      <c r="C47" s="3">
         <v>45301.38350694445</v>
       </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="H47">
+      <c r="D47">
         <v>349.999956</v>
       </c>
-      <c r="I47" t="s">
-        <v>345</v>
+      <c r="E47" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F47" t="s">
+        <v>254</v>
+      </c>
+      <c r="G47" t="s">
+        <v>304</v>
       </c>
       <c r="J47" t="s">
-        <v>352</v>
+        <v>424</v>
       </c>
       <c r="K47" t="s">
-        <v>402</v>
+        <v>485</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -3110,23 +3089,23 @@
       <c r="B48" t="s">
         <v>183</v>
       </c>
-      <c r="C48" t="s">
-        <v>286</v>
-      </c>
-      <c r="D48" s="3">
+      <c r="C48" s="3">
         <v>45301.45447916666</v>
       </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="H48">
+      <c r="D48">
         <v>2000.0024</v>
       </c>
-      <c r="I48" t="s">
-        <v>345</v>
+      <c r="E48" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G48" t="s">
+        <v>305</v>
+      </c>
+      <c r="J48" t="s">
+        <v>425</v>
       </c>
       <c r="K48" t="s">
-        <v>403</v>
+        <v>485</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -3136,26 +3115,23 @@
       <c r="B49" t="s">
         <v>184</v>
       </c>
-      <c r="C49" t="s">
-        <v>287</v>
-      </c>
-      <c r="D49" s="3">
+      <c r="C49" s="3">
         <v>45301.56194444445</v>
       </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49">
+      <c r="D49">
         <v>249.99999956</v>
       </c>
-      <c r="I49" t="s">
-        <v>345</v>
+      <c r="E49" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G49" t="s">
+        <v>306</v>
+      </c>
+      <c r="J49" t="s">
+        <v>426</v>
       </c>
       <c r="K49" t="s">
-        <v>404</v>
+        <v>484</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -3165,23 +3141,23 @@
       <c r="B50" t="s">
         <v>185</v>
       </c>
-      <c r="C50" t="s">
-        <v>288</v>
-      </c>
-      <c r="D50" s="3">
+      <c r="C50" s="3">
         <v>45301.5903125</v>
       </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="H50">
+      <c r="D50">
         <v>580</v>
       </c>
-      <c r="I50" t="s">
-        <v>345</v>
+      <c r="E50" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G50" t="s">
+        <v>307</v>
+      </c>
+      <c r="J50" t="s">
+        <v>427</v>
       </c>
       <c r="K50" t="s">
-        <v>405</v>
+        <v>485</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -3191,26 +3167,23 @@
       <c r="B51" t="s">
         <v>186</v>
       </c>
-      <c r="C51" t="s">
-        <v>289</v>
-      </c>
-      <c r="D51" s="3">
+      <c r="C51" s="3">
         <v>45301.64981481482</v>
       </c>
-      <c r="F51">
+      <c r="D51">
         <v>0</v>
       </c>
-      <c r="G51" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51" t="s">
-        <v>346</v>
+      <c r="E51" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G51" t="s">
+        <v>308</v>
+      </c>
+      <c r="J51" t="s">
+        <v>428</v>
       </c>
       <c r="K51" t="s">
-        <v>406</v>
+        <v>484</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -3220,26 +3193,23 @@
       <c r="B52" t="s">
         <v>187</v>
       </c>
-      <c r="C52" t="s">
-        <v>290</v>
-      </c>
-      <c r="D52" s="3">
+      <c r="C52" s="3">
         <v>45301.70329861111</v>
       </c>
-      <c r="F52">
+      <c r="D52">
         <v>0</v>
       </c>
-      <c r="G52" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52" t="s">
-        <v>346</v>
+      <c r="E52" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G52" t="s">
+        <v>309</v>
+      </c>
+      <c r="J52" t="s">
+        <v>429</v>
       </c>
       <c r="K52" t="s">
-        <v>407</v>
+        <v>484</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -3249,23 +3219,23 @@
       <c r="B53" t="s">
         <v>188</v>
       </c>
-      <c r="C53" t="s">
-        <v>291</v>
-      </c>
-      <c r="D53" s="3">
+      <c r="C53" s="3">
         <v>45301.72096064815</v>
       </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="H53">
+      <c r="D53">
         <v>1599.9996</v>
       </c>
-      <c r="I53" t="s">
-        <v>345</v>
+      <c r="E53" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G53" t="s">
+        <v>310</v>
+      </c>
+      <c r="J53" t="s">
+        <v>430</v>
       </c>
       <c r="K53" t="s">
-        <v>408</v>
+        <v>485</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -3275,23 +3245,20 @@
       <c r="B54" t="s">
         <v>174</v>
       </c>
-      <c r="C54" t="s">
-        <v>292</v>
-      </c>
-      <c r="D54" s="3">
+      <c r="C54" s="3">
         <v>45301.76365740741</v>
       </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="H54">
+      <c r="D54">
         <v>1150.0008</v>
       </c>
-      <c r="I54" t="s">
-        <v>345</v>
-      </c>
-      <c r="K54" t="s">
-        <v>409</v>
+      <c r="E54" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G54" t="s">
+        <v>311</v>
+      </c>
+      <c r="J54" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -3301,23 +3268,20 @@
       <c r="B55" t="s">
         <v>189</v>
       </c>
-      <c r="C55" t="s">
-        <v>293</v>
-      </c>
-      <c r="D55" s="3">
+      <c r="C55" s="3">
         <v>45302.43177083333</v>
       </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="H55">
+      <c r="D55">
         <v>249.999999999988</v>
       </c>
-      <c r="I55" t="s">
-        <v>345</v>
-      </c>
-      <c r="K55" t="s">
-        <v>410</v>
+      <c r="E55" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G55" t="s">
+        <v>312</v>
+      </c>
+      <c r="J55" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3327,23 +3291,23 @@
       <c r="B56" t="s">
         <v>190</v>
       </c>
-      <c r="C56" t="s">
-        <v>294</v>
-      </c>
-      <c r="D56" s="3">
+      <c r="C56" s="3">
         <v>45302.57895833333</v>
       </c>
-      <c r="F56">
+      <c r="D56">
         <v>0</v>
       </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56" t="s">
-        <v>346</v>
+      <c r="E56" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G56" t="s">
+        <v>313</v>
+      </c>
+      <c r="J56" t="s">
+        <v>433</v>
       </c>
       <c r="K56" t="s">
-        <v>411</v>
+        <v>485</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -3353,23 +3317,20 @@
       <c r="B57" t="s">
         <v>191</v>
       </c>
-      <c r="C57" t="s">
-        <v>295</v>
-      </c>
-      <c r="D57" s="3">
+      <c r="C57" s="3">
         <v>45302.66740740741</v>
       </c>
-      <c r="F57">
+      <c r="D57">
         <v>0</v>
       </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="I57" t="s">
-        <v>346</v>
-      </c>
-      <c r="K57" t="s">
-        <v>412</v>
+      <c r="E57" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G57" t="s">
+        <v>314</v>
+      </c>
+      <c r="J57" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -3379,23 +3340,23 @@
       <c r="B58" t="s">
         <v>192</v>
       </c>
-      <c r="C58" t="s">
-        <v>296</v>
-      </c>
-      <c r="D58" s="3">
+      <c r="C58" s="3">
         <v>45303.54585648148</v>
       </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="H58">
+      <c r="D58">
         <v>349.9952</v>
       </c>
-      <c r="I58" t="s">
-        <v>345</v>
+      <c r="E58" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G58" t="s">
+        <v>315</v>
+      </c>
+      <c r="J58" t="s">
+        <v>435</v>
       </c>
       <c r="K58" t="s">
-        <v>413</v>
+        <v>485</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -3405,23 +3366,23 @@
       <c r="B59" t="s">
         <v>193</v>
       </c>
-      <c r="C59" t="s">
-        <v>297</v>
-      </c>
-      <c r="D59" s="3">
+      <c r="C59" s="3">
         <v>45303.74936342592</v>
       </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="H59">
+      <c r="D59">
         <v>580</v>
       </c>
-      <c r="I59" t="s">
-        <v>345</v>
+      <c r="E59" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G59" t="s">
+        <v>316</v>
+      </c>
+      <c r="J59" t="s">
+        <v>436</v>
       </c>
       <c r="K59" t="s">
-        <v>414</v>
+        <v>485</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -3431,26 +3392,23 @@
       <c r="B60" t="s">
         <v>194</v>
       </c>
-      <c r="C60" t="s">
-        <v>298</v>
-      </c>
-      <c r="D60" s="3">
+      <c r="C60" s="3">
         <v>45304.43210648148</v>
       </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="H60">
+      <c r="D60">
         <v>649.9999999928</v>
       </c>
-      <c r="I60" t="s">
-        <v>345</v>
+      <c r="E60" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F60" t="s">
+        <v>255</v>
+      </c>
+      <c r="G60" t="s">
+        <v>317</v>
       </c>
       <c r="J60" t="s">
-        <v>353</v>
-      </c>
-      <c r="K60" t="s">
-        <v>415</v>
+        <v>437</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -3460,23 +3418,23 @@
       <c r="B61" t="s">
         <v>195</v>
       </c>
-      <c r="C61" t="s">
-        <v>299</v>
-      </c>
-      <c r="D61" s="3">
+      <c r="C61" s="3">
         <v>45304.52567129629</v>
       </c>
-      <c r="F61">
+      <c r="D61">
         <v>0</v>
       </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="I61" t="s">
-        <v>346</v>
+      <c r="E61" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G61" t="s">
+        <v>318</v>
+      </c>
+      <c r="J61" t="s">
+        <v>438</v>
       </c>
       <c r="K61" t="s">
-        <v>416</v>
+        <v>485</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -3486,23 +3444,23 @@
       <c r="B62" t="s">
         <v>196</v>
       </c>
-      <c r="C62" t="s">
-        <v>300</v>
-      </c>
-      <c r="D62" s="3">
+      <c r="C62" s="3">
         <v>45306.48765046296</v>
       </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="H62">
+      <c r="D62">
         <v>299.9999999998</v>
       </c>
-      <c r="I62" t="s">
-        <v>345</v>
+      <c r="E62" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G62" t="s">
+        <v>319</v>
+      </c>
+      <c r="J62" t="s">
+        <v>439</v>
       </c>
       <c r="K62" t="s">
-        <v>417</v>
+        <v>485</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -3512,26 +3470,26 @@
       <c r="B63" t="s">
         <v>197</v>
       </c>
-      <c r="C63" t="s">
-        <v>288</v>
-      </c>
-      <c r="D63" s="3">
+      <c r="C63" s="3">
         <v>45306.49606481481</v>
       </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="H63">
+      <c r="D63">
         <v>1599.9996</v>
       </c>
-      <c r="I63" t="s">
-        <v>345</v>
+      <c r="E63" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F63" t="s">
+        <v>256</v>
+      </c>
+      <c r="G63" t="s">
+        <v>320</v>
       </c>
       <c r="J63" t="s">
-        <v>354</v>
+        <v>427</v>
       </c>
       <c r="K63" t="s">
-        <v>418</v>
+        <v>485</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -3541,23 +3499,23 @@
       <c r="B64" t="s">
         <v>198</v>
       </c>
-      <c r="C64" t="s">
-        <v>301</v>
-      </c>
-      <c r="D64" s="3">
+      <c r="C64" s="3">
         <v>45306.51649305555</v>
       </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="H64">
+      <c r="D64">
         <v>580</v>
       </c>
-      <c r="I64" t="s">
-        <v>345</v>
+      <c r="E64" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G64" t="s">
+        <v>321</v>
+      </c>
+      <c r="J64" t="s">
+        <v>440</v>
       </c>
       <c r="K64" t="s">
-        <v>419</v>
+        <v>485</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -3567,23 +3525,23 @@
       <c r="B65" t="s">
         <v>198</v>
       </c>
-      <c r="C65" t="s">
-        <v>301</v>
-      </c>
-      <c r="D65" s="3">
+      <c r="C65" s="3">
         <v>45306.52288194445</v>
       </c>
-      <c r="F65">
+      <c r="D65">
         <v>0</v>
       </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65" t="s">
-        <v>346</v>
+      <c r="E65" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G65" t="s">
+        <v>322</v>
+      </c>
+      <c r="J65" t="s">
+        <v>440</v>
       </c>
       <c r="K65" t="s">
-        <v>420</v>
+        <v>485</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -3593,23 +3551,23 @@
       <c r="B66" t="s">
         <v>198</v>
       </c>
-      <c r="C66" t="s">
-        <v>301</v>
-      </c>
-      <c r="D66" s="3">
+      <c r="C66" s="3">
         <v>45306.5281712963</v>
       </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="H66">
+      <c r="D66">
         <v>79.99708</v>
       </c>
-      <c r="I66" t="s">
-        <v>345</v>
+      <c r="E66" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G66" t="s">
+        <v>322</v>
+      </c>
+      <c r="J66" t="s">
+        <v>440</v>
       </c>
       <c r="K66" t="s">
-        <v>420</v>
+        <v>485</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -3619,23 +3577,23 @@
       <c r="B67" t="s">
         <v>199</v>
       </c>
-      <c r="C67" t="s">
-        <v>302</v>
-      </c>
-      <c r="D67" s="3">
+      <c r="C67" s="3">
         <v>45306.5890625</v>
       </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="H67">
+      <c r="D67">
         <v>580</v>
       </c>
-      <c r="I67" t="s">
-        <v>345</v>
+      <c r="E67" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G67" t="s">
+        <v>323</v>
+      </c>
+      <c r="J67" t="s">
+        <v>441</v>
       </c>
       <c r="K67" t="s">
-        <v>421</v>
+        <v>485</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -3645,23 +3603,23 @@
       <c r="B68" t="s">
         <v>200</v>
       </c>
-      <c r="C68" t="s">
-        <v>303</v>
-      </c>
-      <c r="D68" s="3">
+      <c r="C68" s="3">
         <v>45306.69413194444</v>
       </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-      <c r="H68">
+      <c r="D68">
         <v>580</v>
       </c>
-      <c r="I68" t="s">
-        <v>345</v>
+      <c r="E68" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G68" t="s">
+        <v>324</v>
+      </c>
+      <c r="J68" t="s">
+        <v>442</v>
       </c>
       <c r="K68" t="s">
-        <v>422</v>
+        <v>485</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -3671,23 +3629,23 @@
       <c r="B69" t="s">
         <v>172</v>
       </c>
-      <c r="C69" t="s">
-        <v>275</v>
-      </c>
-      <c r="D69" s="3">
+      <c r="C69" s="3">
         <v>45307.50402777778</v>
       </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
-      <c r="H69">
+      <c r="D69">
         <v>1199.9968</v>
       </c>
-      <c r="I69" t="s">
-        <v>345</v>
+      <c r="E69" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G69" t="s">
+        <v>293</v>
+      </c>
+      <c r="J69" t="s">
+        <v>414</v>
       </c>
       <c r="K69" t="s">
-        <v>391</v>
+        <v>485</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -3697,23 +3655,23 @@
       <c r="B70" t="s">
         <v>201</v>
       </c>
-      <c r="C70" t="s">
-        <v>304</v>
-      </c>
-      <c r="D70" s="3">
+      <c r="C70" s="3">
         <v>45307.50483796297</v>
       </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="H70">
+      <c r="D70">
         <v>250.0032</v>
       </c>
-      <c r="I70" t="s">
-        <v>345</v>
+      <c r="E70" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G70" t="s">
+        <v>325</v>
+      </c>
+      <c r="J70" t="s">
+        <v>443</v>
       </c>
       <c r="K70" t="s">
-        <v>423</v>
+        <v>485</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -3723,23 +3681,23 @@
       <c r="B71" t="s">
         <v>202</v>
       </c>
-      <c r="C71" t="s">
-        <v>305</v>
-      </c>
-      <c r="D71" s="3">
+      <c r="C71" s="3">
         <v>45307.5415162037</v>
       </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
-      <c r="H71">
+      <c r="D71">
         <v>1899.9988</v>
       </c>
-      <c r="I71" t="s">
-        <v>345</v>
+      <c r="E71" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G71" t="s">
+        <v>326</v>
+      </c>
+      <c r="J71" t="s">
+        <v>444</v>
       </c>
       <c r="K71" t="s">
-        <v>424</v>
+        <v>485</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -3749,23 +3707,20 @@
       <c r="B72" t="s">
         <v>203</v>
       </c>
-      <c r="C72" t="s">
-        <v>288</v>
-      </c>
-      <c r="D72" s="3">
+      <c r="C72" s="3">
         <v>45307.54159722223</v>
       </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-      <c r="H72">
+      <c r="D72">
         <v>3199.9999888</v>
       </c>
-      <c r="I72" t="s">
-        <v>345</v>
-      </c>
-      <c r="K72" t="s">
-        <v>425</v>
+      <c r="E72" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G72" t="s">
+        <v>327</v>
+      </c>
+      <c r="J72" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -3775,23 +3730,23 @@
       <c r="B73" t="s">
         <v>169</v>
       </c>
-      <c r="C73" t="s">
-        <v>272</v>
-      </c>
-      <c r="D73" s="3">
+      <c r="C73" s="3">
         <v>45307.69207175926</v>
       </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
-      <c r="H73">
+      <c r="D73">
         <v>580</v>
       </c>
-      <c r="I73" t="s">
-        <v>345</v>
+      <c r="E73" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G73" t="s">
+        <v>328</v>
+      </c>
+      <c r="J73" t="s">
+        <v>411</v>
       </c>
       <c r="K73" t="s">
-        <v>426</v>
+        <v>485</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3801,23 +3756,23 @@
       <c r="B74" t="s">
         <v>169</v>
       </c>
-      <c r="C74" t="s">
-        <v>272</v>
-      </c>
-      <c r="D74" s="3">
+      <c r="C74" s="3">
         <v>45307.69337962963</v>
       </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-      <c r="H74">
+      <c r="D74">
         <v>1599.9996</v>
       </c>
-      <c r="I74" t="s">
-        <v>345</v>
+      <c r="E74" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G74" t="s">
+        <v>329</v>
+      </c>
+      <c r="J74" t="s">
+        <v>411</v>
       </c>
       <c r="K74" t="s">
-        <v>427</v>
+        <v>485</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3827,23 +3782,23 @@
       <c r="B75" t="s">
         <v>204</v>
       </c>
-      <c r="C75" t="s">
-        <v>306</v>
-      </c>
-      <c r="D75" s="3">
+      <c r="C75" s="3">
         <v>45307.72324074074</v>
       </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-      <c r="H75">
+      <c r="D75">
         <v>1599.9996</v>
       </c>
-      <c r="I75" t="s">
-        <v>345</v>
+      <c r="E75" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G75" t="s">
+        <v>330</v>
+      </c>
+      <c r="J75" t="s">
+        <v>445</v>
       </c>
       <c r="K75" t="s">
-        <v>428</v>
+        <v>485</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3853,23 +3808,23 @@
       <c r="B76" t="s">
         <v>183</v>
       </c>
-      <c r="C76" t="s">
-        <v>286</v>
-      </c>
-      <c r="D76" s="3">
+      <c r="C76" s="3">
         <v>45307.74225694445</v>
       </c>
-      <c r="F76">
-        <v>0</v>
-      </c>
-      <c r="H76">
+      <c r="D76">
         <v>700.0020000000001</v>
       </c>
-      <c r="I76" t="s">
-        <v>345</v>
+      <c r="E76" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G76" t="s">
+        <v>305</v>
+      </c>
+      <c r="J76" t="s">
+        <v>425</v>
       </c>
       <c r="K76" t="s">
-        <v>403</v>
+        <v>485</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3879,23 +3834,20 @@
       <c r="B77" t="s">
         <v>205</v>
       </c>
-      <c r="C77" t="s">
-        <v>307</v>
-      </c>
-      <c r="D77" s="3">
+      <c r="C77" s="3">
         <v>45308.72087962963</v>
       </c>
-      <c r="F77">
+      <c r="D77">
         <v>0</v>
       </c>
-      <c r="H77">
-        <v>0</v>
-      </c>
-      <c r="I77" t="s">
-        <v>346</v>
-      </c>
-      <c r="K77" t="s">
-        <v>429</v>
+      <c r="E77" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G77" t="s">
+        <v>331</v>
+      </c>
+      <c r="J77" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3905,23 +3857,23 @@
       <c r="B78" t="s">
         <v>206</v>
       </c>
-      <c r="C78" t="s">
-        <v>308</v>
-      </c>
-      <c r="D78" s="3">
+      <c r="C78" s="3">
         <v>45308.72868055556</v>
       </c>
-      <c r="F78">
-        <v>0</v>
-      </c>
-      <c r="H78">
+      <c r="D78">
         <v>250.0032</v>
       </c>
-      <c r="I78" t="s">
-        <v>345</v>
+      <c r="E78" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G78" t="s">
+        <v>332</v>
+      </c>
+      <c r="J78" t="s">
+        <v>447</v>
       </c>
       <c r="K78" t="s">
-        <v>430</v>
+        <v>485</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3931,23 +3883,23 @@
       <c r="B79" t="s">
         <v>206</v>
       </c>
-      <c r="C79" t="s">
-        <v>308</v>
-      </c>
-      <c r="D79" s="3">
+      <c r="C79" s="3">
         <v>45308.73480324074</v>
       </c>
-      <c r="F79">
-        <v>0</v>
-      </c>
-      <c r="H79">
+      <c r="D79">
         <v>1624</v>
       </c>
-      <c r="I79" t="s">
-        <v>345</v>
+      <c r="E79" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G79" t="s">
+        <v>333</v>
+      </c>
+      <c r="J79" t="s">
+        <v>447</v>
       </c>
       <c r="K79" t="s">
-        <v>431</v>
+        <v>485</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3957,23 +3909,23 @@
       <c r="B80" t="s">
         <v>174</v>
       </c>
-      <c r="C80" t="s">
-        <v>309</v>
-      </c>
-      <c r="D80" s="3">
+      <c r="C80" s="3">
         <v>45308.74643518519</v>
       </c>
-      <c r="F80">
-        <v>0</v>
-      </c>
-      <c r="H80">
+      <c r="D80">
         <v>232</v>
       </c>
-      <c r="I80" t="s">
-        <v>345</v>
+      <c r="E80" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G80" t="s">
+        <v>334</v>
+      </c>
+      <c r="J80" t="s">
+        <v>448</v>
       </c>
       <c r="K80" t="s">
-        <v>432</v>
+        <v>485</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3983,23 +3935,23 @@
       <c r="B81" t="s">
         <v>207</v>
       </c>
-      <c r="C81" t="s">
-        <v>310</v>
-      </c>
-      <c r="D81" s="3">
+      <c r="C81" s="3">
         <v>45309.39240740741</v>
       </c>
-      <c r="F81">
-        <v>0</v>
-      </c>
-      <c r="H81">
+      <c r="D81">
         <v>599.9984000000001</v>
       </c>
-      <c r="I81" t="s">
-        <v>345</v>
+      <c r="E81" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G81" t="s">
+        <v>335</v>
+      </c>
+      <c r="J81" t="s">
+        <v>449</v>
       </c>
       <c r="K81" t="s">
-        <v>433</v>
+        <v>485</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -4009,26 +3961,26 @@
       <c r="B82" t="s">
         <v>208</v>
       </c>
-      <c r="C82" t="s">
-        <v>311</v>
-      </c>
-      <c r="D82" s="3">
+      <c r="C82" s="3">
         <v>45309.53040509259</v>
       </c>
-      <c r="F82">
-        <v>0</v>
-      </c>
-      <c r="H82">
+      <c r="D82">
         <v>1600</v>
       </c>
-      <c r="I82" t="s">
-        <v>345</v>
+      <c r="E82" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F82" t="s">
+        <v>257</v>
+      </c>
+      <c r="G82" t="s">
+        <v>336</v>
       </c>
       <c r="J82" t="s">
-        <v>355</v>
+        <v>450</v>
       </c>
       <c r="K82" t="s">
-        <v>434</v>
+        <v>485</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -4038,23 +3990,23 @@
       <c r="B83" t="s">
         <v>209</v>
       </c>
-      <c r="C83" t="s">
-        <v>312</v>
-      </c>
-      <c r="D83" s="3">
+      <c r="C83" s="3">
         <v>45309.71297453704</v>
       </c>
-      <c r="F83">
-        <v>0</v>
-      </c>
-      <c r="H83">
+      <c r="D83">
         <v>3000.0036</v>
       </c>
-      <c r="I83" t="s">
-        <v>345</v>
+      <c r="E83" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G83" t="s">
+        <v>337</v>
+      </c>
+      <c r="J83" t="s">
+        <v>451</v>
       </c>
       <c r="K83" t="s">
-        <v>435</v>
+        <v>485</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -4064,23 +4016,23 @@
       <c r="B84" t="s">
         <v>210</v>
       </c>
-      <c r="C84" t="s">
-        <v>313</v>
-      </c>
-      <c r="D84" s="3">
+      <c r="C84" s="3">
         <v>45309.72028935186</v>
       </c>
-      <c r="F84">
+      <c r="D84">
         <v>0</v>
       </c>
-      <c r="H84">
-        <v>0</v>
-      </c>
-      <c r="I84" t="s">
-        <v>346</v>
+      <c r="E84" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G84" t="s">
+        <v>338</v>
+      </c>
+      <c r="J84" t="s">
+        <v>452</v>
       </c>
       <c r="K84" t="s">
-        <v>436</v>
+        <v>485</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -4090,23 +4042,23 @@
       <c r="B85" t="s">
         <v>211</v>
       </c>
-      <c r="C85" t="s">
-        <v>314</v>
-      </c>
-      <c r="D85" s="3">
+      <c r="C85" s="3">
         <v>45310.48010416667</v>
       </c>
-      <c r="F85">
-        <v>0</v>
-      </c>
-      <c r="H85">
+      <c r="D85">
         <v>349.9999999996401</v>
       </c>
-      <c r="I85" t="s">
-        <v>345</v>
+      <c r="E85" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G85" t="s">
+        <v>339</v>
+      </c>
+      <c r="J85" t="s">
+        <v>453</v>
       </c>
       <c r="K85" t="s">
-        <v>437</v>
+        <v>485</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -4116,26 +4068,23 @@
       <c r="B86" t="s">
         <v>212</v>
       </c>
-      <c r="C86" t="s">
-        <v>315</v>
-      </c>
-      <c r="D86" s="3">
+      <c r="C86" s="3">
         <v>45310.60517361111</v>
       </c>
-      <c r="F86">
+      <c r="D86">
         <v>0</v>
       </c>
-      <c r="G86" t="b">
-        <v>1</v>
-      </c>
-      <c r="H86">
-        <v>0</v>
-      </c>
-      <c r="I86" t="s">
-        <v>346</v>
+      <c r="E86" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G86" t="s">
+        <v>340</v>
+      </c>
+      <c r="J86" t="s">
+        <v>454</v>
       </c>
       <c r="K86" t="s">
-        <v>438</v>
+        <v>484</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -4145,23 +4094,23 @@
       <c r="B87" t="s">
         <v>213</v>
       </c>
-      <c r="C87" t="s">
-        <v>316</v>
-      </c>
-      <c r="D87" s="3">
+      <c r="C87" s="3">
         <v>45310.74252314815</v>
       </c>
-      <c r="F87">
-        <v>0</v>
-      </c>
-      <c r="H87">
+      <c r="D87">
         <v>580.00464</v>
       </c>
-      <c r="I87" t="s">
-        <v>345</v>
+      <c r="E87" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G87" t="s">
+        <v>341</v>
+      </c>
+      <c r="J87" t="s">
+        <v>455</v>
       </c>
       <c r="K87" t="s">
-        <v>439</v>
+        <v>485</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -4171,26 +4120,23 @@
       <c r="B88" t="s">
         <v>162</v>
       </c>
-      <c r="C88" t="s">
-        <v>265</v>
-      </c>
-      <c r="D88" s="3">
+      <c r="C88" s="3">
         <v>45311.50221064815</v>
       </c>
-      <c r="F88">
+      <c r="D88">
         <v>0</v>
       </c>
-      <c r="G88" t="b">
-        <v>1</v>
-      </c>
-      <c r="H88">
-        <v>0</v>
-      </c>
-      <c r="I88" t="s">
-        <v>346</v>
+      <c r="E88" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G88" t="s">
+        <v>342</v>
+      </c>
+      <c r="J88" t="s">
+        <v>404</v>
       </c>
       <c r="K88" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -4200,26 +4146,23 @@
       <c r="B89" t="s">
         <v>214</v>
       </c>
-      <c r="C89" t="s">
-        <v>317</v>
-      </c>
-      <c r="D89" s="3">
+      <c r="C89" s="3">
         <v>45313.39831018518</v>
       </c>
-      <c r="F89">
+      <c r="D89">
         <v>0</v>
       </c>
-      <c r="G89" t="b">
-        <v>1</v>
-      </c>
-      <c r="H89">
-        <v>0</v>
-      </c>
-      <c r="I89" t="s">
-        <v>346</v>
+      <c r="E89" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G89" t="s">
+        <v>343</v>
+      </c>
+      <c r="J89" t="s">
+        <v>456</v>
       </c>
       <c r="K89" t="s">
-        <v>441</v>
+        <v>484</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -4229,26 +4172,23 @@
       <c r="B90" t="s">
         <v>215</v>
       </c>
-      <c r="C90" t="s">
-        <v>318</v>
-      </c>
-      <c r="D90" s="3">
+      <c r="C90" s="3">
         <v>45313.46736111111</v>
       </c>
-      <c r="F90">
+      <c r="D90">
         <v>0</v>
       </c>
-      <c r="G90" t="b">
-        <v>1</v>
-      </c>
-      <c r="H90">
-        <v>0</v>
-      </c>
-      <c r="I90" t="s">
-        <v>346</v>
+      <c r="E90" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G90" t="s">
+        <v>344</v>
+      </c>
+      <c r="J90" t="s">
+        <v>457</v>
       </c>
       <c r="K90" t="s">
-        <v>442</v>
+        <v>484</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -4258,26 +4198,23 @@
       <c r="B91" t="s">
         <v>215</v>
       </c>
-      <c r="C91" t="s">
-        <v>318</v>
-      </c>
-      <c r="D91" s="3">
+      <c r="C91" s="3">
         <v>45313.47009259259</v>
       </c>
-      <c r="F91">
+      <c r="D91">
         <v>0</v>
       </c>
-      <c r="G91" t="b">
-        <v>1</v>
-      </c>
-      <c r="H91">
-        <v>0</v>
-      </c>
-      <c r="I91" t="s">
-        <v>346</v>
+      <c r="E91" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G91" t="s">
+        <v>345</v>
+      </c>
+      <c r="J91" t="s">
+        <v>457</v>
       </c>
       <c r="K91" t="s">
-        <v>443</v>
+        <v>484</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -4287,26 +4224,23 @@
       <c r="B92" t="s">
         <v>216</v>
       </c>
-      <c r="C92" t="s">
-        <v>288</v>
-      </c>
-      <c r="D92" s="3">
+      <c r="C92" s="3">
         <v>45313.50326388889</v>
       </c>
-      <c r="F92">
-        <v>0</v>
-      </c>
-      <c r="H92">
+      <c r="D92">
         <v>4200.0004</v>
       </c>
-      <c r="I92" t="s">
-        <v>345</v>
+      <c r="E92" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F92" t="s">
+        <v>258</v>
+      </c>
+      <c r="G92" t="s">
+        <v>346</v>
       </c>
       <c r="J92" t="s">
-        <v>356</v>
-      </c>
-      <c r="K92" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -4316,23 +4250,23 @@
       <c r="B93" t="s">
         <v>174</v>
       </c>
-      <c r="C93" t="s">
-        <v>288</v>
-      </c>
-      <c r="D93" s="3">
+      <c r="C93" s="3">
         <v>45313.54563657408</v>
       </c>
-      <c r="F93">
-        <v>0</v>
-      </c>
-      <c r="H93">
+      <c r="D93">
         <v>349.9952</v>
       </c>
-      <c r="I93" t="s">
-        <v>345</v>
+      <c r="E93" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G93" t="s">
+        <v>347</v>
+      </c>
+      <c r="J93" t="s">
+        <v>427</v>
       </c>
       <c r="K93" t="s">
-        <v>445</v>
+        <v>485</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -4342,23 +4276,23 @@
       <c r="B94" t="s">
         <v>185</v>
       </c>
-      <c r="C94" t="s">
-        <v>288</v>
-      </c>
-      <c r="D94" s="3">
+      <c r="C94" s="3">
         <v>45313.69777777778</v>
       </c>
-      <c r="F94">
-        <v>0</v>
-      </c>
-      <c r="H94">
+      <c r="D94">
         <v>169.998</v>
       </c>
-      <c r="I94" t="s">
-        <v>345</v>
+      <c r="E94" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G94" t="s">
+        <v>348</v>
+      </c>
+      <c r="J94" t="s">
+        <v>427</v>
       </c>
       <c r="K94" t="s">
-        <v>446</v>
+        <v>485</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -4368,26 +4302,26 @@
       <c r="B95" t="s">
         <v>217</v>
       </c>
-      <c r="C95" t="s">
-        <v>319</v>
-      </c>
-      <c r="D95" s="3">
+      <c r="C95" s="3">
         <v>45314.38986111111</v>
       </c>
-      <c r="F95">
-        <v>0</v>
-      </c>
-      <c r="H95">
+      <c r="D95">
         <v>3499.9979999972</v>
       </c>
-      <c r="I95" t="s">
-        <v>345</v>
+      <c r="E95" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F95" t="s">
+        <v>259</v>
+      </c>
+      <c r="G95" t="s">
+        <v>349</v>
       </c>
       <c r="J95" t="s">
-        <v>357</v>
+        <v>458</v>
       </c>
       <c r="K95" t="s">
-        <v>447</v>
+        <v>485</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -4397,23 +4331,23 @@
       <c r="B96" t="s">
         <v>218</v>
       </c>
-      <c r="C96" t="s">
-        <v>320</v>
-      </c>
-      <c r="D96" s="3">
+      <c r="C96" s="3">
         <v>45314.4425462963</v>
       </c>
-      <c r="F96">
-        <v>0</v>
-      </c>
-      <c r="H96">
+      <c r="D96">
         <v>599.9984000000001</v>
       </c>
-      <c r="I96" t="s">
-        <v>345</v>
+      <c r="E96" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G96" t="s">
+        <v>350</v>
+      </c>
+      <c r="J96" t="s">
+        <v>459</v>
       </c>
       <c r="K96" t="s">
-        <v>448</v>
+        <v>485</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -4423,26 +4357,23 @@
       <c r="B97" t="s">
         <v>219</v>
       </c>
-      <c r="C97" t="s">
-        <v>321</v>
-      </c>
-      <c r="D97" s="3">
+      <c r="C97" s="3">
         <v>45314.49410879629</v>
       </c>
-      <c r="F97">
+      <c r="D97">
         <v>0</v>
       </c>
-      <c r="G97" t="b">
-        <v>1</v>
-      </c>
-      <c r="H97">
-        <v>0</v>
-      </c>
-      <c r="I97" t="s">
-        <v>346</v>
+      <c r="E97" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G97" t="s">
+        <v>351</v>
+      </c>
+      <c r="J97" t="s">
+        <v>460</v>
       </c>
       <c r="K97" t="s">
-        <v>449</v>
+        <v>484</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -4452,23 +4383,23 @@
       <c r="B98" t="s">
         <v>220</v>
       </c>
-      <c r="C98" t="s">
-        <v>322</v>
-      </c>
-      <c r="D98" s="3">
+      <c r="C98" s="3">
         <v>45314.51045138889</v>
       </c>
-      <c r="F98">
-        <v>0</v>
-      </c>
-      <c r="H98">
+      <c r="D98">
         <v>349.9999999999948</v>
       </c>
-      <c r="I98" t="s">
-        <v>345</v>
+      <c r="E98" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G98" t="s">
+        <v>352</v>
+      </c>
+      <c r="J98" t="s">
+        <v>461</v>
       </c>
       <c r="K98" t="s">
-        <v>450</v>
+        <v>485</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -4478,26 +4409,23 @@
       <c r="B99" t="s">
         <v>221</v>
       </c>
-      <c r="C99" t="s">
-        <v>323</v>
-      </c>
-      <c r="D99" s="3">
+      <c r="C99" s="3">
         <v>45314.52447916667</v>
       </c>
-      <c r="F99">
+      <c r="D99">
         <v>0</v>
       </c>
-      <c r="G99" t="b">
-        <v>1</v>
-      </c>
-      <c r="H99">
-        <v>0</v>
-      </c>
-      <c r="I99" t="s">
-        <v>346</v>
+      <c r="E99" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G99" t="s">
+        <v>353</v>
+      </c>
+      <c r="J99" t="s">
+        <v>462</v>
       </c>
       <c r="K99" t="s">
-        <v>451</v>
+        <v>484</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -4507,23 +4435,20 @@
       <c r="B100" t="s">
         <v>174</v>
       </c>
-      <c r="C100" t="s">
-        <v>292</v>
-      </c>
-      <c r="D100" s="3">
+      <c r="C100" s="3">
         <v>45314.5341550926</v>
       </c>
-      <c r="F100">
-        <v>0</v>
-      </c>
-      <c r="H100">
+      <c r="D100">
         <v>349.99999999996</v>
       </c>
-      <c r="I100" t="s">
-        <v>345</v>
-      </c>
-      <c r="K100" t="s">
-        <v>409</v>
+      <c r="E100" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G100" t="s">
+        <v>311</v>
+      </c>
+      <c r="J100" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -4533,23 +4458,23 @@
       <c r="B101" t="s">
         <v>222</v>
       </c>
-      <c r="C101" t="s">
-        <v>324</v>
-      </c>
-      <c r="D101" s="3">
+      <c r="C101" s="3">
         <v>45314.54357638889</v>
       </c>
-      <c r="F101">
-        <v>0</v>
-      </c>
-      <c r="H101">
+      <c r="D101">
         <v>1599.9996</v>
       </c>
-      <c r="I101" t="s">
-        <v>345</v>
+      <c r="E101" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G101" t="s">
+        <v>354</v>
+      </c>
+      <c r="J101" t="s">
+        <v>463</v>
       </c>
       <c r="K101" t="s">
-        <v>452</v>
+        <v>485</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -4559,23 +4484,23 @@
       <c r="B102" t="s">
         <v>223</v>
       </c>
-      <c r="C102" t="s">
-        <v>325</v>
-      </c>
-      <c r="D102" s="3">
+      <c r="C102" s="3">
         <v>45314.54976851852</v>
       </c>
-      <c r="F102">
-        <v>0</v>
-      </c>
-      <c r="H102">
+      <c r="D102">
         <v>1508</v>
       </c>
-      <c r="I102" t="s">
-        <v>345</v>
+      <c r="E102" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G102" t="s">
+        <v>355</v>
+      </c>
+      <c r="J102" t="s">
+        <v>464</v>
       </c>
       <c r="K102" t="s">
-        <v>453</v>
+        <v>485</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4585,23 +4510,23 @@
       <c r="B103" t="s">
         <v>224</v>
       </c>
-      <c r="C103" t="s">
-        <v>326</v>
-      </c>
-      <c r="D103" s="3">
+      <c r="C103" s="3">
         <v>45314.55601851852</v>
       </c>
-      <c r="F103">
-        <v>0</v>
-      </c>
-      <c r="H103">
+      <c r="D103">
         <v>800.0044399999999</v>
       </c>
-      <c r="I103" t="s">
-        <v>345</v>
+      <c r="E103" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G103" t="s">
+        <v>356</v>
+      </c>
+      <c r="J103" t="s">
+        <v>465</v>
       </c>
       <c r="K103" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4611,23 +4536,23 @@
       <c r="B104" t="s">
         <v>224</v>
       </c>
-      <c r="C104" t="s">
-        <v>326</v>
-      </c>
-      <c r="D104" s="3">
+      <c r="C104" s="3">
         <v>45314.56140046296</v>
       </c>
-      <c r="F104">
-        <v>0</v>
-      </c>
-      <c r="H104">
+      <c r="D104">
         <v>800.0044399999999</v>
       </c>
-      <c r="I104" t="s">
-        <v>345</v>
+      <c r="E104" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G104" t="s">
+        <v>357</v>
+      </c>
+      <c r="J104" t="s">
+        <v>465</v>
       </c>
       <c r="K104" t="s">
-        <v>455</v>
+        <v>485</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4637,26 +4562,23 @@
       <c r="B105" t="s">
         <v>225</v>
       </c>
-      <c r="C105" t="s">
-        <v>327</v>
-      </c>
-      <c r="D105" s="3">
+      <c r="C105" s="3">
         <v>45314.58067129629</v>
       </c>
-      <c r="F105">
+      <c r="D105">
         <v>0</v>
       </c>
-      <c r="G105" t="b">
-        <v>1</v>
-      </c>
-      <c r="H105">
-        <v>0</v>
-      </c>
-      <c r="I105" t="s">
-        <v>346</v>
+      <c r="E105" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G105" t="s">
+        <v>358</v>
+      </c>
+      <c r="J105" t="s">
+        <v>466</v>
       </c>
       <c r="K105" t="s">
-        <v>456</v>
+        <v>484</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4666,23 +4588,23 @@
       <c r="B106" t="s">
         <v>226</v>
       </c>
-      <c r="C106" t="s">
-        <v>328</v>
-      </c>
-      <c r="D106" s="3">
+      <c r="C106" s="3">
         <v>45314.67109953704</v>
       </c>
-      <c r="F106">
-        <v>0</v>
-      </c>
-      <c r="H106">
+      <c r="D106">
         <v>1649.9997992</v>
       </c>
-      <c r="I106" t="s">
-        <v>345</v>
+      <c r="E106" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G106" t="s">
+        <v>359</v>
+      </c>
+      <c r="J106" t="s">
+        <v>467</v>
       </c>
       <c r="K106" t="s">
-        <v>457</v>
+        <v>485</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4692,23 +4614,20 @@
       <c r="B107" t="s">
         <v>169</v>
       </c>
-      <c r="C107" t="s">
-        <v>272</v>
-      </c>
-      <c r="D107" s="3">
+      <c r="C107" s="3">
         <v>45314.69586805555</v>
       </c>
-      <c r="F107">
-        <v>0</v>
-      </c>
-      <c r="H107">
+      <c r="D107">
         <v>500</v>
       </c>
-      <c r="I107" t="s">
-        <v>345</v>
-      </c>
-      <c r="K107" t="s">
-        <v>458</v>
+      <c r="E107" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G107" t="s">
+        <v>360</v>
+      </c>
+      <c r="J107" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4718,26 +4637,23 @@
       <c r="B108" t="s">
         <v>227</v>
       </c>
-      <c r="C108" t="s">
-        <v>329</v>
-      </c>
-      <c r="D108" s="3">
+      <c r="C108" s="3">
         <v>45315.49449074074</v>
       </c>
-      <c r="F108">
+      <c r="D108">
         <v>0</v>
       </c>
-      <c r="G108" t="b">
-        <v>1</v>
-      </c>
-      <c r="H108">
-        <v>0</v>
-      </c>
-      <c r="I108" t="s">
-        <v>346</v>
+      <c r="E108" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G108" t="s">
+        <v>361</v>
+      </c>
+      <c r="J108" t="s">
+        <v>468</v>
       </c>
       <c r="K108" t="s">
-        <v>459</v>
+        <v>484</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4747,23 +4663,23 @@
       <c r="B109" t="s">
         <v>228</v>
       </c>
-      <c r="C109" t="s">
-        <v>330</v>
-      </c>
-      <c r="D109" s="3">
+      <c r="C109" s="3">
         <v>45315.54480324074</v>
       </c>
-      <c r="F109">
-        <v>0</v>
-      </c>
-      <c r="H109">
+      <c r="D109">
         <v>599.9984000000001</v>
       </c>
-      <c r="I109" t="s">
-        <v>345</v>
+      <c r="E109" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G109" t="s">
+        <v>362</v>
+      </c>
+      <c r="J109" t="s">
+        <v>469</v>
       </c>
       <c r="K109" t="s">
-        <v>460</v>
+        <v>485</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4773,23 +4689,20 @@
       <c r="B110" t="s">
         <v>191</v>
       </c>
-      <c r="C110" t="s">
-        <v>295</v>
-      </c>
-      <c r="D110" s="3">
+      <c r="C110" s="3">
         <v>45315.62829861111</v>
       </c>
-      <c r="F110">
+      <c r="D110">
         <v>0</v>
       </c>
-      <c r="H110">
-        <v>0</v>
-      </c>
-      <c r="I110" t="s">
-        <v>346</v>
-      </c>
-      <c r="K110" t="s">
-        <v>412</v>
+      <c r="E110" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G110" t="s">
+        <v>314</v>
+      </c>
+      <c r="J110" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4799,26 +4712,23 @@
       <c r="B111" t="s">
         <v>229</v>
       </c>
-      <c r="C111" t="s">
-        <v>331</v>
-      </c>
-      <c r="D111" s="3">
+      <c r="C111" s="3">
         <v>45315.7253125</v>
       </c>
-      <c r="F111">
-        <v>0</v>
-      </c>
-      <c r="G111" t="b">
-        <v>1</v>
-      </c>
-      <c r="H111">
+      <c r="D111">
         <v>1300.0004</v>
       </c>
-      <c r="I111" t="s">
-        <v>345</v>
+      <c r="E111" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G111" t="s">
+        <v>363</v>
+      </c>
+      <c r="J111" t="s">
+        <v>470</v>
       </c>
       <c r="K111" t="s">
-        <v>461</v>
+        <v>484</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4828,23 +4738,23 @@
       <c r="B112" t="s">
         <v>194</v>
       </c>
-      <c r="C112" t="s">
-        <v>298</v>
-      </c>
-      <c r="D112" s="3">
+      <c r="C112" s="3">
         <v>45316.40819444445</v>
       </c>
-      <c r="F112">
-        <v>0</v>
-      </c>
-      <c r="H112">
+      <c r="D112">
         <v>799.9997999999999</v>
       </c>
-      <c r="I112" t="s">
-        <v>345</v>
+      <c r="E112" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G112" t="s">
+        <v>364</v>
+      </c>
+      <c r="J112" t="s">
+        <v>437</v>
       </c>
       <c r="K112" t="s">
-        <v>462</v>
+        <v>485</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -4854,23 +4764,23 @@
       <c r="B113" t="s">
         <v>230</v>
       </c>
-      <c r="C113" t="s">
-        <v>332</v>
-      </c>
-      <c r="D113" s="3">
+      <c r="C113" s="3">
         <v>45316.55929398148</v>
       </c>
-      <c r="F113">
-        <v>0</v>
-      </c>
-      <c r="H113">
+      <c r="D113">
         <v>799.9997999999999</v>
       </c>
-      <c r="I113" t="s">
-        <v>345</v>
+      <c r="E113" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G113" t="s">
+        <v>365</v>
+      </c>
+      <c r="J113" t="s">
+        <v>471</v>
       </c>
       <c r="K113" t="s">
-        <v>463</v>
+        <v>485</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -4880,23 +4790,23 @@
       <c r="B114" t="s">
         <v>231</v>
       </c>
-      <c r="C114" t="s">
-        <v>333</v>
-      </c>
-      <c r="D114" s="3">
+      <c r="C114" s="3">
         <v>45317.42777777778</v>
       </c>
-      <c r="F114">
-        <v>0</v>
-      </c>
-      <c r="H114">
+      <c r="D114">
         <v>812</v>
       </c>
-      <c r="I114" t="s">
-        <v>345</v>
+      <c r="E114" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G114" t="s">
+        <v>366</v>
+      </c>
+      <c r="J114" t="s">
+        <v>472</v>
       </c>
       <c r="K114" t="s">
-        <v>464</v>
+        <v>485</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -4906,23 +4816,23 @@
       <c r="B115" t="s">
         <v>231</v>
       </c>
-      <c r="C115" t="s">
-        <v>333</v>
-      </c>
-      <c r="D115" s="3">
+      <c r="C115" s="3">
         <v>45317.43003472222</v>
       </c>
-      <c r="F115">
-        <v>0</v>
-      </c>
-      <c r="H115">
+      <c r="D115">
         <v>812</v>
       </c>
-      <c r="I115" t="s">
-        <v>345</v>
+      <c r="E115" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G115" t="s">
+        <v>367</v>
+      </c>
+      <c r="J115" t="s">
+        <v>472</v>
       </c>
       <c r="K115" t="s">
-        <v>465</v>
+        <v>485</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -4932,26 +4842,23 @@
       <c r="B116" t="s">
         <v>232</v>
       </c>
-      <c r="C116" t="s">
-        <v>334</v>
-      </c>
-      <c r="D116" s="3">
+      <c r="C116" s="3">
         <v>45317.59055555556</v>
       </c>
-      <c r="F116">
+      <c r="D116">
         <v>0</v>
       </c>
-      <c r="G116" t="b">
-        <v>1</v>
-      </c>
-      <c r="H116">
-        <v>0</v>
-      </c>
-      <c r="I116" t="s">
-        <v>346</v>
+      <c r="E116" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G116" t="s">
+        <v>368</v>
+      </c>
+      <c r="J116" t="s">
+        <v>473</v>
       </c>
       <c r="K116" t="s">
-        <v>466</v>
+        <v>484</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -4961,23 +4868,23 @@
       <c r="B117" t="s">
         <v>233</v>
       </c>
-      <c r="C117" t="s">
-        <v>335</v>
-      </c>
-      <c r="D117" s="3">
+      <c r="C117" s="3">
         <v>45317.75788194445</v>
       </c>
-      <c r="F117">
-        <v>0</v>
-      </c>
-      <c r="H117">
+      <c r="D117">
         <v>2784</v>
       </c>
-      <c r="I117" t="s">
-        <v>345</v>
+      <c r="E117" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G117" t="s">
+        <v>369</v>
+      </c>
+      <c r="J117" t="s">
+        <v>474</v>
       </c>
       <c r="K117" t="s">
-        <v>467</v>
+        <v>485</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -4987,23 +4894,23 @@
       <c r="B118" t="s">
         <v>234</v>
       </c>
-      <c r="C118" t="s">
-        <v>336</v>
-      </c>
-      <c r="D118" s="3">
+      <c r="C118" s="3">
         <v>45318.4338425926</v>
       </c>
-      <c r="F118">
-        <v>0</v>
-      </c>
-      <c r="H118">
+      <c r="D118">
         <v>249.99999956</v>
       </c>
-      <c r="I118" t="s">
-        <v>345</v>
+      <c r="E118" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G118" t="s">
+        <v>370</v>
+      </c>
+      <c r="J118" t="s">
+        <v>475</v>
       </c>
       <c r="K118" t="s">
-        <v>468</v>
+        <v>485</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -5013,23 +4920,23 @@
       <c r="B119" t="s">
         <v>234</v>
       </c>
-      <c r="C119" t="s">
-        <v>336</v>
-      </c>
-      <c r="D119" s="3">
+      <c r="C119" s="3">
         <v>45318.43528935185</v>
       </c>
-      <c r="F119">
-        <v>0</v>
-      </c>
-      <c r="H119">
+      <c r="D119">
         <v>800.00096</v>
       </c>
-      <c r="I119" t="s">
-        <v>345</v>
+      <c r="E119" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G119" t="s">
+        <v>371</v>
+      </c>
+      <c r="J119" t="s">
+        <v>475</v>
       </c>
       <c r="K119" t="s">
-        <v>469</v>
+        <v>485</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -5039,23 +4946,20 @@
       <c r="B120" t="s">
         <v>235</v>
       </c>
-      <c r="C120" t="s">
-        <v>337</v>
-      </c>
-      <c r="D120" s="3">
+      <c r="C120" s="3">
         <v>45318.52028935185</v>
       </c>
-      <c r="F120">
-        <v>0</v>
-      </c>
-      <c r="H120">
+      <c r="D120">
         <v>3849.9994</v>
       </c>
-      <c r="I120" t="s">
-        <v>345</v>
-      </c>
-      <c r="K120" t="s">
-        <v>470</v>
+      <c r="E120" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G120" t="s">
+        <v>372</v>
+      </c>
+      <c r="J120" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -5065,23 +4969,23 @@
       <c r="B121" t="s">
         <v>236</v>
       </c>
-      <c r="C121" t="s">
-        <v>338</v>
-      </c>
-      <c r="D121" s="3">
+      <c r="C121" s="3">
         <v>45318.53774305555</v>
       </c>
-      <c r="F121">
+      <c r="D121">
         <v>0</v>
       </c>
-      <c r="H121">
-        <v>0</v>
-      </c>
-      <c r="I121" t="s">
-        <v>346</v>
+      <c r="E121" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G121" t="s">
+        <v>373</v>
+      </c>
+      <c r="J121" t="s">
+        <v>477</v>
       </c>
       <c r="K121" t="s">
-        <v>471</v>
+        <v>485</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -5091,23 +4995,23 @@
       <c r="B122" t="s">
         <v>231</v>
       </c>
-      <c r="C122" t="s">
-        <v>333</v>
-      </c>
-      <c r="D122" s="3">
+      <c r="C122" s="3">
         <v>45320.44130787037</v>
       </c>
-      <c r="F122">
-        <v>0</v>
-      </c>
-      <c r="H122">
+      <c r="D122">
         <v>800.00096</v>
       </c>
-      <c r="I122" t="s">
-        <v>345</v>
+      <c r="E122" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G122" t="s">
+        <v>367</v>
+      </c>
+      <c r="J122" t="s">
+        <v>472</v>
       </c>
       <c r="K122" t="s">
-        <v>465</v>
+        <v>485</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -5117,23 +5021,23 @@
       <c r="B123" t="s">
         <v>237</v>
       </c>
-      <c r="C123" t="s">
-        <v>339</v>
-      </c>
-      <c r="D123" s="3">
+      <c r="C123" s="3">
         <v>45320.48193287037</v>
       </c>
-      <c r="F123">
-        <v>0</v>
-      </c>
-      <c r="H123">
+      <c r="D123">
         <v>499.99944</v>
       </c>
-      <c r="I123" t="s">
-        <v>345</v>
+      <c r="E123" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G123" t="s">
+        <v>374</v>
+      </c>
+      <c r="J123" t="s">
+        <v>478</v>
       </c>
       <c r="K123" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -5143,23 +5047,23 @@
       <c r="B124" t="s">
         <v>237</v>
       </c>
-      <c r="C124" t="s">
-        <v>339</v>
-      </c>
-      <c r="D124" s="3">
+      <c r="C124" s="3">
         <v>45320.48549768519</v>
       </c>
-      <c r="F124">
-        <v>0</v>
-      </c>
-      <c r="H124">
+      <c r="D124">
         <v>499.99828</v>
       </c>
-      <c r="I124" t="s">
-        <v>345</v>
+      <c r="E124" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G124" t="s">
+        <v>375</v>
+      </c>
+      <c r="J124" t="s">
+        <v>478</v>
       </c>
       <c r="K124" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -5169,23 +5073,23 @@
       <c r="B125" t="s">
         <v>237</v>
       </c>
-      <c r="C125" t="s">
-        <v>339</v>
-      </c>
-      <c r="D125" s="3">
+      <c r="C125" s="3">
         <v>45320.4875</v>
       </c>
-      <c r="F125">
-        <v>0</v>
-      </c>
-      <c r="H125">
+      <c r="D125">
         <v>499.99828</v>
       </c>
-      <c r="I125" t="s">
-        <v>345</v>
+      <c r="E125" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G125" t="s">
+        <v>376</v>
+      </c>
+      <c r="J125" t="s">
+        <v>478</v>
       </c>
       <c r="K125" t="s">
-        <v>474</v>
+        <v>485</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -5195,26 +5099,23 @@
       <c r="B126" t="s">
         <v>238</v>
       </c>
-      <c r="C126" t="s">
-        <v>340</v>
-      </c>
-      <c r="D126" s="3">
+      <c r="C126" s="3">
         <v>45320.51798611111</v>
       </c>
-      <c r="F126">
+      <c r="D126">
         <v>0</v>
       </c>
-      <c r="G126" t="b">
-        <v>1</v>
-      </c>
-      <c r="H126">
-        <v>0</v>
-      </c>
-      <c r="I126" t="s">
-        <v>346</v>
+      <c r="E126" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G126" t="s">
+        <v>377</v>
+      </c>
+      <c r="J126" t="s">
+        <v>479</v>
       </c>
       <c r="K126" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -5224,23 +5125,23 @@
       <c r="B127" t="s">
         <v>239</v>
       </c>
-      <c r="C127" t="s">
-        <v>341</v>
-      </c>
-      <c r="D127" s="3">
+      <c r="C127" s="3">
         <v>45320.52901620371</v>
       </c>
-      <c r="F127">
-        <v>0</v>
-      </c>
-      <c r="H127">
+      <c r="D127">
         <v>250.0032</v>
       </c>
-      <c r="I127" t="s">
-        <v>345</v>
+      <c r="E127" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G127" t="s">
+        <v>378</v>
+      </c>
+      <c r="J127" t="s">
+        <v>480</v>
       </c>
       <c r="K127" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -5250,23 +5151,20 @@
       <c r="B128" t="s">
         <v>240</v>
       </c>
-      <c r="C128" t="s">
-        <v>342</v>
-      </c>
-      <c r="D128" s="3">
+      <c r="C128" s="3">
         <v>45320.57282407407</v>
       </c>
-      <c r="F128">
+      <c r="D128">
         <v>0</v>
       </c>
-      <c r="H128">
-        <v>0</v>
-      </c>
-      <c r="I128" t="s">
-        <v>346</v>
-      </c>
-      <c r="K128" t="s">
-        <v>477</v>
+      <c r="E128" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G128" t="s">
+        <v>379</v>
+      </c>
+      <c r="J128" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -5276,23 +5174,23 @@
       <c r="B129" t="s">
         <v>241</v>
       </c>
-      <c r="C129" t="s">
-        <v>288</v>
-      </c>
-      <c r="D129" s="3">
+      <c r="C129" s="3">
         <v>45320.61900462963</v>
       </c>
-      <c r="F129">
-        <v>0</v>
-      </c>
-      <c r="H129">
+      <c r="D129">
         <v>599.9984000000001</v>
       </c>
-      <c r="I129" t="s">
-        <v>345</v>
+      <c r="E129" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G129" t="s">
+        <v>380</v>
+      </c>
+      <c r="J129" t="s">
+        <v>427</v>
       </c>
       <c r="K129" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -5302,23 +5200,23 @@
       <c r="B130" t="s">
         <v>242</v>
       </c>
-      <c r="C130" t="s">
-        <v>343</v>
-      </c>
-      <c r="D130" s="3">
+      <c r="C130" s="3">
         <v>45321.38232638889</v>
       </c>
-      <c r="F130">
-        <v>0</v>
-      </c>
-      <c r="H130">
+      <c r="D130">
         <v>2500</v>
       </c>
-      <c r="I130" t="s">
-        <v>345</v>
+      <c r="E130" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G130" t="s">
+        <v>381</v>
+      </c>
+      <c r="J130" t="s">
+        <v>482</v>
       </c>
       <c r="K130" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -5328,23 +5226,20 @@
       <c r="B131" t="s">
         <v>243</v>
       </c>
-      <c r="C131" t="s">
-        <v>288</v>
-      </c>
-      <c r="D131" s="3">
+      <c r="C131" s="3">
         <v>45321.4528587963</v>
       </c>
-      <c r="F131">
-        <v>0</v>
-      </c>
-      <c r="H131">
+      <c r="D131">
         <v>500.00292</v>
       </c>
-      <c r="I131" t="s">
-        <v>345</v>
-      </c>
-      <c r="K131" t="s">
-        <v>480</v>
+      <c r="E131" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G131" t="s">
+        <v>382</v>
+      </c>
+      <c r="J131" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -5354,26 +5249,23 @@
       <c r="B132" t="s">
         <v>244</v>
       </c>
-      <c r="C132" t="s">
-        <v>288</v>
-      </c>
-      <c r="D132" s="3">
+      <c r="C132" s="3">
         <v>45321.49140046296</v>
       </c>
-      <c r="F132">
+      <c r="D132">
         <v>0</v>
       </c>
-      <c r="G132" t="b">
-        <v>1</v>
-      </c>
-      <c r="H132">
-        <v>0</v>
-      </c>
-      <c r="I132" t="s">
-        <v>346</v>
+      <c r="E132" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G132" t="s">
+        <v>383</v>
+      </c>
+      <c r="J132" t="s">
+        <v>427</v>
       </c>
       <c r="K132" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -5383,23 +5275,23 @@
       <c r="B133" t="s">
         <v>245</v>
       </c>
-      <c r="C133" t="s">
-        <v>344</v>
-      </c>
-      <c r="D133" s="3">
+      <c r="C133" s="3">
         <v>45322.39694444444</v>
       </c>
-      <c r="F133">
-        <v>0</v>
-      </c>
-      <c r="H133">
+      <c r="D133">
         <v>3299.9967999</v>
       </c>
-      <c r="I133" t="s">
-        <v>345</v>
+      <c r="E133" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G133" t="s">
+        <v>384</v>
+      </c>
+      <c r="J133" t="s">
+        <v>483</v>
       </c>
       <c r="K133" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -5409,23 +5301,20 @@
       <c r="B134" t="s">
         <v>246</v>
       </c>
-      <c r="C134" t="s">
-        <v>288</v>
-      </c>
-      <c r="D134" s="3">
+      <c r="C134" s="3">
         <v>45322.71115740741</v>
       </c>
-      <c r="F134">
-        <v>0</v>
-      </c>
-      <c r="H134">
+      <c r="D134">
         <v>3199.9992</v>
       </c>
-      <c r="I134" t="s">
-        <v>345</v>
-      </c>
-      <c r="K134" t="s">
-        <v>483</v>
+      <c r="E134" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G134" t="s">
+        <v>385</v>
+      </c>
+      <c r="J134" t="s">
+        <v>427</v>
       </c>
     </row>
   </sheetData>

--- a/only_services.xlsx
+++ b/only_services.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="541">
   <si>
     <t>Folio</t>
   </si>
@@ -25,30 +25,30 @@
     <t>Fecha registro</t>
   </si>
   <si>
+    <t>Contacto</t>
+  </si>
+  <si>
+    <t>Insumos</t>
+  </si>
+  <si>
+    <t>Costo total</t>
+  </si>
+  <si>
     <t>Importe total</t>
   </si>
   <si>
+    <t>¿Garantía?</t>
+  </si>
+  <si>
     <t>Estado</t>
   </si>
   <si>
-    <t>Entrego</t>
+    <t>Orden de compra</t>
   </si>
   <si>
     <t>Testimonio</t>
   </si>
   <si>
-    <t>Insumos</t>
-  </si>
-  <si>
-    <t>Costo total</t>
-  </si>
-  <si>
-    <t>Contacto</t>
-  </si>
-  <si>
-    <t>Garantía?</t>
-  </si>
-  <si>
     <t>SERV02015</t>
   </si>
   <si>
@@ -757,6 +757,513 @@
     <t>WOLFTEQ S&amp;T</t>
   </si>
   <si>
+    <t>4737375216</t>
+  </si>
+  <si>
+    <t>4421206232</t>
+  </si>
+  <si>
+    <t>4421766380</t>
+  </si>
+  <si>
+    <t>4424053736</t>
+  </si>
+  <si>
+    <t>4423590886</t>
+  </si>
+  <si>
+    <t>4425463910</t>
+  </si>
+  <si>
+    <t>3320098010</t>
+  </si>
+  <si>
+    <t>4421866294</t>
+  </si>
+  <si>
+    <t>4422264793</t>
+  </si>
+  <si>
+    <t>4425260479</t>
+  </si>
+  <si>
+    <t>4423154313</t>
+  </si>
+  <si>
+    <t>4426074903</t>
+  </si>
+  <si>
+    <t>4421247596</t>
+  </si>
+  <si>
+    <t>4423767691</t>
+  </si>
+  <si>
+    <t>4425040101</t>
+  </si>
+  <si>
+    <t>5554372125</t>
+  </si>
+  <si>
+    <t>4271177278</t>
+  </si>
+  <si>
+    <t>4423692889</t>
+  </si>
+  <si>
+    <t>4461559718</t>
+  </si>
+  <si>
+    <t>4421065963</t>
+  </si>
+  <si>
+    <t>4421070574</t>
+  </si>
+  <si>
+    <t>4424610682</t>
+  </si>
+  <si>
+    <t>4461274636</t>
+  </si>
+  <si>
+    <t>4111151722</t>
+  </si>
+  <si>
+    <t>4422261380</t>
+  </si>
+  <si>
+    <t>4428501174</t>
+  </si>
+  <si>
+    <t>4421689229</t>
+  </si>
+  <si>
+    <t>4427179236</t>
+  </si>
+  <si>
+    <t>9512325742</t>
+  </si>
+  <si>
+    <t>4421702440</t>
+  </si>
+  <si>
+    <t>4423640654</t>
+  </si>
+  <si>
+    <t>4423366550</t>
+  </si>
+  <si>
+    <t>5512606967</t>
+  </si>
+  <si>
+    <t>5518806638</t>
+  </si>
+  <si>
+    <t>4423591205</t>
+  </si>
+  <si>
+    <t>2464762276</t>
+  </si>
+  <si>
+    <t>4428919741</t>
+  </si>
+  <si>
+    <t>4424766089</t>
+  </si>
+  <si>
+    <t>5615806150</t>
+  </si>
+  <si>
+    <t>4423801736</t>
+  </si>
+  <si>
+    <t>4426257848</t>
+  </si>
+  <si>
+    <t>Sin celular</t>
+  </si>
+  <si>
+    <t>4424753889</t>
+  </si>
+  <si>
+    <t>4421437018</t>
+  </si>
+  <si>
+    <t>4421817589</t>
+  </si>
+  <si>
+    <t>4423783881</t>
+  </si>
+  <si>
+    <t>4424195207</t>
+  </si>
+  <si>
+    <t>4421578553</t>
+  </si>
+  <si>
+    <t>4461381484</t>
+  </si>
+  <si>
+    <t>4422368420</t>
+  </si>
+  <si>
+    <t>4425958405</t>
+  </si>
+  <si>
+    <t>4425986082</t>
+  </si>
+  <si>
+    <t>4461381530</t>
+  </si>
+  <si>
+    <t>4481223450</t>
+  </si>
+  <si>
+    <t>4427476020</t>
+  </si>
+  <si>
+    <t>4424072247</t>
+  </si>
+  <si>
+    <t>4427782004</t>
+  </si>
+  <si>
+    <t>4421948346</t>
+  </si>
+  <si>
+    <t>4421419687</t>
+  </si>
+  <si>
+    <t>4425543667</t>
+  </si>
+  <si>
+    <t>7731708189</t>
+  </si>
+  <si>
+    <t>4423458758</t>
+  </si>
+  <si>
+    <t>4424135962</t>
+  </si>
+  <si>
+    <t>4423792842</t>
+  </si>
+  <si>
+    <t>4423456583</t>
+  </si>
+  <si>
+    <t>4422797651</t>
+  </si>
+  <si>
+    <t>4424511807</t>
+  </si>
+  <si>
+    <t>4427953245</t>
+  </si>
+  <si>
+    <t>4424099648</t>
+  </si>
+  <si>
+    <t>4481050593</t>
+  </si>
+  <si>
+    <t>4427215694</t>
+  </si>
+  <si>
+    <t>4191204474</t>
+  </si>
+  <si>
+    <t>4424573400</t>
+  </si>
+  <si>
+    <t>4613246694</t>
+  </si>
+  <si>
+    <t>4428241971</t>
+  </si>
+  <si>
+    <t>4423821834</t>
+  </si>
+  <si>
+    <t>4423598644</t>
+  </si>
+  <si>
+    <t>4423527369</t>
+  </si>
+  <si>
+    <t>4422193574</t>
+  </si>
+  <si>
+    <t>4425780560</t>
+  </si>
+  <si>
+    <t>4422197332</t>
+  </si>
+  <si>
+    <t>7122251638</t>
+  </si>
+  <si>
+    <t>4423832337</t>
+  </si>
+  <si>
+    <t>4422367562</t>
+  </si>
+  <si>
+    <t>5540032465</t>
+  </si>
+  <si>
+    <t>4426686592</t>
+  </si>
+  <si>
+    <t>4423227417</t>
+  </si>
+  <si>
+    <t>4423354501</t>
+  </si>
+  <si>
+    <t>4274274445</t>
+  </si>
+  <si>
+    <t>4421428283</t>
+  </si>
+  <si>
+    <t>4461208348</t>
+  </si>
+  <si>
+    <t>4272909007</t>
+  </si>
+  <si>
+    <t>4425599460</t>
+  </si>
+  <si>
+    <t>4422303189</t>
+  </si>
+  <si>
+    <t>4423869632</t>
+  </si>
+  <si>
+    <t>9511646522</t>
+  </si>
+  <si>
+    <t>4141079025</t>
+  </si>
+  <si>
+    <t>4423324841</t>
+  </si>
+  <si>
+    <t>SERV03 - 1 - Mantenimiento general - 250.0</t>
+  </si>
+  <si>
+    <t>SSD1TB - 1 - SSD SATA 2.5  1TB - 850.0</t>
+  </si>
+  <si>
+    <t>SSD1TB - 1 - SSD SATA 2.5  1TB - 850.0
+SERV006 - 1 - Bateria OEM para Zbook - 197.41
+SERV006 - 1 - Bat He ZBook 15 G1 AR08 Negra 8C - 359
+ENVIOS - 1 - Envío - 72.5</t>
+  </si>
+  <si>
+    <t>SERV006 - 1 - Bateria OEM para DELL Precision 4500 49Wh - 197.41
+SERV006 - 1 - EKD6600  Bateria Li-ion 11.1V para Dell Precision M4600, M4700, M6600 - 365.4
+ENVIOS - 1 - Envío - 50.73</t>
+  </si>
+  <si>
+    <t>SSD256 - 1 - SSD SATA 2.5  256GB - 650.86
+CADDYDISCO - 1 - Caddy para disco externo - 60.34</t>
+  </si>
+  <si>
+    <t>SERV04 - 1 - Reparacion de Bisagras - 400.0
+SERV 010 - 1 - Cargador HP 65W - 314.66</t>
+  </si>
+  <si>
+    <t>SERV05 - 1 - Instalación autocad, revit y sketchup - 300.0</t>
+  </si>
+  <si>
+    <t>SERV03 - 1 - Mantenimiento general - 250.0
+SERV 010 - 1 - Cargador Lenovo punta cuadrada 65w - 314.66</t>
+  </si>
+  <si>
+    <t>SERV006 - 1 - Bateria OEM para HP Pavilion 15-cw 11.4v 41Wh - 197.41
+SERV03 - 1 - Mantenimiento general - 250.0
+SERV006 - 1 - XEKHHT03XL Bateria Interna (P) 11.4V para HP Pavilion 14-CE 14-CF 14-cm 14-CK 14-DF 14-MA 15-DA 15-CS 15-DB 14Q-CS 15-CW 17-by 17-CA HP 240 245 250 255 G7 340 348 G5 HT03XL - 324.8
+ENVIOS - 1 - Envío - 50.73</t>
+  </si>
+  <si>
+    <t>SSD128 - 1 - SSD SATA 2.5  120GB - 181.9</t>
+  </si>
+  <si>
+    <t>Gar001 - 1 - Garantía - 0.0</t>
+  </si>
+  <si>
+    <t>REF COMODÍN - 1 - FUENTE DE PODER 750 PYLON - 1270.2
+SERV03 - 1 - Mantenimiento general - 250.0</t>
+  </si>
+  <si>
+    <t>SERV02 - 1 - Reinstalación Sistema Operativo - 250.0</t>
+  </si>
+  <si>
+    <t>S0005 - 1 - Diagnostico - 0.0</t>
+  </si>
+  <si>
+    <t>SERV05 - 1 - Instalación AUTCAD INGLES, SOLID Y ACTIVAR WINDOWS - 300.0</t>
+  </si>
+  <si>
+    <t>CADDYDISCO - 1 - Caddy para disco externo - 60.34
+SSD500 - 1 - SSD SATA 2.5  500GB - 438.79</t>
+  </si>
+  <si>
+    <t>SERV006 - 1 - Bateria OEM para HP Pavilion 15-cw1xx 41Wh - 197.41</t>
+  </si>
+  <si>
+    <t>REF COMODÍN - 1 - Bateria OEM para Toshiba S55t-B 32Wh - 1270.2
+SERV006 - 1 - Bat To Sat L50-B PA5184U-1BRS Negra 4C - 229
+ENVIOS - 1 - Envío - 72.5</t>
+  </si>
+  <si>
+    <t>REF COMODÍN - 1 - Refacción diversa (especificar) - 1270.2</t>
+  </si>
+  <si>
+    <t>SSDM.2NVME256NVME - 1 - SSD M.2  NVME 256GB - 400.0</t>
+  </si>
+  <si>
+    <t>SERV06 - 1 - Instalación Office pro plus - 150.0</t>
+  </si>
+  <si>
+    <t>SSDM.2NVME1TB - 1 - SSD M.2  NVME 1TB - 1412.93</t>
+  </si>
+  <si>
+    <t>REF COMODÍN - 1 - Teclado en Español para T430 Sin Retroiluminación - 1270.2
+REF COMODÍN - 1 - TEC387 Teclado color Negro (SP) para IBM Lenovo Thinkpad T530 X230 - 481.4
+ENVIOS - 1 - Envío - 7.25</t>
+  </si>
+  <si>
+    <t>SERV006 - 1 - BATERIA OEM para Hp 15cw1012la41Wh - 197.41
+SERV 010 - 1 - Cargador original HP 65Wh Minicentrino - 314.66</t>
+  </si>
+  <si>
+    <t>SERV05 - 1 - Instalación Software - 300.0</t>
+  </si>
+  <si>
+    <t>SSD256 - 1 - SSD SATA 2.5  256GB - 650.86</t>
+  </si>
+  <si>
+    <t>SERV 010 - 1 - Cargador - 314.66</t>
+  </si>
+  <si>
+    <t>S0005 - 1 - Diagnostico e instalación de impresora - 0.0</t>
+  </si>
+  <si>
+    <t>CADDYDISCO - 1 - Caddy para disco externo - 60.34</t>
+  </si>
+  <si>
+    <t>REF COMODÍN - 1 - Cargador Asus 65W - 1270.2
+REF COMODÍN - 1 - Cargador Asus Vivobook X441 X556 19v 3.42a 65w 4.0*1.35mm - 275</t>
+  </si>
+  <si>
+    <t>SERV 007 - 1 - Drenado de energía - 250.0</t>
+  </si>
+  <si>
+    <t>REF COMODÍN - 1 - Bateria OEM para DELL Inspiron E5570 62wh 7.6v 1 - 1270.2
+REF COMODÍN - 1 - EKD6MT4T Bateria Interna (P) 7.6V para Dell Latitude E5470/ E5570 Precision 3510 HK6DV 079VRK TXF9M 0TXF9M 6MT4T - 446.31
+ENVIOS - 1 - Envío - 68.09</t>
+  </si>
+  <si>
+    <t>REF COMODÍN - 1 - cable de corriente trifasico - 1270.2</t>
+  </si>
+  <si>
+    <t>RAM08DDR4 - 1 - Memoria DDR4 RAM 8GB laptop - 400.0</t>
+  </si>
+  <si>
+    <t>SSD128 - 1 - SSD SATA 2.5  120GB - 181.9
+CADDYDISCO - 1 - Caddy para disco externo - 60.34</t>
+  </si>
+  <si>
+    <t>RAM16DDR4 - 2 - Memporia RAM DDR4 16GB laptop - 600.0</t>
+  </si>
+  <si>
+    <t>KITINALAMBRICO - 1 - Kit teclado mouse inalambrico - 95.0</t>
+  </si>
+  <si>
+    <t>SERV04 - 1 - Reparacion de Bisagras - 400.0
+SERV03 - 1 - Mantenimiento general - 250.0</t>
+  </si>
+  <si>
+    <t>REF COMODÍN - 1 - Bateria OEM para DELL Inspiron 15  7000 11.1v 43Wh - 1270.2
+REF COMODÍN - 1 - EKDGK5KY Bateria 11.4V 43Wh para Dell Inspiron 11 3000 series / 13 7000 series / 15 7000 GK5KY - 440.8
+ENVIOS - 1 - Envío - 68.09</t>
+  </si>
+  <si>
+    <t>SSD500 - 1 - SSD SATA 2.5  500GB - 438.79
+CADDYDISCO - 1 - Caddy para disco externo - 60.34</t>
+  </si>
+  <si>
+    <t>SERV05 - 1 - Instalación Software - 300.0
+REF COMODÍN - 1 - Reparacion de tecla y trackpoint - 1270.2</t>
+  </si>
+  <si>
+    <t>Gar002 - 1 - Garantia Centro de Servicio - 0.0</t>
+  </si>
+  <si>
+    <t>REF COMODÍN - 1 - Teclado par Lenovo T570 en Español No
+retroiluminado - 1270.2
+REF COMODÍN - 1 - Teclado para Lenovo T460 en Español No
+retroiluminado - 1270.2
+REF COMODÍN - 1 - Display 14" LED 1366x768 Bisel Delgado - 1270.2
+REF COMODÍN - 1 - TEC491 Teclado color Negro (SP) para Lenovo E431 T440 L440 E440 T450 T460 - 336.4
+REF COMODÍN - 1 - TEC526 Teclado color Negro (SP) para Lenovo E531 E540 L540 L570 T540 T550 W540 W550s Series - 452.4
+REF COMODÍN - 1 - LCD140-015D Pantalla LCD 14.0 LED WXGA (1366X768) Slim Conector Inferior Derecho 30P Glossy 315mm (bezel delgado) - 696
+ENVIOS - 1 - Envío - 20.66</t>
+  </si>
+  <si>
+    <t>ENVIOS - 1 - Envío FEDEX - 191.0</t>
+  </si>
+  <si>
+    <t>SSD256 - 1 - SSD SATA 2.5  256GB - 650.86
+REF COMODÍN - 1 - Bateria OEM para Acer Aspire A523 14.6v 32Wh - 1270.2
+REF COMODÍN - 1 - Bateria para ACER BT12122 - 245</t>
+  </si>
+  <si>
+    <t>SERV 007 - 1 - Drenado de energía y relocalización de memoria RAM - 250.0</t>
+  </si>
+  <si>
+    <t>SERV05 - 1 - Instalacion de Autocad 2022 ingles y español - 300.0</t>
+  </si>
+  <si>
+    <t>REF COMODÍN - 1 - Bateria OEM para HP 360 14-cd 11.4v 39 wh - 1270.2</t>
+  </si>
+  <si>
+    <t>REF COMODÍN - 1 - Ventilador de refrigeración para HP 15-cw y mano de obra de reemplazo - 1270.2
+SERV03 - 1 - Mantenimiento general - 250.0</t>
+  </si>
+  <si>
+    <t>SERV006 - 1 - Bateria Lenovo YOGA E11 - 197.41</t>
+  </si>
+  <si>
+    <t>REF COMODÍN - 1 - BATERIA ORIGINAL DELL WDX0R 11.4v
+42 Wh - 1270.2</t>
+  </si>
+  <si>
+    <t>SSDM.2NVME256NVME - 1 - SSD M.2  NVME 256GB - 400.0
+RAM08DDR4 - 1 - Memoria DDR4 RAM 8GB laptop - 400.0</t>
+  </si>
+  <si>
+    <t>SSD1TB - 1 - SSD SATA 2.5  1TB - 850.0
+RAM08DDR4 - 1 - Memoria DDR4 RAM 8GB laptop - 400.0</t>
+  </si>
+  <si>
+    <t>SSD500 - 1 - SSD SATA 2.5  500GB - 438.79
+SERV 010 - 1 - Cargador Lenovo punta Caudrada 65W - 314.66</t>
+  </si>
+  <si>
+    <t>RAM32DDR4 - 1 - MEMORIA RAM 32GB DDR4 LAPTOP - 1200.0</t>
+  </si>
+  <si>
+    <t>Es garantía</t>
+  </si>
+  <si>
+    <t>No es garantía</t>
+  </si>
+  <si>
     <t>Facturada</t>
   </si>
   <si>
@@ -796,7 +1303,7 @@
     <t>PO01048</t>
   </si>
   <si>
-    <t>T480 MANTENIMIENTO GENERAL y falla en el teclado con las teclas "T, Y y F3"Verificar el estado del ssistema operativo</t>
+    <t>473 737 5216 T480 MANTENIMIENTO GENERAL y falla en el teclado con las teclas "T, Y y F3"Verificar el estado del ssistema operativo</t>
   </si>
   <si>
     <t>VIN DEJO CARGADOR, INSTALAR ADOBE HP ZBOOK  17 CAMBIO DE DISCO DURO A 1TB, VERIFICAR BATERIA, PUERTO VGA, PROCURAR PEGAR LA TECLA FALTANTE</t>
@@ -1081,7 +1588,7 @@
     <t>VIN CARGADOR Asus s530f El equipo se dejo de usar un año y medio donde el equipo presenta problemas de lentitud , se apaga repetinamente y problemas en generales con SO</t>
   </si>
   <si>
-    <t>HP 14-cd0009la Reemplazo de bateria, El equipo  esta en PIXEL</t>
+    <t>442 219 3574 HP 14-cd0009la Reemplazo de bateria, El equipo  esta en PIXEL</t>
   </si>
   <si>
     <t>DELL 5520 Mantenimiento general y formateo. Respaldar los archivos escritorio y documentos</t>
@@ -1172,306 +1679,6 @@
   </si>
   <si>
     <t>DELL G7 DIAGNOSTICO NEGRO</t>
-  </si>
-  <si>
-    <t>473 737 5216</t>
-  </si>
-  <si>
-    <t>4421206232</t>
-  </si>
-  <si>
-    <t>4421766380</t>
-  </si>
-  <si>
-    <t>4424053736</t>
-  </si>
-  <si>
-    <t>4423590886</t>
-  </si>
-  <si>
-    <t>4425463910</t>
-  </si>
-  <si>
-    <t>3320098010</t>
-  </si>
-  <si>
-    <t>4421866294</t>
-  </si>
-  <si>
-    <t>4422264793</t>
-  </si>
-  <si>
-    <t>4425260479</t>
-  </si>
-  <si>
-    <t>4423154313</t>
-  </si>
-  <si>
-    <t>4426074903</t>
-  </si>
-  <si>
-    <t>4421247596</t>
-  </si>
-  <si>
-    <t>4423767691</t>
-  </si>
-  <si>
-    <t>4425040101</t>
-  </si>
-  <si>
-    <t>5554372125</t>
-  </si>
-  <si>
-    <t>4271177278</t>
-  </si>
-  <si>
-    <t>4423692889</t>
-  </si>
-  <si>
-    <t>4461559718</t>
-  </si>
-  <si>
-    <t>4421065963</t>
-  </si>
-  <si>
-    <t>4421070574</t>
-  </si>
-  <si>
-    <t>4424610682</t>
-  </si>
-  <si>
-    <t>4461274636</t>
-  </si>
-  <si>
-    <t>4111151722</t>
-  </si>
-  <si>
-    <t>4422261380</t>
-  </si>
-  <si>
-    <t>4428501174</t>
-  </si>
-  <si>
-    <t>4421689229</t>
-  </si>
-  <si>
-    <t>4427179236</t>
-  </si>
-  <si>
-    <t>9512325742</t>
-  </si>
-  <si>
-    <t>4421702440</t>
-  </si>
-  <si>
-    <t>4423640654</t>
-  </si>
-  <si>
-    <t>4423366550</t>
-  </si>
-  <si>
-    <t>5512606967</t>
-  </si>
-  <si>
-    <t>5518806638</t>
-  </si>
-  <si>
-    <t>4423591205</t>
-  </si>
-  <si>
-    <t>2464762276</t>
-  </si>
-  <si>
-    <t>4428919741</t>
-  </si>
-  <si>
-    <t>4424766089</t>
-  </si>
-  <si>
-    <t>5615806150</t>
-  </si>
-  <si>
-    <t>4423801736</t>
-  </si>
-  <si>
-    <t>4426257848</t>
-  </si>
-  <si>
-    <t>Sin celular</t>
-  </si>
-  <si>
-    <t>4424753889</t>
-  </si>
-  <si>
-    <t>4421437018</t>
-  </si>
-  <si>
-    <t>4421817589</t>
-  </si>
-  <si>
-    <t>4423783881</t>
-  </si>
-  <si>
-    <t>4424195207</t>
-  </si>
-  <si>
-    <t>4421578553</t>
-  </si>
-  <si>
-    <t>4461381484</t>
-  </si>
-  <si>
-    <t>4422368420</t>
-  </si>
-  <si>
-    <t>4425958405</t>
-  </si>
-  <si>
-    <t>4425986082</t>
-  </si>
-  <si>
-    <t>4461381530</t>
-  </si>
-  <si>
-    <t>4481223450</t>
-  </si>
-  <si>
-    <t>4427476020</t>
-  </si>
-  <si>
-    <t>4424072247</t>
-  </si>
-  <si>
-    <t>4427782004</t>
-  </si>
-  <si>
-    <t>4421948346</t>
-  </si>
-  <si>
-    <t>4421419687</t>
-  </si>
-  <si>
-    <t>4425543667</t>
-  </si>
-  <si>
-    <t>7731708189</t>
-  </si>
-  <si>
-    <t>4423458758</t>
-  </si>
-  <si>
-    <t>4424135962</t>
-  </si>
-  <si>
-    <t>4423792842</t>
-  </si>
-  <si>
-    <t>4423456583</t>
-  </si>
-  <si>
-    <t>4422797651</t>
-  </si>
-  <si>
-    <t>4424511807</t>
-  </si>
-  <si>
-    <t>4427953245</t>
-  </si>
-  <si>
-    <t>4424099648</t>
-  </si>
-  <si>
-    <t>4481050593</t>
-  </si>
-  <si>
-    <t>4427215694</t>
-  </si>
-  <si>
-    <t>4191204474</t>
-  </si>
-  <si>
-    <t>4424573400</t>
-  </si>
-  <si>
-    <t>4613246694</t>
-  </si>
-  <si>
-    <t>4428241971</t>
-  </si>
-  <si>
-    <t>4423821834</t>
-  </si>
-  <si>
-    <t>4423598644</t>
-  </si>
-  <si>
-    <t>4423527369</t>
-  </si>
-  <si>
-    <t>442 219 3574</t>
-  </si>
-  <si>
-    <t>4425780560</t>
-  </si>
-  <si>
-    <t>4422197332</t>
-  </si>
-  <si>
-    <t>7122251638</t>
-  </si>
-  <si>
-    <t>4423832337</t>
-  </si>
-  <si>
-    <t>4422367562</t>
-  </si>
-  <si>
-    <t>5540032465</t>
-  </si>
-  <si>
-    <t>4426686592</t>
-  </si>
-  <si>
-    <t>4423227417</t>
-  </si>
-  <si>
-    <t>4423354501</t>
-  </si>
-  <si>
-    <t>4274274445</t>
-  </si>
-  <si>
-    <t>4421428283</t>
-  </si>
-  <si>
-    <t>4461208348</t>
-  </si>
-  <si>
-    <t>4272909007</t>
-  </si>
-  <si>
-    <t>4425599460</t>
-  </si>
-  <si>
-    <t>4422303189</t>
-  </si>
-  <si>
-    <t>4423869632</t>
-  </si>
-  <si>
-    <t>9511646522</t>
-  </si>
-  <si>
-    <t>4141079025</t>
-  </si>
-  <si>
-    <t>4423324841</t>
-  </si>
-  <si>
-    <t>Es garantía</t>
-  </si>
-  <si>
-    <t>No es garantía</t>
   </si>
 </sst>
 </file>
@@ -1890,20 +2097,26 @@
       <c r="C2" s="3">
         <v>45293.40916666666</v>
       </c>
-      <c r="D2">
-        <v>700.0020000000001</v>
+      <c r="D2" t="s">
+        <v>247</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G2" t="s">
-        <v>260</v>
-      </c>
-      <c r="J2" t="s">
-        <v>386</v>
+        <v>345</v>
+      </c>
+      <c r="F2">
+        <v>250</v>
+      </c>
+      <c r="G2">
+        <v>700</v>
+      </c>
+      <c r="H2" t="s">
+        <v>400</v>
+      </c>
+      <c r="I2" t="s">
+        <v>402</v>
       </c>
       <c r="K2" t="s">
-        <v>484</v>
+        <v>415</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1916,20 +2129,26 @@
       <c r="C3" s="3">
         <v>45293.42548611111</v>
       </c>
-      <c r="D3">
-        <v>1799.9999908</v>
+      <c r="D3" t="s">
+        <v>248</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G3" t="s">
-        <v>261</v>
-      </c>
-      <c r="J3" t="s">
-        <v>387</v>
+        <v>346</v>
+      </c>
+      <c r="F3">
+        <v>850</v>
+      </c>
+      <c r="G3">
+        <v>1800</v>
+      </c>
+      <c r="H3" t="s">
+        <v>401</v>
+      </c>
+      <c r="I3" t="s">
+        <v>402</v>
       </c>
       <c r="K3" t="s">
-        <v>485</v>
+        <v>416</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1942,23 +2161,29 @@
       <c r="C4" s="3">
         <v>45293.43032407408</v>
       </c>
-      <c r="D4">
-        <v>3423.9952</v>
+      <c r="D4" t="s">
+        <v>249</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="F4" t="s">
-        <v>249</v>
-      </c>
-      <c r="G4" t="s">
-        <v>262</v>
+        <v>347</v>
+      </c>
+      <c r="F4">
+        <v>1478.91</v>
+      </c>
+      <c r="G4">
+        <v>3424</v>
+      </c>
+      <c r="H4" t="s">
+        <v>401</v>
+      </c>
+      <c r="I4" t="s">
+        <v>402</v>
       </c>
       <c r="J4" t="s">
-        <v>388</v>
+        <v>404</v>
       </c>
       <c r="K4" t="s">
-        <v>485</v>
+        <v>417</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1971,23 +2196,29 @@
       <c r="C5" s="3">
         <v>45293.43159722222</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="s">
+        <v>250</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="F5">
+        <v>613.54</v>
+      </c>
+      <c r="G5">
         <v>1972</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="F5" t="s">
-        <v>250</v>
-      </c>
-      <c r="G5" t="s">
-        <v>263</v>
+      <c r="H5" t="s">
+        <v>401</v>
+      </c>
+      <c r="I5" t="s">
+        <v>402</v>
       </c>
       <c r="J5" t="s">
-        <v>389</v>
+        <v>405</v>
       </c>
       <c r="K5" t="s">
-        <v>485</v>
+        <v>418</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2000,20 +2231,26 @@
       <c r="C6" s="3">
         <v>45293.49710648148</v>
       </c>
-      <c r="D6">
-        <v>2547.998</v>
+      <c r="D6" t="s">
+        <v>251</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G6" t="s">
-        <v>264</v>
-      </c>
-      <c r="J6" t="s">
-        <v>390</v>
+        <v>349</v>
+      </c>
+      <c r="F6">
+        <v>711.2</v>
+      </c>
+      <c r="G6">
+        <v>2548</v>
+      </c>
+      <c r="H6" t="s">
+        <v>401</v>
+      </c>
+      <c r="I6" t="s">
+        <v>402</v>
       </c>
       <c r="K6" t="s">
-        <v>485</v>
+        <v>419</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2026,20 +2263,26 @@
       <c r="C7" s="3">
         <v>45293.520625</v>
       </c>
-      <c r="D7">
-        <v>1711.99992</v>
+      <c r="D7" t="s">
+        <v>252</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G7" t="s">
-        <v>265</v>
-      </c>
-      <c r="J7" t="s">
-        <v>391</v>
+        <v>350</v>
+      </c>
+      <c r="F7">
+        <v>714.66</v>
+      </c>
+      <c r="G7">
+        <v>1712</v>
+      </c>
+      <c r="H7" t="s">
+        <v>401</v>
+      </c>
+      <c r="I7" t="s">
+        <v>402</v>
       </c>
       <c r="K7" t="s">
-        <v>485</v>
+        <v>420</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2052,20 +2295,26 @@
       <c r="C8" s="3">
         <v>45293.5405787037</v>
       </c>
-      <c r="D8">
-        <v>599.9984000000001</v>
+      <c r="D8" t="s">
+        <v>253</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G8" t="s">
-        <v>266</v>
-      </c>
-      <c r="J8" t="s">
-        <v>392</v>
+        <v>351</v>
+      </c>
+      <c r="F8">
+        <v>300</v>
+      </c>
+      <c r="G8">
+        <v>600</v>
+      </c>
+      <c r="H8" t="s">
+        <v>401</v>
+      </c>
+      <c r="I8" t="s">
+        <v>402</v>
       </c>
       <c r="K8" t="s">
-        <v>485</v>
+        <v>421</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2078,17 +2327,23 @@
       <c r="C9" s="3">
         <v>45293.63739583334</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="s">
+        <v>254</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="F9">
+        <v>564.66</v>
+      </c>
+      <c r="G9">
         <v>1508</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G9" t="s">
-        <v>267</v>
-      </c>
-      <c r="J9" t="s">
-        <v>393</v>
+      <c r="I9" t="s">
+        <v>402</v>
+      </c>
+      <c r="K9" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2101,23 +2356,29 @@
       <c r="C10" s="3">
         <v>45293.64356481482</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="s">
+        <v>254</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="F10">
+        <v>822.9400000000001</v>
+      </c>
+      <c r="G10">
         <v>2436</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="F10" t="s">
-        <v>251</v>
-      </c>
-      <c r="G10" t="s">
-        <v>268</v>
+      <c r="H10" t="s">
+        <v>401</v>
+      </c>
+      <c r="I10" t="s">
+        <v>402</v>
       </c>
       <c r="J10" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="K10" t="s">
-        <v>485</v>
+        <v>423</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2130,20 +2391,26 @@
       <c r="C11" s="3">
         <v>45293.64849537037</v>
       </c>
-      <c r="D11">
-        <v>1500.7996248</v>
+      <c r="D11" t="s">
+        <v>255</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G11" t="s">
-        <v>269</v>
-      </c>
-      <c r="J11" t="s">
-        <v>394</v>
+        <v>354</v>
+      </c>
+      <c r="F11">
+        <v>181.9</v>
+      </c>
+      <c r="G11">
+        <v>1500.8</v>
+      </c>
+      <c r="H11" t="s">
+        <v>401</v>
+      </c>
+      <c r="I11" t="s">
+        <v>402</v>
       </c>
       <c r="K11" t="s">
-        <v>485</v>
+        <v>424</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2156,17 +2423,23 @@
       <c r="C12" s="3">
         <v>45293.69689814815</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="s">
+        <v>256</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F12">
         <v>0</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="G12" t="s">
-        <v>270</v>
-      </c>
-      <c r="J12" t="s">
-        <v>395</v>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>403</v>
+      </c>
+      <c r="K12" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2179,20 +2452,26 @@
       <c r="C13" s="3">
         <v>45293.72875</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="s">
+        <v>257</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F13">
+        <v>1520.2</v>
+      </c>
+      <c r="G13">
         <v>3248</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G13" t="s">
-        <v>271</v>
-      </c>
-      <c r="J13" t="s">
-        <v>396</v>
+      <c r="H13" t="s">
+        <v>401</v>
+      </c>
+      <c r="I13" t="s">
+        <v>402</v>
       </c>
       <c r="K13" t="s">
-        <v>485</v>
+        <v>426</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2205,17 +2484,23 @@
       <c r="C14" s="3">
         <v>45293.73319444444</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="s">
+        <v>258</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F14">
+        <v>250</v>
+      </c>
+      <c r="G14">
         <v>580</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G14" t="s">
-        <v>272</v>
-      </c>
-      <c r="J14" t="s">
-        <v>397</v>
+      <c r="I14" t="s">
+        <v>402</v>
+      </c>
+      <c r="K14" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2228,20 +2513,26 @@
       <c r="C15" s="3">
         <v>45293.73402777778</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="s">
+        <v>259</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F15">
+        <v>250</v>
+      </c>
+      <c r="G15">
         <v>580</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G15" t="s">
-        <v>273</v>
-      </c>
-      <c r="J15" t="s">
-        <v>398</v>
+      <c r="H15" t="s">
+        <v>400</v>
+      </c>
+      <c r="I15" t="s">
+        <v>402</v>
       </c>
       <c r="K15" t="s">
-        <v>484</v>
+        <v>428</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2254,20 +2545,26 @@
       <c r="C16" s="3">
         <v>45294.45621527778</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="s">
+        <v>260</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F16">
         <v>0</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="G16" t="s">
-        <v>274</v>
-      </c>
-      <c r="J16" t="s">
-        <v>399</v>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>400</v>
+      </c>
+      <c r="I16" t="s">
+        <v>403</v>
       </c>
       <c r="K16" t="s">
-        <v>484</v>
+        <v>429</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -2280,20 +2577,26 @@
       <c r="C17" s="3">
         <v>45294.52268518518</v>
       </c>
-      <c r="D17">
-        <v>700.0020000000001</v>
+      <c r="D17" t="s">
+        <v>261</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G17" t="s">
-        <v>275</v>
-      </c>
-      <c r="J17" t="s">
-        <v>400</v>
+        <v>345</v>
+      </c>
+      <c r="F17">
+        <v>250</v>
+      </c>
+      <c r="G17">
+        <v>700</v>
+      </c>
+      <c r="H17" t="s">
+        <v>401</v>
+      </c>
+      <c r="I17" t="s">
+        <v>402</v>
       </c>
       <c r="K17" t="s">
-        <v>485</v>
+        <v>430</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -2306,20 +2609,26 @@
       <c r="C18" s="3">
         <v>45294.69050925926</v>
       </c>
-      <c r="D18">
-        <v>249.99999956</v>
+      <c r="D18" t="s">
+        <v>262</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G18" t="s">
-        <v>276</v>
-      </c>
-      <c r="J18" t="s">
-        <v>401</v>
+        <v>358</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>250</v>
+      </c>
+      <c r="H18" t="s">
+        <v>401</v>
+      </c>
+      <c r="I18" t="s">
+        <v>402</v>
       </c>
       <c r="K18" t="s">
-        <v>485</v>
+        <v>431</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2332,20 +2641,26 @@
       <c r="C19" s="3">
         <v>45295.41672453703</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="s">
+        <v>263</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F19">
+        <v>300</v>
+      </c>
+      <c r="G19">
         <v>580</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G19" t="s">
-        <v>277</v>
-      </c>
-      <c r="J19" t="s">
+      <c r="H19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I19" t="s">
         <v>402</v>
       </c>
       <c r="K19" t="s">
-        <v>485</v>
+        <v>432</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2358,20 +2673,26 @@
       <c r="C20" s="3">
         <v>45295.50078703704</v>
       </c>
-      <c r="D20">
-        <v>250.0032</v>
+      <c r="D20" t="s">
+        <v>264</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G20" t="s">
-        <v>278</v>
-      </c>
-      <c r="J20" t="s">
-        <v>403</v>
+        <v>358</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>250</v>
+      </c>
+      <c r="H20" t="s">
+        <v>401</v>
+      </c>
+      <c r="I20" t="s">
+        <v>402</v>
       </c>
       <c r="K20" t="s">
-        <v>485</v>
+        <v>433</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2384,20 +2705,26 @@
       <c r="C21" s="3">
         <v>45295.5046412037</v>
       </c>
-      <c r="D21">
-        <v>2949.996</v>
+      <c r="D21" t="s">
+        <v>265</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G21" t="s">
-        <v>279</v>
-      </c>
-      <c r="J21" t="s">
-        <v>404</v>
+        <v>360</v>
+      </c>
+      <c r="F21">
+        <v>499.13</v>
+      </c>
+      <c r="G21">
+        <v>2950</v>
+      </c>
+      <c r="H21" t="s">
+        <v>401</v>
+      </c>
+      <c r="I21" t="s">
+        <v>402</v>
       </c>
       <c r="K21" t="s">
-        <v>485</v>
+        <v>434</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2410,20 +2737,26 @@
       <c r="C22" s="3">
         <v>45295.56520833333</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="s">
+        <v>266</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F22">
+        <v>250</v>
+      </c>
+      <c r="G22">
         <v>812</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G22" t="s">
-        <v>280</v>
-      </c>
-      <c r="J22" t="s">
-        <v>405</v>
+      <c r="H22" t="s">
+        <v>401</v>
+      </c>
+      <c r="I22" t="s">
+        <v>402</v>
       </c>
       <c r="K22" t="s">
-        <v>485</v>
+        <v>435</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2436,17 +2769,23 @@
       <c r="C23" s="3">
         <v>45295.59929398148</v>
       </c>
-      <c r="D23">
+      <c r="D23" t="s">
+        <v>267</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="F23">
+        <v>197.41</v>
+      </c>
+      <c r="G23">
         <v>1450</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G23" t="s">
-        <v>281</v>
-      </c>
-      <c r="J23" t="s">
-        <v>406</v>
+      <c r="I23" t="s">
+        <v>402</v>
+      </c>
+      <c r="K23" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -2459,20 +2798,26 @@
       <c r="C24" s="3">
         <v>45295.60870370371</v>
       </c>
-      <c r="D24">
+      <c r="D24" t="s">
+        <v>268</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F24">
         <v>0</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="G24" t="s">
-        <v>282</v>
-      </c>
-      <c r="J24" t="s">
-        <v>407</v>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>401</v>
+      </c>
+      <c r="I24" t="s">
+        <v>403</v>
       </c>
       <c r="K24" t="s">
-        <v>485</v>
+        <v>437</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -2485,20 +2830,26 @@
       <c r="C25" s="3">
         <v>45295.71038194445</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="s">
+        <v>269</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F25">
+        <v>250</v>
+      </c>
+      <c r="G25">
         <v>812</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G25" t="s">
-        <v>283</v>
-      </c>
-      <c r="J25" t="s">
-        <v>408</v>
+      <c r="H25" t="s">
+        <v>401</v>
+      </c>
+      <c r="I25" t="s">
+        <v>402</v>
       </c>
       <c r="K25" t="s">
-        <v>485</v>
+        <v>438</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -2511,20 +2862,26 @@
       <c r="C26" s="3">
         <v>45295.71620370371</v>
       </c>
-      <c r="D26">
+      <c r="D26" t="s">
+        <v>269</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F26">
+        <v>250</v>
+      </c>
+      <c r="G26">
         <v>812</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G26" t="s">
-        <v>284</v>
-      </c>
-      <c r="J26" t="s">
-        <v>408</v>
+      <c r="H26" t="s">
+        <v>401</v>
+      </c>
+      <c r="I26" t="s">
+        <v>402</v>
       </c>
       <c r="K26" t="s">
-        <v>485</v>
+        <v>439</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2537,20 +2894,26 @@
       <c r="C27" s="3">
         <v>45295.75900462963</v>
       </c>
-      <c r="D27">
+      <c r="D27" t="s">
+        <v>270</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F27">
         <v>0</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="G27" t="s">
-        <v>285</v>
-      </c>
-      <c r="J27" t="s">
-        <v>409</v>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27" t="s">
+        <v>400</v>
+      </c>
+      <c r="I27" t="s">
+        <v>403</v>
       </c>
       <c r="K27" t="s">
-        <v>484</v>
+        <v>440</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2563,23 +2926,29 @@
       <c r="C28" s="3">
         <v>45296.48380787037</v>
       </c>
-      <c r="D28">
+      <c r="D28" t="s">
+        <v>271</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="F28">
+        <v>1571.7</v>
+      </c>
+      <c r="G28">
         <v>1624</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="F28" t="s">
-        <v>252</v>
-      </c>
-      <c r="G28" t="s">
-        <v>286</v>
+      <c r="H28" t="s">
+        <v>401</v>
+      </c>
+      <c r="I28" t="s">
+        <v>402</v>
       </c>
       <c r="J28" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="K28" t="s">
-        <v>485</v>
+        <v>441</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2592,20 +2961,26 @@
       <c r="C29" s="3">
         <v>45296.70635416666</v>
       </c>
-      <c r="D29">
+      <c r="D29" t="s">
+        <v>272</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F29">
+        <v>250</v>
+      </c>
+      <c r="G29">
         <v>580</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G29" t="s">
-        <v>287</v>
-      </c>
-      <c r="J29" t="s">
-        <v>411</v>
+      <c r="H29" t="s">
+        <v>401</v>
+      </c>
+      <c r="I29" t="s">
+        <v>402</v>
       </c>
       <c r="K29" t="s">
-        <v>485</v>
+        <v>442</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2618,20 +2993,26 @@
       <c r="C30" s="3">
         <v>45296.70888888889</v>
       </c>
-      <c r="D30">
+      <c r="D30" t="s">
+        <v>272</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F30">
+        <v>250</v>
+      </c>
+      <c r="G30">
         <v>580</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G30" t="s">
-        <v>288</v>
-      </c>
-      <c r="J30" t="s">
-        <v>411</v>
+      <c r="H30" t="s">
+        <v>401</v>
+      </c>
+      <c r="I30" t="s">
+        <v>402</v>
       </c>
       <c r="K30" t="s">
-        <v>485</v>
+        <v>443</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2644,20 +3025,26 @@
       <c r="C31" s="3">
         <v>45296.71063657408</v>
       </c>
-      <c r="D31">
+      <c r="D31" t="s">
+        <v>272</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F31">
+        <v>250</v>
+      </c>
+      <c r="G31">
         <v>580</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G31" t="s">
-        <v>288</v>
-      </c>
-      <c r="J31" t="s">
-        <v>411</v>
+      <c r="H31" t="s">
+        <v>401</v>
+      </c>
+      <c r="I31" t="s">
+        <v>402</v>
       </c>
       <c r="K31" t="s">
-        <v>485</v>
+        <v>443</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2670,20 +3057,26 @@
       <c r="C32" s="3">
         <v>45296.71376157407</v>
       </c>
-      <c r="D32">
+      <c r="D32" t="s">
+        <v>272</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F32">
+        <v>250</v>
+      </c>
+      <c r="G32">
         <v>580</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G32" t="s">
-        <v>289</v>
-      </c>
-      <c r="J32" t="s">
-        <v>411</v>
+      <c r="H32" t="s">
+        <v>401</v>
+      </c>
+      <c r="I32" t="s">
+        <v>402</v>
       </c>
       <c r="K32" t="s">
-        <v>485</v>
+        <v>444</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2696,20 +3089,26 @@
       <c r="C33" s="3">
         <v>45296.71980324074</v>
       </c>
-      <c r="D33">
+      <c r="D33" t="s">
+        <v>272</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="F33">
+        <v>1270.2</v>
+      </c>
+      <c r="G33">
         <v>0</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="G33" t="s">
-        <v>290</v>
-      </c>
-      <c r="J33" t="s">
-        <v>411</v>
+      <c r="H33" t="s">
+        <v>401</v>
+      </c>
+      <c r="I33" t="s">
+        <v>403</v>
       </c>
       <c r="K33" t="s">
-        <v>485</v>
+        <v>445</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2722,20 +3121,26 @@
       <c r="C34" s="3">
         <v>45296.7368287037</v>
       </c>
-      <c r="D34">
-        <v>2499.9972</v>
+      <c r="D34" t="s">
+        <v>273</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G34" t="s">
-        <v>291</v>
-      </c>
-      <c r="J34" t="s">
-        <v>412</v>
+        <v>349</v>
+      </c>
+      <c r="F34">
+        <v>711.2</v>
+      </c>
+      <c r="G34">
+        <v>2500</v>
+      </c>
+      <c r="H34" t="s">
+        <v>401</v>
+      </c>
+      <c r="I34" t="s">
+        <v>402</v>
       </c>
       <c r="K34" t="s">
-        <v>485</v>
+        <v>446</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2748,20 +3153,26 @@
       <c r="C35" s="3">
         <v>45296.7422337963</v>
       </c>
-      <c r="D35">
-        <v>250.0032</v>
+      <c r="D35" t="s">
+        <v>274</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G35" t="s">
-        <v>292</v>
-      </c>
-      <c r="J35" t="s">
-        <v>413</v>
+        <v>358</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>250</v>
+      </c>
+      <c r="H35" t="s">
+        <v>401</v>
+      </c>
+      <c r="I35" t="s">
+        <v>402</v>
       </c>
       <c r="K35" t="s">
-        <v>485</v>
+        <v>447</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2774,20 +3185,26 @@
       <c r="C36" s="3">
         <v>45297.44438657408</v>
       </c>
-      <c r="D36">
-        <v>2199.998</v>
+      <c r="D36" t="s">
+        <v>275</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G36" t="s">
-        <v>293</v>
-      </c>
-      <c r="J36" t="s">
-        <v>414</v>
+        <v>364</v>
+      </c>
+      <c r="F36">
+        <v>400</v>
+      </c>
+      <c r="G36">
+        <v>2200</v>
+      </c>
+      <c r="H36" t="s">
+        <v>401</v>
+      </c>
+      <c r="I36" t="s">
+        <v>402</v>
       </c>
       <c r="K36" t="s">
-        <v>485</v>
+        <v>448</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2800,20 +3217,26 @@
       <c r="C37" s="3">
         <v>45299.65844907407</v>
       </c>
-      <c r="D37">
-        <v>1599.9999944</v>
+      <c r="D37" t="s">
+        <v>276</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G37" t="s">
-        <v>294</v>
-      </c>
-      <c r="J37" t="s">
-        <v>415</v>
+        <v>354</v>
+      </c>
+      <c r="F37">
+        <v>181.9</v>
+      </c>
+      <c r="G37">
+        <v>1600</v>
+      </c>
+      <c r="H37" t="s">
+        <v>401</v>
+      </c>
+      <c r="I37" t="s">
+        <v>402</v>
       </c>
       <c r="K37" t="s">
-        <v>485</v>
+        <v>449</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2826,20 +3249,26 @@
       <c r="C38" s="3">
         <v>45299.70826388889</v>
       </c>
-      <c r="D38">
-        <v>299.9992</v>
+      <c r="D38" t="s">
+        <v>277</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G38" t="s">
-        <v>295</v>
-      </c>
-      <c r="J38" t="s">
-        <v>416</v>
+        <v>365</v>
+      </c>
+      <c r="F38">
+        <v>150</v>
+      </c>
+      <c r="G38">
+        <v>300</v>
+      </c>
+      <c r="H38" t="s">
+        <v>401</v>
+      </c>
+      <c r="I38" t="s">
+        <v>402</v>
       </c>
       <c r="K38" t="s">
-        <v>485</v>
+        <v>450</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2852,20 +3281,26 @@
       <c r="C39" s="3">
         <v>45299.7290162037</v>
       </c>
-      <c r="D39">
-        <v>1300.0004</v>
+      <c r="D39" t="s">
+        <v>278</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G39" t="s">
-        <v>296</v>
-      </c>
-      <c r="J39" t="s">
-        <v>417</v>
+        <v>346</v>
+      </c>
+      <c r="F39">
+        <v>850</v>
+      </c>
+      <c r="G39">
+        <v>1300</v>
+      </c>
+      <c r="H39" t="s">
+        <v>401</v>
+      </c>
+      <c r="I39" t="s">
+        <v>402</v>
       </c>
       <c r="K39" t="s">
-        <v>485</v>
+        <v>451</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2878,20 +3313,26 @@
       <c r="C40" s="3">
         <v>45299.76886574074</v>
       </c>
-      <c r="D40">
-        <v>1499.9999147</v>
+      <c r="D40" t="s">
+        <v>279</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G40" t="s">
-        <v>297</v>
-      </c>
-      <c r="J40" t="s">
-        <v>418</v>
+        <v>366</v>
+      </c>
+      <c r="F40">
+        <v>1412.93</v>
+      </c>
+      <c r="G40">
+        <v>1500</v>
+      </c>
+      <c r="H40" t="s">
+        <v>401</v>
+      </c>
+      <c r="I40" t="s">
+        <v>402</v>
       </c>
       <c r="K40" t="s">
-        <v>485</v>
+        <v>452</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2904,23 +3345,29 @@
       <c r="C41" s="3">
         <v>45300.53837962963</v>
       </c>
-      <c r="D41">
-        <v>1400.004</v>
+      <c r="D41" t="s">
+        <v>280</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="F41" t="s">
-        <v>253</v>
-      </c>
-      <c r="G41" t="s">
-        <v>298</v>
+        <v>367</v>
+      </c>
+      <c r="F41">
+        <v>1758.85</v>
+      </c>
+      <c r="G41">
+        <v>1400</v>
+      </c>
+      <c r="H41" t="s">
+        <v>401</v>
+      </c>
+      <c r="I41" t="s">
+        <v>402</v>
       </c>
       <c r="J41" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="K41" t="s">
-        <v>485</v>
+        <v>453</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2933,20 +3380,26 @@
       <c r="C42" s="3">
         <v>45300.6213425926</v>
       </c>
-      <c r="D42">
+      <c r="D42" t="s">
+        <v>281</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F42">
         <v>0</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="G42" t="s">
-        <v>299</v>
-      </c>
-      <c r="J42" t="s">
-        <v>420</v>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42" t="s">
+        <v>400</v>
+      </c>
+      <c r="I42" t="s">
+        <v>403</v>
       </c>
       <c r="K42" t="s">
-        <v>484</v>
+        <v>454</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2959,20 +3412,26 @@
       <c r="C43" s="3">
         <v>45300.63311342592</v>
       </c>
-      <c r="D43">
+      <c r="D43" t="s">
+        <v>282</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="F43">
+        <v>512.0700000000001</v>
+      </c>
+      <c r="G43">
         <v>2900</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G43" t="s">
-        <v>300</v>
-      </c>
-      <c r="J43" t="s">
-        <v>421</v>
+      <c r="H43" t="s">
+        <v>401</v>
+      </c>
+      <c r="I43" t="s">
+        <v>402</v>
       </c>
       <c r="K43" t="s">
-        <v>485</v>
+        <v>455</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2985,20 +3444,26 @@
       <c r="C44" s="3">
         <v>45300.675</v>
       </c>
-      <c r="D44">
-        <v>349.9952</v>
+      <c r="D44" t="s">
+        <v>283</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G44" t="s">
-        <v>301</v>
-      </c>
-      <c r="J44" t="s">
-        <v>422</v>
+        <v>369</v>
+      </c>
+      <c r="F44">
+        <v>300</v>
+      </c>
+      <c r="G44">
+        <v>350</v>
+      </c>
+      <c r="H44" t="s">
+        <v>401</v>
+      </c>
+      <c r="I44" t="s">
+        <v>402</v>
       </c>
       <c r="K44" t="s">
-        <v>485</v>
+        <v>456</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -3011,20 +3476,26 @@
       <c r="C45" s="3">
         <v>45300.69486111111</v>
       </c>
-      <c r="D45">
-        <v>250.0032</v>
+      <c r="D45" t="s">
+        <v>267</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G45" t="s">
-        <v>302</v>
-      </c>
-      <c r="J45" t="s">
-        <v>406</v>
+        <v>358</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>250</v>
+      </c>
+      <c r="H45" t="s">
+        <v>401</v>
+      </c>
+      <c r="I45" t="s">
+        <v>402</v>
       </c>
       <c r="K45" t="s">
-        <v>485</v>
+        <v>457</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -3037,20 +3508,26 @@
       <c r="C46" s="3">
         <v>45300.73149305556</v>
       </c>
-      <c r="D46">
-        <v>1599.9996</v>
+      <c r="D46" t="s">
+        <v>284</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G46" t="s">
-        <v>303</v>
-      </c>
-      <c r="J46" t="s">
-        <v>423</v>
+        <v>354</v>
+      </c>
+      <c r="F46">
+        <v>181.9</v>
+      </c>
+      <c r="G46">
+        <v>1600</v>
+      </c>
+      <c r="H46" t="s">
+        <v>401</v>
+      </c>
+      <c r="I46" t="s">
+        <v>402</v>
       </c>
       <c r="K46" t="s">
-        <v>485</v>
+        <v>458</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -3063,23 +3540,29 @@
       <c r="C47" s="3">
         <v>45301.38350694445</v>
       </c>
-      <c r="D47">
-        <v>349.999956</v>
+      <c r="D47" t="s">
+        <v>285</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="F47" t="s">
-        <v>254</v>
-      </c>
-      <c r="G47" t="s">
-        <v>304</v>
+        <v>369</v>
+      </c>
+      <c r="F47">
+        <v>300</v>
+      </c>
+      <c r="G47">
+        <v>350</v>
+      </c>
+      <c r="H47" t="s">
+        <v>401</v>
+      </c>
+      <c r="I47" t="s">
+        <v>402</v>
       </c>
       <c r="J47" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="K47" t="s">
-        <v>485</v>
+        <v>459</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -3092,20 +3575,26 @@
       <c r="C48" s="3">
         <v>45301.45447916666</v>
       </c>
-      <c r="D48">
-        <v>2000.0024</v>
+      <c r="D48" t="s">
+        <v>286</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G48" t="s">
-        <v>305</v>
-      </c>
-      <c r="J48" t="s">
-        <v>425</v>
+        <v>370</v>
+      </c>
+      <c r="F48">
+        <v>650.86</v>
+      </c>
+      <c r="G48">
+        <v>2000</v>
+      </c>
+      <c r="H48" t="s">
+        <v>401</v>
+      </c>
+      <c r="I48" t="s">
+        <v>402</v>
       </c>
       <c r="K48" t="s">
-        <v>485</v>
+        <v>460</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -3118,20 +3607,26 @@
       <c r="C49" s="3">
         <v>45301.56194444445</v>
       </c>
-      <c r="D49">
-        <v>249.99999956</v>
+      <c r="D49" t="s">
+        <v>287</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G49" t="s">
-        <v>306</v>
-      </c>
-      <c r="J49" t="s">
-        <v>426</v>
+        <v>358</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>250</v>
+      </c>
+      <c r="H49" t="s">
+        <v>400</v>
+      </c>
+      <c r="I49" t="s">
+        <v>402</v>
       </c>
       <c r="K49" t="s">
-        <v>484</v>
+        <v>461</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -3144,20 +3639,26 @@
       <c r="C50" s="3">
         <v>45301.5903125</v>
       </c>
-      <c r="D50">
+      <c r="D50" t="s">
+        <v>288</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F50">
+        <v>250</v>
+      </c>
+      <c r="G50">
         <v>580</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G50" t="s">
-        <v>307</v>
-      </c>
-      <c r="J50" t="s">
-        <v>427</v>
+      <c r="H50" t="s">
+        <v>401</v>
+      </c>
+      <c r="I50" t="s">
+        <v>402</v>
       </c>
       <c r="K50" t="s">
-        <v>485</v>
+        <v>462</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -3170,20 +3671,26 @@
       <c r="C51" s="3">
         <v>45301.64981481482</v>
       </c>
-      <c r="D51">
+      <c r="D51" t="s">
+        <v>289</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F51">
         <v>0</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="G51" t="s">
-        <v>308</v>
-      </c>
-      <c r="J51" t="s">
-        <v>428</v>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51" t="s">
+        <v>400</v>
+      </c>
+      <c r="I51" t="s">
+        <v>403</v>
       </c>
       <c r="K51" t="s">
-        <v>484</v>
+        <v>463</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -3196,20 +3703,26 @@
       <c r="C52" s="3">
         <v>45301.70329861111</v>
       </c>
-      <c r="D52">
+      <c r="D52" t="s">
+        <v>290</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F52">
         <v>0</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="G52" t="s">
-        <v>309</v>
-      </c>
-      <c r="J52" t="s">
-        <v>429</v>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52" t="s">
+        <v>400</v>
+      </c>
+      <c r="I52" t="s">
+        <v>403</v>
       </c>
       <c r="K52" t="s">
-        <v>484</v>
+        <v>464</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -3222,20 +3735,26 @@
       <c r="C53" s="3">
         <v>45301.72096064815</v>
       </c>
-      <c r="D53">
-        <v>1599.9996</v>
+      <c r="D53" t="s">
+        <v>291</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G53" t="s">
-        <v>310</v>
-      </c>
-      <c r="J53" t="s">
-        <v>430</v>
+        <v>354</v>
+      </c>
+      <c r="F53">
+        <v>181.9</v>
+      </c>
+      <c r="G53">
+        <v>1600</v>
+      </c>
+      <c r="H53" t="s">
+        <v>401</v>
+      </c>
+      <c r="I53" t="s">
+        <v>402</v>
       </c>
       <c r="K53" t="s">
-        <v>485</v>
+        <v>465</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -3248,17 +3767,23 @@
       <c r="C54" s="3">
         <v>45301.76365740741</v>
       </c>
-      <c r="D54">
-        <v>1150.0008</v>
+      <c r="D54" t="s">
+        <v>292</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G54" t="s">
-        <v>311</v>
-      </c>
-      <c r="J54" t="s">
-        <v>431</v>
+        <v>371</v>
+      </c>
+      <c r="F54">
+        <v>314.66</v>
+      </c>
+      <c r="G54">
+        <v>1150</v>
+      </c>
+      <c r="I54" t="s">
+        <v>402</v>
+      </c>
+      <c r="K54" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -3271,17 +3796,23 @@
       <c r="C55" s="3">
         <v>45302.43177083333</v>
       </c>
-      <c r="D55">
-        <v>249.999999999988</v>
+      <c r="D55" t="s">
+        <v>293</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G55" t="s">
-        <v>312</v>
-      </c>
-      <c r="J55" t="s">
-        <v>432</v>
+        <v>372</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>250</v>
+      </c>
+      <c r="I55" t="s">
+        <v>402</v>
+      </c>
+      <c r="K55" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3294,20 +3825,26 @@
       <c r="C56" s="3">
         <v>45302.57895833333</v>
       </c>
-      <c r="D56">
+      <c r="D56" t="s">
+        <v>294</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="F56">
+        <v>1270.2</v>
+      </c>
+      <c r="G56">
         <v>0</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="G56" t="s">
-        <v>313</v>
-      </c>
-      <c r="J56" t="s">
-        <v>433</v>
+      <c r="H56" t="s">
+        <v>401</v>
+      </c>
+      <c r="I56" t="s">
+        <v>403</v>
       </c>
       <c r="K56" t="s">
-        <v>485</v>
+        <v>468</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -3320,17 +3857,23 @@
       <c r="C57" s="3">
         <v>45302.66740740741</v>
       </c>
-      <c r="D57">
+      <c r="D57" t="s">
+        <v>295</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F57">
         <v>0</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="G57" t="s">
-        <v>314</v>
-      </c>
-      <c r="J57" t="s">
-        <v>434</v>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="I57" t="s">
+        <v>403</v>
+      </c>
+      <c r="K57" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -3343,20 +3886,26 @@
       <c r="C58" s="3">
         <v>45303.54585648148</v>
       </c>
-      <c r="D58">
-        <v>349.9952</v>
+      <c r="D58" t="s">
+        <v>296</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G58" t="s">
-        <v>315</v>
-      </c>
-      <c r="J58" t="s">
-        <v>435</v>
+        <v>373</v>
+      </c>
+      <c r="F58">
+        <v>60.34</v>
+      </c>
+      <c r="G58">
+        <v>350</v>
+      </c>
+      <c r="H58" t="s">
+        <v>401</v>
+      </c>
+      <c r="I58" t="s">
+        <v>402</v>
       </c>
       <c r="K58" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -3369,20 +3918,26 @@
       <c r="C59" s="3">
         <v>45303.74936342592</v>
       </c>
-      <c r="D59">
+      <c r="D59" t="s">
+        <v>297</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F59">
+        <v>250</v>
+      </c>
+      <c r="G59">
         <v>580</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G59" t="s">
-        <v>316</v>
-      </c>
-      <c r="J59" t="s">
-        <v>436</v>
+      <c r="H59" t="s">
+        <v>401</v>
+      </c>
+      <c r="I59" t="s">
+        <v>402</v>
       </c>
       <c r="K59" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -3395,20 +3950,26 @@
       <c r="C60" s="3">
         <v>45304.43210648148</v>
       </c>
-      <c r="D60">
-        <v>649.9999999928</v>
+      <c r="D60" t="s">
+        <v>298</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="F60" t="s">
-        <v>255</v>
-      </c>
-      <c r="G60" t="s">
-        <v>317</v>
+        <v>374</v>
+      </c>
+      <c r="F60">
+        <v>1545.2</v>
+      </c>
+      <c r="G60">
+        <v>650</v>
+      </c>
+      <c r="I60" t="s">
+        <v>402</v>
       </c>
       <c r="J60" t="s">
-        <v>437</v>
+        <v>410</v>
+      </c>
+      <c r="K60" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -3421,20 +3982,26 @@
       <c r="C61" s="3">
         <v>45304.52567129629</v>
       </c>
-      <c r="D61">
+      <c r="D61" t="s">
+        <v>299</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="F61">
+        <v>1270.2</v>
+      </c>
+      <c r="G61">
         <v>0</v>
       </c>
-      <c r="E61" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="G61" t="s">
-        <v>318</v>
-      </c>
-      <c r="J61" t="s">
-        <v>438</v>
+      <c r="H61" t="s">
+        <v>401</v>
+      </c>
+      <c r="I61" t="s">
+        <v>403</v>
       </c>
       <c r="K61" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -3447,20 +4014,26 @@
       <c r="C62" s="3">
         <v>45306.48765046296</v>
       </c>
-      <c r="D62">
-        <v>299.9999999998</v>
+      <c r="D62" t="s">
+        <v>300</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G62" t="s">
-        <v>319</v>
-      </c>
-      <c r="J62" t="s">
-        <v>439</v>
+        <v>375</v>
+      </c>
+      <c r="F62">
+        <v>250</v>
+      </c>
+      <c r="G62">
+        <v>300</v>
+      </c>
+      <c r="H62" t="s">
+        <v>401</v>
+      </c>
+      <c r="I62" t="s">
+        <v>402</v>
       </c>
       <c r="K62" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -3473,23 +4046,29 @@
       <c r="C63" s="3">
         <v>45306.49606481481</v>
       </c>
-      <c r="D63">
-        <v>1599.9996</v>
+      <c r="D63" t="s">
+        <v>288</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="F63" t="s">
-        <v>256</v>
-      </c>
-      <c r="G63" t="s">
-        <v>320</v>
+        <v>376</v>
+      </c>
+      <c r="F63">
+        <v>1784.6</v>
+      </c>
+      <c r="G63">
+        <v>1600</v>
+      </c>
+      <c r="H63" t="s">
+        <v>401</v>
+      </c>
+      <c r="I63" t="s">
+        <v>402</v>
       </c>
       <c r="J63" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="K63" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -3502,20 +4081,26 @@
       <c r="C64" s="3">
         <v>45306.51649305555</v>
       </c>
-      <c r="D64">
+      <c r="D64" t="s">
+        <v>301</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F64">
+        <v>250</v>
+      </c>
+      <c r="G64">
         <v>580</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G64" t="s">
-        <v>321</v>
-      </c>
-      <c r="J64" t="s">
-        <v>440</v>
+      <c r="H64" t="s">
+        <v>401</v>
+      </c>
+      <c r="I64" t="s">
+        <v>402</v>
       </c>
       <c r="K64" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -3528,20 +4113,26 @@
       <c r="C65" s="3">
         <v>45306.52288194445</v>
       </c>
-      <c r="D65">
+      <c r="D65" t="s">
+        <v>301</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="F65">
+        <v>1270.2</v>
+      </c>
+      <c r="G65">
         <v>0</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="G65" t="s">
-        <v>322</v>
-      </c>
-      <c r="J65" t="s">
-        <v>440</v>
+      <c r="H65" t="s">
+        <v>401</v>
+      </c>
+      <c r="I65" t="s">
+        <v>403</v>
       </c>
       <c r="K65" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -3554,20 +4145,26 @@
       <c r="C66" s="3">
         <v>45306.5281712963</v>
       </c>
-      <c r="D66">
-        <v>79.99708</v>
+      <c r="D66" t="s">
+        <v>301</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G66" t="s">
-        <v>322</v>
-      </c>
-      <c r="J66" t="s">
-        <v>440</v>
+        <v>377</v>
+      </c>
+      <c r="F66">
+        <v>1270.2</v>
+      </c>
+      <c r="G66">
+        <v>80</v>
+      </c>
+      <c r="H66" t="s">
+        <v>401</v>
+      </c>
+      <c r="I66" t="s">
+        <v>402</v>
       </c>
       <c r="K66" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -3580,20 +4177,26 @@
       <c r="C67" s="3">
         <v>45306.5890625</v>
       </c>
-      <c r="D67">
+      <c r="D67" t="s">
+        <v>302</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F67">
+        <v>300</v>
+      </c>
+      <c r="G67">
         <v>580</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G67" t="s">
-        <v>323</v>
-      </c>
-      <c r="J67" t="s">
-        <v>441</v>
+      <c r="H67" t="s">
+        <v>401</v>
+      </c>
+      <c r="I67" t="s">
+        <v>402</v>
       </c>
       <c r="K67" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -3606,20 +4209,26 @@
       <c r="C68" s="3">
         <v>45306.69413194444</v>
       </c>
-      <c r="D68">
+      <c r="D68" t="s">
+        <v>303</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F68">
+        <v>250</v>
+      </c>
+      <c r="G68">
         <v>580</v>
       </c>
-      <c r="E68" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G68" t="s">
-        <v>324</v>
-      </c>
-      <c r="J68" t="s">
-        <v>442</v>
+      <c r="H68" t="s">
+        <v>401</v>
+      </c>
+      <c r="I68" t="s">
+        <v>402</v>
       </c>
       <c r="K68" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -3632,20 +4241,26 @@
       <c r="C69" s="3">
         <v>45307.50402777778</v>
       </c>
-      <c r="D69">
-        <v>1199.9968</v>
+      <c r="D69" t="s">
+        <v>275</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G69" t="s">
-        <v>293</v>
-      </c>
-      <c r="J69" t="s">
-        <v>414</v>
+        <v>378</v>
+      </c>
+      <c r="F69">
+        <v>400</v>
+      </c>
+      <c r="G69">
+        <v>1200</v>
+      </c>
+      <c r="H69" t="s">
+        <v>401</v>
+      </c>
+      <c r="I69" t="s">
+        <v>402</v>
       </c>
       <c r="K69" t="s">
-        <v>485</v>
+        <v>448</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -3658,20 +4273,26 @@
       <c r="C70" s="3">
         <v>45307.50483796297</v>
       </c>
-      <c r="D70">
-        <v>250.0032</v>
+      <c r="D70" t="s">
+        <v>304</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G70" t="s">
-        <v>325</v>
-      </c>
-      <c r="J70" t="s">
-        <v>443</v>
+        <v>358</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>250</v>
+      </c>
+      <c r="H70" t="s">
+        <v>401</v>
+      </c>
+      <c r="I70" t="s">
+        <v>402</v>
       </c>
       <c r="K70" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -3684,20 +4305,26 @@
       <c r="C71" s="3">
         <v>45307.5415162037</v>
       </c>
-      <c r="D71">
-        <v>1899.9988</v>
+      <c r="D71" t="s">
+        <v>305</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G71" t="s">
-        <v>326</v>
-      </c>
-      <c r="J71" t="s">
-        <v>444</v>
+        <v>379</v>
+      </c>
+      <c r="F71">
+        <v>242.24</v>
+      </c>
+      <c r="G71">
+        <v>1900</v>
+      </c>
+      <c r="H71" t="s">
+        <v>401</v>
+      </c>
+      <c r="I71" t="s">
+        <v>402</v>
       </c>
       <c r="K71" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -3710,17 +4337,23 @@
       <c r="C72" s="3">
         <v>45307.54159722223</v>
       </c>
-      <c r="D72">
-        <v>3199.9999888</v>
+      <c r="D72" t="s">
+        <v>288</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G72" t="s">
-        <v>327</v>
-      </c>
-      <c r="J72" t="s">
-        <v>427</v>
+        <v>380</v>
+      </c>
+      <c r="F72">
+        <v>600</v>
+      </c>
+      <c r="G72">
+        <v>3200</v>
+      </c>
+      <c r="I72" t="s">
+        <v>402</v>
+      </c>
+      <c r="K72" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -3733,20 +4366,26 @@
       <c r="C73" s="3">
         <v>45307.69207175926</v>
       </c>
-      <c r="D73">
+      <c r="D73" t="s">
+        <v>272</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F73">
+        <v>250</v>
+      </c>
+      <c r="G73">
         <v>580</v>
       </c>
-      <c r="E73" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G73" t="s">
-        <v>328</v>
-      </c>
-      <c r="J73" t="s">
-        <v>411</v>
+      <c r="H73" t="s">
+        <v>401</v>
+      </c>
+      <c r="I73" t="s">
+        <v>402</v>
       </c>
       <c r="K73" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3759,20 +4398,26 @@
       <c r="C74" s="3">
         <v>45307.69337962963</v>
       </c>
-      <c r="D74">
-        <v>1599.9996</v>
+      <c r="D74" t="s">
+        <v>272</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G74" t="s">
-        <v>329</v>
-      </c>
-      <c r="J74" t="s">
-        <v>411</v>
+        <v>354</v>
+      </c>
+      <c r="F74">
+        <v>181.9</v>
+      </c>
+      <c r="G74">
+        <v>1600</v>
+      </c>
+      <c r="H74" t="s">
+        <v>401</v>
+      </c>
+      <c r="I74" t="s">
+        <v>402</v>
       </c>
       <c r="K74" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3785,17 +4430,23 @@
       <c r="C75" s="3">
         <v>45307.72324074074</v>
       </c>
-      <c r="D75">
-        <v>1599.9996</v>
+      <c r="D75" t="s">
+        <v>306</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G75" t="s">
-        <v>330</v>
-      </c>
-      <c r="J75" t="s">
-        <v>445</v>
+        <v>354</v>
+      </c>
+      <c r="F75">
+        <v>181.9</v>
+      </c>
+      <c r="G75">
+        <v>1600</v>
+      </c>
+      <c r="H75" t="s">
+        <v>401</v>
+      </c>
+      <c r="I75" t="s">
+        <v>402</v>
       </c>
       <c r="K75" t="s">
         <v>485</v>
@@ -3811,20 +4462,26 @@
       <c r="C76" s="3">
         <v>45307.74225694445</v>
       </c>
-      <c r="D76">
-        <v>700.0020000000001</v>
+      <c r="D76" t="s">
+        <v>286</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G76" t="s">
-        <v>305</v>
-      </c>
-      <c r="J76" t="s">
-        <v>425</v>
+        <v>381</v>
+      </c>
+      <c r="F76">
+        <v>95</v>
+      </c>
+      <c r="G76">
+        <v>700</v>
+      </c>
+      <c r="H76" t="s">
+        <v>401</v>
+      </c>
+      <c r="I76" t="s">
+        <v>402</v>
       </c>
       <c r="K76" t="s">
-        <v>485</v>
+        <v>460</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3837,17 +4494,23 @@
       <c r="C77" s="3">
         <v>45308.72087962963</v>
       </c>
-      <c r="D77">
+      <c r="D77" t="s">
+        <v>307</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F77">
         <v>0</v>
       </c>
-      <c r="E77" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="G77" t="s">
-        <v>331</v>
-      </c>
-      <c r="J77" t="s">
-        <v>446</v>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="I77" t="s">
+        <v>403</v>
+      </c>
+      <c r="K77" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3860,20 +4523,26 @@
       <c r="C78" s="3">
         <v>45308.72868055556</v>
       </c>
-      <c r="D78">
-        <v>250.0032</v>
+      <c r="D78" t="s">
+        <v>308</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G78" t="s">
-        <v>332</v>
-      </c>
-      <c r="J78" t="s">
-        <v>447</v>
+        <v>358</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>250</v>
+      </c>
+      <c r="H78" t="s">
+        <v>401</v>
+      </c>
+      <c r="I78" t="s">
+        <v>402</v>
       </c>
       <c r="K78" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3886,20 +4555,26 @@
       <c r="C79" s="3">
         <v>45308.73480324074</v>
       </c>
-      <c r="D79">
+      <c r="D79" t="s">
+        <v>308</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="F79">
+        <v>650</v>
+      </c>
+      <c r="G79">
         <v>1624</v>
       </c>
-      <c r="E79" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G79" t="s">
-        <v>333</v>
-      </c>
-      <c r="J79" t="s">
-        <v>447</v>
+      <c r="H79" t="s">
+        <v>401</v>
+      </c>
+      <c r="I79" t="s">
+        <v>402</v>
       </c>
       <c r="K79" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3912,20 +4587,26 @@
       <c r="C80" s="3">
         <v>45308.74643518519</v>
       </c>
-      <c r="D80">
+      <c r="D80" t="s">
+        <v>309</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
         <v>232</v>
       </c>
-      <c r="E80" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G80" t="s">
-        <v>334</v>
-      </c>
-      <c r="J80" t="s">
-        <v>448</v>
+      <c r="H80" t="s">
+        <v>401</v>
+      </c>
+      <c r="I80" t="s">
+        <v>402</v>
       </c>
       <c r="K80" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3938,20 +4619,26 @@
       <c r="C81" s="3">
         <v>45309.39240740741</v>
       </c>
-      <c r="D81">
-        <v>599.9984000000001</v>
+      <c r="D81" t="s">
+        <v>310</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G81" t="s">
-        <v>335</v>
-      </c>
-      <c r="J81" t="s">
-        <v>449</v>
+        <v>357</v>
+      </c>
+      <c r="F81">
+        <v>250</v>
+      </c>
+      <c r="G81">
+        <v>600</v>
+      </c>
+      <c r="H81" t="s">
+        <v>401</v>
+      </c>
+      <c r="I81" t="s">
+        <v>402</v>
       </c>
       <c r="K81" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3964,23 +4651,29 @@
       <c r="C82" s="3">
         <v>45309.53040509259</v>
       </c>
-      <c r="D82">
+      <c r="D82" t="s">
+        <v>311</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="F82">
+        <v>1779.09</v>
+      </c>
+      <c r="G82">
         <v>1600</v>
       </c>
-      <c r="E82" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="F82" t="s">
-        <v>257</v>
-      </c>
-      <c r="G82" t="s">
-        <v>336</v>
+      <c r="H82" t="s">
+        <v>401</v>
+      </c>
+      <c r="I82" t="s">
+        <v>402</v>
       </c>
       <c r="J82" t="s">
-        <v>450</v>
+        <v>412</v>
       </c>
       <c r="K82" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3993,20 +4686,26 @@
       <c r="C83" s="3">
         <v>45309.71297453704</v>
       </c>
-      <c r="D83">
-        <v>3000.0036</v>
+      <c r="D83" t="s">
+        <v>312</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G83" t="s">
-        <v>337</v>
-      </c>
-      <c r="J83" t="s">
-        <v>451</v>
+        <v>384</v>
+      </c>
+      <c r="F83">
+        <v>499.13</v>
+      </c>
+      <c r="G83">
+        <v>3000</v>
+      </c>
+      <c r="H83" t="s">
+        <v>401</v>
+      </c>
+      <c r="I83" t="s">
+        <v>402</v>
       </c>
       <c r="K83" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -4019,20 +4718,26 @@
       <c r="C84" s="3">
         <v>45309.72028935186</v>
       </c>
-      <c r="D84">
+      <c r="D84" t="s">
+        <v>313</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="F84">
+        <v>1270.2</v>
+      </c>
+      <c r="G84">
         <v>0</v>
       </c>
-      <c r="E84" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="G84" t="s">
-        <v>338</v>
-      </c>
-      <c r="J84" t="s">
-        <v>452</v>
+      <c r="H84" t="s">
+        <v>401</v>
+      </c>
+      <c r="I84" t="s">
+        <v>403</v>
       </c>
       <c r="K84" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -4045,20 +4750,26 @@
       <c r="C85" s="3">
         <v>45310.48010416667</v>
       </c>
-      <c r="D85">
-        <v>349.9999999996401</v>
+      <c r="D85" t="s">
+        <v>314</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G85" t="s">
-        <v>339</v>
-      </c>
-      <c r="J85" t="s">
-        <v>453</v>
+        <v>385</v>
+      </c>
+      <c r="F85">
+        <v>1570.2</v>
+      </c>
+      <c r="G85">
+        <v>350</v>
+      </c>
+      <c r="H85" t="s">
+        <v>401</v>
+      </c>
+      <c r="I85" t="s">
+        <v>402</v>
       </c>
       <c r="K85" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -4071,20 +4782,26 @@
       <c r="C86" s="3">
         <v>45310.60517361111</v>
       </c>
-      <c r="D86">
+      <c r="D86" t="s">
+        <v>315</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F86">
         <v>0</v>
       </c>
-      <c r="E86" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="G86" t="s">
-        <v>340</v>
-      </c>
-      <c r="J86" t="s">
-        <v>454</v>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86" t="s">
+        <v>400</v>
+      </c>
+      <c r="I86" t="s">
+        <v>403</v>
       </c>
       <c r="K86" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -4097,20 +4814,26 @@
       <c r="C87" s="3">
         <v>45310.74252314815</v>
       </c>
-      <c r="D87">
-        <v>580.00464</v>
+      <c r="D87" t="s">
+        <v>316</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G87" t="s">
-        <v>341</v>
-      </c>
-      <c r="J87" t="s">
-        <v>455</v>
+        <v>369</v>
+      </c>
+      <c r="F87">
+        <v>300</v>
+      </c>
+      <c r="G87">
+        <v>580</v>
+      </c>
+      <c r="H87" t="s">
+        <v>401</v>
+      </c>
+      <c r="I87" t="s">
+        <v>402</v>
       </c>
       <c r="K87" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -4123,20 +4846,26 @@
       <c r="C88" s="3">
         <v>45311.50221064815</v>
       </c>
-      <c r="D88">
+      <c r="D88" t="s">
+        <v>265</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F88">
         <v>0</v>
       </c>
-      <c r="E88" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="G88" t="s">
-        <v>342</v>
-      </c>
-      <c r="J88" t="s">
-        <v>404</v>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88" t="s">
+        <v>400</v>
+      </c>
+      <c r="I88" t="s">
+        <v>403</v>
       </c>
       <c r="K88" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -4149,20 +4878,26 @@
       <c r="C89" s="3">
         <v>45313.39831018518</v>
       </c>
-      <c r="D89">
+      <c r="D89" t="s">
+        <v>317</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F89">
         <v>0</v>
       </c>
-      <c r="E89" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="G89" t="s">
-        <v>343</v>
-      </c>
-      <c r="J89" t="s">
-        <v>456</v>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89" t="s">
+        <v>400</v>
+      </c>
+      <c r="I89" t="s">
+        <v>403</v>
       </c>
       <c r="K89" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -4175,20 +4910,26 @@
       <c r="C90" s="3">
         <v>45313.46736111111</v>
       </c>
-      <c r="D90">
+      <c r="D90" t="s">
+        <v>318</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F90">
         <v>0</v>
       </c>
-      <c r="E90" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="G90" t="s">
-        <v>344</v>
-      </c>
-      <c r="J90" t="s">
-        <v>457</v>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90" t="s">
+        <v>400</v>
+      </c>
+      <c r="I90" t="s">
+        <v>403</v>
       </c>
       <c r="K90" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -4201,20 +4942,26 @@
       <c r="C91" s="3">
         <v>45313.47009259259</v>
       </c>
-      <c r="D91">
+      <c r="D91" t="s">
+        <v>318</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F91">
         <v>0</v>
       </c>
-      <c r="E91" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="G91" t="s">
-        <v>345</v>
-      </c>
-      <c r="J91" t="s">
-        <v>457</v>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91" t="s">
+        <v>400</v>
+      </c>
+      <c r="I91" t="s">
+        <v>403</v>
       </c>
       <c r="K91" t="s">
-        <v>484</v>
+        <v>500</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -4227,20 +4974,26 @@
       <c r="C92" s="3">
         <v>45313.50326388889</v>
       </c>
-      <c r="D92">
-        <v>4200.0004</v>
+      <c r="D92" t="s">
+        <v>288</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="F92" t="s">
-        <v>258</v>
-      </c>
-      <c r="G92" t="s">
-        <v>346</v>
+        <v>387</v>
+      </c>
+      <c r="F92">
+        <v>5316.06</v>
+      </c>
+      <c r="G92">
+        <v>4200</v>
+      </c>
+      <c r="I92" t="s">
+        <v>402</v>
       </c>
       <c r="J92" t="s">
-        <v>427</v>
+        <v>413</v>
+      </c>
+      <c r="K92" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -4253,20 +5006,26 @@
       <c r="C93" s="3">
         <v>45313.54563657408</v>
       </c>
-      <c r="D93">
-        <v>349.9952</v>
+      <c r="D93" t="s">
+        <v>288</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G93" t="s">
-        <v>347</v>
-      </c>
-      <c r="J93" t="s">
-        <v>427</v>
+        <v>369</v>
+      </c>
+      <c r="F93">
+        <v>300</v>
+      </c>
+      <c r="G93">
+        <v>350</v>
+      </c>
+      <c r="H93" t="s">
+        <v>401</v>
+      </c>
+      <c r="I93" t="s">
+        <v>402</v>
       </c>
       <c r="K93" t="s">
-        <v>485</v>
+        <v>502</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -4279,20 +5038,26 @@
       <c r="C94" s="3">
         <v>45313.69777777778</v>
       </c>
-      <c r="D94">
-        <v>169.998</v>
+      <c r="D94" t="s">
+        <v>288</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G94" t="s">
-        <v>348</v>
-      </c>
-      <c r="J94" t="s">
-        <v>427</v>
+        <v>388</v>
+      </c>
+      <c r="F94">
+        <v>191</v>
+      </c>
+      <c r="G94">
+        <v>170</v>
+      </c>
+      <c r="H94" t="s">
+        <v>401</v>
+      </c>
+      <c r="I94" t="s">
+        <v>402</v>
       </c>
       <c r="K94" t="s">
-        <v>485</v>
+        <v>503</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -4305,23 +5070,29 @@
       <c r="C95" s="3">
         <v>45314.38986111111</v>
       </c>
-      <c r="D95">
-        <v>3499.9979999972</v>
+      <c r="D95" t="s">
+        <v>319</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="F95" t="s">
-        <v>259</v>
-      </c>
-      <c r="G95" t="s">
-        <v>349</v>
+        <v>389</v>
+      </c>
+      <c r="F95">
+        <v>2166.06</v>
+      </c>
+      <c r="G95">
+        <v>3500</v>
+      </c>
+      <c r="H95" t="s">
+        <v>401</v>
+      </c>
+      <c r="I95" t="s">
+        <v>402</v>
       </c>
       <c r="J95" t="s">
-        <v>458</v>
+        <v>414</v>
       </c>
       <c r="K95" t="s">
-        <v>485</v>
+        <v>504</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -4334,20 +5105,26 @@
       <c r="C96" s="3">
         <v>45314.4425462963</v>
       </c>
-      <c r="D96">
-        <v>599.9984000000001</v>
+      <c r="D96" t="s">
+        <v>320</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G96" t="s">
-        <v>350</v>
-      </c>
-      <c r="J96" t="s">
-        <v>459</v>
+        <v>390</v>
+      </c>
+      <c r="F96">
+        <v>250</v>
+      </c>
+      <c r="G96">
+        <v>600</v>
+      </c>
+      <c r="H96" t="s">
+        <v>401</v>
+      </c>
+      <c r="I96" t="s">
+        <v>402</v>
       </c>
       <c r="K96" t="s">
-        <v>485</v>
+        <v>505</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -4360,20 +5137,26 @@
       <c r="C97" s="3">
         <v>45314.49410879629</v>
       </c>
-      <c r="D97">
+      <c r="D97" t="s">
+        <v>321</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F97">
         <v>0</v>
       </c>
-      <c r="E97" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="G97" t="s">
-        <v>351</v>
-      </c>
-      <c r="J97" t="s">
-        <v>460</v>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97" t="s">
+        <v>400</v>
+      </c>
+      <c r="I97" t="s">
+        <v>403</v>
       </c>
       <c r="K97" t="s">
-        <v>484</v>
+        <v>506</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -4386,20 +5169,26 @@
       <c r="C98" s="3">
         <v>45314.51045138889</v>
       </c>
-      <c r="D98">
-        <v>349.9999999999948</v>
+      <c r="D98" t="s">
+        <v>322</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G98" t="s">
-        <v>352</v>
-      </c>
-      <c r="J98" t="s">
-        <v>461</v>
+        <v>391</v>
+      </c>
+      <c r="F98">
+        <v>300</v>
+      </c>
+      <c r="G98">
+        <v>350</v>
+      </c>
+      <c r="H98" t="s">
+        <v>401</v>
+      </c>
+      <c r="I98" t="s">
+        <v>402</v>
       </c>
       <c r="K98" t="s">
-        <v>485</v>
+        <v>507</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -4412,20 +5201,26 @@
       <c r="C99" s="3">
         <v>45314.52447916667</v>
       </c>
-      <c r="D99">
+      <c r="D99" t="s">
+        <v>323</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F99">
         <v>0</v>
       </c>
-      <c r="E99" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="G99" t="s">
-        <v>353</v>
-      </c>
-      <c r="J99" t="s">
-        <v>462</v>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99" t="s">
+        <v>400</v>
+      </c>
+      <c r="I99" t="s">
+        <v>403</v>
       </c>
       <c r="K99" t="s">
-        <v>484</v>
+        <v>508</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -4438,17 +5233,23 @@
       <c r="C100" s="3">
         <v>45314.5341550926</v>
       </c>
-      <c r="D100">
-        <v>349.99999999996</v>
+      <c r="D100" t="s">
+        <v>292</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G100" t="s">
-        <v>311</v>
-      </c>
-      <c r="J100" t="s">
-        <v>431</v>
+        <v>373</v>
+      </c>
+      <c r="F100">
+        <v>60.34</v>
+      </c>
+      <c r="G100">
+        <v>350</v>
+      </c>
+      <c r="I100" t="s">
+        <v>402</v>
+      </c>
+      <c r="K100" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -4461,20 +5262,26 @@
       <c r="C101" s="3">
         <v>45314.54357638889</v>
       </c>
-      <c r="D101">
-        <v>1599.9996</v>
+      <c r="D101" t="s">
+        <v>324</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G101" t="s">
         <v>354</v>
       </c>
-      <c r="J101" t="s">
-        <v>463</v>
+      <c r="F101">
+        <v>181.9</v>
+      </c>
+      <c r="G101">
+        <v>1600</v>
+      </c>
+      <c r="H101" t="s">
+        <v>401</v>
+      </c>
+      <c r="I101" t="s">
+        <v>402</v>
       </c>
       <c r="K101" t="s">
-        <v>485</v>
+        <v>509</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -4487,20 +5294,26 @@
       <c r="C102" s="3">
         <v>45314.54976851852</v>
       </c>
-      <c r="D102">
+      <c r="D102" t="s">
+        <v>325</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="F102">
+        <v>1270.2</v>
+      </c>
+      <c r="G102">
         <v>1508</v>
       </c>
-      <c r="E102" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G102" t="s">
-        <v>355</v>
-      </c>
-      <c r="J102" t="s">
-        <v>464</v>
+      <c r="H102" t="s">
+        <v>401</v>
+      </c>
+      <c r="I102" t="s">
+        <v>402</v>
       </c>
       <c r="K102" t="s">
-        <v>485</v>
+        <v>510</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4513,20 +5326,26 @@
       <c r="C103" s="3">
         <v>45314.55601851852</v>
       </c>
-      <c r="D103">
-        <v>800.0044399999999</v>
+      <c r="D103" t="s">
+        <v>326</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G103" t="s">
-        <v>356</v>
-      </c>
-      <c r="J103" t="s">
-        <v>465</v>
+        <v>345</v>
+      </c>
+      <c r="F103">
+        <v>250</v>
+      </c>
+      <c r="G103">
+        <v>800</v>
+      </c>
+      <c r="H103" t="s">
+        <v>401</v>
+      </c>
+      <c r="I103" t="s">
+        <v>402</v>
       </c>
       <c r="K103" t="s">
-        <v>485</v>
+        <v>511</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4539,20 +5358,26 @@
       <c r="C104" s="3">
         <v>45314.56140046296</v>
       </c>
-      <c r="D104">
-        <v>800.0044399999999</v>
+      <c r="D104" t="s">
+        <v>326</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G104" t="s">
-        <v>357</v>
-      </c>
-      <c r="J104" t="s">
-        <v>465</v>
+        <v>345</v>
+      </c>
+      <c r="F104">
+        <v>250</v>
+      </c>
+      <c r="G104">
+        <v>800</v>
+      </c>
+      <c r="H104" t="s">
+        <v>401</v>
+      </c>
+      <c r="I104" t="s">
+        <v>402</v>
       </c>
       <c r="K104" t="s">
-        <v>485</v>
+        <v>512</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4565,20 +5390,26 @@
       <c r="C105" s="3">
         <v>45314.58067129629</v>
       </c>
-      <c r="D105">
+      <c r="D105" t="s">
+        <v>327</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F105">
         <v>0</v>
       </c>
-      <c r="E105" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="G105" t="s">
-        <v>358</v>
-      </c>
-      <c r="J105" t="s">
-        <v>466</v>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105" t="s">
+        <v>400</v>
+      </c>
+      <c r="I105" t="s">
+        <v>403</v>
       </c>
       <c r="K105" t="s">
-        <v>484</v>
+        <v>513</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4591,20 +5422,26 @@
       <c r="C106" s="3">
         <v>45314.67109953704</v>
       </c>
-      <c r="D106">
-        <v>1649.9997992</v>
+      <c r="D106" t="s">
+        <v>328</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G106" t="s">
-        <v>359</v>
-      </c>
-      <c r="J106" t="s">
-        <v>467</v>
+        <v>393</v>
+      </c>
+      <c r="F106">
+        <v>1520.2</v>
+      </c>
+      <c r="G106">
+        <v>1650</v>
+      </c>
+      <c r="H106" t="s">
+        <v>401</v>
+      </c>
+      <c r="I106" t="s">
+        <v>402</v>
       </c>
       <c r="K106" t="s">
-        <v>485</v>
+        <v>514</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4617,17 +5454,23 @@
       <c r="C107" s="3">
         <v>45314.69586805555</v>
       </c>
-      <c r="D107">
+      <c r="D107" t="s">
+        <v>272</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F107">
+        <v>250</v>
+      </c>
+      <c r="G107">
         <v>500</v>
       </c>
-      <c r="E107" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G107" t="s">
-        <v>360</v>
-      </c>
-      <c r="J107" t="s">
-        <v>411</v>
+      <c r="I107" t="s">
+        <v>402</v>
+      </c>
+      <c r="K107" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4640,20 +5483,26 @@
       <c r="C108" s="3">
         <v>45315.49449074074</v>
       </c>
-      <c r="D108">
+      <c r="D108" t="s">
+        <v>329</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F108">
         <v>0</v>
       </c>
-      <c r="E108" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="G108" t="s">
-        <v>361</v>
-      </c>
-      <c r="J108" t="s">
-        <v>468</v>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108" t="s">
+        <v>400</v>
+      </c>
+      <c r="I108" t="s">
+        <v>403</v>
       </c>
       <c r="K108" t="s">
-        <v>484</v>
+        <v>516</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4666,20 +5515,26 @@
       <c r="C109" s="3">
         <v>45315.54480324074</v>
       </c>
-      <c r="D109">
-        <v>599.9984000000001</v>
+      <c r="D109" t="s">
+        <v>330</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G109" t="s">
-        <v>362</v>
-      </c>
-      <c r="J109" t="s">
-        <v>469</v>
+        <v>357</v>
+      </c>
+      <c r="F109">
+        <v>250</v>
+      </c>
+      <c r="G109">
+        <v>600</v>
+      </c>
+      <c r="H109" t="s">
+        <v>401</v>
+      </c>
+      <c r="I109" t="s">
+        <v>402</v>
       </c>
       <c r="K109" t="s">
-        <v>485</v>
+        <v>517</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4692,17 +5547,23 @@
       <c r="C110" s="3">
         <v>45315.62829861111</v>
       </c>
-      <c r="D110">
+      <c r="D110" t="s">
+        <v>295</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F110">
         <v>0</v>
       </c>
-      <c r="E110" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="G110" t="s">
-        <v>314</v>
-      </c>
-      <c r="J110" t="s">
-        <v>434</v>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="I110" t="s">
+        <v>403</v>
+      </c>
+      <c r="K110" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4715,20 +5576,26 @@
       <c r="C111" s="3">
         <v>45315.7253125</v>
       </c>
-      <c r="D111">
-        <v>1300.0004</v>
+      <c r="D111" t="s">
+        <v>331</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G111" t="s">
-        <v>363</v>
-      </c>
-      <c r="J111" t="s">
-        <v>470</v>
+        <v>394</v>
+      </c>
+      <c r="F111">
+        <v>197.41</v>
+      </c>
+      <c r="G111">
+        <v>1300</v>
+      </c>
+      <c r="H111" t="s">
+        <v>400</v>
+      </c>
+      <c r="I111" t="s">
+        <v>402</v>
       </c>
       <c r="K111" t="s">
-        <v>484</v>
+        <v>518</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4741,20 +5608,26 @@
       <c r="C112" s="3">
         <v>45316.40819444445</v>
       </c>
-      <c r="D112">
-        <v>799.9997999999999</v>
+      <c r="D112" t="s">
+        <v>298</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G112" t="s">
-        <v>364</v>
-      </c>
-      <c r="J112" t="s">
-        <v>437</v>
+        <v>345</v>
+      </c>
+      <c r="F112">
+        <v>250</v>
+      </c>
+      <c r="G112">
+        <v>800</v>
+      </c>
+      <c r="H112" t="s">
+        <v>401</v>
+      </c>
+      <c r="I112" t="s">
+        <v>402</v>
       </c>
       <c r="K112" t="s">
-        <v>485</v>
+        <v>519</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -4767,20 +5640,26 @@
       <c r="C113" s="3">
         <v>45316.55929398148</v>
       </c>
-      <c r="D113">
-        <v>799.9997999999999</v>
+      <c r="D113" t="s">
+        <v>332</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G113" t="s">
-        <v>365</v>
-      </c>
-      <c r="J113" t="s">
-        <v>471</v>
+        <v>345</v>
+      </c>
+      <c r="F113">
+        <v>250</v>
+      </c>
+      <c r="G113">
+        <v>800</v>
+      </c>
+      <c r="H113" t="s">
+        <v>401</v>
+      </c>
+      <c r="I113" t="s">
+        <v>402</v>
       </c>
       <c r="K113" t="s">
-        <v>485</v>
+        <v>520</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -4793,20 +5672,26 @@
       <c r="C114" s="3">
         <v>45317.42777777778</v>
       </c>
-      <c r="D114">
+      <c r="D114" t="s">
+        <v>333</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F114">
+        <v>250</v>
+      </c>
+      <c r="G114">
         <v>812</v>
       </c>
-      <c r="E114" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G114" t="s">
-        <v>366</v>
-      </c>
-      <c r="J114" t="s">
-        <v>472</v>
+      <c r="H114" t="s">
+        <v>401</v>
+      </c>
+      <c r="I114" t="s">
+        <v>402</v>
       </c>
       <c r="K114" t="s">
-        <v>485</v>
+        <v>521</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -4819,20 +5704,26 @@
       <c r="C115" s="3">
         <v>45317.43003472222</v>
       </c>
-      <c r="D115">
+      <c r="D115" t="s">
+        <v>333</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F115">
+        <v>250</v>
+      </c>
+      <c r="G115">
         <v>812</v>
       </c>
-      <c r="E115" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G115" t="s">
-        <v>367</v>
-      </c>
-      <c r="J115" t="s">
-        <v>472</v>
+      <c r="H115" t="s">
+        <v>401</v>
+      </c>
+      <c r="I115" t="s">
+        <v>402</v>
       </c>
       <c r="K115" t="s">
-        <v>485</v>
+        <v>522</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -4845,20 +5736,26 @@
       <c r="C116" s="3">
         <v>45317.59055555556</v>
       </c>
-      <c r="D116">
+      <c r="D116" t="s">
+        <v>334</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F116">
         <v>0</v>
       </c>
-      <c r="E116" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="G116" t="s">
-        <v>368</v>
-      </c>
-      <c r="J116" t="s">
-        <v>473</v>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116" t="s">
+        <v>400</v>
+      </c>
+      <c r="I116" t="s">
+        <v>403</v>
       </c>
       <c r="K116" t="s">
-        <v>484</v>
+        <v>523</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -4871,20 +5768,26 @@
       <c r="C117" s="3">
         <v>45317.75788194445</v>
       </c>
-      <c r="D117">
+      <c r="D117" t="s">
+        <v>335</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F117">
+        <v>1270.2</v>
+      </c>
+      <c r="G117">
         <v>2784</v>
       </c>
-      <c r="E117" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G117" t="s">
-        <v>369</v>
-      </c>
-      <c r="J117" t="s">
-        <v>474</v>
+      <c r="H117" t="s">
+        <v>401</v>
+      </c>
+      <c r="I117" t="s">
+        <v>402</v>
       </c>
       <c r="K117" t="s">
-        <v>485</v>
+        <v>524</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -4897,20 +5800,26 @@
       <c r="C118" s="3">
         <v>45318.4338425926</v>
       </c>
-      <c r="D118">
-        <v>249.99999956</v>
+      <c r="D118" t="s">
+        <v>336</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G118" t="s">
-        <v>370</v>
-      </c>
-      <c r="J118" t="s">
-        <v>475</v>
+        <v>358</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>250</v>
+      </c>
+      <c r="H118" t="s">
+        <v>401</v>
+      </c>
+      <c r="I118" t="s">
+        <v>402</v>
       </c>
       <c r="K118" t="s">
-        <v>485</v>
+        <v>525</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -4923,20 +5832,26 @@
       <c r="C119" s="3">
         <v>45318.43528935185</v>
       </c>
-      <c r="D119">
-        <v>800.00096</v>
+      <c r="D119" t="s">
+        <v>336</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G119" t="s">
-        <v>371</v>
-      </c>
-      <c r="J119" t="s">
-        <v>475</v>
+        <v>345</v>
+      </c>
+      <c r="F119">
+        <v>250</v>
+      </c>
+      <c r="G119">
+        <v>800</v>
+      </c>
+      <c r="H119" t="s">
+        <v>401</v>
+      </c>
+      <c r="I119" t="s">
+        <v>402</v>
       </c>
       <c r="K119" t="s">
-        <v>485</v>
+        <v>526</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -4949,17 +5864,23 @@
       <c r="C120" s="3">
         <v>45318.52028935185</v>
       </c>
-      <c r="D120">
-        <v>3849.9994</v>
+      <c r="D120" t="s">
+        <v>337</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G120" t="s">
-        <v>372</v>
-      </c>
-      <c r="J120" t="s">
-        <v>476</v>
+        <v>396</v>
+      </c>
+      <c r="F120">
+        <v>800</v>
+      </c>
+      <c r="G120">
+        <v>3850</v>
+      </c>
+      <c r="I120" t="s">
+        <v>402</v>
+      </c>
+      <c r="K120" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -4972,20 +5893,26 @@
       <c r="C121" s="3">
         <v>45318.53774305555</v>
       </c>
-      <c r="D121">
+      <c r="D121" t="s">
+        <v>338</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="F121">
+        <v>1270.2</v>
+      </c>
+      <c r="G121">
         <v>0</v>
       </c>
-      <c r="E121" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="G121" t="s">
-        <v>373</v>
-      </c>
-      <c r="J121" t="s">
-        <v>477</v>
+      <c r="H121" t="s">
+        <v>401</v>
+      </c>
+      <c r="I121" t="s">
+        <v>403</v>
       </c>
       <c r="K121" t="s">
-        <v>485</v>
+        <v>528</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -4998,20 +5925,26 @@
       <c r="C122" s="3">
         <v>45320.44130787037</v>
       </c>
-      <c r="D122">
-        <v>800.00096</v>
+      <c r="D122" t="s">
+        <v>333</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G122" t="s">
-        <v>367</v>
-      </c>
-      <c r="J122" t="s">
-        <v>472</v>
+        <v>354</v>
+      </c>
+      <c r="F122">
+        <v>181.9</v>
+      </c>
+      <c r="G122">
+        <v>800</v>
+      </c>
+      <c r="H122" t="s">
+        <v>401</v>
+      </c>
+      <c r="I122" t="s">
+        <v>402</v>
       </c>
       <c r="K122" t="s">
-        <v>485</v>
+        <v>522</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -5024,20 +5957,26 @@
       <c r="C123" s="3">
         <v>45320.48193287037</v>
       </c>
-      <c r="D123">
-        <v>499.99944</v>
+      <c r="D123" t="s">
+        <v>339</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G123" t="s">
-        <v>374</v>
-      </c>
-      <c r="J123" t="s">
-        <v>478</v>
+        <v>369</v>
+      </c>
+      <c r="F123">
+        <v>300</v>
+      </c>
+      <c r="G123">
+        <v>500</v>
+      </c>
+      <c r="H123" t="s">
+        <v>401</v>
+      </c>
+      <c r="I123" t="s">
+        <v>402</v>
       </c>
       <c r="K123" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -5050,20 +5989,26 @@
       <c r="C124" s="3">
         <v>45320.48549768519</v>
       </c>
-      <c r="D124">
-        <v>499.99828</v>
+      <c r="D124" t="s">
+        <v>339</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G124" t="s">
-        <v>375</v>
-      </c>
-      <c r="J124" t="s">
-        <v>478</v>
+        <v>369</v>
+      </c>
+      <c r="F124">
+        <v>300</v>
+      </c>
+      <c r="G124">
+        <v>500</v>
+      </c>
+      <c r="H124" t="s">
+        <v>401</v>
+      </c>
+      <c r="I124" t="s">
+        <v>402</v>
       </c>
       <c r="K124" t="s">
-        <v>485</v>
+        <v>530</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -5076,20 +6021,26 @@
       <c r="C125" s="3">
         <v>45320.4875</v>
       </c>
-      <c r="D125">
-        <v>499.99828</v>
+      <c r="D125" t="s">
+        <v>339</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G125" t="s">
-        <v>376</v>
-      </c>
-      <c r="J125" t="s">
-        <v>478</v>
+        <v>369</v>
+      </c>
+      <c r="F125">
+        <v>300</v>
+      </c>
+      <c r="G125">
+        <v>500</v>
+      </c>
+      <c r="H125" t="s">
+        <v>401</v>
+      </c>
+      <c r="I125" t="s">
+        <v>402</v>
       </c>
       <c r="K125" t="s">
-        <v>485</v>
+        <v>531</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -5102,20 +6053,26 @@
       <c r="C126" s="3">
         <v>45320.51798611111</v>
       </c>
-      <c r="D126">
+      <c r="D126" t="s">
+        <v>340</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F126">
         <v>0</v>
       </c>
-      <c r="E126" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="G126" t="s">
-        <v>377</v>
-      </c>
-      <c r="J126" t="s">
-        <v>479</v>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126" t="s">
+        <v>400</v>
+      </c>
+      <c r="I126" t="s">
+        <v>403</v>
       </c>
       <c r="K126" t="s">
-        <v>484</v>
+        <v>532</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -5128,20 +6085,26 @@
       <c r="C127" s="3">
         <v>45320.52901620371</v>
       </c>
-      <c r="D127">
-        <v>250.0032</v>
+      <c r="D127" t="s">
+        <v>341</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G127" t="s">
-        <v>378</v>
-      </c>
-      <c r="J127" t="s">
-        <v>480</v>
+        <v>358</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>250</v>
+      </c>
+      <c r="H127" t="s">
+        <v>401</v>
+      </c>
+      <c r="I127" t="s">
+        <v>402</v>
       </c>
       <c r="K127" t="s">
-        <v>485</v>
+        <v>533</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -5154,17 +6117,23 @@
       <c r="C128" s="3">
         <v>45320.57282407407</v>
       </c>
-      <c r="D128">
+      <c r="D128" t="s">
+        <v>342</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F128">
         <v>0</v>
       </c>
-      <c r="E128" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="G128" t="s">
-        <v>379</v>
-      </c>
-      <c r="J128" t="s">
-        <v>481</v>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="I128" t="s">
+        <v>403</v>
+      </c>
+      <c r="K128" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -5177,20 +6146,26 @@
       <c r="C129" s="3">
         <v>45320.61900462963</v>
       </c>
-      <c r="D129">
-        <v>599.9984000000001</v>
+      <c r="D129" t="s">
+        <v>288</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G129" t="s">
-        <v>380</v>
-      </c>
-      <c r="J129" t="s">
-        <v>427</v>
+        <v>357</v>
+      </c>
+      <c r="F129">
+        <v>250</v>
+      </c>
+      <c r="G129">
+        <v>600</v>
+      </c>
+      <c r="H129" t="s">
+        <v>401</v>
+      </c>
+      <c r="I129" t="s">
+        <v>402</v>
       </c>
       <c r="K129" t="s">
-        <v>485</v>
+        <v>535</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -5203,20 +6178,26 @@
       <c r="C130" s="3">
         <v>45321.38232638889</v>
       </c>
-      <c r="D130">
+      <c r="D130" t="s">
+        <v>343</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F130">
+        <v>1250</v>
+      </c>
+      <c r="G130">
         <v>2500</v>
       </c>
-      <c r="E130" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G130" t="s">
-        <v>381</v>
-      </c>
-      <c r="J130" t="s">
-        <v>482</v>
+      <c r="H130" t="s">
+        <v>401</v>
+      </c>
+      <c r="I130" t="s">
+        <v>402</v>
       </c>
       <c r="K130" t="s">
-        <v>485</v>
+        <v>536</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -5229,17 +6210,23 @@
       <c r="C131" s="3">
         <v>45321.4528587963</v>
       </c>
-      <c r="D131">
-        <v>500.00292</v>
+      <c r="D131" t="s">
+        <v>288</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G131" t="s">
-        <v>382</v>
-      </c>
-      <c r="J131" t="s">
-        <v>427</v>
+        <v>373</v>
+      </c>
+      <c r="F131">
+        <v>60.34</v>
+      </c>
+      <c r="G131">
+        <v>500</v>
+      </c>
+      <c r="I131" t="s">
+        <v>402</v>
+      </c>
+      <c r="K131" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -5252,20 +6239,26 @@
       <c r="C132" s="3">
         <v>45321.49140046296</v>
       </c>
-      <c r="D132">
+      <c r="D132" t="s">
+        <v>288</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F132">
         <v>0</v>
       </c>
-      <c r="E132" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="G132" t="s">
-        <v>383</v>
-      </c>
-      <c r="J132" t="s">
-        <v>427</v>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132" t="s">
+        <v>400</v>
+      </c>
+      <c r="I132" t="s">
+        <v>403</v>
       </c>
       <c r="K132" t="s">
-        <v>484</v>
+        <v>538</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -5278,20 +6271,26 @@
       <c r="C133" s="3">
         <v>45322.39694444444</v>
       </c>
-      <c r="D133">
-        <v>3299.9967999</v>
+      <c r="D133" t="s">
+        <v>344</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G133" t="s">
-        <v>384</v>
-      </c>
-      <c r="J133" t="s">
-        <v>483</v>
+        <v>398</v>
+      </c>
+      <c r="F133">
+        <v>753.45</v>
+      </c>
+      <c r="G133">
+        <v>3300</v>
+      </c>
+      <c r="H133" t="s">
+        <v>401</v>
+      </c>
+      <c r="I133" t="s">
+        <v>402</v>
       </c>
       <c r="K133" t="s">
-        <v>485</v>
+        <v>539</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -5304,17 +6303,23 @@
       <c r="C134" s="3">
         <v>45322.71115740741</v>
       </c>
-      <c r="D134">
-        <v>3199.9992</v>
+      <c r="D134" t="s">
+        <v>288</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G134" t="s">
-        <v>385</v>
-      </c>
-      <c r="J134" t="s">
-        <v>427</v>
+        <v>399</v>
+      </c>
+      <c r="F134">
+        <v>1200</v>
+      </c>
+      <c r="G134">
+        <v>3200</v>
+      </c>
+      <c r="I134" t="s">
+        <v>402</v>
+      </c>
+      <c r="K134" t="s">
+        <v>540</v>
       </c>
     </row>
   </sheetData>

--- a/only_services.xlsx
+++ b/only_services.xlsx
@@ -1,15 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pixel-data-conversion\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0ED25E-11C1-4B1B-BF23-22439DFBBA40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Servicios" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1058,13 +1077,11 @@
   </si>
   <si>
     <t>SSD1TB - 1 - SSD SATA 2.5  1TB - 850.0
-SERV006 - 1 - Bateria OEM para Zbook - 197.41
 SERV006 - 1 - Bat He ZBook 15 G1 AR08 Negra 8C - 359
 ENVIOS - 1 - Envío - 72.5</t>
   </si>
   <si>
-    <t>SERV006 - 1 - Bateria OEM para DELL Precision 4500 49Wh - 197.41
-SERV006 - 1 - EKD6600  Bateria Li-ion 11.1V para Dell Precision M4600, M4700, M6600 - 365.4
+    <t>SERV006 - 1 - EKD6600  Bateria Li-ion 11.1V para Dell Precision M4600, M4700, M6600 - 365.4
 ENVIOS - 1 - Envío - 50.73</t>
   </si>
   <si>
@@ -1083,8 +1100,7 @@
 SERV 010 - 1 - Cargador Lenovo punta cuadrada 65w - 314.66</t>
   </si>
   <si>
-    <t>SERV006 - 1 - Bateria OEM para HP Pavilion 15-cw 11.4v 41Wh - 197.41
-SERV03 - 1 - Mantenimiento general - 250.0
+    <t>SERV03 - 1 - Mantenimiento general - 250.0
 SERV006 - 1 - XEKHHT03XL Bateria Interna (P) 11.4V para HP Pavilion 14-CE 14-CF 14-cm 14-CK 14-DF 14-MA 15-DA 15-CS 15-DB 14Q-CS 15-CW 17-by 17-CA HP 240 245 250 255 G7 340 348 G5 HT03XL - 324.8
 ENVIOS - 1 - Envío - 50.73</t>
   </si>
@@ -1115,8 +1131,7 @@
     <t>SERV006 - 1 - Bateria OEM para HP Pavilion 15-cw1xx 41Wh - 197.41</t>
   </si>
   <si>
-    <t>REF COMODÍN - 1 - Bateria OEM para Toshiba S55t-B 32Wh - 1270.2
-SERV006 - 1 - Bat To Sat L50-B PA5184U-1BRS Negra 4C - 229
+    <t>SERV006 - 1 - Bat To Sat L50-B PA5184U-1BRS Negra 4C - 229
 ENVIOS - 1 - Envío - 72.5</t>
   </si>
   <si>
@@ -1132,8 +1147,7 @@
     <t>SSDM.2NVME1TB - 1 - SSD M.2  NVME 1TB - 1412.93</t>
   </si>
   <si>
-    <t>REF COMODÍN - 1 - Teclado en Español para T430 Sin Retroiluminación - 1270.2
-REF COMODÍN - 1 - TEC387 Teclado color Negro (SP) para IBM Lenovo Thinkpad T530 X230 - 481.4
+    <t>REF COMODÍN - 1 - TEC387 Teclado color Negro (SP) para IBM Lenovo Thinkpad T530 X230 - 481.4
 ENVIOS - 1 - Envío - 7.25</t>
   </si>
   <si>
@@ -1156,15 +1170,13 @@
     <t>CADDYDISCO - 1 - Caddy para disco externo - 60.34</t>
   </si>
   <si>
-    <t>REF COMODÍN - 1 - Cargador Asus 65W - 1270.2
-REF COMODÍN - 1 - Cargador Asus Vivobook X441 X556 19v 3.42a 65w 4.0*1.35mm - 275</t>
+    <t>REF COMODÍN - 1 - Cargador Asus Vivobook X441 X556 19v 3.42a 65w 4.0*1.35mm - 275</t>
   </si>
   <si>
     <t>SERV 007 - 1 - Drenado de energía - 250.0</t>
   </si>
   <si>
-    <t>REF COMODÍN - 1 - Bateria OEM para DELL Inspiron E5570 62wh 7.6v 1 - 1270.2
-REF COMODÍN - 1 - EKD6MT4T Bateria Interna (P) 7.6V para Dell Latitude E5470/ E5570 Precision 3510 HK6DV 079VRK TXF9M 0TXF9M 6MT4T - 446.31
+    <t>REF COMODÍN - 1 - EKD6MT4T Bateria Interna (P) 7.6V para Dell Latitude E5470/ E5570 Precision 3510 HK6DV 079VRK TXF9M 0TXF9M 6MT4T - 446.31
 ENVIOS - 1 - Envío - 68.09</t>
   </si>
   <si>
@@ -1188,8 +1200,7 @@
 SERV03 - 1 - Mantenimiento general - 250.0</t>
   </si>
   <si>
-    <t>REF COMODÍN - 1 - Bateria OEM para DELL Inspiron 15  7000 11.1v 43Wh - 1270.2
-REF COMODÍN - 1 - EKDGK5KY Bateria 11.4V 43Wh para Dell Inspiron 11 3000 series / 13 7000 series / 15 7000 GK5KY - 440.8
+    <t>REF COMODÍN - 1 - EKDGK5KY Bateria 11.4V 43Wh para Dell Inspiron 11 3000 series / 13 7000 series / 15 7000 GK5KY - 440.8
 ENVIOS - 1 - Envío - 68.09</t>
   </si>
   <si>
@@ -1204,12 +1215,7 @@
     <t>Gar002 - 1 - Garantia Centro de Servicio - 0.0</t>
   </si>
   <si>
-    <t>REF COMODÍN - 1 - Teclado par Lenovo T570 en Español No
-retroiluminado - 1270.2
-REF COMODÍN - 1 - Teclado para Lenovo T460 en Español No
-retroiluminado - 1270.2
-REF COMODÍN - 1 - Display 14" LED 1366x768 Bisel Delgado - 1270.2
-REF COMODÍN - 1 - TEC491 Teclado color Negro (SP) para Lenovo E431 T440 L440 E440 T450 T460 - 336.4
+    <t>REF COMODÍN - 1 - TEC491 Teclado color Negro (SP) para Lenovo E431 T440 L440 E440 T450 T460 - 336.4
 REF COMODÍN - 1 - TEC526 Teclado color Negro (SP) para Lenovo E531 E540 L540 L570 T540 T550 W540 W550s Series - 452.4
 REF COMODÍN - 1 - LCD140-015D Pantalla LCD 14.0 LED WXGA (1366X768) Slim Conector Inferior Derecho 30P Glossy 315mm (bezel delgado) - 696
 ENVIOS - 1 - Envío - 20.66</t>
@@ -1219,7 +1225,6 @@
   </si>
   <si>
     <t>SSD256 - 1 - SSD SATA 2.5  256GB - 650.86
-REF COMODÍN - 1 - Bateria OEM para Acer Aspire A523 14.6v 32Wh - 1270.2
 REF COMODÍN - 1 - Bateria para ACER BT12122 - 245</t>
   </si>
   <si>
@@ -1684,11 +1689,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1755,13 +1760,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1799,7 +1812,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1833,6 +1846,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1867,9 +1881,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2042,17 +2057,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K134"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F135" sqref="F135"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="70.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="88.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2087,7 +2105,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2095,7 +2113,7 @@
         <v>144</v>
       </c>
       <c r="C2" s="3">
-        <v>45293.40916666666</v>
+        <v>45293.409166666657</v>
       </c>
       <c r="D2" t="s">
         <v>247</v>
@@ -2119,7 +2137,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2127,7 +2145,7 @@
         <v>145</v>
       </c>
       <c r="C3" s="3">
-        <v>45293.42548611111</v>
+        <v>45293.425486111111</v>
       </c>
       <c r="D3" t="s">
         <v>248</v>
@@ -2151,7 +2169,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -2159,7 +2177,7 @@
         <v>146</v>
       </c>
       <c r="C4" s="3">
-        <v>45293.43032407408</v>
+        <v>45293.430324074077</v>
       </c>
       <c r="D4" t="s">
         <v>249</v>
@@ -2168,7 +2186,7 @@
         <v>347</v>
       </c>
       <c r="F4">
-        <v>1478.91</v>
+        <v>1281.5</v>
       </c>
       <c r="G4">
         <v>3424</v>
@@ -2186,7 +2204,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -2194,7 +2212,7 @@
         <v>147</v>
       </c>
       <c r="C5" s="3">
-        <v>45293.43159722222</v>
+        <v>45293.431597222218</v>
       </c>
       <c r="D5" t="s">
         <v>250</v>
@@ -2203,7 +2221,7 @@
         <v>348</v>
       </c>
       <c r="F5">
-        <v>613.54</v>
+        <v>416.13</v>
       </c>
       <c r="G5">
         <v>1972</v>
@@ -2221,7 +2239,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -2229,7 +2247,7 @@
         <v>148</v>
       </c>
       <c r="C6" s="3">
-        <v>45293.49710648148</v>
+        <v>45293.497106481482</v>
       </c>
       <c r="D6" t="s">
         <v>251</v>
@@ -2253,7 +2271,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -2261,7 +2279,7 @@
         <v>149</v>
       </c>
       <c r="C7" s="3">
-        <v>45293.520625</v>
+        <v>45293.520624999997</v>
       </c>
       <c r="D7" t="s">
         <v>252</v>
@@ -2285,7 +2303,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -2293,7 +2311,7 @@
         <v>150</v>
       </c>
       <c r="C8" s="3">
-        <v>45293.5405787037</v>
+        <v>45293.540578703702</v>
       </c>
       <c r="D8" t="s">
         <v>253</v>
@@ -2317,7 +2335,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -2325,7 +2343,7 @@
         <v>151</v>
       </c>
       <c r="C9" s="3">
-        <v>45293.63739583334</v>
+        <v>45293.637395833342</v>
       </c>
       <c r="D9" t="s">
         <v>254</v>
@@ -2346,7 +2364,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -2354,7 +2372,7 @@
         <v>151</v>
       </c>
       <c r="C10" s="3">
-        <v>45293.64356481482</v>
+        <v>45293.643564814818</v>
       </c>
       <c r="D10" t="s">
         <v>254</v>
@@ -2363,7 +2381,7 @@
         <v>353</v>
       </c>
       <c r="F10">
-        <v>822.9400000000001</v>
+        <v>625.53</v>
       </c>
       <c r="G10">
         <v>2436</v>
@@ -2381,7 +2399,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -2389,7 +2407,7 @@
         <v>152</v>
       </c>
       <c r="C11" s="3">
-        <v>45293.64849537037</v>
+        <v>45293.648495370369</v>
       </c>
       <c r="D11" t="s">
         <v>255</v>
@@ -2413,7 +2431,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -2421,7 +2439,7 @@
         <v>153</v>
       </c>
       <c r="C12" s="3">
-        <v>45293.69689814815</v>
+        <v>45293.696898148148</v>
       </c>
       <c r="D12" t="s">
         <v>256</v>
@@ -2442,7 +2460,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -2450,7 +2468,7 @@
         <v>154</v>
       </c>
       <c r="C13" s="3">
-        <v>45293.72875</v>
+        <v>45293.728750000002</v>
       </c>
       <c r="D13" t="s">
         <v>257</v>
@@ -2474,7 +2492,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -2482,7 +2500,7 @@
         <v>155</v>
       </c>
       <c r="C14" s="3">
-        <v>45293.73319444444</v>
+        <v>45293.733194444438</v>
       </c>
       <c r="D14" t="s">
         <v>258</v>
@@ -2503,7 +2521,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -2511,7 +2529,7 @@
         <v>156</v>
       </c>
       <c r="C15" s="3">
-        <v>45293.73402777778</v>
+        <v>45293.734027777777</v>
       </c>
       <c r="D15" t="s">
         <v>259</v>
@@ -2535,7 +2553,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -2567,7 +2585,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -2575,7 +2593,7 @@
         <v>158</v>
       </c>
       <c r="C17" s="3">
-        <v>45294.52268518518</v>
+        <v>45294.522685185177</v>
       </c>
       <c r="D17" t="s">
         <v>261</v>
@@ -2599,7 +2617,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -2607,7 +2625,7 @@
         <v>159</v>
       </c>
       <c r="C18" s="3">
-        <v>45294.69050925926</v>
+        <v>45294.690509259257</v>
       </c>
       <c r="D18" t="s">
         <v>262</v>
@@ -2631,7 +2649,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -2639,7 +2657,7 @@
         <v>160</v>
       </c>
       <c r="C19" s="3">
-        <v>45295.41672453703</v>
+        <v>45295.416724537034</v>
       </c>
       <c r="D19" t="s">
         <v>263</v>
@@ -2663,7 +2681,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -2671,7 +2689,7 @@
         <v>161</v>
       </c>
       <c r="C20" s="3">
-        <v>45295.50078703704</v>
+        <v>45295.500787037039</v>
       </c>
       <c r="D20" t="s">
         <v>264</v>
@@ -2695,7 +2713,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -2703,7 +2721,7 @@
         <v>162</v>
       </c>
       <c r="C21" s="3">
-        <v>45295.5046412037</v>
+        <v>45295.504641203697</v>
       </c>
       <c r="D21" t="s">
         <v>265</v>
@@ -2727,7 +2745,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -2735,7 +2753,7 @@
         <v>163</v>
       </c>
       <c r="C22" s="3">
-        <v>45295.56520833333</v>
+        <v>45295.565208333333</v>
       </c>
       <c r="D22" t="s">
         <v>266</v>
@@ -2759,7 +2777,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -2767,7 +2785,7 @@
         <v>164</v>
       </c>
       <c r="C23" s="3">
-        <v>45295.59929398148</v>
+        <v>45295.599293981482</v>
       </c>
       <c r="D23" t="s">
         <v>267</v>
@@ -2788,7 +2806,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -2796,7 +2814,7 @@
         <v>165</v>
       </c>
       <c r="C24" s="3">
-        <v>45295.60870370371</v>
+        <v>45295.608703703707</v>
       </c>
       <c r="D24" t="s">
         <v>268</v>
@@ -2820,7 +2838,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -2828,7 +2846,7 @@
         <v>166</v>
       </c>
       <c r="C25" s="3">
-        <v>45295.71038194445</v>
+        <v>45295.710381944453</v>
       </c>
       <c r="D25" t="s">
         <v>269</v>
@@ -2852,7 +2870,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -2860,7 +2878,7 @@
         <v>166</v>
       </c>
       <c r="C26" s="3">
-        <v>45295.71620370371</v>
+        <v>45295.716203703712</v>
       </c>
       <c r="D26" t="s">
         <v>269</v>
@@ -2884,7 +2902,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -2892,7 +2910,7 @@
         <v>167</v>
       </c>
       <c r="C27" s="3">
-        <v>45295.75900462963</v>
+        <v>45295.759004629632</v>
       </c>
       <c r="D27" t="s">
         <v>270</v>
@@ -2916,7 +2934,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -2924,7 +2942,7 @@
         <v>168</v>
       </c>
       <c r="C28" s="3">
-        <v>45296.48380787037</v>
+        <v>45296.483807870369</v>
       </c>
       <c r="D28" t="s">
         <v>271</v>
@@ -2933,7 +2951,7 @@
         <v>362</v>
       </c>
       <c r="F28">
-        <v>1571.7</v>
+        <v>301.5</v>
       </c>
       <c r="G28">
         <v>1624</v>
@@ -2951,7 +2969,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -2959,7 +2977,7 @@
         <v>169</v>
       </c>
       <c r="C29" s="3">
-        <v>45296.70635416666</v>
+        <v>45296.706354166658</v>
       </c>
       <c r="D29" t="s">
         <v>272</v>
@@ -2983,7 +3001,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -3015,7 +3033,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -3023,7 +3041,7 @@
         <v>169</v>
       </c>
       <c r="C31" s="3">
-        <v>45296.71063657408</v>
+        <v>45296.710636574076</v>
       </c>
       <c r="D31" t="s">
         <v>272</v>
@@ -3047,7 +3065,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -3055,7 +3073,7 @@
         <v>169</v>
       </c>
       <c r="C32" s="3">
-        <v>45296.71376157407</v>
+        <v>45296.713761574072</v>
       </c>
       <c r="D32" t="s">
         <v>272</v>
@@ -3079,7 +3097,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -3111,7 +3129,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -3119,7 +3137,7 @@
         <v>170</v>
       </c>
       <c r="C34" s="3">
-        <v>45296.7368287037</v>
+        <v>45296.736828703702</v>
       </c>
       <c r="D34" t="s">
         <v>273</v>
@@ -3143,7 +3161,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -3175,7 +3193,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -3183,7 +3201,7 @@
         <v>172</v>
       </c>
       <c r="C36" s="3">
-        <v>45297.44438657408</v>
+        <v>45297.444386574083</v>
       </c>
       <c r="D36" t="s">
         <v>275</v>
@@ -3207,7 +3225,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -3215,7 +3233,7 @@
         <v>173</v>
       </c>
       <c r="C37" s="3">
-        <v>45299.65844907407</v>
+        <v>45299.658449074072</v>
       </c>
       <c r="D37" t="s">
         <v>276</v>
@@ -3239,7 +3257,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -3271,7 +3289,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -3279,7 +3297,7 @@
         <v>175</v>
       </c>
       <c r="C39" s="3">
-        <v>45299.7290162037</v>
+        <v>45299.729016203702</v>
       </c>
       <c r="D39" t="s">
         <v>278</v>
@@ -3303,7 +3321,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -3311,7 +3329,7 @@
         <v>176</v>
       </c>
       <c r="C40" s="3">
-        <v>45299.76886574074</v>
+        <v>45299.768865740742</v>
       </c>
       <c r="D40" t="s">
         <v>279</v>
@@ -3335,7 +3353,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -3352,7 +3370,7 @@
         <v>367</v>
       </c>
       <c r="F41">
-        <v>1758.85</v>
+        <v>488.65</v>
       </c>
       <c r="G41">
         <v>1400</v>
@@ -3370,7 +3388,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -3378,7 +3396,7 @@
         <v>178</v>
       </c>
       <c r="C42" s="3">
-        <v>45300.6213425926</v>
+        <v>45300.621342592603</v>
       </c>
       <c r="D42" t="s">
         <v>281</v>
@@ -3402,7 +3420,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -3410,7 +3428,7 @@
         <v>179</v>
       </c>
       <c r="C43" s="3">
-        <v>45300.63311342592</v>
+        <v>45300.633113425924</v>
       </c>
       <c r="D43" t="s">
         <v>282</v>
@@ -3419,7 +3437,7 @@
         <v>368</v>
       </c>
       <c r="F43">
-        <v>512.0700000000001</v>
+        <v>512.07000000000005</v>
       </c>
       <c r="G43">
         <v>2900</v>
@@ -3434,7 +3452,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -3442,7 +3460,7 @@
         <v>180</v>
       </c>
       <c r="C44" s="3">
-        <v>45300.675</v>
+        <v>45300.675000000003</v>
       </c>
       <c r="D44" t="s">
         <v>283</v>
@@ -3466,7 +3484,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -3474,7 +3492,7 @@
         <v>164</v>
       </c>
       <c r="C45" s="3">
-        <v>45300.69486111111</v>
+        <v>45300.694861111107</v>
       </c>
       <c r="D45" t="s">
         <v>267</v>
@@ -3498,7 +3516,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -3506,7 +3524,7 @@
         <v>181</v>
       </c>
       <c r="C46" s="3">
-        <v>45300.73149305556</v>
+        <v>45300.731493055559</v>
       </c>
       <c r="D46" t="s">
         <v>284</v>
@@ -3530,7 +3548,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -3538,7 +3556,7 @@
         <v>182</v>
       </c>
       <c r="C47" s="3">
-        <v>45301.38350694445</v>
+        <v>45301.383506944447</v>
       </c>
       <c r="D47" t="s">
         <v>285</v>
@@ -3565,7 +3583,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>57</v>
       </c>
@@ -3573,7 +3591,7 @@
         <v>183</v>
       </c>
       <c r="C48" s="3">
-        <v>45301.45447916666</v>
+        <v>45301.454479166663</v>
       </c>
       <c r="D48" t="s">
         <v>286</v>
@@ -3597,7 +3615,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>58</v>
       </c>
@@ -3605,7 +3623,7 @@
         <v>184</v>
       </c>
       <c r="C49" s="3">
-        <v>45301.56194444445</v>
+        <v>45301.561944444453</v>
       </c>
       <c r="D49" t="s">
         <v>287</v>
@@ -3629,7 +3647,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>59</v>
       </c>
@@ -3637,7 +3655,7 @@
         <v>185</v>
       </c>
       <c r="C50" s="3">
-        <v>45301.5903125</v>
+        <v>45301.590312499997</v>
       </c>
       <c r="D50" t="s">
         <v>288</v>
@@ -3661,7 +3679,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>60</v>
       </c>
@@ -3669,7 +3687,7 @@
         <v>186</v>
       </c>
       <c r="C51" s="3">
-        <v>45301.64981481482</v>
+        <v>45301.649814814817</v>
       </c>
       <c r="D51" t="s">
         <v>289</v>
@@ -3693,7 +3711,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>61</v>
       </c>
@@ -3701,7 +3719,7 @@
         <v>187</v>
       </c>
       <c r="C52" s="3">
-        <v>45301.70329861111</v>
+        <v>45301.703298611108</v>
       </c>
       <c r="D52" t="s">
         <v>290</v>
@@ -3725,7 +3743,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>62</v>
       </c>
@@ -3733,7 +3751,7 @@
         <v>188</v>
       </c>
       <c r="C53" s="3">
-        <v>45301.72096064815</v>
+        <v>45301.720960648148</v>
       </c>
       <c r="D53" t="s">
         <v>291</v>
@@ -3757,7 +3775,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>63</v>
       </c>
@@ -3765,7 +3783,7 @@
         <v>174</v>
       </c>
       <c r="C54" s="3">
-        <v>45301.76365740741</v>
+        <v>45301.763657407413</v>
       </c>
       <c r="D54" t="s">
         <v>292</v>
@@ -3774,7 +3792,7 @@
         <v>371</v>
       </c>
       <c r="F54">
-        <v>314.66</v>
+        <v>314.66000000000003</v>
       </c>
       <c r="G54">
         <v>1150</v>
@@ -3786,7 +3804,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>64</v>
       </c>
@@ -3794,7 +3812,7 @@
         <v>189</v>
       </c>
       <c r="C55" s="3">
-        <v>45302.43177083333</v>
+        <v>45302.431770833333</v>
       </c>
       <c r="D55" t="s">
         <v>293</v>
@@ -3815,7 +3833,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>65</v>
       </c>
@@ -3823,7 +3841,7 @@
         <v>190</v>
       </c>
       <c r="C56" s="3">
-        <v>45302.57895833333</v>
+        <v>45302.578958333332</v>
       </c>
       <c r="D56" t="s">
         <v>294</v>
@@ -3847,7 +3865,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>66</v>
       </c>
@@ -3855,7 +3873,7 @@
         <v>191</v>
       </c>
       <c r="C57" s="3">
-        <v>45302.66740740741</v>
+        <v>45302.667407407411</v>
       </c>
       <c r="D57" t="s">
         <v>295</v>
@@ -3876,7 +3894,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>67</v>
       </c>
@@ -3884,7 +3902,7 @@
         <v>192</v>
       </c>
       <c r="C58" s="3">
-        <v>45303.54585648148</v>
+        <v>45303.545856481483</v>
       </c>
       <c r="D58" t="s">
         <v>296</v>
@@ -3908,7 +3926,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>68</v>
       </c>
@@ -3916,7 +3934,7 @@
         <v>193</v>
       </c>
       <c r="C59" s="3">
-        <v>45303.74936342592</v>
+        <v>45303.749363425923</v>
       </c>
       <c r="D59" t="s">
         <v>297</v>
@@ -3940,7 +3958,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>69</v>
       </c>
@@ -3948,7 +3966,7 @@
         <v>194</v>
       </c>
       <c r="C60" s="3">
-        <v>45304.43210648148</v>
+        <v>45304.432106481479</v>
       </c>
       <c r="D60" t="s">
         <v>298</v>
@@ -3957,7 +3975,7 @@
         <v>374</v>
       </c>
       <c r="F60">
-        <v>1545.2</v>
+        <v>275</v>
       </c>
       <c r="G60">
         <v>650</v>
@@ -3972,7 +3990,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>70</v>
       </c>
@@ -3980,7 +3998,7 @@
         <v>195</v>
       </c>
       <c r="C61" s="3">
-        <v>45304.52567129629</v>
+        <v>45304.525671296287</v>
       </c>
       <c r="D61" t="s">
         <v>299</v>
@@ -4004,7 +4022,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>71</v>
       </c>
@@ -4012,7 +4030,7 @@
         <v>196</v>
       </c>
       <c r="C62" s="3">
-        <v>45306.48765046296</v>
+        <v>45306.487650462957</v>
       </c>
       <c r="D62" t="s">
         <v>300</v>
@@ -4036,7 +4054,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>72</v>
       </c>
@@ -4044,7 +4062,7 @@
         <v>197</v>
       </c>
       <c r="C63" s="3">
-        <v>45306.49606481481</v>
+        <v>45306.496064814812</v>
       </c>
       <c r="D63" t="s">
         <v>288</v>
@@ -4053,7 +4071,7 @@
         <v>376</v>
       </c>
       <c r="F63">
-        <v>1784.6</v>
+        <v>514.4</v>
       </c>
       <c r="G63">
         <v>1600</v>
@@ -4071,7 +4089,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>73</v>
       </c>
@@ -4079,7 +4097,7 @@
         <v>198</v>
       </c>
       <c r="C64" s="3">
-        <v>45306.51649305555</v>
+        <v>45306.516493055547</v>
       </c>
       <c r="D64" t="s">
         <v>301</v>
@@ -4103,7 +4121,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>74</v>
       </c>
@@ -4111,7 +4129,7 @@
         <v>198</v>
       </c>
       <c r="C65" s="3">
-        <v>45306.52288194445</v>
+        <v>45306.522881944453</v>
       </c>
       <c r="D65" t="s">
         <v>301</v>
@@ -4135,7 +4153,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>75</v>
       </c>
@@ -4143,7 +4161,7 @@
         <v>198</v>
       </c>
       <c r="C66" s="3">
-        <v>45306.5281712963</v>
+        <v>45306.528171296297</v>
       </c>
       <c r="D66" t="s">
         <v>301</v>
@@ -4167,7 +4185,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>76</v>
       </c>
@@ -4175,7 +4193,7 @@
         <v>199</v>
       </c>
       <c r="C67" s="3">
-        <v>45306.5890625</v>
+        <v>45306.589062500003</v>
       </c>
       <c r="D67" t="s">
         <v>302</v>
@@ -4199,7 +4217,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>77</v>
       </c>
@@ -4207,7 +4225,7 @@
         <v>200</v>
       </c>
       <c r="C68" s="3">
-        <v>45306.69413194444</v>
+        <v>45306.694131944438</v>
       </c>
       <c r="D68" t="s">
         <v>303</v>
@@ -4231,7 +4249,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>78</v>
       </c>
@@ -4239,7 +4257,7 @@
         <v>172</v>
       </c>
       <c r="C69" s="3">
-        <v>45307.50402777778</v>
+        <v>45307.504027777781</v>
       </c>
       <c r="D69" t="s">
         <v>275</v>
@@ -4263,7 +4281,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>79</v>
       </c>
@@ -4271,7 +4289,7 @@
         <v>201</v>
       </c>
       <c r="C70" s="3">
-        <v>45307.50483796297</v>
+        <v>45307.504837962973</v>
       </c>
       <c r="D70" t="s">
         <v>304</v>
@@ -4295,7 +4313,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>80</v>
       </c>
@@ -4303,7 +4321,7 @@
         <v>202</v>
       </c>
       <c r="C71" s="3">
-        <v>45307.5415162037</v>
+        <v>45307.541516203702</v>
       </c>
       <c r="D71" t="s">
         <v>305</v>
@@ -4327,7 +4345,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>81</v>
       </c>
@@ -4335,7 +4353,7 @@
         <v>203</v>
       </c>
       <c r="C72" s="3">
-        <v>45307.54159722223</v>
+        <v>45307.541597222233</v>
       </c>
       <c r="D72" t="s">
         <v>288</v>
@@ -4356,7 +4374,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>82</v>
       </c>
@@ -4364,7 +4382,7 @@
         <v>169</v>
       </c>
       <c r="C73" s="3">
-        <v>45307.69207175926</v>
+        <v>45307.692071759258</v>
       </c>
       <c r="D73" t="s">
         <v>272</v>
@@ -4388,7 +4406,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>83</v>
       </c>
@@ -4396,7 +4414,7 @@
         <v>169</v>
       </c>
       <c r="C74" s="3">
-        <v>45307.69337962963</v>
+        <v>45307.693379629629</v>
       </c>
       <c r="D74" t="s">
         <v>272</v>
@@ -4420,7 +4438,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>84</v>
       </c>
@@ -4428,7 +4446,7 @@
         <v>204</v>
       </c>
       <c r="C75" s="3">
-        <v>45307.72324074074</v>
+        <v>45307.723240740743</v>
       </c>
       <c r="D75" t="s">
         <v>306</v>
@@ -4452,7 +4470,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>85</v>
       </c>
@@ -4460,7 +4478,7 @@
         <v>183</v>
       </c>
       <c r="C76" s="3">
-        <v>45307.74225694445</v>
+        <v>45307.742256944453</v>
       </c>
       <c r="D76" t="s">
         <v>286</v>
@@ -4484,7 +4502,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>86</v>
       </c>
@@ -4492,7 +4510,7 @@
         <v>205</v>
       </c>
       <c r="C77" s="3">
-        <v>45308.72087962963</v>
+        <v>45308.720879629633</v>
       </c>
       <c r="D77" t="s">
         <v>307</v>
@@ -4513,7 +4531,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>87</v>
       </c>
@@ -4521,7 +4539,7 @@
         <v>206</v>
       </c>
       <c r="C78" s="3">
-        <v>45308.72868055556</v>
+        <v>45308.728680555563</v>
       </c>
       <c r="D78" t="s">
         <v>308</v>
@@ -4545,7 +4563,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>88</v>
       </c>
@@ -4553,7 +4571,7 @@
         <v>206</v>
       </c>
       <c r="C79" s="3">
-        <v>45308.73480324074</v>
+        <v>45308.734803240739</v>
       </c>
       <c r="D79" t="s">
         <v>308</v>
@@ -4577,7 +4595,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>89</v>
       </c>
@@ -4585,7 +4603,7 @@
         <v>174</v>
       </c>
       <c r="C80" s="3">
-        <v>45308.74643518519</v>
+        <v>45308.746435185189</v>
       </c>
       <c r="D80" t="s">
         <v>309</v>
@@ -4609,7 +4627,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>90</v>
       </c>
@@ -4617,7 +4635,7 @@
         <v>207</v>
       </c>
       <c r="C81" s="3">
-        <v>45309.39240740741</v>
+        <v>45309.392407407409</v>
       </c>
       <c r="D81" t="s">
         <v>310</v>
@@ -4641,7 +4659,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>91</v>
       </c>
@@ -4649,7 +4667,7 @@
         <v>208</v>
       </c>
       <c r="C82" s="3">
-        <v>45309.53040509259</v>
+        <v>45309.530405092592</v>
       </c>
       <c r="D82" t="s">
         <v>311</v>
@@ -4658,7 +4676,7 @@
         <v>383</v>
       </c>
       <c r="F82">
-        <v>1779.09</v>
+        <v>508.89</v>
       </c>
       <c r="G82">
         <v>1600</v>
@@ -4676,7 +4694,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>92</v>
       </c>
@@ -4708,7 +4726,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>93</v>
       </c>
@@ -4716,7 +4734,7 @@
         <v>210</v>
       </c>
       <c r="C84" s="3">
-        <v>45309.72028935186</v>
+        <v>45309.720289351862</v>
       </c>
       <c r="D84" t="s">
         <v>313</v>
@@ -4740,7 +4758,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>94</v>
       </c>
@@ -4748,7 +4766,7 @@
         <v>211</v>
       </c>
       <c r="C85" s="3">
-        <v>45310.48010416667</v>
+        <v>45310.480104166672</v>
       </c>
       <c r="D85" t="s">
         <v>314</v>
@@ -4772,7 +4790,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>95</v>
       </c>
@@ -4780,7 +4798,7 @@
         <v>212</v>
       </c>
       <c r="C86" s="3">
-        <v>45310.60517361111</v>
+        <v>45310.605173611111</v>
       </c>
       <c r="D86" t="s">
         <v>315</v>
@@ -4804,7 +4822,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>96</v>
       </c>
@@ -4812,7 +4830,7 @@
         <v>213</v>
       </c>
       <c r="C87" s="3">
-        <v>45310.74252314815</v>
+        <v>45310.742523148147</v>
       </c>
       <c r="D87" t="s">
         <v>316</v>
@@ -4836,7 +4854,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>97</v>
       </c>
@@ -4844,7 +4862,7 @@
         <v>162</v>
       </c>
       <c r="C88" s="3">
-        <v>45311.50221064815</v>
+        <v>45311.502210648148</v>
       </c>
       <c r="D88" t="s">
         <v>265</v>
@@ -4868,7 +4886,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>98</v>
       </c>
@@ -4876,7 +4894,7 @@
         <v>214</v>
       </c>
       <c r="C89" s="3">
-        <v>45313.39831018518</v>
+        <v>45313.398310185177</v>
       </c>
       <c r="D89" t="s">
         <v>317</v>
@@ -4900,7 +4918,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>99</v>
       </c>
@@ -4908,7 +4926,7 @@
         <v>215</v>
       </c>
       <c r="C90" s="3">
-        <v>45313.46736111111</v>
+        <v>45313.467361111107</v>
       </c>
       <c r="D90" t="s">
         <v>318</v>
@@ -4932,7 +4950,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>100</v>
       </c>
@@ -4940,7 +4958,7 @@
         <v>215</v>
       </c>
       <c r="C91" s="3">
-        <v>45313.47009259259</v>
+        <v>45313.470092592594</v>
       </c>
       <c r="D91" t="s">
         <v>318</v>
@@ -4964,7 +4982,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>101</v>
       </c>
@@ -4972,7 +4990,7 @@
         <v>216</v>
       </c>
       <c r="C92" s="3">
-        <v>45313.50326388889</v>
+        <v>45313.503263888888</v>
       </c>
       <c r="D92" t="s">
         <v>288</v>
@@ -4981,7 +4999,7 @@
         <v>387</v>
       </c>
       <c r="F92">
-        <v>5316.06</v>
+        <v>1505.46</v>
       </c>
       <c r="G92">
         <v>4200</v>
@@ -4996,7 +5014,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>102</v>
       </c>
@@ -5004,7 +5022,7 @@
         <v>174</v>
       </c>
       <c r="C93" s="3">
-        <v>45313.54563657408</v>
+        <v>45313.545636574083</v>
       </c>
       <c r="D93" t="s">
         <v>288</v>
@@ -5028,7 +5046,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>103</v>
       </c>
@@ -5036,7 +5054,7 @@
         <v>185</v>
       </c>
       <c r="C94" s="3">
-        <v>45313.69777777778</v>
+        <v>45313.697777777779</v>
       </c>
       <c r="D94" t="s">
         <v>288</v>
@@ -5060,7 +5078,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>104</v>
       </c>
@@ -5068,7 +5086,7 @@
         <v>217</v>
       </c>
       <c r="C95" s="3">
-        <v>45314.38986111111</v>
+        <v>45314.389861111107</v>
       </c>
       <c r="D95" t="s">
         <v>319</v>
@@ -5077,7 +5095,7 @@
         <v>389</v>
       </c>
       <c r="F95">
-        <v>2166.06</v>
+        <v>895.86</v>
       </c>
       <c r="G95">
         <v>3500</v>
@@ -5095,7 +5113,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>105</v>
       </c>
@@ -5103,7 +5121,7 @@
         <v>218</v>
       </c>
       <c r="C96" s="3">
-        <v>45314.4425462963</v>
+        <v>45314.442546296297</v>
       </c>
       <c r="D96" t="s">
         <v>320</v>
@@ -5127,7 +5145,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>106</v>
       </c>
@@ -5135,7 +5153,7 @@
         <v>219</v>
       </c>
       <c r="C97" s="3">
-        <v>45314.49410879629</v>
+        <v>45314.494108796287</v>
       </c>
       <c r="D97" t="s">
         <v>321</v>
@@ -5159,7 +5177,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>107</v>
       </c>
@@ -5167,7 +5185,7 @@
         <v>220</v>
       </c>
       <c r="C98" s="3">
-        <v>45314.51045138889</v>
+        <v>45314.510451388887</v>
       </c>
       <c r="D98" t="s">
         <v>322</v>
@@ -5191,7 +5209,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>108</v>
       </c>
@@ -5223,7 +5241,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>109</v>
       </c>
@@ -5231,7 +5249,7 @@
         <v>174</v>
       </c>
       <c r="C100" s="3">
-        <v>45314.5341550926</v>
+        <v>45314.534155092602</v>
       </c>
       <c r="D100" t="s">
         <v>292</v>
@@ -5252,7 +5270,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>110</v>
       </c>
@@ -5260,7 +5278,7 @@
         <v>222</v>
       </c>
       <c r="C101" s="3">
-        <v>45314.54357638889</v>
+        <v>45314.543576388889</v>
       </c>
       <c r="D101" t="s">
         <v>324</v>
@@ -5284,7 +5302,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>111</v>
       </c>
@@ -5292,7 +5310,7 @@
         <v>223</v>
       </c>
       <c r="C102" s="3">
-        <v>45314.54976851852</v>
+        <v>45314.549768518518</v>
       </c>
       <c r="D102" t="s">
         <v>325</v>
@@ -5316,7 +5334,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>112</v>
       </c>
@@ -5324,7 +5342,7 @@
         <v>224</v>
       </c>
       <c r="C103" s="3">
-        <v>45314.55601851852</v>
+        <v>45314.556018518517</v>
       </c>
       <c r="D103" t="s">
         <v>326</v>
@@ -5348,7 +5366,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>113</v>
       </c>
@@ -5356,7 +5374,7 @@
         <v>224</v>
       </c>
       <c r="C104" s="3">
-        <v>45314.56140046296</v>
+        <v>45314.561400462961</v>
       </c>
       <c r="D104" t="s">
         <v>326</v>
@@ -5380,7 +5398,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>114</v>
       </c>
@@ -5388,7 +5406,7 @@
         <v>225</v>
       </c>
       <c r="C105" s="3">
-        <v>45314.58067129629</v>
+        <v>45314.580671296288</v>
       </c>
       <c r="D105" t="s">
         <v>327</v>
@@ -5412,7 +5430,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>115</v>
       </c>
@@ -5420,7 +5438,7 @@
         <v>226</v>
       </c>
       <c r="C106" s="3">
-        <v>45314.67109953704</v>
+        <v>45314.671099537038</v>
       </c>
       <c r="D106" t="s">
         <v>328</v>
@@ -5444,7 +5462,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>116</v>
       </c>
@@ -5452,7 +5470,7 @@
         <v>169</v>
       </c>
       <c r="C107" s="3">
-        <v>45314.69586805555</v>
+        <v>45314.695868055547</v>
       </c>
       <c r="D107" t="s">
         <v>272</v>
@@ -5473,7 +5491,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>117</v>
       </c>
@@ -5481,7 +5499,7 @@
         <v>227</v>
       </c>
       <c r="C108" s="3">
-        <v>45315.49449074074</v>
+        <v>45315.494490740741</v>
       </c>
       <c r="D108" t="s">
         <v>329</v>
@@ -5505,7 +5523,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>118</v>
       </c>
@@ -5513,7 +5531,7 @@
         <v>228</v>
       </c>
       <c r="C109" s="3">
-        <v>45315.54480324074</v>
+        <v>45315.544803240737</v>
       </c>
       <c r="D109" t="s">
         <v>330</v>
@@ -5537,7 +5555,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>119</v>
       </c>
@@ -5545,7 +5563,7 @@
         <v>191</v>
       </c>
       <c r="C110" s="3">
-        <v>45315.62829861111</v>
+        <v>45315.628298611111</v>
       </c>
       <c r="D110" t="s">
         <v>295</v>
@@ -5566,7 +5584,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>120</v>
       </c>
@@ -5574,7 +5592,7 @@
         <v>229</v>
       </c>
       <c r="C111" s="3">
-        <v>45315.7253125</v>
+        <v>45315.725312499999</v>
       </c>
       <c r="D111" t="s">
         <v>331</v>
@@ -5598,7 +5616,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>121</v>
       </c>
@@ -5606,7 +5624,7 @@
         <v>194</v>
       </c>
       <c r="C112" s="3">
-        <v>45316.40819444445</v>
+        <v>45316.408194444448</v>
       </c>
       <c r="D112" t="s">
         <v>298</v>
@@ -5630,7 +5648,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>122</v>
       </c>
@@ -5638,7 +5656,7 @@
         <v>230</v>
       </c>
       <c r="C113" s="3">
-        <v>45316.55929398148</v>
+        <v>45316.559293981481</v>
       </c>
       <c r="D113" t="s">
         <v>332</v>
@@ -5662,7 +5680,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>123</v>
       </c>
@@ -5670,7 +5688,7 @@
         <v>231</v>
       </c>
       <c r="C114" s="3">
-        <v>45317.42777777778</v>
+        <v>45317.427777777782</v>
       </c>
       <c r="D114" t="s">
         <v>333</v>
@@ -5694,7 +5712,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>124</v>
       </c>
@@ -5702,7 +5720,7 @@
         <v>231</v>
       </c>
       <c r="C115" s="3">
-        <v>45317.43003472222</v>
+        <v>45317.430034722223</v>
       </c>
       <c r="D115" t="s">
         <v>333</v>
@@ -5726,7 +5744,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>125</v>
       </c>
@@ -5734,7 +5752,7 @@
         <v>232</v>
       </c>
       <c r="C116" s="3">
-        <v>45317.59055555556</v>
+        <v>45317.590555555558</v>
       </c>
       <c r="D116" t="s">
         <v>334</v>
@@ -5758,7 +5776,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>126</v>
       </c>
@@ -5766,7 +5784,7 @@
         <v>233</v>
       </c>
       <c r="C117" s="3">
-        <v>45317.75788194445</v>
+        <v>45317.757881944453</v>
       </c>
       <c r="D117" t="s">
         <v>335</v>
@@ -5790,7 +5808,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>127</v>
       </c>
@@ -5798,7 +5816,7 @@
         <v>234</v>
       </c>
       <c r="C118" s="3">
-        <v>45318.4338425926</v>
+        <v>45318.433842592603</v>
       </c>
       <c r="D118" t="s">
         <v>336</v>
@@ -5822,7 +5840,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>128</v>
       </c>
@@ -5830,7 +5848,7 @@
         <v>234</v>
       </c>
       <c r="C119" s="3">
-        <v>45318.43528935185</v>
+        <v>45318.435289351852</v>
       </c>
       <c r="D119" t="s">
         <v>336</v>
@@ -5854,7 +5872,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>129</v>
       </c>
@@ -5862,7 +5880,7 @@
         <v>235</v>
       </c>
       <c r="C120" s="3">
-        <v>45318.52028935185</v>
+        <v>45318.520289351851</v>
       </c>
       <c r="D120" t="s">
         <v>337</v>
@@ -5883,7 +5901,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>130</v>
       </c>
@@ -5891,7 +5909,7 @@
         <v>236</v>
       </c>
       <c r="C121" s="3">
-        <v>45318.53774305555</v>
+        <v>45318.537743055553</v>
       </c>
       <c r="D121" t="s">
         <v>338</v>
@@ -5915,7 +5933,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>131</v>
       </c>
@@ -5923,7 +5941,7 @@
         <v>231</v>
       </c>
       <c r="C122" s="3">
-        <v>45320.44130787037</v>
+        <v>45320.441307870373</v>
       </c>
       <c r="D122" t="s">
         <v>333</v>
@@ -5947,7 +5965,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>132</v>
       </c>
@@ -5955,7 +5973,7 @@
         <v>237</v>
       </c>
       <c r="C123" s="3">
-        <v>45320.48193287037</v>
+        <v>45320.481932870367</v>
       </c>
       <c r="D123" t="s">
         <v>339</v>
@@ -5979,7 +5997,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>133</v>
       </c>
@@ -5987,7 +6005,7 @@
         <v>237</v>
       </c>
       <c r="C124" s="3">
-        <v>45320.48549768519</v>
+        <v>45320.485497685193</v>
       </c>
       <c r="D124" t="s">
         <v>339</v>
@@ -6011,7 +6029,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>134</v>
       </c>
@@ -6019,7 +6037,7 @@
         <v>237</v>
       </c>
       <c r="C125" s="3">
-        <v>45320.4875</v>
+        <v>45320.487500000003</v>
       </c>
       <c r="D125" t="s">
         <v>339</v>
@@ -6043,7 +6061,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>135</v>
       </c>
@@ -6075,7 +6093,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>136</v>
       </c>
@@ -6083,7 +6101,7 @@
         <v>239</v>
       </c>
       <c r="C127" s="3">
-        <v>45320.52901620371</v>
+        <v>45320.529016203713</v>
       </c>
       <c r="D127" t="s">
         <v>341</v>
@@ -6107,7 +6125,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>137</v>
       </c>
@@ -6115,7 +6133,7 @@
         <v>240</v>
       </c>
       <c r="C128" s="3">
-        <v>45320.57282407407</v>
+        <v>45320.572824074072</v>
       </c>
       <c r="D128" t="s">
         <v>342</v>
@@ -6136,7 +6154,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>138</v>
       </c>
@@ -6144,7 +6162,7 @@
         <v>241</v>
       </c>
       <c r="C129" s="3">
-        <v>45320.61900462963</v>
+        <v>45320.619004629632</v>
       </c>
       <c r="D129" t="s">
         <v>288</v>
@@ -6168,7 +6186,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>139</v>
       </c>
@@ -6176,7 +6194,7 @@
         <v>242</v>
       </c>
       <c r="C130" s="3">
-        <v>45321.38232638889</v>
+        <v>45321.382326388892</v>
       </c>
       <c r="D130" t="s">
         <v>343</v>
@@ -6200,7 +6218,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>140</v>
       </c>
@@ -6229,7 +6247,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>141</v>
       </c>
@@ -6237,7 +6255,7 @@
         <v>244</v>
       </c>
       <c r="C132" s="3">
-        <v>45321.49140046296</v>
+        <v>45321.491400462961</v>
       </c>
       <c r="D132" t="s">
         <v>288</v>
@@ -6261,7 +6279,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>142</v>
       </c>
@@ -6269,7 +6287,7 @@
         <v>245</v>
       </c>
       <c r="C133" s="3">
-        <v>45322.39694444444</v>
+        <v>45322.396944444437</v>
       </c>
       <c r="D133" t="s">
         <v>344</v>
@@ -6293,7 +6311,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>143</v>
       </c>
@@ -6301,7 +6319,7 @@
         <v>246</v>
       </c>
       <c r="C134" s="3">
-        <v>45322.71115740741</v>
+        <v>45322.711157407408</v>
       </c>
       <c r="D134" t="s">
         <v>288</v>
@@ -6320,6 +6338,20 @@
       </c>
       <c r="K134" t="s">
         <v>540</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F135">
+        <f>SUM(F2:F134)</f>
+        <v>50458.549999999996</v>
+      </c>
+      <c r="G135">
+        <f>SUM(G2:G134)</f>
+        <v>123900.8</v>
+      </c>
+      <c r="H135">
+        <f>G135-F135</f>
+        <v>73442.25</v>
       </c>
     </row>
   </sheetData>
